--- a/nomenclature.xlsx
+++ b/nomenclature.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B229"/>
+  <dimension ref="A1:B402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,7 +741,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Alaskan Klee Kai</t>
+          <t>Alaskan Husky</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Alaskan Malamute</t>
+          <t>Alaskan Klee Kai</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Alaskan Shepherd</t>
+          <t>Alaskan Malamute</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -777,151 +777,151 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Albacore Tuna</t>
+          <t>Alaskan Shepherd</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Thunnus alalunga</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Albatross</t>
+          <t>Albacore Tuna</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Diomedeidae</t>
+          <t>Thunnus alalunga</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Aldabra Giant Tortoise</t>
+          <t>Albatross</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Aldabrachelys gigantea</t>
+          <t>Diomedeidae</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Alligator</t>
+          <t>Aldabra Giant Tortoise</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Alligator mississippiensis</t>
+          <t>Aldabrachelys gigantea</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Alligator Gar</t>
+          <t>Alligator</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Atractosteus spatula</t>
+          <t>Alligator mississippiensis</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Alpaca</t>
+          <t>Alligator Gar</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Vicugna pacos</t>
+          <t>Atractosteus spatula</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Alpine Dachsbracke</t>
+          <t>Alpaca</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Vicugna pacos</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Alpine Goat</t>
+          <t>Alpine Dachsbracke</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Capra aegagrus hircus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Amazon Parrot</t>
+          <t>Alpine Goat</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Amazona</t>
+          <t>Capra aegagrus hircus</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Amazon River Dolphin (Pink Dolphin)</t>
+          <t>Amazon Parrot</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Inia geoffrensis</t>
+          <t>Amazona</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Ambrosia Beetle</t>
+          <t>Amazon River Dolphin (Pink Dolphin)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Platypodinae</t>
+          <t>Inia geoffrensis</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>American Alsatian</t>
+          <t>Ambrosia Beetle</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Platypodinae</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>American Bulldog</t>
+          <t>American Alsatian</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>American Cocker Spaniel</t>
+          <t>American Bulldog</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -945,2107 +945,2107 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>American Cockroach</t>
+          <t>American Cocker Spaniel</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Periplaneta americana</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>American Coonhound</t>
+          <t>American Cockroach</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Periplaneta americana</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>American Coonhound</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Pyrus malus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Axolotl</t>
+          <t>American Eskimo Dog</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ambystoma mexicanum</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Aye Aye</t>
+          <t>American Foxhound</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Daubentonia madagascariensis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Bactrian Camel</t>
+          <t>American Hairless Terrier</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Camelus bactrianus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Bamboo</t>
+          <t>American Leopard Hound</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Bamboosa aridinarifolia</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Banana</t>
+          <t>American Pit Bull Terrier</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Musa paradisicum</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Banyan</t>
+          <t>American Pygmy Goat</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ficus benghalensis</t>
+          <t>Capra aegagrus hircus</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Barley</t>
+          <t>American Robin</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Hordeum vulgare</t>
+          <t>Turdus migratorius</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Beluga whale</t>
+          <t>American Staffordshire Terrier</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Delphinapterus leucas</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Black Gram</t>
+          <t>American Toad</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Palsoes mungo</t>
+          <t>Anaxyrus americanus</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Black Pepper</t>
+          <t>American Water Spaniel</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Piper nigrum</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Blackbuck</t>
+          <t>Amur Leopard</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Antilope cervicapra</t>
+          <t>Panthera pardus orientalis</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Brinjal</t>
+          <t>Anaconda</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Solanum melongena</t>
+          <t>Eunectes murinus</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Bulbul</t>
+          <t>Anatolian Shepherd Dog</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Molpastes cafer</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Capsicum</t>
+          <t>Anchovies</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Capsicum fruitscence</t>
+          <t>Engraulidae</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Carrot</t>
+          <t>Angelfish</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Daucus carota</t>
+          <t>Pterophyllum</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Cashew nut</t>
+          <t>Anglerfish</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Anacardium occidentale</t>
+          <t>Lophiiformes</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Angora Goat</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Felis catus</t>
+          <t>Capra aegagrus hircus</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Cheetah</t>
+          <t>Anole Lizard</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Acinonyx jubatus</t>
+          <t>Anolis carolinensis</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Chiku</t>
+          <t>Ant</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Achras sapota</t>
+          <t>Formicidae</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Chimpanzee</t>
+          <t>Anteater</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Pan troglodytes</t>
+          <t>Vermilingua</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Clove</t>
+          <t>Antelope</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Syzygium aromaticum</t>
+          <t>Bovidae</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Coriander</t>
+          <t>Ape</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Coriandrum sativum</t>
+          <t>Hominoidea</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Cotton</t>
+          <t>Appenzeller Dog</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Gossypium herbaceum</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Cow</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Bos Taurus</t>
+          <t>Pyrus malus</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Cucumber</t>
+          <t>Arafura File Snake</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cucumis sativas</t>
+          <t>Acrochordus arafurae</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Curry leaf</t>
+          <t>Arapaima</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Murraya koenigii</t>
+          <t>Arapaima</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Date Palm</t>
+          <t>Arctic Fox</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Phoenix dactylifera</t>
+          <t>Vulpes lagopus</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Dog</t>
+          <t>Arctic Hare</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Lepus arcticus</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Donkey</t>
+          <t>Arctic Wolf</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Equus africanus asinus</t>
+          <t>Canis lupus arctos</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Dragon fruit</t>
+          <t>Arizona Bark Scorpion</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Hylocereus undatus</t>
+          <t>Centruroides sculpturatus</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Dromedary Camel</t>
+          <t>Arizona Black Rattlesnake</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Camelus dromedaries</t>
+          <t>Crotalus cerberus</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Finger millet</t>
+          <t>Armadillo</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Eleusine coracana</t>
+          <t>Cingulata</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Fowl</t>
+          <t>Armadillo Lizard</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Gallus gallus domesticus</t>
+          <t>Ouroborus cataphractus</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Garlic</t>
+          <t>Armyworm</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Allium sativum</t>
+          <t>Spodoptera frugiperda</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Gharial</t>
+          <t>Aruba Rattlesnake</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Gavialis gangeticus</t>
+          <t>Crotalus durissus unicolor</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Ginger</t>
+          <t>Asian Cockroach</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Zingiber officinale</t>
+          <t>Blattella asahinai</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Goat</t>
+          <t>Asian Elephant</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Capra aegagrus hircus</t>
+          <t>Elephas maximus</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Asian Giant Hornet</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Vespa mandarinia</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Great white shark</t>
+          <t>Asian Palm Civet</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Carcharodon carcharias</t>
+          <t>Paradoxurus hermaphroditus</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Green Gram</t>
+          <t>Asiatic Black Bear</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Phaseolus audicus</t>
+          <t>Ursus thibetanus</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Guava</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Psidium guava</t>
+          <t>Vipera aspis</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Hippopotamus</t>
+          <t>Assassin Bug</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Hippopotamus amphibius</t>
+          <t>Reduviidae</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Horse</t>
+          <t>Aurochs</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Equus ferus caballus</t>
+          <t>Bos primigenius</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>House wall Lizard</t>
+          <t>Aussiedoodle</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Hemidactylus flaviviridis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Human beings</t>
+          <t>Australian Bulldog</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Humpback whale</t>
+          <t>Australian Cattle Dog</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Megaptera novaeangliae</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Indian Cobra</t>
+          <t>Australian Cockroach</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Naja naja</t>
+          <t>Periplaneta australasiae</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Indian Elephant</t>
+          <t>Australian Kelpie Dog</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Elephas maximus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Jackfruit</t>
+          <t>Australian Labradoodle</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Artocarpus integra</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Jowar</t>
+          <t>Australian Mist</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Sorghum Vulgare</t>
+          <t>Felis catus</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Kadamb</t>
+          <t>Australian Shepherd</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Anthocephalus indicus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>King cobra</t>
+          <t>Australian Terrier</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Ophiophagus hannah</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Kingfisher</t>
+          <t>Avocet</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Alcedo atthis</t>
+          <t>Recurvirostra</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Lapwing</t>
+          <t>Axolotl</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Vanellus vanellus</t>
+          <t>Ambystoma mexicanum</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Lemon</t>
+          <t>Aye Aye</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Citrus Limonium</t>
+          <t>Daubentonia madagascariensis</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Lesser</t>
+          <t>Babirusa</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>redpoll Carduelis cabaret</t>
+          <t>Babyrousa</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Lion</t>
+          <t>Baboon</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Panthera leo</t>
+          <t>Papio</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Bactrian Camel</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>tailed tit Aegithalos caudatus</t>
+          <t>Camelus bactrianus</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Magpie</t>
+          <t>Baiji</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Pica pica</t>
+          <t>Lipotes vexillifer</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Bald Eagle</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Zea mays</t>
+          <t>Haliaeetus leucocephalus</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Mallard</t>
+          <t>Baleen Whale</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Anas platyrhynchos</t>
+          <t>Mysticeti</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Mango</t>
+          <t>Balinese</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Mangifera indica</t>
+          <t>Felis catus</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Meadow</t>
+          <t>Balkan Lynx</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>pipit Anthus pratensis</t>
+          <t>Lynx lynx balcanicus</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Ball Python</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Mentha arvensis</t>
+          <t>Python regius</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Mistle</t>
+          <t>Bamboo</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>thrush Turdus viscivorus</t>
+          <t>Bamboosa aridinarifolia</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Moorhen</t>
+          <t>Banana</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Gallinula chloropus</t>
+          <t>Musa paradisicum</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Narwal</t>
+          <t>Banana Ball Python</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Monodon monoceros</t>
+          <t>Python regius</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Neem</t>
+          <t>Banana Spider</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Azadirachta indica</t>
+          <t>Nephila</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Nettle</t>
+          <t>Banded Palm Civet</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Urtica dioica</t>
+          <t>Hemigalus derbyanus</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Onion</t>
+          <t>Banded Water Snake</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Allium cepa</t>
+          <t>Nerodia fasciata</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Banjo Catfish</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Citrus aurantium</t>
+          <t>Aspredinidae</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Orangutans</t>
+          <t>Banyan</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Pongo</t>
+          <t>Ficus benghalensis</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Orca</t>
+          <t>Barb</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Orcinus orca</t>
+          <t>Barbus</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Oystercatcher</t>
+          <t>Barbet</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Haematopus ostralegus</t>
+          <t>Megalaimidae</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Panda</t>
+          <t>Barley</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Ailuropoda melanoleuca</t>
+          <t>Hordeum vulgare</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Papaya</t>
+          <t>Barn Owl</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Carica papaya</t>
+          <t>Tyto alba</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Pea</t>
+          <t>Barn Swallow</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Pisum sativum</t>
+          <t>Hirundo rustica</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Peacock Flower (Gulmohar)</t>
+          <t>Barnacle</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Delonix regia rafin</t>
+          <t>Cirripedia</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Peepal</t>
+          <t>Barracuda</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ficus religiosa Linn.</t>
+          <t>Sphyraena</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Peregrine</t>
+          <t>Barramundi Fish</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Falco peregrinus</t>
+          <t>Lates calcarifer</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Pheasant</t>
+          <t>Barred Owl</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Phasianus colchicus</t>
+          <t>Strix varia</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Pied</t>
+          <t>Basenji Dog</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>wagtail Motacilla alba</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Pig</t>
+          <t>Basilisk Lizard</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Sus scrofa domesticus</t>
+          <t>Basiliscus basiliscus</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Pineapple</t>
+          <t>Basking Shark</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Ananus sativus</t>
+          <t>Cetorhinus maximus</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Pink</t>
+          <t>Basset Fauve de Bretagne</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>footed goose Anser brachyrhynchus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Pomegranate</t>
+          <t>Basset Hound</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Punica granatum</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Potato</t>
+          <t>Bassetoodle</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Solanum tuberosum</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Purple orchid tree (Kachnar)</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Bauhinia purpurea</t>
+          <t>Chiroptera</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Radish</t>
+          <t>Bavarian Mountain Hound</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Raphanus sativus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Rat snake</t>
+          <t>Baya</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Ptyas mucosa</t>
+          <t>Ploceus philippinus</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Raven</t>
+          <t>Beagle</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Corvus corax</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Beaglier</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>kite Milvus milvus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Red fox</t>
+          <t>Bear</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Vulpes Vulpes</t>
+          <t>Ursidae</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Red maple</t>
+          <t>Bearded Collie</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Acer rubrum</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Redstart</t>
+          <t>Bearded Dragon</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Phoenicurus phoenicurus</t>
+          <t>Pogona</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Redwing</t>
+          <t>Bearded Vulture</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Turdus iliacus</t>
+          <t>Gypaetus barbatus</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Reed</t>
+          <t>Beauceron</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>bunting Emberiza schoeniclus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Beaver</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Oryza sativa</t>
+          <t>Castor</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Robin</t>
+          <t>Bed Bugs</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Erithacus rubecula</t>
+          <t>Cimicidae</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Rook</t>
+          <t>Bedlington Terrier</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Corvus frugilegus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Rose</t>
+          <t>Bee</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Anthophila</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Sandalwood</t>
+          <t>Beefalo</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Santalum album</t>
+          <t>Bos taurus X Bison bison</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Sea Lions</t>
+          <t>Beetle</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Hydrurga leptonyx</t>
+          <t>Coleoptera</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Belgian Shepherd</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Ovis aries</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Silver Oak</t>
+          <t>Belgian Tervuren</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Grevillea robusta</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Siskin</t>
+          <t>Beluga Sturgeon</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Carduelis spinus</t>
+          <t>Huso huso</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Skylark</t>
+          <t>Beluga whale</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Alauda arvensis</t>
+          <t>Delphinapterus leucas</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Snipe</t>
+          <t>Bengal Tiger</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Gallinago gallinago</t>
+          <t>Panthera tigris tigris</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Bergamasco</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>thrush Turdus philomelos</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Soya bean</t>
+          <t>Berger Picard</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Glycine max</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Sparrowhawk</t>
+          <t>Bernedoodle</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Accipiter nisus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Sperm Whale</t>
+          <t>Bernese Mountain Dog</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Physeter macrocephalus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Spinach</t>
+          <t>Bernese Shepherd</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Lactuca sativa</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Spotted</t>
+          <t>Betta Fish (Siamese Fighting Fish)</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>flycatcher Muscicapa striata</t>
+          <t>Betta splendens</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Starling</t>
+          <t>Bichir</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Sturnus vulgaris</t>
+          <t>Polypteridae</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Stock</t>
+          <t>Black Gram</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>dove Columba oenas</t>
+          <t>Palsoes mungo</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Stonechat</t>
+          <t>Black Pepper</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Saxicola torquata</t>
+          <t>Piper nigrum</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Sunflower</t>
+          <t>Blackbuck</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Helianthus annuus</t>
+          <t>Antilope cervicapra</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Swallow</t>
+          <t>Brinjal</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Hirundo rustica</t>
+          <t>Solanum melongena</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Sweet Potato</t>
+          <t>Bulbul</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Ipomoea batatas</t>
+          <t>Molpastes cafer</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Tamarind tree</t>
+          <t>Capsicum</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Tamarindus indica</t>
+          <t>Capsicum fruitscence</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Teak</t>
+          <t>Carrot</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Tectona grandis Linn.</t>
+          <t>Daucus carota</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Tiger</t>
+          <t>Cashew nut</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Panthera tigris</t>
+          <t>Anacardium occidentale</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Tiger Shark</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Galeocerdo cuvier</t>
+          <t>Felis catus</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Tobacco</t>
+          <t>Cheetah</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Nicotina tobaccum</t>
+          <t>Acinonyx jubatus</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Tomato</t>
+          <t>Chiku</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Lycopersicon esculentum</t>
+          <t>Achras sapota</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Tree</t>
+          <t>Chimpanzee</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>pipit Anthus trivialis</t>
+          <t>Pan troglodytes</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Treecreeper</t>
+          <t>Clove</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Certhia familiaris</t>
+          <t>Syzygium aromaticum</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Tufted</t>
+          <t>Coriander</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>duck Aythya fuligula</t>
+          <t>Coriandrum sativum</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Tulsi</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ocimum sanctum</t>
+          <t>Gossypium herbaceum</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Turmeric</t>
+          <t>Cow</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Curcuma longa</t>
+          <t>Bos Taurus</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Uakari</t>
+          <t>Cucumber</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Cacajao</t>
+          <t>Cucumis sativas</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Uguisu</t>
+          <t>Curry leaf</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Horornis diphone</t>
+          <t>Murraya koenigii</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Uinta Ground Squirrel</t>
+          <t>Date Palm</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Urocitellus armatus</t>
+          <t>Phoenix dactylifera</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Umbrellabird</t>
+          <t>Dog</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Cephalopterus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Unau</t>
+          <t>Donkey</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Choloepus didactylus</t>
+          <t>Equus africanus asinus</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Ural owl</t>
+          <t>Dragon fruit</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Strix uralensis</t>
+          <t>Hylocereus undatus</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Utonagan</t>
+          <t>Dromedary Camel</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Camelus dromedaries</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Vampire Bat</t>
+          <t>Finger millet</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Desmodontinae</t>
+          <t>Eleusine coracana</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Vampire Squid</t>
+          <t>Fowl</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Vampyroteuthis infernalis</t>
+          <t>Gallus gallus domesticus</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Vaquita</t>
+          <t>Garlic</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Phocoena sinus</t>
+          <t>Allium sativum</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Venus Flytrap</t>
+          <t>Gharial</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Dionaea muscipula</t>
+          <t>Gavialis gangeticus</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Vervet Monkey</t>
+          <t>Ginger</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Chlorocebus pygerythrus</t>
+          <t>Zingiber officinale</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>VicuÃ±a</t>
+          <t>Goat</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Vicugna vicugna</t>
+          <t>Capra aegagrus hircus</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Vinegaroon</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Uropygi</t>
+          <t>Gorilla</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Viper shark (dogfish)</t>
+          <t>Great white shark</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Trigonognathus kabeyai</t>
+          <t>Carcharodon carcharias</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Virgin Islands Dwarf Gecko</t>
+          <t>Green Gram</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Sphaerodactylus parthenopion</t>
+          <t>Phaseolus audicus</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Vizsla</t>
+          <t>Guava</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Psidium guava</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Volpino Italiano</t>
+          <t>Hippopotamus</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Hippopotamus amphibius</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Walrus</t>
+          <t>Horse</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Odobenus rosmarus</t>
+          <t>Equus ferus caballus</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Water Buffalo</t>
+          <t>House wall Lizard</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Bubalus bubalis</t>
+          <t>Hemidactylus flaviviridis</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Watermelon</t>
+          <t>Human beings</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Citrullus vulgaris</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Whale Shark</t>
+          <t>Humpback whale</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Rhincodon typus</t>
+          <t>Megaptera novaeangliae</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Wheatear</t>
+          <t>Ibex</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Oenanthe oenanthe</t>
+          <t>Capra ibex</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Whinchat</t>
+          <t>Ibis</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Saxicola rubetra</t>
+          <t>Threskiornithinae</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>Whitethroat</t>
+          <t>Ibizan Hound</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Sylvia communis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Willow</t>
+          <t>Icelandic Sheepdog</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>warbler Phylloscopus trochilus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Wolf</t>
+          <t>Iguana</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Canis lupus</t>
+          <t>Iguana</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Wood</t>
+          <t>Immortal Jellyfish</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>warbler Phylloscopus sibilatrix</t>
+          <t>Turritopsis dohrnii</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Woodpigeon</t>
+          <t>Impala</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Columba palumbus</t>
+          <t>Aepyceros melampus</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Wren</t>
+          <t>Imperial Moth</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Troglodytes troglodytes</t>
+          <t>Eacles imperialis</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>X-Ray Tetra</t>
+          <t>Indian Cobra</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Pristella maxillaris</t>
+          <t>Naja naja</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Xerus</t>
+          <t>Indian Elephant</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Xerus</t>
+          <t>Elephas maximus</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Xoloitzcuintli</t>
+          <t>Indian Giant Squirrel</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Ratufa indica</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Yak</t>
+          <t>Indian Palm Squirrel</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Bos grunniens</t>
+          <t>Funambulus palmarum</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>Yakutian Laika</t>
+          <t>Indian Rhinoceros</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Rhinoceros unicornis</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>Yellow Sac Spider</t>
+          <t>Indian Star Tortoise</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Cheiracanthium inclusum</t>
+          <t>Geochelone elegans</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>Yellow Spotted Lizard</t>
+          <t>Indigo Snake</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Lepidophyma flavimaculatum</t>
+          <t>Drymarchon couperi</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>Yellow-Eyed Penguin</t>
+          <t>Indochinese Tiger</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Megadyptes antipodes</t>
+          <t>Panthera tigris corbetti</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Yellowfin Tuna</t>
+          <t>Indri</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Thunnus albacares</t>
+          <t>Indri indri</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Yellowhammer</t>
+          <t>Irish Doodle</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Emberiza citrinella</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>Yeti Crab</t>
+          <t>Irish Setter</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Kiwa hirsuta</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>Yorkie-poo</t>
+          <t>Irish Terrier</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3057,7 +3057,7 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>Yorkshire Terrier</t>
+          <t>Irish Water Spaniel</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -3069,106 +3069,2182 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>Zebra</t>
+          <t>Irish WolfHound</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Equus quagga</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>Zebra Finch</t>
+          <t>Italian Greyhound</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Taeniopygia guttata castanotis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>Zebra Mussels</t>
+          <t>Ivory-billed woodpecker</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Dreissena polymorpha</t>
+          <t>Campephilus principalis</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>Zebra Pleco</t>
+          <t>Jacana</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Hypancistrus zebra</t>
+          <t>Jacanidae</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>Zebra Shark</t>
+          <t>Jack Russell</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Stegostoma fasciatum</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>Zebu</t>
+          <t>Jackal</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Bos taurus indicus</t>
+          <t>Canis aureus</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>Zonkey</t>
+          <t>Jackdaw</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Equus zebra x Equus asinus</t>
+          <t>Corvus monedula</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>Zorse</t>
+          <t>Jackfruit</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Equus zebra x Equus caballus</t>
+          <t>Artocarpus integra</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
+          <t>Jackrabbit</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Lepus californicus</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>Jackson's Chameleon</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Trioceros jacksonii</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>Jaguar</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Panthera onca</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>Jaguarundi Cat</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Puma yagouaroundi</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>Japanese Beetle</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Popillia japonica</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>Japanese Chin</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>Japanese Macaque</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Macaca fuscata</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>Japanese Spitz</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>Japanese Squirrel</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Sciurus lis</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>Japanese Terrier</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>Javan Rhinoceros</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Rhinoceros sondaicus</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>Jonah Crab</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Cancer borealis</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>Joro Spider</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Nephila clavata</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>Jowar</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Sorghum Vulgare</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>Jumping Spider</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Salticidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>Junglefowl</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Gallus</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>Kadamb</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Anthocephalus indicus</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>King cobra</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Ophiophagus hannah</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>Kingfisher</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Alcedo atthis</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>Lapwing</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Vanellus vanellus</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>Lemon</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Citrus Limonium</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>Lesser</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>redpoll Carduelis cabaret</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>Lion</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Panthera leo</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>tailed tit Aegithalos caudatus</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>Magpie</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Pica pica</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>Maize</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Zea mays</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>Mallard</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Anas platyrhynchos</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>Mango</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Mangifera indica</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>Meadow</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>pipit Anthus pratensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>Mint</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Mentha arvensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>Mistle</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>thrush Turdus viscivorus</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>Moorhen</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Gallinula chloropus</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>Narwal</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Monodon monoceros</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>Neem</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Azadirachta indica</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>Nettle</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Urtica dioica</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>Oak Toad</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Anaxyrus quercicus</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>Ocelot</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Leopardus pardalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>Octopus</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Octopoda</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="inlineStr">
+        <is>
+          <t>Okapi</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Okapia johnstoni</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>Old English Sheepdog</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>Olive Baboon</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Papio anubis</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr">
+        <is>
+          <t>Olm</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Proteus anguinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="inlineStr">
+        <is>
+          <t>Onion</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Allium cepa</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
+        <is>
+          <t>Opossum</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Didelphidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="inlineStr">
+        <is>
+          <t>Orang-utan</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Pongo</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Citrus aurantium</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>Orange-Crowned Warbler</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Vermivora celata</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>Orangutans</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Pongo</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t>Orb Weaver</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Araneidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>Orca</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Orcinus orca</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr">
+        <is>
+          <t>Ortolan Bunting</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Emberiza hortulana</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>Oscar Fish</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Astronotus ocellatus</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="inlineStr">
+        <is>
+          <t>Ostrich</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Struthio camelus</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="inlineStr">
+        <is>
+          <t>Otter</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Lutrinae</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
+          <t>Otterhound</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>Owl</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Strigiformes</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>Ox</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Bos taurus</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>Oyster</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Ostreidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>Oyster Toadfish</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Opsanus tau</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>Oystercatcher</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Haematopus ostralegus</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>Panda</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Ailuropoda melanoleuca</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>Papaya</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Carica papaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>Pea</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Pisum sativum</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>Peacock Flower (Gulmohar)</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Delonix regia rafin</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>Peepal</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Ficus religiosa Linn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>Peregrine</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Falco peregrinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>Pheasant</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Phasianus colchicus</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>Pied</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>wagtail Motacilla alba</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>Pig</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Sus scrofa domesticus</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>Pineapple</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Ananus sativus</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>Pink</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>footed goose Anser brachyrhynchus</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>Pomegranate</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Punica granatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>Potato</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Solanum tuberosum</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>Purple orchid tree (Kachnar)</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Bauhinia purpurea</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>Quagga</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Equus quagga quagga</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>Quail</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Coturnix coturnix</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>Queen snake</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Regina septemvittata</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>Quokka</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Setonix brachyurus</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>Quoll</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Dasyurus</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>Radish</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Raphanus sativus</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>Rat snake</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Ptyas mucosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>Raven</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Corvus corax</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>kite Milvus milvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>Red fox</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Vulpes Vulpes</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>Red maple</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Acer rubrum</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>Redstart</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Phoenicurus phoenicurus</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>Redwing</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Turdus iliacus</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>Reed</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>bunting Emberiza schoeniclus</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Oryza sativa</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>Robin</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Erithacus rubecula</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>Rook</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Corvus frugilegus</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>Rose</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Rosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>Sandalwood</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Santalum album</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>Sea Lions</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Hydrurga leptonyx</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>Sheep</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Ovis aries</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>Silver Oak</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Grevillea robusta</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>Siskin</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Carduelis spinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>Skylark</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Alauda arvensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>Snipe</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Gallinago gallinago</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>thrush Turdus philomelos</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>Soya bean</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Glycine max</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>Sparrowhawk</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Accipiter nisus</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>Sperm Whale</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Physeter macrocephalus</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>Spinach</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Lactuca sativa</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>Spotted</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>flycatcher Muscicapa striata</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>Starling</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Sturnus vulgaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>dove Columba oenas</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>Stonechat</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Saxicola torquata</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>Sunflower</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Helianthus annuus</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>Swallow</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Hirundo rustica</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>Sweet Potato</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Ipomoea batatas</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>Tamarind tree</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Tamarindus indica</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>Teak</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Tectona grandis Linn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>Tiger</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Panthera tigris</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>Tiger Shark</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Galeocerdo cuvier</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>Tobacco</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Nicotina tobaccum</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Lycopersicon esculentum</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>Tree</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>pipit Anthus trivialis</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>Treecreeper</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Certhia familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>Tufted</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>duck Aythya fuligula</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>Tulsi</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Ocimum sanctum</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>Turmeric</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Curcuma longa</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>Uakari</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Cacajao</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>Uguisu</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Horornis diphone</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>Uinta Ground Squirrel</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Urocitellus armatus</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>Umbrellabird</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Cephalopterus</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>Unau</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Choloepus didactylus</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>Ural owl</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Strix uralensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>Utonagan</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>Vampire Bat</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Desmodontinae</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>Vampire Squid</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Vampyroteuthis infernalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>Vaquita</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Phocoena sinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>Venus Flytrap</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Dionaea muscipula</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>Vervet Monkey</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Chlorocebus pygerythrus</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>VicuÃ±a</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Vicugna vicugna</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>Vinegaroon</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Uropygi</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>Viper shark (dogfish)</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Trigonognathus kabeyai</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>Virgin Islands Dwarf Gecko</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Sphaerodactylus parthenopion</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>Vizsla</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>Volpino Italiano</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>Walrus</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Odobenus rosmarus</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>Water Buffalo</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Bubalus bubalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>Watermelon</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Citrullus vulgaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>Whale Shark</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Rhincodon typus</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>Wheatear</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Oenanthe oenanthe</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>Whinchat</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Saxicola rubetra</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="inlineStr">
+        <is>
+          <t>Whitethroat</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Sylvia communis</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="inlineStr">
+        <is>
+          <t>Willow</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>warbler Phylloscopus trochilus</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>Wolf</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Canis lupus</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>warbler Phylloscopus sibilatrix</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>Woodpigeon</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Columba palumbus</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>Wren</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Troglodytes troglodytes</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>X-Ray Tetra</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Pristella maxillaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>Xerus</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Xerus</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="inlineStr">
+        <is>
+          <t>Xoloitzcuintli</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="inlineStr">
+        <is>
+          <t>Yak</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Bos grunniens</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>Yakutian Laika</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>Yellow Sac Spider</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Cheiracanthium inclusum</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>Yellow Spotted Lizard</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Lepidophyma flavimaculatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>Yellow-Eyed Penguin</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Megadyptes antipodes</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>Yellowfin Tuna</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Thunnus albacares</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="inlineStr">
+        <is>
+          <t>Yellowhammer</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Emberiza citrinella</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>Yeti Crab</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Kiwa hirsuta</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>Yorkie-poo</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>Yorkshire Terrier</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>Zebra</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Equus quagga</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Finch</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Taeniopygia guttata castanotis</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Mussels</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Dreissena polymorpha</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Pleco</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Hypancistrus zebra</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Shark</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Stegostoma fasciatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>Zebu</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Bos taurus indicus</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>Zonkey</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Equus zebra x Equus asinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>Zorse</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Equus zebra x Equus caballus</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
           <t>Zuchon</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B402" t="inlineStr">
         <is>
           <t>Canis lupus familiaris</t>
         </is>

--- a/nomenclature.xlsx
+++ b/nomenclature.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B402"/>
+  <dimension ref="A1:B440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1233,283 +1233,283 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Ape</t>
+          <t>Ants</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Hominoidea</t>
+          <t>Formicidae</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Appenzeller Dog</t>
+          <t>Ape</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Hominoidea</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Appenzeller Dog</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Pyrus malus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Arafura File Snake</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Acrochordus arafurae</t>
+          <t>Pyrus malus</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Arapaima</t>
+          <t>Arafura File Snake</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Arapaima</t>
+          <t>Acrochordus arafurae</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Arctic Fox</t>
+          <t>Arapaima</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Vulpes lagopus</t>
+          <t>Arapaima</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Arctic Hare</t>
+          <t>Arctic Fox</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Lepus arcticus</t>
+          <t>Vulpes lagopus</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Arctic Wolf</t>
+          <t>Arctic Hare</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Canis lupus arctos</t>
+          <t>Lepus arcticus</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Arizona Bark Scorpion</t>
+          <t>Arctic Wolf</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Centruroides sculpturatus</t>
+          <t>Canis lupus arctos</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Arizona Black Rattlesnake</t>
+          <t>Arizona Bark Scorpion</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Crotalus cerberus</t>
+          <t>Centruroides sculpturatus</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Armadillo</t>
+          <t>Arizona Black Rattlesnake</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Cingulata</t>
+          <t>Crotalus cerberus</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Armadillo Lizard</t>
+          <t>Armadillo</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ouroborus cataphractus</t>
+          <t>Cingulata</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Armyworm</t>
+          <t>Armadillo Lizard</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Spodoptera frugiperda</t>
+          <t>Ouroborus cataphractus</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Aruba Rattlesnake</t>
+          <t>Armyworm</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Crotalus durissus unicolor</t>
+          <t>Spodoptera frugiperda</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Asian Cockroach</t>
+          <t>Aruba Rattlesnake</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Blattella asahinai</t>
+          <t>Crotalus durissus unicolor</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Asian Elephant</t>
+          <t>Asian Cockroach</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Elephas maximus</t>
+          <t>Blattella asahinai</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Asian Giant Hornet</t>
+          <t>Asian Elephant</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Vespa mandarinia</t>
+          <t>Elephas maximus</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Asian Palm Civet</t>
+          <t>Asian Giant Hornet</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Paradoxurus hermaphroditus</t>
+          <t>Vespa mandarinia</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Asiatic Black Bear</t>
+          <t>Asian Palm Civet</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Ursus thibetanus</t>
+          <t>Paradoxurus hermaphroditus</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Asp</t>
+          <t>Asiatic Black Bear</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Vipera aspis</t>
+          <t>Ursus thibetanus</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Assassin Bug</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Reduviidae</t>
+          <t>Vipera aspis</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Aurochs</t>
+          <t>Assassin Bug</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Bos primigenius</t>
+          <t>Reduviidae</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Aussiedoodle</t>
+          <t>Aurochs</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Bos primigenius</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Australian Bulldog</t>
+          <t>Aussiedoodle</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Australian Cattle Dog</t>
+          <t>Australian Bulldog</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1533,31 +1533,31 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Australian Cockroach</t>
+          <t>Australian Cattle Dog</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Periplaneta australasiae</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Australian Kelpie Dog</t>
+          <t>Australian Cockroach</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Periplaneta australasiae</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Australian Labradoodle</t>
+          <t>Australian Kelpie Dog</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1569,31 +1569,31 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Australian Mist</t>
+          <t>Australian Labradoodle</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Felis catus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Australian Shepherd</t>
+          <t>Australian Mist</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Felis catus</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Australian Terrier</t>
+          <t>Australian Shepherd</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1605,403 +1605,403 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Avocet</t>
+          <t>Australian Terrier</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Recurvirostra</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Axolotl</t>
+          <t>Avocet</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ambystoma mexicanum</t>
+          <t>Recurvirostra</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Aye Aye</t>
+          <t>Axolotl</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Daubentonia madagascariensis</t>
+          <t>Ambystoma mexicanum</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Babirusa</t>
+          <t>Aye Aye</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Babyrousa</t>
+          <t>Daubentonia madagascariensis</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Baboon</t>
+          <t>Babirusa</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Papio</t>
+          <t>Babyrousa</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Bactrian Camel</t>
+          <t>Baboon</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Camelus bactrianus</t>
+          <t>Papio</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Baiji</t>
+          <t>Bactrian Camel</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Lipotes vexillifer</t>
+          <t>Camelus bactrianus</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Bald Eagle</t>
+          <t>Baiji</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Haliaeetus leucocephalus</t>
+          <t>Lipotes vexillifer</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Baleen Whale</t>
+          <t>Bald Eagle</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Mysticeti</t>
+          <t>Haliaeetus leucocephalus</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Balinese</t>
+          <t>Baleen Whale</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Felis catus</t>
+          <t>Mysticeti</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Balkan Lynx</t>
+          <t>Balinese</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Lynx lynx balcanicus</t>
+          <t>Felis catus</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Ball Python</t>
+          <t>Balkan Lynx</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Python regius</t>
+          <t>Lynx lynx balcanicus</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Bamboo</t>
+          <t>Ball Python</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Bamboosa aridinarifolia</t>
+          <t>Python regius</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Banana</t>
+          <t>Bamboo</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Musa paradisicum</t>
+          <t>Bamboosa aridinarifolia</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Banana Ball Python</t>
+          <t>Banana</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Python regius</t>
+          <t>Musa paradisicum</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Banana Spider</t>
+          <t>Banana Ball Python</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Nephila</t>
+          <t>Python regius</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Banded Palm Civet</t>
+          <t>Banana Spider</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Hemigalus derbyanus</t>
+          <t>Nephila</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Banded Water Snake</t>
+          <t>Banded Palm Civet</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Nerodia fasciata</t>
+          <t>Hemigalus derbyanus</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Banjo Catfish</t>
+          <t>Banded Water Snake</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Aspredinidae</t>
+          <t>Nerodia fasciata</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Banyan</t>
+          <t>Banjo Catfish</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Ficus benghalensis</t>
+          <t>Aspredinidae</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Barb</t>
+          <t>Banyan</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Barbus</t>
+          <t>Ficus benghalensis</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Barbet</t>
+          <t>Barb</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Megalaimidae</t>
+          <t>Barbus</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Barley</t>
+          <t>Barbet</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Hordeum vulgare</t>
+          <t>Megalaimidae</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Barn Owl</t>
+          <t>Barley</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Tyto alba</t>
+          <t>Hordeum vulgare</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Barn Swallow</t>
+          <t>Barn Owl</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Hirundo rustica</t>
+          <t>Tyto alba</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Barnacle</t>
+          <t>Barn Swallow</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Cirripedia</t>
+          <t>Hirundo rustica</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Barracuda</t>
+          <t>Barnacle</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Sphyraena</t>
+          <t>Cirripedia</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Barramundi Fish</t>
+          <t>Barracuda</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Lates calcarifer</t>
+          <t>Sphyraena</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Barred Owl</t>
+          <t>Barramundi Fish</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Strix varia</t>
+          <t>Lates calcarifer</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Basenji Dog</t>
+          <t>Barred Owl</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Strix varia</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Basilisk Lizard</t>
+          <t>Basenji Dog</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Basiliscus basiliscus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Basking Shark</t>
+          <t>Basilisk Lizard</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Cetorhinus maximus</t>
+          <t>Basiliscus basiliscus</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Basset Fauve de Bretagne</t>
+          <t>Basking Shark</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Cetorhinus maximus</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Basset Hound</t>
+          <t>Basset Fauve de Bretagne</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Bassetoodle</t>
+          <t>Basset Hound</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2025,55 +2025,55 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Bat</t>
+          <t>Bassetoodle</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Chiroptera</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Bavarian Mountain Hound</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Chiroptera</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Baya</t>
+          <t>Bavarian Mountain Hound</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Ploceus philippinus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Beagle</t>
+          <t>Baya</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Ploceus philippinus</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Beaglier</t>
+          <t>Beagle</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2085,199 +2085,199 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Bear</t>
+          <t>Beaglier</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Ursidae</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Bearded Collie</t>
+          <t>Bear</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Ursidae</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Bearded Dragon</t>
+          <t>Bearded Collie</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Pogona</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Bearded Vulture</t>
+          <t>Bearded Dragon</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Gypaetus barbatus</t>
+          <t>Pogona</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Beauceron</t>
+          <t>Bearded Vulture</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Gypaetus barbatus</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Beaver</t>
+          <t>Beauceron</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Castor</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Bed Bugs</t>
+          <t>Beaver</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Cimicidae</t>
+          <t>Castor</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Bedlington Terrier</t>
+          <t>Bed Bugs</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Cimicidae</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Bee</t>
+          <t>Bed bugs</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Anthophila</t>
+          <t>Cimicidae</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Beefalo</t>
+          <t>Bedlington Terrier</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Bos taurus X Bison bison</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Beetle</t>
+          <t>Bee</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Coleoptera</t>
+          <t>Anthophila</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Belgian Shepherd</t>
+          <t>Beefalo</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Bos taurus X Bison bison</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Belgian Tervuren</t>
+          <t>Bees</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Anthophila</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Beluga Sturgeon</t>
+          <t>Beetle</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Huso huso</t>
+          <t>Coleoptera</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Beluga whale</t>
+          <t>Beetles</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Delphinapterus leucas</t>
+          <t>Coleoptera</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Bengal Tiger</t>
+          <t>Belgian Shepherd</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Panthera tigris tigris</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Bergamasco</t>
+          <t>Belgian Tervuren</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2289,43 +2289,43 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Berger Picard</t>
+          <t>Beluga Sturgeon</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Huso huso</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Bernedoodle</t>
+          <t>Beluga whale</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Delphinapterus leucas</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Bernese Mountain Dog</t>
+          <t>Bengal Tiger</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Panthera tigris tigris</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Bernese Shepherd</t>
+          <t>Bergamasco</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2337,787 +2337,787 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Betta Fish (Siamese Fighting Fish)</t>
+          <t>Berger Picard</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Betta splendens</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Bichir</t>
+          <t>Bernedoodle</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Polypteridae</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Black Gram</t>
+          <t>Bernese Mountain Dog</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Palsoes mungo</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Black Pepper</t>
+          <t>Bernese Shepherd</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Piper nigrum</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Blackbuck</t>
+          <t>Betta Fish (Siamese Fighting Fish)</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Antilope cervicapra</t>
+          <t>Betta splendens</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Brinjal</t>
+          <t>Bichir</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Solanum melongena</t>
+          <t>Polypteridae</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Bulbul</t>
+          <t>Black Gram</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Molpastes cafer</t>
+          <t>Palsoes mungo</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Capsicum</t>
+          <t>Black Pepper</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Capsicum fruitscence</t>
+          <t>Piper nigrum</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Carrot</t>
+          <t>Blackbuck</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Daucus carota</t>
+          <t>Antilope cervicapra</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Cashew nut</t>
+          <t>Booklice</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Anacardium occidentale</t>
+          <t>Psocoptera</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Brinjal</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Felis catus</t>
+          <t>Solanum melongena</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Cheetah</t>
+          <t>Bug</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Acinonyx jubatus</t>
+          <t>Insecta</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Chiku</t>
+          <t>Bulbul</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Achras sapota</t>
+          <t>Molpastes cafer</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Chimpanzee</t>
+          <t>Butterfly</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Pan troglodytes</t>
+          <t>Rhopalocera</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Clove</t>
+          <t>Capsicum</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Syzygium aromaticum</t>
+          <t>Capsicum fruitscence</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Coriander</t>
+          <t>Carrot</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Coriandrum sativum</t>
+          <t>Daucus carota</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Cotton</t>
+          <t>Cashew nut</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Gossypium herbaceum</t>
+          <t>Anacardium occidentale</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Cow</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Bos Taurus</t>
+          <t>Felis catus</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Cucumber</t>
+          <t>Centipede</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Cucumis sativas</t>
+          <t>Chilopoda</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Curry leaf</t>
+          <t>Cheetah</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Murraya koenigii</t>
+          <t>Acinonyx jubatus</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Date Palm</t>
+          <t>Chiku</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Phoenix dactylifera</t>
+          <t>Achras sapota</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Dog</t>
+          <t>Chimpanzee</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Pan troglodytes</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Donkey</t>
+          <t>Clove</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Equus africanus asinus</t>
+          <t>Syzygium aromaticum</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Dragon fruit</t>
+          <t>Cockroach</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Hylocereus undatus</t>
+          <t>Blattodea</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Dromedary Camel</t>
+          <t>Cockroaches</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Camelus dromedaries</t>
+          <t>Blattodea</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Finger millet</t>
+          <t>Coriander</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Eleusine coracana</t>
+          <t>Coriandrum sativum</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Fowl</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Gallus gallus domesticus</t>
+          <t>Gossypium herbaceum</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Garlic</t>
+          <t>Cow</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Allium sativum</t>
+          <t>Bos Taurus</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Gharial</t>
+          <t>Cricket</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Gavialis gangeticus</t>
+          <t>Grylloidea</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Ginger</t>
+          <t>Crickets</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Zingiber officinale</t>
+          <t>Grylloidea</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Goat</t>
+          <t>Cucumber</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Capra aegagrus hircus</t>
+          <t>Cucumis sativas</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Curry leaf</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Murraya koenigii</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Great white shark</t>
+          <t>Date Palm</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Carcharodon carcharias</t>
+          <t>Phoenix dactylifera</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Green Gram</t>
+          <t>Dog</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Phaseolus audicus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Guava</t>
+          <t>Donkey</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Psidium guava</t>
+          <t>Equus africanus asinus</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Hippopotamus</t>
+          <t>Dragon fruit</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Hippopotamus amphibius</t>
+          <t>Hylocereus undatus</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Horse</t>
+          <t>Dragonflies</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Equus ferus caballus</t>
+          <t>Anisoptera</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>House wall Lizard</t>
+          <t>Dragonfly</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Hemidactylus flaviviridis</t>
+          <t>Anisoptera</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Human beings</t>
+          <t>Dromedary Camel</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Camelus dromedaries</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Humpback whale</t>
+          <t>Earwigs</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Megaptera novaeangliae</t>
+          <t>Dermaptera</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Ibex</t>
+          <t>Finger millet</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Capra ibex</t>
+          <t>Eleusine coracana</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Ibis</t>
+          <t>Firefly</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Threskiornithinae</t>
+          <t>Lampyridae</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>Ibizan Hound</t>
+          <t>Flea</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Siphonaptera</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Icelandic Sheepdog</t>
+          <t>Fleas</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Siphonaptera</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Iguana</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Iguana</t>
+          <t>Diptera</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Immortal Jellyfish</t>
+          <t>Fowl</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Turritopsis dohrnii</t>
+          <t>Gallus gallus domesticus</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Impala</t>
+          <t>Garlic</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Aepyceros melampus</t>
+          <t>Allium sativum</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Imperial Moth</t>
+          <t>Gharial</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Eacles imperialis</t>
+          <t>Gavialis gangeticus</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>Indian Cobra</t>
+          <t>Ginger</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Naja naja</t>
+          <t>Zingiber officinale</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Indian Elephant</t>
+          <t>Goat</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Elephas maximus</t>
+          <t>Capra aegagrus hircus</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Indian Giant Squirrel</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Ratufa indica</t>
+          <t>Gorilla</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Indian Palm Squirrel</t>
+          <t>Grasshopper</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Funambulus palmarum</t>
+          <t>Caelifera</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>Indian Rhinoceros</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Rhinoceros unicornis</t>
+          <t>Caelifera</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>Indian Star Tortoise</t>
+          <t>Great white shark</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Geochelone elegans</t>
+          <t>Carcharodon carcharias</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>Indigo Snake</t>
+          <t>Green Gram</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Drymarchon couperi</t>
+          <t>Phaseolus audicus</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>Indochinese Tiger</t>
+          <t>Greenfly</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Panthera tigris corbetti</t>
+          <t>Aphidoidea</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Indri</t>
+          <t>Guava</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Indri indri</t>
+          <t>Psidium guava</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Irish Doodle</t>
+          <t>Hippopotamus</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Hippopotamus amphibius</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>Irish Setter</t>
+          <t>Horse</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Equus ferus caballus</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>Irish Terrier</t>
+          <t>House wall Lizard</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Hemidactylus flaviviridis</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>Irish Water Spaniel</t>
+          <t>Human beings</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>Irish WolfHound</t>
+          <t>Humpback whale</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Megaptera novaeangliae</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>Italian Greyhound</t>
+          <t>Ibex</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Capra ibex</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>Ivory-billed woodpecker</t>
+          <t>Ibis</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Campephilus principalis</t>
+          <t>Threskiornithinae</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>Jacana</t>
+          <t>Ibizan Hound</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Jacanidae</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>Jack Russell</t>
+          <t>Icelandic Sheepdog</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3129,2011 +3129,2011 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>Jackal</t>
+          <t>Iguana</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Canis aureus</t>
+          <t>Iguana</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>Jackdaw</t>
+          <t>Immortal Jellyfish</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Corvus monedula</t>
+          <t>Turritopsis dohrnii</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>Jackfruit</t>
+          <t>Impala</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Artocarpus integra</t>
+          <t>Aepyceros melampus</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>Jackrabbit</t>
+          <t>Imperial Moth</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Lepus californicus</t>
+          <t>Eacles imperialis</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>Jackson's Chameleon</t>
+          <t>Indian Cobra</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Trioceros jacksonii</t>
+          <t>Naja naja</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>Jaguar</t>
+          <t>Indian Elephant</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Panthera onca</t>
+          <t>Elephas maximus</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>Jaguarundi Cat</t>
+          <t>Indian Giant Squirrel</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Puma yagouaroundi</t>
+          <t>Ratufa indica</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>Japanese Beetle</t>
+          <t>Indian Palm Squirrel</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Popillia japonica</t>
+          <t>Funambulus palmarum</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>Japanese Chin</t>
+          <t>Indian Rhinoceros</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Rhinoceros unicornis</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>Japanese Macaque</t>
+          <t>Indian Star Tortoise</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Macaca fuscata</t>
+          <t>Geochelone elegans</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>Japanese Spitz</t>
+          <t>Indigo Snake</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Drymarchon couperi</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>Japanese Squirrel</t>
+          <t>Indochinese Tiger</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Sciurus lis</t>
+          <t>Panthera tigris corbetti</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>Japanese Terrier</t>
+          <t>Indri</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Indri indri</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>Javan Rhinoceros</t>
+          <t>Irish Doodle</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Rhinoceros sondaicus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>Jonah Crab</t>
+          <t>Irish Setter</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Cancer borealis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>Joro Spider</t>
+          <t>Irish Terrier</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Nephila clavata</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>Jowar</t>
+          <t>Irish Water Spaniel</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Sorghum Vulgare</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>Jumping Spider</t>
+          <t>Irish WolfHound</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Salticidae</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>Junglefowl</t>
+          <t>Italian Greyhound</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Gallus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>Kadamb</t>
+          <t>Ivory-billed woodpecker</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Anthocephalus indicus</t>
+          <t>Campephilus principalis</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>King cobra</t>
+          <t>Jacana</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Ophiophagus hannah</t>
+          <t>Jacanidae</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>Kingfisher</t>
+          <t>Jack Russell</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Alcedo atthis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>Lapwing</t>
+          <t>Jackal</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Vanellus vanellus</t>
+          <t>Canis aureus</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>Lemon</t>
+          <t>Jackdaw</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Citrus Limonium</t>
+          <t>Corvus monedula</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>Lesser</t>
+          <t>Jackfruit</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>redpoll Carduelis cabaret</t>
+          <t>Artocarpus integra</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>Lion</t>
+          <t>Jackrabbit</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Panthera leo</t>
+          <t>Lepus californicus</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Jackson's Chameleon</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>tailed tit Aegithalos caudatus</t>
+          <t>Trioceros jacksonii</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>Magpie</t>
+          <t>Jaguar</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Pica pica</t>
+          <t>Panthera onca</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Jaguarundi Cat</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Zea mays</t>
+          <t>Puma yagouaroundi</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>Mallard</t>
+          <t>Japanese Beetle</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Anas platyrhynchos</t>
+          <t>Popillia japonica</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>Mango</t>
+          <t>Japanese Chin</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Mangifera indica</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>Meadow</t>
+          <t>Japanese Macaque</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>pipit Anthus pratensis</t>
+          <t>Macaca fuscata</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Japanese Spitz</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Mentha arvensis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>Mistle</t>
+          <t>Japanese Squirrel</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>thrush Turdus viscivorus</t>
+          <t>Sciurus lis</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>Moorhen</t>
+          <t>Japanese Terrier</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Gallinula chloropus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>Narwal</t>
+          <t>Javan Rhinoceros</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Monodon monoceros</t>
+          <t>Rhinoceros sondaicus</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>Neem</t>
+          <t>Jonah Crab</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Azadirachta indica</t>
+          <t>Cancer borealis</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>Nettle</t>
+          <t>Joro Spider</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Urtica dioica</t>
+          <t>Nephila clavata</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>Oak Toad</t>
+          <t>Jowar</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Anaxyrus quercicus</t>
+          <t>Sorghum Vulgare</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>Ocelot</t>
+          <t>Jumping Spider</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Leopardus pardalis</t>
+          <t>Salticidae</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>Octopus</t>
+          <t>Junglefowl</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Octopoda</t>
+          <t>Gallus</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>Okapi</t>
+          <t>Kadamb</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Okapia johnstoni</t>
+          <t>Anthocephalus indicus</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>Old English Sheepdog</t>
+          <t>King cobra</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Ophiophagus hannah</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>Olive Baboon</t>
+          <t>Kingfisher</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Papio anubis</t>
+          <t>Alcedo atthis</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>Olm</t>
+          <t>Ladybug</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Proteus anguinus</t>
+          <t>Coccinellidae</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>Onion</t>
+          <t>Ladybugs</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Allium cepa</t>
+          <t>Coccinellidae</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>Opossum</t>
+          <t>Lapwing</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Didelphidae</t>
+          <t>Vanellus vanellus</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>Orang-utan</t>
+          <t>Lemon</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Pongo</t>
+          <t>Citrus Limonium</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Lesser</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Citrus aurantium</t>
+          <t>redpoll Carduelis cabaret</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>Orange-Crowned Warbler</t>
+          <t>Lion</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Vermivora celata</t>
+          <t>Panthera leo</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>Orangutans</t>
+          <t>Locust</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Pongo</t>
+          <t>Schistocerca gregaria</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>Orb Weaver</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Araneidae</t>
+          <t>tailed tit Aegithalos caudatus</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>Orca</t>
+          <t>Magpie</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Orcinus orca</t>
+          <t>Pica pica</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>Ortolan Bunting</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Emberiza hortulana</t>
+          <t>Zea mays</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>Oscar Fish</t>
+          <t>Mallard</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Astronotus ocellatus</t>
+          <t>Anas platyrhynchos</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>Ostrich</t>
+          <t>Mango</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Struthio camelus</t>
+          <t>Mangifera indica</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>Otter</t>
+          <t>Meadow</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Lutrinae</t>
+          <t>pipit Anthus pratensis</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>Otterhound</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Mentha arvensis</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Mistle</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Strigiformes</t>
+          <t>thrush Turdus viscivorus</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>Ox</t>
+          <t>Moorhen</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Gallinula chloropus</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>Oyster</t>
+          <t>Mosquito</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Ostreidae</t>
+          <t>Culicidae</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>Oyster Toadfish</t>
+          <t>Moths</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Opsanus tau</t>
+          <t>Lepidoptera</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>Oystercatcher</t>
+          <t>Narwal</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Haematopus ostralegus</t>
+          <t>Monodon monoceros</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>Panda</t>
+          <t>Neem</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Ailuropoda melanoleuca</t>
+          <t>Azadirachta indica</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>Papaya</t>
+          <t>Nettle</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Carica papaya</t>
+          <t>Urtica dioica</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>Pea</t>
+          <t>Oak Toad</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Pisum sativum</t>
+          <t>Anaxyrus quercicus</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>Peacock Flower (Gulmohar)</t>
+          <t>Ocelot</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Delonix regia rafin</t>
+          <t>Leopardus pardalis</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>Peepal</t>
+          <t>Octopus</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Ficus religiosa Linn.</t>
+          <t>Octopoda</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>Peregrine</t>
+          <t>Okapi</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Falco peregrinus</t>
+          <t>Okapia johnstoni</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>Pheasant</t>
+          <t>Old English Sheepdog</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Phasianus colchicus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>Pied</t>
+          <t>Olive Baboon</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>wagtail Motacilla alba</t>
+          <t>Papio anubis</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>Pig</t>
+          <t>Olm</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Sus scrofa domesticus</t>
+          <t>Proteus anguinus</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>Pineapple</t>
+          <t>Onion</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Ananus sativus</t>
+          <t>Allium cepa</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>Pink</t>
+          <t>Opossum</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>footed goose Anser brachyrhynchus</t>
+          <t>Didelphidae</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>Pomegranate</t>
+          <t>Orang-utan</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Punica granatum</t>
+          <t>Pongo</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>Potato</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Solanum tuberosum</t>
+          <t>Citrus aurantium</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>Purple orchid tree (Kachnar)</t>
+          <t>Orange-Crowned Warbler</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Bauhinia purpurea</t>
+          <t>Vermivora celata</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>Quagga</t>
+          <t>Orangutans</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Equus quagga quagga</t>
+          <t>Pongo</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>Quail</t>
+          <t>Orb Weaver</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Coturnix coturnix</t>
+          <t>Araneidae</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>Queen snake</t>
+          <t>Orca</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Regina septemvittata</t>
+          <t>Orcinus orca</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>Quokka</t>
+          <t>Ortolan Bunting</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Setonix brachyurus</t>
+          <t>Emberiza hortulana</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>Quoll</t>
+          <t>Oscar Fish</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Dasyurus</t>
+          <t>Astronotus ocellatus</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>Radish</t>
+          <t>Ostrich</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Raphanus sativus</t>
+          <t>Struthio camelus</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>Rat snake</t>
+          <t>Otter</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Ptyas mucosa</t>
+          <t>Lutrinae</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>Raven</t>
+          <t>Otterhound</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Corvus corax</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>kite Milvus milvus</t>
+          <t>Strigiformes</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>Red fox</t>
+          <t>Ox</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Vulpes Vulpes</t>
+          <t>Bos taurus</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>Red maple</t>
+          <t>Oyster</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Acer rubrum</t>
+          <t>Ostreidae</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>Redstart</t>
+          <t>Oyster Toadfish</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Phoenicurus phoenicurus</t>
+          <t>Opsanus tau</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>Redwing</t>
+          <t>Oystercatcher</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Turdus iliacus</t>
+          <t>Haematopus ostralegus</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>Reed</t>
+          <t>Panda</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>bunting Emberiza schoeniclus</t>
+          <t>Ailuropoda melanoleuca</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Papaya</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Oryza sativa</t>
+          <t>Carica papaya</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>Robin</t>
+          <t>Pea</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Erithacus rubecula</t>
+          <t>Pisum sativum</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>Rook</t>
+          <t>Peacock Flower (Gulmohar)</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Corvus frugilegus</t>
+          <t>Delonix regia rafin</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>Rose</t>
+          <t>Peepal</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Ficus religiosa Linn.</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>Sandalwood</t>
+          <t>Peregrine</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Santalum album</t>
+          <t>Falco peregrinus</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>Sea Lions</t>
+          <t>Pheasant</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Hydrurga leptonyx</t>
+          <t>Phasianus colchicus</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Pied</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Ovis aries</t>
+          <t>wagtail Motacilla alba</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>Silver Oak</t>
+          <t>Pig</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Grevillea robusta</t>
+          <t>Sus scrofa domesticus</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>Siskin</t>
+          <t>Pineapple</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Carduelis spinus</t>
+          <t>Ananus sativus</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>Skylark</t>
+          <t>Pink</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Alauda arvensis</t>
+          <t>footed goose Anser brachyrhynchus</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>Snipe</t>
+          <t>Pomegranate</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Gallinago gallinago</t>
+          <t>Punica granatum</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Potato</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>thrush Turdus philomelos</t>
+          <t>Solanum tuberosum</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>Soya bean</t>
+          <t>Praying Mantids</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Glycine max</t>
+          <t>Mantodea</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>Sparrowhawk</t>
+          <t>Purple orchid tree (Kachnar)</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Accipiter nisus</t>
+          <t>Bauhinia purpurea</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>Sperm Whale</t>
+          <t>Quagga</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Physeter macrocephalus</t>
+          <t>Equus quagga quagga</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>Spinach</t>
+          <t>Quail</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Lactuca sativa</t>
+          <t>Coturnix coturnix</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>Spotted</t>
+          <t>Queen snake</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>flycatcher Muscicapa striata</t>
+          <t>Regina septemvittata</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>Starling</t>
+          <t>Quokka</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Sturnus vulgaris</t>
+          <t>Setonix brachyurus</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>Stock</t>
+          <t>Quoll</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>dove Columba oenas</t>
+          <t>Dasyurus</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>Stonechat</t>
+          <t>Radish</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Saxicola torquata</t>
+          <t>Raphanus sativus</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>Sunflower</t>
+          <t>Rat snake</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Helianthus annuus</t>
+          <t>Ptyas mucosa</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>Swallow</t>
+          <t>Raven</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Hirundo rustica</t>
+          <t>Corvus corax</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>Sweet Potato</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Ipomoea batatas</t>
+          <t>kite Milvus milvus</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>Tamarind tree</t>
+          <t>Red fox</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Tamarindus indica</t>
+          <t>Vulpes Vulpes</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>Teak</t>
+          <t>Red maple</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Tectona grandis Linn.</t>
+          <t>Acer rubrum</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>Tiger</t>
+          <t>Redstart</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Panthera tigris</t>
+          <t>Phoenicurus phoenicurus</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>Tiger Shark</t>
+          <t>Redwing</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Galeocerdo cuvier</t>
+          <t>Turdus iliacus</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>Tobacco</t>
+          <t>Reed</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Nicotina tobaccum</t>
+          <t>bunting Emberiza schoeniclus</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>Tomato</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Lycopersicon esculentum</t>
+          <t>Oryza sativa</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>Tree</t>
+          <t>Robin</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>pipit Anthus trivialis</t>
+          <t>Erithacus rubecula</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>Treecreeper</t>
+          <t>Rook</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Certhia familiaris</t>
+          <t>Corvus frugilegus</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>Tufted</t>
+          <t>Rose</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>duck Aythya fuligula</t>
+          <t>Rosa</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>Tulsi</t>
+          <t>Sandalwood</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Ocimum sanctum</t>
+          <t>Santalum album</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>Turmeric</t>
+          <t>Sea Lions</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Curcuma longa</t>
+          <t>Hydrurga leptonyx</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>Uakari</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Cacajao</t>
+          <t>Ovis aries</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>Uguisu</t>
+          <t>Silkworms</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Horornis diphone</t>
+          <t>Bombyx mori</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>Uinta Ground Squirrel</t>
+          <t>Silver Oak</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Urocitellus armatus</t>
+          <t>Grevillea robusta</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>Umbrellabird</t>
+          <t>Silverfish</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Cephalopterus</t>
+          <t>Lepisma saccharina</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>Unau</t>
+          <t>Siskin</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Choloepus didactylus</t>
+          <t>Carduelis spinus</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>Ural owl</t>
+          <t>Skylark</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Strix uralensis</t>
+          <t>Alauda arvensis</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>Utonagan</t>
+          <t>Snail</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Gastropoda</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>Vampire Bat</t>
+          <t>Snakefly</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Desmodontinae</t>
+          <t>Raphidioptera</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>Vampire Squid</t>
+          <t>Snipe</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Vampyroteuthis infernalis</t>
+          <t>Gallinago gallinago</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>Vaquita</t>
+          <t>Song</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Phocoena sinus</t>
+          <t>thrush Turdus philomelos</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>Venus Flytrap</t>
+          <t>Soya bean</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Dionaea muscipula</t>
+          <t>Glycine max</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>Vervet Monkey</t>
+          <t>Sparrowhawk</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Chlorocebus pygerythrus</t>
+          <t>Accipiter nisus</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>VicuÃ±a</t>
+          <t>Sperm Whale</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Vicugna vicugna</t>
+          <t>Physeter macrocephalus</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>Vinegaroon</t>
+          <t>Spinach</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Uropygi</t>
+          <t>Lactuca sativa</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>Viper shark (dogfish)</t>
+          <t>Spotted</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Trigonognathus kabeyai</t>
+          <t>flycatcher Muscicapa striata</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>Virgin Islands Dwarf Gecko</t>
+          <t>Starling</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Sphaerodactylus parthenopion</t>
+          <t>Sturnus vulgaris</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>Vizsla</t>
+          <t>Stink Bugs</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Halyomorpha halys</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>Volpino Italiano</t>
+          <t>Stock</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>dove Columba oenas</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>Walrus</t>
+          <t>Stonechat</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Odobenus rosmarus</t>
+          <t>Saxicola torquata</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
         <is>
-          <t>Water Buffalo</t>
+          <t>Sunflower</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Bubalus bubalis</t>
+          <t>Helianthus annuus</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>Watermelon</t>
+          <t>Swallow</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Citrullus vulgaris</t>
+          <t>Hirundo rustica</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>Whale Shark</t>
+          <t>Sweet Potato</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Rhincodon typus</t>
+          <t>Ipomoea batatas</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
         <is>
-          <t>Wheatear</t>
+          <t>Tamarind tree</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Oenanthe oenanthe</t>
+          <t>Tamarindus indica</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>Whinchat</t>
+          <t>Teak</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Saxicola rubetra</t>
+          <t>Tectona grandis Linn.</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>Whitethroat</t>
+          <t>Termite</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Sylvia communis</t>
+          <t>Isoptera</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>Willow</t>
+          <t>Termites</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>warbler Phylloscopus trochilus</t>
+          <t>Isoptera</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>Wolf</t>
+          <t>Tick</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Canis lupus</t>
+          <t>Ixodida</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>Wood</t>
+          <t>Tiger</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>warbler Phylloscopus sibilatrix</t>
+          <t>Panthera tigris</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
         <is>
-          <t>Woodpigeon</t>
+          <t>Tiger Shark</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Columba palumbus</t>
+          <t>Galeocerdo cuvier</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
         <is>
-          <t>Wren</t>
+          <t>Tobacco</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Troglodytes troglodytes</t>
+          <t>Nicotina tobaccum</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
         <is>
-          <t>X-Ray Tetra</t>
+          <t>Tomato</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Pristella maxillaris</t>
+          <t>Lycopersicon esculentum</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
         <is>
-          <t>Xerus</t>
+          <t>Tree</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Xerus</t>
+          <t>pipit Anthus trivialis</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>Xoloitzcuintli</t>
+          <t>Treecreeper</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Certhia familiaris</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>Yak</t>
+          <t>Tufted</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Bos grunniens</t>
+          <t>duck Aythya fuligula</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>Yakutian Laika</t>
+          <t>Tulsi</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Ocimum sanctum</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
         <is>
-          <t>Yellow Sac Spider</t>
+          <t>Turmeric</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Cheiracanthium inclusum</t>
+          <t>Curcuma longa</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>Yellow Spotted Lizard</t>
+          <t>Uakari</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Lepidophyma flavimaculatum</t>
+          <t>Cacajao</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
         <is>
-          <t>Yellow-Eyed Penguin</t>
+          <t>Uguisu</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Megadyptes antipodes</t>
+          <t>Horornis diphone</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
         <is>
-          <t>Yellowfin Tuna</t>
+          <t>Uinta Ground Squirrel</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Thunnus albacares</t>
+          <t>Urocitellus armatus</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
         <is>
-          <t>Yellowhammer</t>
+          <t>Umbrellabird</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Emberiza citrinella</t>
+          <t>Cephalopterus</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
         <is>
-          <t>Yeti Crab</t>
+          <t>Unau</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Kiwa hirsuta</t>
+          <t>Choloepus didactylus</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
         <is>
-          <t>Yorkie-poo</t>
+          <t>Ural owl</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Strix uralensis</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>Yorkshire Terrier</t>
+          <t>Utonagan</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -5145,106 +5145,562 @@
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
         <is>
-          <t>Zebra</t>
+          <t>Vampire Bat</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Equus quagga</t>
+          <t>Desmodontinae</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>Zebra Finch</t>
+          <t>Vampire Squid</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Taeniopygia guttata castanotis</t>
+          <t>Vampyroteuthis infernalis</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
         <is>
-          <t>Zebra Mussels</t>
+          <t>Vaquita</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Dreissena polymorpha</t>
+          <t>Phocoena sinus</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>Zebra Pleco</t>
+          <t>Venus Flytrap</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Hypancistrus zebra</t>
+          <t>Dionaea muscipula</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>Zebra Shark</t>
+          <t>Vervet Monkey</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Stegostoma fasciatum</t>
+          <t>Chlorocebus pygerythrus</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>Zebu</t>
+          <t>VicuÃ±a</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Bos taurus indicus</t>
+          <t>Vicugna vicugna</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
         <is>
-          <t>Zonkey</t>
+          <t>Vinegaroon</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Equus zebra x Equus asinus</t>
+          <t>Uropygi</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
         <is>
-          <t>Zorse</t>
+          <t>Viper shark (dogfish)</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Equus zebra x Equus caballus</t>
+          <t>Trigonognathus kabeyai</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
         <is>
+          <t>Virgin Islands Dwarf Gecko</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Sphaerodactylus parthenopion</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>Vizsla</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>Volpino Italiano</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>Walrus</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Odobenus rosmarus</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>Wasp</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Vespa</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>Wasps</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Vespidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>Water Buffalo</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Bubalus bubalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>Watermelon</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Citrullus vulgaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>Whale Shark</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Rhincodon typus</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>Wheatear</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Oenanthe oenanthe</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>Whinchat</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Saxicola rubetra</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>Whitethroat</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Sylvia communis</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>Willow</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>warbler Phylloscopus trochilus</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>Wolf</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Canis lupus</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>warbler Phylloscopus sibilatrix</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>Woodpigeon</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Columba palumbus</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>Wren</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Troglodytes troglodytes</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>X-Ray Tetra</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Pristella maxillaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>Xerus</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Xerus</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>Xoloitzcuintli</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>Yak</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Bos grunniens</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>Yakutian Laika</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>Yellow Sac Spider</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Cheiracanthium inclusum</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>Yellow Spotted Lizard</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Lepidophyma flavimaculatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>Yellow-Eyed Penguin</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Megadyptes antipodes</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>Yellowfin Tuna</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Thunnus albacares</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>Yellowhammer</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Emberiza citrinella</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>Yeti Crab</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Kiwa hirsuta</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>Yorkie-poo</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>Yorkshire Terrier</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>Zebra</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Equus quagga</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Finch</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Taeniopygia guttata castanotis</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Mussels</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Dreissena polymorpha</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Pleco</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Hypancistrus zebra</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Shark</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Stegostoma fasciatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>Zebu</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Bos taurus indicus</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>Zonkey</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Equus zebra x Equus asinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>Zorse</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Equus zebra x Equus caballus</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="inlineStr">
+        <is>
           <t>Zuchon</t>
         </is>
       </c>
-      <c r="B402" t="inlineStr">
+      <c r="B440" t="inlineStr">
         <is>
           <t>Canis lupus familiaris</t>
         </is>

--- a/nomenclature.xlsx
+++ b/nomenclature.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B440"/>
+  <dimension ref="A1:B565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1593,7 +1593,7 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Australian Shepherd</t>
+          <t>Australian Retriever</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Australian Terrier</t>
+          <t>Australian Shepherd</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1617,415 +1617,415 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Avocet</t>
+          <t>Australian Terrier</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Recurvirostra</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Axolotl</t>
+          <t>Avocet</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ambystoma mexicanum</t>
+          <t>Recurvirostra</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Aye Aye</t>
+          <t>Axolotl</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Daubentonia madagascariensis</t>
+          <t>Ambystoma mexicanum</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Babirusa</t>
+          <t>Aye Aye</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Babyrousa</t>
+          <t>Daubentonia madagascariensis</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Baboon</t>
+          <t>Babirusa</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Papio</t>
+          <t>Babyrousa</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Bactrian Camel</t>
+          <t>Baboon</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Camelus bactrianus</t>
+          <t>Papio</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Baiji</t>
+          <t>Bactrian Camel</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Lipotes vexillifer</t>
+          <t>Camelus bactrianus</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Bald Eagle</t>
+          <t>Baiji</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Haliaeetus leucocephalus</t>
+          <t>Lipotes vexillifer</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Baleen Whale</t>
+          <t>Bald Eagle</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Mysticeti</t>
+          <t>Haliaeetus leucocephalus</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Balinese</t>
+          <t>Baleen Whale</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Felis catus</t>
+          <t>Mysticeti</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Balkan Lynx</t>
+          <t>Balinese</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Lynx lynx balcanicus</t>
+          <t>Felis catus</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Ball Python</t>
+          <t>Balkan Lynx</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Python regius</t>
+          <t>Lynx lynx balcanicus</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Bamboo</t>
+          <t>Ball Python</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Bamboosa aridinarifolia</t>
+          <t>Python regius</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Banana</t>
+          <t>Bamboo</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Musa paradisicum</t>
+          <t>Bamboosa aridinarifolia</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Banana Ball Python</t>
+          <t>Banana</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Python regius</t>
+          <t>Musa paradisicum</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Banana Spider</t>
+          <t>Banana Ball Python</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Nephila</t>
+          <t>Python regius</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Banded Palm Civet</t>
+          <t>Banana Spider</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Hemigalus derbyanus</t>
+          <t>Nephila</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Banded Water Snake</t>
+          <t>Banded Palm Civet</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Nerodia fasciata</t>
+          <t>Hemigalus derbyanus</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Banjo Catfish</t>
+          <t>Banded Water Snake</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Aspredinidae</t>
+          <t>Nerodia fasciata</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Banyan</t>
+          <t>Bandicoot</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Ficus benghalensis</t>
+          <t>Peramelemorphia</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Barb</t>
+          <t>Banjo Catfish</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Barbus</t>
+          <t>Aspredinidae</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Barbet</t>
+          <t>Banyan</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Megalaimidae</t>
+          <t>Ficus benghalensis</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Barley</t>
+          <t>Barb</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Hordeum vulgare</t>
+          <t>Barbus</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Barn Owl</t>
+          <t>Barbet</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Tyto alba</t>
+          <t>Megalaimidae</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Barn Swallow</t>
+          <t>Barley</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Hirundo rustica</t>
+          <t>Hordeum vulgare</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Barnacle</t>
+          <t>Barn Owl</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Cirripedia</t>
+          <t>Tyto alba</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Barracuda</t>
+          <t>Barn Swallow</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Sphyraena</t>
+          <t>Hirundo rustica</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Barramundi Fish</t>
+          <t>Barnacle</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Lates calcarifer</t>
+          <t>Cirripedia</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Barred Owl</t>
+          <t>Barracuda</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Strix varia</t>
+          <t>Sphyraena</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Basenji Dog</t>
+          <t>Barramundi Fish</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Lates calcarifer</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Basilisk Lizard</t>
+          <t>Barred Owl</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Basiliscus basiliscus</t>
+          <t>Strix varia</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Basking Shark</t>
+          <t>Basenji Dog</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Cetorhinus maximus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Basset Fauve de Bretagne</t>
+          <t>Basilisk Lizard</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Basiliscus basiliscus</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Basset Hound</t>
+          <t>Basking Shark</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Cetorhinus maximus</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Bassetoodle</t>
+          <t>Bassador</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2037,19 +2037,19 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Bat</t>
+          <t>Basset Fauve de Bretagne</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Chiroptera</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Bavarian Mountain Hound</t>
+          <t>Basset Hound</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2061,31 +2061,31 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Baya</t>
+          <t>Bassetoodle</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Ploceus philippinus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Beagle</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Chiroptera</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Beaglier</t>
+          <t>Bavarian Mountain Hound</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2097,19 +2097,19 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Bear</t>
+          <t>Baya</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Ursidae</t>
+          <t>Ploceus philippinus</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Bearded Collie</t>
+          <t>Bea-Tzu</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2121,31 +2121,31 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Bearded Dragon</t>
+          <t>Beabull</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Pogona</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Bearded Vulture</t>
+          <t>Beagador</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Gypaetus barbatus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Beauceron</t>
+          <t>Beagle</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2157,223 +2157,223 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Beaver</t>
+          <t>Beagle Shepherd</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Castor</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Bed Bugs</t>
+          <t>Beaglier</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Cimicidae</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Bed bugs</t>
+          <t>Beago</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Cimicidae</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Bedlington Terrier</t>
+          <t>Bear</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Ursidae</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Bee</t>
+          <t>Bearded Collie</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Anthophila</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Beefalo</t>
+          <t>Bearded Dragon</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Bos taurus X Bison bison</t>
+          <t>Pogona</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Bees</t>
+          <t>Bearded Vulture</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Anthophila</t>
+          <t>Gypaetus barbatus</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Beetle</t>
+          <t xml:space="preserve">Beaski </t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Coleoptera</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Beetles</t>
+          <t>Beauceron</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Coleoptera</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Belgian Shepherd</t>
+          <t>Beaver</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Castor</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Belgian Tervuren</t>
+          <t>Bed Bugs</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Cimicidae</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Beluga Sturgeon</t>
+          <t>Bed bugs</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Huso huso</t>
+          <t>Cimicidae</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Beluga whale</t>
+          <t>Bedlington Terrier</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Delphinapterus leucas</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Bengal Tiger</t>
+          <t>Bee</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Panthera tigris tigris</t>
+          <t>Anthophila</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Bergamasco</t>
+          <t>Beefalo</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Bos taurus X Bison bison</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Berger Picard</t>
+          <t>Bees</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Anthophila</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Bernedoodle</t>
+          <t>Beetle</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Coleoptera</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Bernese Mountain Dog</t>
+          <t>Beetles</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Coleoptera</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Bernese Shepherd</t>
+          <t>Belgian Shepherd</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2385,919 +2385,919 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Betta Fish (Siamese Fighting Fish)</t>
+          <t>Belgian Tervuren</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Betta splendens</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Bichir</t>
+          <t>Beluga Sturgeon</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Polypteridae</t>
+          <t>Huso huso</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Black Gram</t>
+          <t>Beluga whale</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Palsoes mungo</t>
+          <t>Delphinapterus leucas</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Black Pepper</t>
+          <t>Bengal Tiger</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Piper nigrum</t>
+          <t>Panthera tigris tigris</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Blackbuck</t>
+          <t>Bergamasco</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Antilope cervicapra</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Booklice</t>
+          <t>Berger Picard</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Psocoptera</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Brinjal</t>
+          <t>Bernedoodle</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Solanum melongena</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Bug</t>
+          <t>Bernese Mountain Dog</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Insecta</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Bulbul</t>
+          <t>Bernese Shepherd</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Molpastes cafer</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Butterfly</t>
+          <t>Betta Fish (Siamese Fighting Fish)</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Rhopalocera</t>
+          <t>Betta splendens</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Capsicum</t>
+          <t>Bichir</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Capsicum fruitscence</t>
+          <t>Polypteridae</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Carrot</t>
+          <t>Bichon Frise</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Daucus carota</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Cashew nut</t>
+          <t>Bichpoo</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Anacardium occidentale</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Biewer Terrier</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Felis catus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Centipede</t>
+          <t>Bighorn Sheep</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Chilopoda</t>
+          <t>Ovis canadensis</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Cheetah</t>
+          <t>Bilby</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Acinonyx jubatus</t>
+          <t>Macrotis</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Chiku</t>
+          <t>Binturong</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Achras sapota</t>
+          <t>Arctictis binturong</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Chimpanzee</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Pan troglodytes</t>
+          <t>Aves</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Clove</t>
+          <t>Bird Of Paradise</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Syzygium aromaticum</t>
+          <t>Strelitzia</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Cockroach</t>
+          <t>Birman</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Blattodea</t>
+          <t>Felis catus</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Cockroaches</t>
+          <t>Biscuit Beetle</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Blattodea</t>
+          <t>Stegobium paniceum</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Coriander</t>
+          <t>Bison</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Coriandrum sativum</t>
+          <t>Bison</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Cotton</t>
+          <t>Black And Tan Coonhound</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Gossypium herbaceum</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Cow</t>
+          <t>Black Gram</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Bos Taurus</t>
+          <t>Palsoes mungo</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Cricket</t>
+          <t>Black Mamba</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Grylloidea</t>
+          <t>Dendroaspis polylepis</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Crickets</t>
+          <t>Black Marlin</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Grylloidea</t>
+          <t>Istiompax indica</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Cucumber</t>
+          <t>Black Pepper</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Cucumis sativas</t>
+          <t>Piper nigrum</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Curry leaf</t>
+          <t>Black Rhinoceros</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Murraya koenigii</t>
+          <t>Diceros bicornis</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Date Palm</t>
+          <t>Black Russian Terrier</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Phoenix dactylifera</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Dog</t>
+          <t>Black Wasp</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Sphex pensylvanicus</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Donkey</t>
+          <t>Black Widow Spider</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Equus africanus asinus</t>
+          <t>Latrodectus</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Dragon fruit</t>
+          <t>Black-Capped Chickadee</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Hylocereus undatus</t>
+          <t>Poecile atricapillus</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Dragonflies</t>
+          <t>Black-Footed Ferret</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Anisoptera</t>
+          <t>Mustela nigripes</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Dragonfly</t>
+          <t>Blackbuck</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Anisoptera</t>
+          <t>Antilope cervicapra</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Dromedary Camel</t>
+          <t>Blackpoll Warbler</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Camelus dromedaries</t>
+          <t>Setophaga striata</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Earwigs</t>
+          <t>Blanket Octopus</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Dermaptera</t>
+          <t>Tremoctopus</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Finger millet</t>
+          <t>Blister Beetle</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Eleusine coracana</t>
+          <t>Meloidae</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Firefly</t>
+          <t>Blobfish</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Lampyridae</t>
+          <t>Psychrolutes marcidus</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>Flea</t>
+          <t>Blood Python</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Siphonaptera</t>
+          <t>Python brongersmai</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Fleas</t>
+          <t>Bloodhound</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Siphonaptera</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Blue Belly Lizard</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Diptera</t>
+          <t>Sceloporus occidentalis</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Fowl</t>
+          <t>Blue Catfish</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Gallus gallus domesticus</t>
+          <t>Ictalurus furcatus</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Garlic</t>
+          <t>Blue Iguana</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Allium sativum</t>
+          <t>Cyclura lewisi</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Gharial</t>
+          <t>Blue Jay</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Gavialis gangeticus</t>
+          <t>Cyanocitta cristata</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>Ginger</t>
+          <t>Blue Lacy Dog</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Zingiber officinale</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Goat</t>
+          <t>Blue Picardy Spaniel</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Capra aegagrus hircus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Blue Shark</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Prionace glauca</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Grasshopper</t>
+          <t>Blue Tit</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Caelifera</t>
+          <t>Cyanistes caeruleus</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Blue Whale</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Caelifera</t>
+          <t>Balaenoptera musculus</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>Great white shark</t>
+          <t>Blue grosbeak</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Carcharodon carcharias</t>
+          <t>Passerina caerulea</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>Green Gram</t>
+          <t>Blue-Ringed Octopus</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Phaseolus audicus</t>
+          <t>Hapalochlaena</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>Greenfly</t>
+          <t>Bluefin Tuna</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Aphidoidea</t>
+          <t>Thunnus thynnus</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Guava</t>
+          <t>Bluetick Coonhound</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Psidium guava</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Hippopotamus</t>
+          <t>Bobcat</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Hippopotamus amphibius</t>
+          <t>Lynx rufus</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>Horse</t>
+          <t>Bobolink</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Equus ferus caballus</t>
+          <t>Dolichonyx oryzivorus</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>House wall Lizard</t>
+          <t>Boggle</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Hemidactylus flaviviridis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>Human beings</t>
+          <t>Boglen Terrier</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>Humpback whale</t>
+          <t>Boiga</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Megaptera novaeangliae</t>
+          <t>Boiga</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>Ibex</t>
+          <t>Bolognese Dog</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Capra ibex</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>Ibis</t>
+          <t>Bombay</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Threskiornithinae</t>
+          <t>Felis catus</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>Ibizan Hound</t>
+          <t>Bongo</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Tragelaphus eurycerus</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>Icelandic Sheepdog</t>
+          <t>Bonito Fish</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Sardini</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>Iguana</t>
+          <t>Bonnethead Shark</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Iguana</t>
+          <t>Sphyrna tiburo</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>Immortal Jellyfish</t>
+          <t>Bonobo</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Turritopsis dohrnii</t>
+          <t>Pan paniscus</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>Impala</t>
+          <t>Booby</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Aepyceros melampus</t>
+          <t>Sula</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>Imperial Moth</t>
+          <t>Booklice</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Eacles imperialis</t>
+          <t>Psocoptera</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>Indian Cobra</t>
+          <t>Boomslang</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Naja naja</t>
+          <t>Dispholidus typus</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>Indian Elephant</t>
+          <t>Borador</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Elephas maximus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>Indian Giant Squirrel</t>
+          <t>Border Collie</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Ratufa indica</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>Indian Palm Squirrel</t>
+          <t>Border Terrier</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Funambulus palmarum</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>Indian Rhinoceros</t>
+          <t>Bordoodle</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Rhinoceros unicornis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>Indian Star Tortoise</t>
+          <t>Borkie</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Geochelone elegans</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>Indigo Snake</t>
+          <t>Bornean Orang-utan</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Drymarchon couperi</t>
+          <t>Pongo pygmaeus</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>Indochinese Tiger</t>
+          <t>Borneo Elephant</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Panthera tigris corbetti</t>
+          <t>Elephas maximus borneensis</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>Indri</t>
+          <t>Boston Terrier</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Indri indri</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>Irish Doodle</t>
+          <t>Bottlenose Dolphin</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Tursiops</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>Irish Setter</t>
+          <t>Bouvier Des Flandres</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -3309,43 +3309,43 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>Irish Terrier</t>
+          <t>Bowfin</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Amia calva</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>Irish Water Spaniel</t>
+          <t>Bowhead Whale</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Balaena mysticetus</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>Irish WolfHound</t>
+          <t>Box Turtle</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Terrapene</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>Italian Greyhound</t>
+          <t>Boxador</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -3357,2350 +3357,3850 @@
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>Ivory-billed woodpecker</t>
+          <t>Boxer Dog</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Campephilus principalis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>Jacana</t>
+          <t>Boxerdoodle</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Jacanidae</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>Jack Russell</t>
+          <t>Boxfish</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Ostraciidae</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>Jackal</t>
+          <t>Boxsky</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Canis aureus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>Jackdaw</t>
+          <t>Boxweiler</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Corvus monedula</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>Jackfruit</t>
+          <t>Boykin Spaniel</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Artocarpus integra</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>Jackrabbit</t>
+          <t>Brazilian Terrier</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Lepus californicus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>Jackson's Chameleon</t>
+          <t>Brinjal</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Trioceros jacksonii</t>
+          <t>Solanum melongena</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>Jaguar</t>
+          <t>Brittany</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Panthera onca</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>Jaguarundi Cat</t>
+          <t>Brookesia Micra</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Puma yagouaroundi</t>
+          <t>Brookesia micra</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>Japanese Beetle</t>
+          <t>Bug</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Popillia japonica</t>
+          <t>Insecta</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>Japanese Chin</t>
+          <t>Bulbul</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Molpastes cafer</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>Japanese Macaque</t>
+          <t>Butterflies</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Macaca fuscata</t>
+          <t>Rhopalocera</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>Japanese Spitz</t>
+          <t>Butterfly</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Rhopalocera</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>Japanese Squirrel</t>
+          <t>Capsicum</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Sciurus lis</t>
+          <t>Capsicum fruitscence</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>Japanese Terrier</t>
+          <t>Carrot</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Daucus carota</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>Javan Rhinoceros</t>
+          <t>Cashew nut</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Rhinoceros sondaicus</t>
+          <t>Anacardium occidentale</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>Jonah Crab</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Cancer borealis</t>
+          <t>Felis catus</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>Joro Spider</t>
+          <t>Centipede</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Nephila clavata</t>
+          <t>Chilopoda</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>Jowar</t>
+          <t>Cheetah</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Sorghum Vulgare</t>
+          <t>Acinonyx jubatus</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>Jumping Spider</t>
+          <t>Chiku</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Salticidae</t>
+          <t>Achras sapota</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>Junglefowl</t>
+          <t>Chimpanzee</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Gallus</t>
+          <t>Pan troglodytes</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>Kadamb</t>
+          <t>Clove</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Anthocephalus indicus</t>
+          <t>Syzygium aromaticum</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>King cobra</t>
+          <t>Cockroach</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Ophiophagus hannah</t>
+          <t>Blattodea</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>Kingfisher</t>
+          <t>Cockroaches</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Alcedo atthis</t>
+          <t>Blattodea</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>Ladybug</t>
+          <t>Common Frog</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Coccinellidae</t>
+          <t>Rana temporaria</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>Ladybugs</t>
+          <t>Common Furniture Beetle</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Coccinellidae</t>
+          <t>Anobium punctatum</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>Lapwing</t>
+          <t>Common House Spider</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Vanellus vanellus</t>
+          <t>Parasteatoda tepidariorum</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>Lemon</t>
+          <t>Common Loon</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Citrus Limonium</t>
+          <t>Gavia immer</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>Lesser</t>
+          <t>Common Raven</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>redpoll Carduelis cabaret</t>
+          <t>Corvus corax</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>Lion</t>
+          <t>Common Toad</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Panthera leo</t>
+          <t>Bufo bufo</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>Locust</t>
+          <t>Congo Snake</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Schistocerca gregaria</t>
+          <t>Amphiuma</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Cookiecutter Shark</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>tailed tit Aegithalos caudatus</t>
+          <t>Isistius brasiliensis</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>Magpie</t>
+          <t>Coopers Hawk</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Pica pica</t>
+          <t>Accipiter cooperii</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Copperhead</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Zea mays</t>
+          <t>Agkistrodon contortrix</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>Mallard</t>
+          <t>Coriander</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Anas platyrhynchos</t>
+          <t>Coriandrum sativum</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>Mango</t>
+          <t>Corn Snake</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Mangifera indica</t>
+          <t>Pantherophis guttatus</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>Meadow</t>
+          <t>Coton de Tulear</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>pipit Anthus pratensis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Mentha arvensis</t>
+          <t>Gossypium herbaceum</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>Mistle</t>
+          <t>Cotton-top Tamarin</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>thrush Turdus viscivorus</t>
+          <t>Saguinus oedipus</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>Moorhen</t>
+          <t>Cottonmouth</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Gallinula chloropus</t>
+          <t>Agkistrodon piscivorus</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>Mosquito</t>
+          <t>Cougar</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Culicidae</t>
+          <t>Puma concolor</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>Moths</t>
+          <t>Cow</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Lepidoptera</t>
+          <t>Bos Taurus</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>Narwal</t>
+          <t>Coyote</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Monodon monoceros</t>
+          <t>Canis latrans</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>Neem</t>
+          <t>Crab</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Azadirachta indica</t>
+          <t>Brachyura</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>Nettle</t>
+          <t>Crab Spider</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Urtica dioica</t>
+          <t>Thomisidae</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>Oak Toad</t>
+          <t>Crab-Eating Macaque</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Anaxyrus quercicus</t>
+          <t>Macaca fascicularis</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>Ocelot</t>
+          <t>Crabeater Seal</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Leopardus pardalis</t>
+          <t>Lobodon carcinophagus</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>Octopus</t>
+          <t>Crane</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Octopoda</t>
+          <t>Gruidae</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>Okapi</t>
+          <t>Crappie Fish</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Okapia johnstoni</t>
+          <t>Pomoxis</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>Old English Sheepdog</t>
+          <t>Crested Gecko</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Correlophus ciliatus</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>Olive Baboon</t>
+          <t>Crested Penguin</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Papio anubis</t>
+          <t>Eudyptes sclateri</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>Olm</t>
+          <t>Cricket</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Proteus anguinus</t>
+          <t>Grylloidea</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>Onion</t>
+          <t>Crickets</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Allium cepa</t>
+          <t>Grylloidea</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>Opossum</t>
+          <t>Crocodile</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Didelphidae</t>
+          <t>Crocodylidae</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>Orang-utan</t>
+          <t>Cross Fox</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Pongo</t>
+          <t>Vulpes vulpes</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Cross River Gorilla</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Citrus aurantium</t>
+          <t>Gorilla gorilla diehli</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>Orange-Crowned Warbler</t>
+          <t>Crow</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Vermivora celata</t>
+          <t>Corvus</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>Orangutans</t>
+          <t>Crucian Carp</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Pongo</t>
+          <t>Carassius carassius</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>Orb Weaver</t>
+          <t>Cuban Cockroach</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Araneidae</t>
+          <t>Panchlora nivea</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>Orca</t>
+          <t>Cuckoo</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Orcinus orca</t>
+          <t>Cuculidae</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>Ortolan Bunting</t>
+          <t>Cucumber</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Emberiza hortulana</t>
+          <t>Cucumis sativas</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>Oscar Fish</t>
+          <t>Curly Coated Retriever</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Astronotus ocellatus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>Ostrich</t>
+          <t>Curry leaf</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Struthio camelus</t>
+          <t>Murraya koenigii</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>Otter</t>
+          <t>Cuscus</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Lutrinae</t>
+          <t>Phalanger</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>Otterhound</t>
+          <t>Cuttlefish</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Sepiida</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Date Palm</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Strigiformes</t>
+          <t>Phoenix dactylifera</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>Ox</t>
+          <t>Dog</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>Oyster</t>
+          <t>Donkey</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Ostreidae</t>
+          <t>Equus africanus asinus</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>Oyster Toadfish</t>
+          <t>Dragon fruit</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Opsanus tau</t>
+          <t>Hylocereus undatus</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>Oystercatcher</t>
+          <t>Dragonflies</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Haematopus ostralegus</t>
+          <t>Anisoptera</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>Panda</t>
+          <t>Dragonfly</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Ailuropoda melanoleuca</t>
+          <t>Anisoptera</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>Papaya</t>
+          <t>Dromedary Camel</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Carica papaya</t>
+          <t>Camelus dromedaries</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>Pea</t>
+          <t>Earwigs</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Pisum sativum</t>
+          <t>Dermaptera</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>Peacock Flower (Gulmohar)</t>
+          <t>Finger millet</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Delonix regia rafin</t>
+          <t>Eleusine coracana</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>Peepal</t>
+          <t>Firefly</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Ficus religiosa Linn.</t>
+          <t>Lampyridae</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>Peregrine</t>
+          <t>Flea</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Falco peregrinus</t>
+          <t>Siphonaptera</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>Pheasant</t>
+          <t>Fleas</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Phasianus colchicus</t>
+          <t>Siphonaptera</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>Pied</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>wagtail Motacilla alba</t>
+          <t>Diptera</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>Pig</t>
+          <t>Fowl</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Sus scrofa domesticus</t>
+          <t>Gallus gallus domesticus</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>Pineapple</t>
+          <t>Garlic</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Ananus sativus</t>
+          <t>Allium sativum</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>Pink</t>
+          <t>Gharial</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>footed goose Anser brachyrhynchus</t>
+          <t>Gavialis gangeticus</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>Pomegranate</t>
+          <t>Ginger</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Punica granatum</t>
+          <t>Zingiber officinale</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>Potato</t>
+          <t>Goat</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Solanum tuberosum</t>
+          <t>Capra aegagrus hircus</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>Praying Mantids</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Mantodea</t>
+          <t>Gorilla</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>Purple orchid tree (Kachnar)</t>
+          <t>Grasshopper</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Bauhinia purpurea</t>
+          <t>Caelifera</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>Quagga</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Equus quagga quagga</t>
+          <t>Caelifera</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>Quail</t>
+          <t>Great white shark</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Coturnix coturnix</t>
+          <t>Carcharodon carcharias</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>Queen snake</t>
+          <t>Green Gram</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Regina septemvittata</t>
+          <t>Phaseolus audicus</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>Quokka</t>
+          <t>Greenfly</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Setonix brachyurus</t>
+          <t>Aphidoidea</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>Quoll</t>
+          <t>Guava</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Dasyurus</t>
+          <t>Psidium guava</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>Radish</t>
+          <t>Hippopotamus</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Raphanus sativus</t>
+          <t>Hippopotamus amphibius</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>Rat snake</t>
+          <t>Horse</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Ptyas mucosa</t>
+          <t>Equus ferus caballus</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>Raven</t>
+          <t>House wall Lizard</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Corvus corax</t>
+          <t>Hemidactylus flaviviridis</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Human beings</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>kite Milvus milvus</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>Red fox</t>
+          <t>Humpback whale</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Vulpes Vulpes</t>
+          <t>Megaptera novaeangliae</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>Red maple</t>
+          <t>Ibex</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Acer rubrum</t>
+          <t>Capra ibex</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>Redstart</t>
+          <t>Ibis</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Phoenicurus phoenicurus</t>
+          <t>Threskiornithinae</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>Redwing</t>
+          <t>Ibizan Hound</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Turdus iliacus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>Reed</t>
+          <t>Icelandic Sheepdog</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>bunting Emberiza schoeniclus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Iguana</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Oryza sativa</t>
+          <t>Iguana</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>Robin</t>
+          <t>Immortal Jellyfish</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Erithacus rubecula</t>
+          <t>Turritopsis dohrnii</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>Rook</t>
+          <t>Impala</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Corvus frugilegus</t>
+          <t>Aepyceros melampus</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>Rose</t>
+          <t>Imperial Moth</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Eacles imperialis</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>Sandalwood</t>
+          <t>Indian Cobra</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Santalum album</t>
+          <t>Naja naja</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>Sea Lions</t>
+          <t>Indian Elephant</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Hydrurga leptonyx</t>
+          <t>Elephas maximus</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Indian Giant Squirrel</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Ovis aries</t>
+          <t>Ratufa indica</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>Silkworms</t>
+          <t>Indian Palm Squirrel</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Bombyx mori</t>
+          <t>Funambulus palmarum</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>Silver Oak</t>
+          <t>Indian Rhinoceros</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Grevillea robusta</t>
+          <t>Rhinoceros unicornis</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>Silverfish</t>
+          <t>Indian Star Tortoise</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Lepisma saccharina</t>
+          <t>Geochelone elegans</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>Siskin</t>
+          <t>Indigo Snake</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Carduelis spinus</t>
+          <t>Drymarchon couperi</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>Skylark</t>
+          <t>Indochinese Tiger</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Alauda arvensis</t>
+          <t>Panthera tigris corbetti</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>Snail</t>
+          <t>Indri</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Gastropoda</t>
+          <t>Indri indri</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>Snakefly</t>
+          <t>Irish Doodle</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Raphidioptera</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>Snipe</t>
+          <t>Irish Setter</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Gallinago gallinago</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Irish Terrier</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>thrush Turdus philomelos</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>Soya bean</t>
+          <t>Irish Water Spaniel</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Glycine max</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>Sparrowhawk</t>
+          <t>Irish WolfHound</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Accipiter nisus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>Sperm Whale</t>
+          <t>Italian Greyhound</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Physeter macrocephalus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>Spinach</t>
+          <t>Ivory-billed woodpecker</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Lactuca sativa</t>
+          <t>Campephilus principalis</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>Spotted</t>
+          <t>Jacana</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>flycatcher Muscicapa striata</t>
+          <t>Jacanidae</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>Starling</t>
+          <t>Jack Russell</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Sturnus vulgaris</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>Stink Bugs</t>
+          <t>Jackal</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Halyomorpha halys</t>
+          <t>Canis aureus</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>Stock</t>
+          <t>Jackdaw</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>dove Columba oenas</t>
+          <t>Corvus monedula</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>Stonechat</t>
+          <t>Jackfruit</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Saxicola torquata</t>
+          <t>Artocarpus integra</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
         <is>
-          <t>Sunflower</t>
+          <t>Jackrabbit</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Helianthus annuus</t>
+          <t>Lepus californicus</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>Swallow</t>
+          <t>Jackson's Chameleon</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Hirundo rustica</t>
+          <t>Trioceros jacksonii</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>Sweet Potato</t>
+          <t>Jaguar</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Ipomoea batatas</t>
+          <t>Panthera onca</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
         <is>
-          <t>Tamarind tree</t>
+          <t>Jaguarundi Cat</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Tamarindus indica</t>
+          <t>Puma yagouaroundi</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>Teak</t>
+          <t>Japanese Beetle</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Tectona grandis Linn.</t>
+          <t>Popillia japonica</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>Termite</t>
+          <t>Japanese Chin</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Isoptera</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>Termites</t>
+          <t>Japanese Macaque</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Isoptera</t>
+          <t>Macaca fuscata</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>Tick</t>
+          <t>Japanese Spitz</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Ixodida</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>Tiger</t>
+          <t>Japanese Squirrel</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Panthera tigris</t>
+          <t>Sciurus lis</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
         <is>
-          <t>Tiger Shark</t>
+          <t>Japanese Terrier</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Galeocerdo cuvier</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
         <is>
-          <t>Tobacco</t>
+          <t>Javan Rhinoceros</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Nicotina tobaccum</t>
+          <t>Rhinoceros sondaicus</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
         <is>
-          <t>Tomato</t>
+          <t>Jonah Crab</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Lycopersicon esculentum</t>
+          <t>Cancer borealis</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
         <is>
-          <t>Tree</t>
+          <t>Joro Spider</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>pipit Anthus trivialis</t>
+          <t>Nephila clavata</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>Treecreeper</t>
+          <t>Jowar</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Certhia familiaris</t>
+          <t>Sorghum Vulgare</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>Tufted</t>
+          <t>Jumping Spider</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>duck Aythya fuligula</t>
+          <t>Salticidae</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>Tulsi</t>
+          <t>Junglefowl</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Ocimum sanctum</t>
+          <t>Gallus</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
         <is>
-          <t>Turmeric</t>
+          <t>Kadamb</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Curcuma longa</t>
+          <t>Anthocephalus indicus</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>Uakari</t>
+          <t>King cobra</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Cacajao</t>
+          <t>Ophiophagus hannah</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
         <is>
-          <t>Uguisu</t>
+          <t>Kingfisher</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Horornis diphone</t>
+          <t>Alcedo atthis</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
         <is>
-          <t>Uinta Ground Squirrel</t>
+          <t>Ladybug</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Urocitellus armatus</t>
+          <t>Coccinellidae</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
         <is>
-          <t>Umbrellabird</t>
+          <t>Ladybugs</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Cephalopterus</t>
+          <t>Coccinellidae</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
         <is>
-          <t>Unau</t>
+          <t>Lapwing</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Choloepus didactylus</t>
+          <t>Vanellus vanellus</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
         <is>
-          <t>Ural owl</t>
+          <t>Lemon</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Strix uralensis</t>
+          <t>Citrus Limonium</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>Utonagan</t>
+          <t>Lesser</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>redpoll Carduelis cabaret</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
         <is>
-          <t>Vampire Bat</t>
+          <t>Lion</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Desmodontinae</t>
+          <t>Panthera leo</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>Vampire Squid</t>
+          <t>Locust</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Vampyroteuthis infernalis</t>
+          <t>Schistocerca gregaria</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
         <is>
-          <t>Vaquita</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Phocoena sinus</t>
+          <t>tailed tit Aegithalos caudatus</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>Venus Flytrap</t>
+          <t>Magpie</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Dionaea muscipula</t>
+          <t>Pica pica</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>Vervet Monkey</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Chlorocebus pygerythrus</t>
+          <t>Zea mays</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>VicuÃ±a</t>
+          <t>Mallard</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Vicugna vicugna</t>
+          <t>Anas platyrhynchos</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
         <is>
-          <t>Vinegaroon</t>
+          <t>Mango</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Uropygi</t>
+          <t>Mangifera indica</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
         <is>
-          <t>Viper shark (dogfish)</t>
+          <t>Meadow</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Trigonognathus kabeyai</t>
+          <t>pipit Anthus pratensis</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
         <is>
-          <t>Virgin Islands Dwarf Gecko</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Sphaerodactylus parthenopion</t>
+          <t>Mentha arvensis</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
         <is>
-          <t>Vizsla</t>
+          <t>Mistle</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>thrush Turdus viscivorus</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
         <is>
-          <t>Volpino Italiano</t>
+          <t>Moorhen</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Gallinula chloropus</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
         <is>
-          <t>Walrus</t>
+          <t>Mosquito</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Odobenus rosmarus</t>
+          <t>Culicidae</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
         <is>
-          <t>Wasp</t>
+          <t>Moths</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Vespa</t>
+          <t>Lepidoptera</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
         <is>
-          <t>Wasps</t>
+          <t>Narwal</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Vespidae</t>
+          <t>Monodon monoceros</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
         <is>
-          <t>Water Buffalo</t>
+          <t>Neem</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Bubalus bubalis</t>
+          <t>Azadirachta indica</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
         <is>
-          <t>Watermelon</t>
+          <t>Nettle</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Citrullus vulgaris</t>
+          <t>Urtica dioica</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
         <is>
-          <t>Whale Shark</t>
+          <t>Oak Toad</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Rhincodon typus</t>
+          <t>Anaxyrus quercicus</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
         <is>
-          <t>Wheatear</t>
+          <t>Ocelot</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Oenanthe oenanthe</t>
+          <t>Leopardus pardalis</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>Whinchat</t>
+          <t>Octopus</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Saxicola rubetra</t>
+          <t>Octopoda</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
         <is>
-          <t>Whitethroat</t>
+          <t>Okapi</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Sylvia communis</t>
+          <t>Okapia johnstoni</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
         <is>
-          <t>Willow</t>
+          <t>Old English Sheepdog</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>warbler Phylloscopus trochilus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
         <is>
-          <t>Wolf</t>
+          <t>Olive Baboon</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Canis lupus</t>
+          <t>Papio anubis</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
         <is>
-          <t>Wood</t>
+          <t>Olm</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>warbler Phylloscopus sibilatrix</t>
+          <t>Proteus anguinus</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
         <is>
-          <t>Woodpigeon</t>
+          <t>Onion</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Columba palumbus</t>
+          <t>Allium cepa</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
         <is>
-          <t>Wren</t>
+          <t>Opossum</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Troglodytes troglodytes</t>
+          <t>Didelphidae</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
         <is>
-          <t>X-Ray Tetra</t>
+          <t>Orang-utan</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Pristella maxillaris</t>
+          <t>Pongo</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
         <is>
-          <t>Xerus</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Xerus</t>
+          <t>Citrus aurantium</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
         <is>
-          <t>Xoloitzcuintli</t>
+          <t>Orange-Crowned Warbler</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Vermivora celata</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
         <is>
-          <t>Yak</t>
+          <t>Orangutans</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Bos grunniens</t>
+          <t>Pongo</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
         <is>
-          <t>Yakutian Laika</t>
+          <t>Orb Weaver</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Araneidae</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
         <is>
-          <t>Yellow Sac Spider</t>
+          <t>Orca</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Cheiracanthium inclusum</t>
+          <t>Orcinus orca</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
         <is>
-          <t>Yellow Spotted Lizard</t>
+          <t>Ortolan Bunting</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Lepidophyma flavimaculatum</t>
+          <t>Emberiza hortulana</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
         <is>
-          <t>Yellow-Eyed Penguin</t>
+          <t>Oscar Fish</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Megadyptes antipodes</t>
+          <t>Astronotus ocellatus</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
         <is>
-          <t>Yellowfin Tuna</t>
+          <t>Ostrich</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Thunnus albacares</t>
+          <t>Struthio camelus</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
         <is>
-          <t>Yellowhammer</t>
+          <t>Otter</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Emberiza citrinella</t>
+          <t>Lutrinae</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
         <is>
-          <t>Yeti Crab</t>
+          <t>Otterhound</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Kiwa hirsuta</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
         <is>
-          <t>Yorkie-poo</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Strigiformes</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
         <is>
-          <t>Yorkshire Terrier</t>
+          <t>Ox</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Bos taurus</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
         <is>
-          <t>Zebra</t>
+          <t>Oyster</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Equus quagga</t>
+          <t>Ostreidae</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
         <is>
-          <t>Zebra Finch</t>
+          <t>Oyster Toadfish</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Taeniopygia guttata castanotis</t>
+          <t>Opsanus tau</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
         <is>
-          <t>Zebra Mussels</t>
+          <t>Oystercatcher</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Dreissena polymorpha</t>
+          <t>Haematopus ostralegus</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="inlineStr">
         <is>
-          <t>Zebra Pleco</t>
+          <t>Panda</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Hypancistrus zebra</t>
+          <t>Ailuropoda melanoleuca</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
         <is>
-          <t>Zebra Shark</t>
+          <t>Papaya</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Stegostoma fasciatum</t>
+          <t>Carica papaya</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
         <is>
-          <t>Zebu</t>
+          <t>Pea</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Bos taurus indicus</t>
+          <t>Pisum sativum</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
         <is>
-          <t>Zonkey</t>
+          <t>Peacock Flower (Gulmohar)</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Equus zebra x Equus asinus</t>
+          <t>Delonix regia rafin</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
         <is>
-          <t>Zorse</t>
+          <t>Peepal</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Equus zebra x Equus caballus</t>
+          <t>Ficus religiosa Linn.</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
         <is>
+          <t>Peregrine</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Falco peregrinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="inlineStr">
+        <is>
+          <t>Pheasant</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Phasianus colchicus</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="inlineStr">
+        <is>
+          <t>Pied</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>wagtail Motacilla alba</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="inlineStr">
+        <is>
+          <t>Pig</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Sus scrofa domesticus</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="inlineStr">
+        <is>
+          <t>Pineapple</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Ananus sativus</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="inlineStr">
+        <is>
+          <t>Pink</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>footed goose Anser brachyrhynchus</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="inlineStr">
+        <is>
+          <t>Pomegranate</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Punica granatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="inlineStr">
+        <is>
+          <t>Potato</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Solanum tuberosum</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="inlineStr">
+        <is>
+          <t>Praying Mantids</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Mantodea</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="inlineStr">
+        <is>
+          <t>Purple orchid tree (Kachnar)</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Bauhinia purpurea</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="inlineStr">
+        <is>
+          <t>Quagga</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Equus quagga quagga</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="inlineStr">
+        <is>
+          <t>Quail</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Coturnix coturnix</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>Queen snake</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Regina septemvittata</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>Quokka</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Setonix brachyurus</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>Quoll</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Dasyurus</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>Radish</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Raphanus sativus</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>Rat snake</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Ptyas mucosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>Raven</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Corvus corax</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>kite Milvus milvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>Red fox</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Vulpes Vulpes</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>Red maple</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Acer rubrum</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>Redstart</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Phoenicurus phoenicurus</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>Redwing</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Turdus iliacus</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>Reed</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>bunting Emberiza schoeniclus</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Oryza sativa</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>Robin</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Erithacus rubecula</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>Rook</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Corvus frugilegus</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>Rose</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Rosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>Sandalwood</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Santalum album</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>Sea Lions</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Hydrurga leptonyx</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>Sheep</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Ovis aries</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>Silkworms</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Bombyx mori</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>Silver Oak</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Grevillea robusta</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>Silverfish</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Lepisma saccharina</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>Siskin</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Carduelis spinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>Skylark</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Alauda arvensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>Snail</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Gastropoda</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>Snakefly</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Raphidioptera</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>Snipe</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Gallinago gallinago</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>thrush Turdus philomelos</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>Soya bean</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Glycine max</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>Sparrowhawk</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Accipiter nisus</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>Sperm Whale</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Physeter macrocephalus</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>Spinach</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Lactuca sativa</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>Spotted</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>flycatcher Muscicapa striata</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>Starling</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Sturnus vulgaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>Stink Bugs</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Halyomorpha halys</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>dove Columba oenas</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>Stonechat</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Saxicola torquata</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>Sunflower</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Helianthus annuus</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>Swallow</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Hirundo rustica</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>Sweet Potato</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Ipomoea batatas</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>Tamarind tree</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Tamarindus indica</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>Teak</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Tectona grandis Linn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>Termite</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Isoptera</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>Termites</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Isoptera</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>Tick</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Ixodida</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>Tiger</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Panthera tigris</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>Tiger Shark</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Galeocerdo cuvier</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>Tobacco</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Nicotina tobaccum</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Lycopersicon esculentum</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>Tree</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>pipit Anthus trivialis</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>Treecreeper</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Certhia familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>Tufted</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>duck Aythya fuligula</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>Tulsi</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Ocimum sanctum</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>Turmeric</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Curcuma longa</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>Uakari</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Cacajao</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>Uguisu</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Horornis diphone</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>Uinta Ground Squirrel</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Urocitellus armatus</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>Umbrellabird</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Cephalopterus</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>Unau</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Choloepus didactylus</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>Ural owl</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Strix uralensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>Utonagan</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>Vampire Bat</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Desmodontinae</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>Vampire Squid</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Vampyroteuthis infernalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>Vaquita</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Phocoena sinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>Venus Flytrap</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Dionaea muscipula</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>Vervet Monkey</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Chlorocebus pygerythrus</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>VicuÃ±a</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Vicugna vicugna</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>Vinegaroon</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Uropygi</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>Viper shark (dogfish)</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Trigonognathus kabeyai</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>Virgin Islands Dwarf Gecko</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Sphaerodactylus parthenopion</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>Vizsla</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>Volpino Italiano</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>Walrus</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Odobenus rosmarus</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>Wasp</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Vespa</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>Wasps</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Vespidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>Water Buffalo</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Bubalus bubalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>Watermelon</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Citrullus vulgaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>Whale Shark</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Rhincodon typus</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>Wheatear</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Oenanthe oenanthe</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>Whinchat</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Saxicola rubetra</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>Whitethroat</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Sylvia communis</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>Willow</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>warbler Phylloscopus trochilus</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>Wolf</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Canis lupus</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>warbler Phylloscopus sibilatrix</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>Woodpigeon</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Columba palumbus</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>Wren</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Troglodytes troglodytes</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>X-Ray Tetra</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Pristella maxillaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>Xerus</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Xerus</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>Xoloitzcuintli</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>Yak</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Bos grunniens</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>Yakutian Laika</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>Yellow Sac Spider</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Cheiracanthium inclusum</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>Yellow Spotted Lizard</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Lepidophyma flavimaculatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>Yellow-Eyed Penguin</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Megadyptes antipodes</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>Yellowfin Tuna</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Thunnus albacares</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>Yellowhammer</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Emberiza citrinella</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>Yeti Crab</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Kiwa hirsuta</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>Yorkie-poo</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>Yorkshire Terrier</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>Coral Snake</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Micrurus fulvius</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="inlineStr">
+        <is>
+          <t>Apple Head Chihuahua</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="inlineStr">
+        <is>
+          <t>Australian Gecko</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Nephrurus levis</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="inlineStr">
+        <is>
+          <t>Angora Ferret</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Mustela furo</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="inlineStr">
+        <is>
+          <t>Antarctic scale worm</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Eulagisca gigantea</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="inlineStr">
+        <is>
+          <t>Aussiedor</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="inlineStr">
+        <is>
+          <t>Zebra</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Equus quagga</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Finch</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Taeniopygia guttata castanotis</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Mussels</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Dreissena polymorpha</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Pleco</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Hypancistrus zebra</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Shark</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Stegostoma fasciatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="inlineStr">
+        <is>
+          <t>Zebu</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Bos taurus indicus</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="inlineStr">
+        <is>
+          <t>Zonkey</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Equus zebra x Equus asinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="inlineStr">
+        <is>
+          <t>Zorse</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Equus zebra x Equus caballus</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="inlineStr">
+        <is>
           <t>Zuchon</t>
         </is>
       </c>
-      <c r="B440" t="inlineStr">
+      <c r="B565" t="inlineStr">
         <is>
           <t>Canis lupus familiaris</t>
         </is>

--- a/nomenclature.xlsx
+++ b/nomenclature.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B565"/>
+  <dimension ref="A1:B694"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,19 +681,19 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Aidi</t>
+          <t>Ageratum</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Ageratum houstonianum</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Airedale Terrier</t>
+          <t>Aidi</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Akbash</t>
+          <t>Airedale Terrier</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Akita</t>
+          <t>Akbash</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -729,7 +729,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Alabai</t>
+          <t>Akita</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -741,7 +741,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Alaskan Husky</t>
+          <t>Alabai</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Alaskan Klee Kai</t>
+          <t>Alaskan Husky</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Alaskan Malamute</t>
+          <t>Alaskan Klee Kai</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Alaskan Shepherd</t>
+          <t>Alaskan Malamute</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -789,151 +789,151 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Albacore Tuna</t>
+          <t>Alaskan Shepherd</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Thunnus alalunga</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Albatross</t>
+          <t>Albacore Tuna</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Diomedeidae</t>
+          <t>Thunnus alalunga</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Aldabra Giant Tortoise</t>
+          <t>Albatross</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Aldabrachelys gigantea</t>
+          <t>Diomedeidae</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Alligator</t>
+          <t>Aldabra Giant Tortoise</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Alligator mississippiensis</t>
+          <t>Aldabrachelys gigantea</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Alligator Gar</t>
+          <t>Alligator</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Atractosteus spatula</t>
+          <t>Alligator mississippiensis</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Alpaca</t>
+          <t>Alligator Gar</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Vicugna pacos</t>
+          <t>Atractosteus spatula</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Alpine Dachsbracke</t>
+          <t>Alpaca</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Vicugna pacos</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Alpine Goat</t>
+          <t>Alpine Dachsbracke</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Capra aegagrus hircus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Amazon Parrot</t>
+          <t>Alpine Goat</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Amazona</t>
+          <t>Capra aegagrus hircus</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Amazon River Dolphin (Pink Dolphin)</t>
+          <t>Amazon Parrot</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Inia geoffrensis</t>
+          <t>Amazona</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Ambrosia Beetle</t>
+          <t>Amazon River Dolphin (Pink Dolphin)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Platypodinae</t>
+          <t>Inia geoffrensis</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>American Alsatian</t>
+          <t>Ambrosia Beetle</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Platypodinae</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>American Bulldog</t>
+          <t>American Alsatian</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>American Cocker Spaniel</t>
+          <t>American Bulldog</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -957,31 +957,31 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>American Cockroach</t>
+          <t>American Cocker Spaniel</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Periplaneta americana</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>American Coonhound</t>
+          <t>American Cockroach</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Periplaneta americana</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>American Eskimo Dog</t>
+          <t>American Coonhound</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>American Foxhound</t>
+          <t>American Eskimo Dog</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1005,7 +1005,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>American Hairless Terrier</t>
+          <t>American Foxhound</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1017,7 +1017,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>American Leopard Hound</t>
+          <t>American Hairless Terrier</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1029,7 +1029,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>American Pit Bull Terrier</t>
+          <t>American Leopard Hound</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1041,55 +1041,55 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>American Pygmy Goat</t>
+          <t>American Marigold</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Capra aegagrus hircus</t>
+          <t>Tagetes erecta</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>American Robin</t>
+          <t>American Pit Bull Terrier</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Turdus migratorius</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>American Staffordshire Terrier</t>
+          <t>American Pygmy Goat</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Capra aegagrus hircus</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>American Toad</t>
+          <t>American Robin</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Anaxyrus americanus</t>
+          <t>Turdus migratorius</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>American Water Spaniel</t>
+          <t>American Staffordshire Terrier</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1101,499 +1101,499 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Amur Leopard</t>
+          <t>American Toad</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Panthera pardus orientalis</t>
+          <t>Anaxyrus americanus</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Anaconda</t>
+          <t>American Water Spaniel</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Eunectes murinus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Anatolian Shepherd Dog</t>
+          <t>Amur Leopard</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Panthera pardus orientalis</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Anchovies</t>
+          <t>Anaconda</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Engraulidae</t>
+          <t>Eunectes murinus</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Angelfish</t>
+          <t>Anatolian Shepherd Dog</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Pterophyllum</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Anglerfish</t>
+          <t>Anchovies</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Lophiiformes</t>
+          <t>Engraulidae</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Angora Goat</t>
+          <t>Angelfish</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Capra aegagrus hircus</t>
+          <t>Pterophyllum</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Anole Lizard</t>
+          <t>Anglerfish</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Anolis carolinensis</t>
+          <t>Lophiiformes</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Ant</t>
+          <t>Angora Ferret</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Formicidae</t>
+          <t>Mustela furo</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Anteater</t>
+          <t>Angora Goat</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Vermilingua</t>
+          <t>Capra aegagrus hircus</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Antelope</t>
+          <t>Annual Vinca</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Bovidae</t>
+          <t>Catharanthus roseus</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Ants</t>
+          <t>Anole Lizard</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Formicidae</t>
+          <t>Anolis carolinensis</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Ape</t>
+          <t>Ant</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Hominoidea</t>
+          <t>Formicidae</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Appenzeller Dog</t>
+          <t>Antarctic scale worm</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Eulagisca gigantea</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Anteater</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Pyrus malus</t>
+          <t>Vermilingua</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Arafura File Snake</t>
+          <t>Antelope</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Acrochordus arafurae</t>
+          <t>Bovidae</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Arapaima</t>
+          <t>Ants</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Arapaima</t>
+          <t>Formicidae</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Arctic Fox</t>
+          <t>Ape</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Vulpes lagopus</t>
+          <t>Hominoidea</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Arctic Hare</t>
+          <t>Appenzeller Dog</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Lepus arcticus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Arctic Wolf</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Canis lupus arctos</t>
+          <t>Pyrus malus</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Arizona Bark Scorpion</t>
+          <t>Apple Head Chihuahua</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Centruroides sculpturatus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Arizona Black Rattlesnake</t>
+          <t>Arafura File Snake</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Crotalus cerberus</t>
+          <t>Acrochordus arafurae</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Armadillo</t>
+          <t>Arapaima</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Cingulata</t>
+          <t>Arapaima</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Armadillo Lizard</t>
+          <t>Arctic Fox</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ouroborus cataphractus</t>
+          <t>Vulpes lagopus</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Armyworm</t>
+          <t>Arctic Hare</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Spodoptera frugiperda</t>
+          <t>Lepus arcticus</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Aruba Rattlesnake</t>
+          <t>Arctic Wolf</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Crotalus durissus unicolor</t>
+          <t>Canis lupus arctos</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Asian Cockroach</t>
+          <t>Arizona Bark Scorpion</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Blattella asahinai</t>
+          <t>Centruroides sculpturatus</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Asian Elephant</t>
+          <t>Arizona Black Rattlesnake</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Elephas maximus</t>
+          <t>Crotalus cerberus</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Asian Giant Hornet</t>
+          <t>Armadillo</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Vespa mandarinia</t>
+          <t>Cingulata</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Asian Palm Civet</t>
+          <t>Armadillo Lizard</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Paradoxurus hermaphroditus</t>
+          <t>Ouroborus cataphractus</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Asiatic Black Bear</t>
+          <t>Armyworm</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ursus thibetanus</t>
+          <t>Spodoptera frugiperda</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Asp</t>
+          <t>Aruba Rattlesnake</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Vipera aspis</t>
+          <t>Crotalus durissus unicolor</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Assassin Bug</t>
+          <t>Asian Cockroach</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Reduviidae</t>
+          <t>Blattella asahinai</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Aurochs</t>
+          <t>Asian Elephant</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Bos primigenius</t>
+          <t>Elephas maximus</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Aussiedoodle</t>
+          <t>Asian Giant Hornet</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Vespa mandarinia</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Australian Bulldog</t>
+          <t>Asian Palm Civet</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Paradoxurus hermaphroditus</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Australian Cattle Dog</t>
+          <t>Asiatic Black Bear</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Ursus thibetanus</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Australian Cockroach</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Periplaneta australasiae</t>
+          <t>Vipera aspis</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Australian Kelpie Dog</t>
+          <t>Assassin Bug</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Reduviidae</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Australian Labradoodle</t>
+          <t>Aurochs</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Bos primigenius</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Australian Mist</t>
+          <t>Aussiedoodle</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Felis catus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Australian Retriever</t>
+          <t>Aussiedor</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1605,7 +1605,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Australian Shepherd</t>
+          <t>Australian Bulldog</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1617,7 +1617,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Australian Terrier</t>
+          <t>Australian Cattle Dog</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1629,487 +1629,487 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Avocet</t>
+          <t>Australian Cockroach</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Recurvirostra</t>
+          <t>Periplaneta australasiae</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Axolotl</t>
+          <t>Australian Gecko</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ambystoma mexicanum</t>
+          <t>Nephrurus levis</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Aye Aye</t>
+          <t>Australian Kelpie Dog</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Daubentonia madagascariensis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Babirusa</t>
+          <t>Australian Labradoodle</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Babyrousa</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Baboon</t>
+          <t>Australian Mist</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Papio</t>
+          <t>Felis catus</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Bactrian Camel</t>
+          <t>Australian Retriever</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Camelus bactrianus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Baiji</t>
+          <t>Australian Shepherd</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Lipotes vexillifer</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Bald Eagle</t>
+          <t>Australian Terrier</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Haliaeetus leucocephalus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Baleen Whale</t>
+          <t>Avocet</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Mysticeti</t>
+          <t>Recurvirostra</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Balinese</t>
+          <t>Axolotl</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Felis catus</t>
+          <t>Ambystoma mexicanum</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Balkan Lynx</t>
+          <t>Aye Aye</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Lynx lynx balcanicus</t>
+          <t>Daubentonia madagascariensis</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Ball Python</t>
+          <t>Babirusa</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Python regius</t>
+          <t>Babyrousa</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Bamboo</t>
+          <t>Baboon</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Bamboosa aridinarifolia</t>
+          <t>Papio</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Banana</t>
+          <t>Bacopa</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Musa paradisicum</t>
+          <t>Sutera cordata</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Banana Ball Python</t>
+          <t>Bactrian Camel</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Python regius</t>
+          <t>Camelus bactrianus</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Banana Spider</t>
+          <t>Baiji</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Nephila</t>
+          <t>Lipotes vexillifer</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Banded Palm Civet</t>
+          <t>Bald Eagle</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Hemigalus derbyanus</t>
+          <t>Haliaeetus leucocephalus</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Banded Water Snake</t>
+          <t>Baleen Whale</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Nerodia fasciata</t>
+          <t>Mysticeti</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Bandicoot</t>
+          <t>Balinese</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Peramelemorphia</t>
+          <t>Felis catus</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Banjo Catfish</t>
+          <t>Balkan Lynx</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Aspredinidae</t>
+          <t>Lynx lynx balcanicus</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Banyan</t>
+          <t>Ball Python</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Ficus benghalensis</t>
+          <t>Python regius</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Barb</t>
+          <t>Balloon Flower</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Barbus</t>
+          <t>Platycodon grandiflorus</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Barbet</t>
+          <t>Bamboo</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Megalaimidae</t>
+          <t>Bamboosa aridinarifolia</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Barley</t>
+          <t>Banana</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Hordeum vulgare</t>
+          <t>Musa paradisicum</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Barn Owl</t>
+          <t>Banana Ball Python</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Tyto alba</t>
+          <t>Python regius</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Barn Swallow</t>
+          <t>Banana Spider</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Hirundo rustica</t>
+          <t>Nephila</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Barnacle</t>
+          <t>Banded Palm Civet</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Cirripedia</t>
+          <t>Hemigalus derbyanus</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Barracuda</t>
+          <t>Banded Water Snake</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Sphyraena</t>
+          <t>Nerodia fasciata</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Barramundi Fish</t>
+          <t>Bandicoot</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Lates calcarifer</t>
+          <t>Peramelemorphia</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Barred Owl</t>
+          <t>Banjo Catfish</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Strix varia</t>
+          <t>Aspredinidae</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Basenji Dog</t>
+          <t>Banyan</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Ficus benghalensis</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Basilisk Lizard</t>
+          <t>Barb</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Basiliscus basiliscus</t>
+          <t>Barbus</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Basking Shark</t>
+          <t>Barbet</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Cetorhinus maximus</t>
+          <t>Megalaimidae</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Bassador</t>
+          <t>Barley</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Hordeum vulgare</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Basset Fauve de Bretagne</t>
+          <t>Barn Owl</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Tyto alba</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Basset Hound</t>
+          <t>Barn Swallow</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Hirundo rustica</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Bassetoodle</t>
+          <t>Barnacle</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Cirripedia</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Bat</t>
+          <t>Barracuda</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Chiroptera</t>
+          <t>Sphyraena</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Bavarian Mountain Hound</t>
+          <t>Barramundi Fish</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Lates calcarifer</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Baya</t>
+          <t>Barred Owl</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Ploceus philippinus</t>
+          <t>Strix varia</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Bea-Tzu</t>
+          <t>Basenji Dog</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2121,31 +2121,31 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Beabull</t>
+          <t>Basilisk Lizard</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Basiliscus basiliscus</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Beagador</t>
+          <t>Basking Shark</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Cetorhinus maximus</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Beagle</t>
+          <t>Bassador</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Beagle Shepherd</t>
+          <t>Basset Fauve de Bretagne</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Beaglier</t>
+          <t>Basset Hound</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2181,7 +2181,7 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Beago</t>
+          <t>Bassetoodle</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2193,19 +2193,19 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Bear</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ursidae</t>
+          <t>Chiroptera</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Bearded Collie</t>
+          <t>Bavarian Mountain Hound</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2217,31 +2217,31 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Bearded Dragon</t>
+          <t>Baya</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Pogona</t>
+          <t>Ploceus philippinus</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Bearded Vulture</t>
+          <t>Bea-Tzu</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Gypaetus barbatus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Beaski </t>
+          <t>Beabull</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Beauceron</t>
+          <t>Beagador</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2265,43 +2265,43 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Beaver</t>
+          <t>Beagle</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Castor</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Bed Bugs</t>
+          <t>Beagle Shepherd</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Cimicidae</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Bed bugs</t>
+          <t>Beaglier</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Cimicidae</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Bedlington Terrier</t>
+          <t>Beago</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2313,67 +2313,67 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Bee</t>
+          <t>Bear</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Anthophila</t>
+          <t>Ursidae</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Beefalo</t>
+          <t>Bearded Collie</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Bos taurus X Bison bison</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Bees</t>
+          <t>Bearded Dragon</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Anthophila</t>
+          <t>Pogona</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Beetle</t>
+          <t>Bearded Vulture</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Coleoptera</t>
+          <t>Gypaetus barbatus</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Beetles</t>
+          <t xml:space="preserve">Beaski </t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Coleoptera</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Belgian Shepherd</t>
+          <t>Beauceron</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2385,55 +2385,55 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Belgian Tervuren</t>
+          <t>Beautybush</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Kolkwitzia amabilis</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Beluga Sturgeon</t>
+          <t>Beaver</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Huso huso</t>
+          <t>Castor</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Beluga whale</t>
+          <t>Bed Bugs</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Delphinapterus leucas</t>
+          <t>Cimicidae</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Bengal Tiger</t>
+          <t>Bed bugs</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Panthera tigris tigris</t>
+          <t>Cimicidae</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Bergamasco</t>
+          <t>Bedlington Terrier</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2445,79 +2445,79 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Berger Picard</t>
+          <t>Bee</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Anthophila</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Bernedoodle</t>
+          <t>Bee-Balm</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Monarda didyma</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Bernese Mountain Dog</t>
+          <t>Beefalo</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Bos taurus X Bison bison</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Bernese Shepherd</t>
+          <t>Bees</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Anthophila</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Betta Fish (Siamese Fighting Fish)</t>
+          <t>Beetle</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Betta splendens</t>
+          <t>Coleoptera</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Bichir</t>
+          <t>Beetles</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Polypteridae</t>
+          <t>Coleoptera</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Bichon Frise</t>
+          <t>Belgian Shepherd</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2529,7 +2529,7 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Bichpoo</t>
+          <t>Belgian Tervuren</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2541,691 +2541,691 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Biewer Terrier</t>
+          <t>Beluga Sturgeon</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Huso huso</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Bighorn Sheep</t>
+          <t>Beluga whale</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Ovis canadensis</t>
+          <t>Delphinapterus leucas</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Bilby</t>
+          <t>Bengal Tiger</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Macrotis</t>
+          <t>Panthera tigris tigris</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Binturong</t>
+          <t>Bergamasco</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Arctictis binturong</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Berger Picard</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Aves</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Bird Of Paradise</t>
+          <t>Bernedoodle</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Strelitzia</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Birman</t>
+          <t>Bernese Mountain Dog</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Felis catus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Biscuit Beetle</t>
+          <t>Bernese Shepherd</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Stegobium paniceum</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Bison</t>
+          <t>Betta Fish (Siamese Fighting Fish)</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Bison</t>
+          <t>Betta splendens</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Black And Tan Coonhound</t>
+          <t>Bichir</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Polypteridae</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Black Gram</t>
+          <t>Bichon Frise</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Palsoes mungo</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Black Mamba</t>
+          <t>Bichpoo</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Dendroaspis polylepis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Black Marlin</t>
+          <t>Biewer Terrier</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Istiompax indica</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Black Pepper</t>
+          <t>Bighorn Sheep</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Piper nigrum</t>
+          <t>Ovis canadensis</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Black Rhinoceros</t>
+          <t>Bilby</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Diceros bicornis</t>
+          <t>Macrotis</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Black Russian Terrier</t>
+          <t>Binturong</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Arctictis binturong</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Black Wasp</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Sphex pensylvanicus</t>
+          <t>Aves</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Black Widow Spider</t>
+          <t>Bird Of Paradise</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Latrodectus</t>
+          <t>Strelitzia</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Black-Capped Chickadee</t>
+          <t>Birman</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Poecile atricapillus</t>
+          <t>Felis catus</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Black-Footed Ferret</t>
+          <t>Biscuit Beetle</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Mustela nigripes</t>
+          <t>Stegobium paniceum</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Blackbuck</t>
+          <t>Bison</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Antilope cervicapra</t>
+          <t>Bison</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Blackpoll Warbler</t>
+          <t>Black And Tan Coonhound</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Setophaga striata</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Blanket Octopus</t>
+          <t>Black Gram</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Tremoctopus</t>
+          <t>Palsoes mungo</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Blister Beetle</t>
+          <t>Black Mamba</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Meloidae</t>
+          <t>Dendroaspis polylepis</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Blobfish</t>
+          <t>Black Marlin</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Psychrolutes marcidus</t>
+          <t>Istiompax indica</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>Blood Python</t>
+          <t>Black Pepper</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Python brongersmai</t>
+          <t>Piper nigrum</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Bloodhound</t>
+          <t>Black Rhinoceros</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Diceros bicornis</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Blue Belly Lizard</t>
+          <t>Black Russian Terrier</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Sceloporus occidentalis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Blue Catfish</t>
+          <t>Black Wasp</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Ictalurus furcatus</t>
+          <t>Sphex pensylvanicus</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Blue Iguana</t>
+          <t>Black Widow Spider</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Cyclura lewisi</t>
+          <t>Latrodectus</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Blue Jay</t>
+          <t>Black-Capped Chickadee</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Cyanocitta cristata</t>
+          <t>Poecile atricapillus</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>Blue Lacy Dog</t>
+          <t>Black-Footed Ferret</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Mustela nigripes</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Blue Picardy Spaniel</t>
+          <t>Black-eyed Susan</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Rudbeckia hirta</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Blue Shark</t>
+          <t>Blackbuck</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Prionace glauca</t>
+          <t>Antilope cervicapra</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Blue Tit</t>
+          <t>Blackpoll Warbler</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Cyanistes caeruleus</t>
+          <t>Setophaga striata</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>Blue Whale</t>
+          <t>Blanket Octopus</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Balaenoptera musculus</t>
+          <t>Tremoctopus</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>Blue grosbeak</t>
+          <t>Bleeding-heart</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Passerina caerulea</t>
+          <t>Dicentra spectabilis</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>Blue-Ringed Octopus</t>
+          <t>Blister Beetle</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Hapalochlaena</t>
+          <t>Meloidae</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>Bluefin Tuna</t>
+          <t>Blobfish</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Thunnus thynnus</t>
+          <t>Psychrolutes marcidus</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Bluetick Coonhound</t>
+          <t>Blood Python</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Python brongersmai</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Bobcat</t>
+          <t>Bloodhound</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Lynx rufus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>Bobolink</t>
+          <t>Bloody Cranesbill</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Dolichonyx oryzivorus</t>
+          <t>Geranium sanguineum</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>Boggle</t>
+          <t>Blue Belly Lizard</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Sceloporus occidentalis</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>Boglen Terrier</t>
+          <t>Blue Catfish</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Ictalurus furcatus</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>Boiga</t>
+          <t>Blue Fescue</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Boiga</t>
+          <t>Festuca glauca</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>Bolognese Dog</t>
+          <t>Blue Iguana</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Cyclura lewisi</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>Bombay</t>
+          <t>Blue Jay</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Felis catus</t>
+          <t>Cyanocitta cristata</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>Bongo</t>
+          <t>Blue Lacy Dog</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Tragelaphus eurycerus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>Bonito Fish</t>
+          <t>Blue Picardy Spaniel</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Sardini</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>Bonnethead Shark</t>
+          <t>Blue Sage</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Sphyrna tiburo</t>
+          <t>Salvia farinacea</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>Bonobo</t>
+          <t>Blue Shark</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Pan paniscus</t>
+          <t>Prionace glauca</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>Booby</t>
+          <t>Blue Tit</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Sula</t>
+          <t>Cyanistes caeruleus</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>Booklice</t>
+          <t>Blue Whale</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Psocoptera</t>
+          <t>Balaenoptera musculus</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>Boomslang</t>
+          <t>Blue grosbeak</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Dispholidus typus</t>
+          <t>Passerina caerulea</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>Borador</t>
+          <t>Blue-Ringed Octopus</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Hapalochlaena</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>Border Collie</t>
+          <t>Bluefin Tuna</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Thunnus thynnus</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>Border Terrier</t>
+          <t>Bluestem</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Schizachyrium x</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>Bordoodle</t>
+          <t>Bluetick Coonhound</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3237,43 +3237,43 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>Borkie</t>
+          <t>Bobcat</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Lynx rufus</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>Bornean Orang-utan</t>
+          <t>Bobolink</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Pongo pygmaeus</t>
+          <t>Dolichonyx oryzivorus</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>Borneo Elephant</t>
+          <t>Boggle</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Elephas maximus borneensis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>Boston Terrier</t>
+          <t>Boglen Terrier</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -3285,19 +3285,19 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>Bottlenose Dolphin</t>
+          <t>Boiga</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Tursiops</t>
+          <t>Boiga</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>Bouvier Des Flandres</t>
+          <t>Bolognese Dog</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -3309,103 +3309,103 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>Bowfin</t>
+          <t>Bombay</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Amia calva</t>
+          <t>Felis catus</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>Bowhead Whale</t>
+          <t>Bongo</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Balaena mysticetus</t>
+          <t>Tragelaphus eurycerus</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>Box Turtle</t>
+          <t>Bonito Fish</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Terrapene</t>
+          <t>Sardini</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>Boxador</t>
+          <t>Bonnethead Shark</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Sphyrna tiburo</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>Boxer Dog</t>
+          <t>Bonobo</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Pan paniscus</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>Boxerdoodle</t>
+          <t>Booby</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Sula</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>Boxfish</t>
+          <t>Booklice</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Ostraciidae</t>
+          <t>Psocoptera</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>Boxsky</t>
+          <t>Boomslang</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Dispholidus typus</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>Boxweiler</t>
+          <t>Borador</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -3417,7 +3417,7 @@
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>Boykin Spaniel</t>
+          <t>Border Collie</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -3429,7 +3429,7 @@
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>Brazilian Terrier</t>
+          <t>Border Terrier</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -3441,19 +3441,19 @@
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>Brinjal</t>
+          <t>Bordoodle</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Solanum melongena</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>Brittany</t>
+          <t>Borkie</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -3465,1087 +3465,1087 @@
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>Brookesia Micra</t>
+          <t>Bornean Orang-utan</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Brookesia micra</t>
+          <t>Pongo pygmaeus</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>Bug</t>
+          <t>Borneo Elephant</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Insecta</t>
+          <t>Elephas maximus borneensis</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>Bulbul</t>
+          <t>Boston Terrier</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Molpastes cafer</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>Butterflies</t>
+          <t>Bottlenose Dolphin</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Rhopalocera</t>
+          <t>Tursiops</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>Butterfly</t>
+          <t>Bouvier Des Flandres</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Rhopalocera</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>Capsicum</t>
+          <t>Bowfin</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Capsicum fruitscence</t>
+          <t>Amia calva</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>Carrot</t>
+          <t>Bowhead Whale</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Daucus carota</t>
+          <t>Balaena mysticetus</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>Cashew nut</t>
+          <t>Box Turtle</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Anacardium occidentale</t>
+          <t>Terrapene</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Boxador</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Felis catus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>Centipede</t>
+          <t>Boxer Dog</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Chilopoda</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>Cheetah</t>
+          <t>Boxerdoodle</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Acinonyx jubatus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>Chiku</t>
+          <t>Boxfish</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Achras sapota</t>
+          <t>Ostraciidae</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>Chimpanzee</t>
+          <t>Boxsky</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Pan troglodytes</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>Clove</t>
+          <t>Boxweiler</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Syzygium aromaticum</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>Cockroach</t>
+          <t>Boykin Spaniel</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Blattodea</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>Cockroaches</t>
+          <t>Brazilian Terrier</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Blattodea</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>Common Frog</t>
+          <t>Brinjal</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Rana temporaria</t>
+          <t>Solanum melongena</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>Common Furniture Beetle</t>
+          <t>Brittany</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Anobium punctatum</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>Common House Spider</t>
+          <t>Brookesia Micra</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Parasteatoda tepidariorum</t>
+          <t>Brookesia micra</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>Common Loon</t>
+          <t>Bug</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Gavia immer</t>
+          <t>Insecta</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>Common Raven</t>
+          <t>Bulbul</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Corvus corax</t>
+          <t>Molpastes cafer</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>Common Toad</t>
+          <t>Butterflies</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Bufo bufo</t>
+          <t>Rhopalocera</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>Congo Snake</t>
+          <t>Butterfly</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Amphiuma</t>
+          <t>Rhopalocera</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>Cookiecutter Shark</t>
+          <t>Butterfly-Weed</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Isistius brasiliensis</t>
+          <t>Asclepias tuberosa</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>Coopers Hawk</t>
+          <t>Caladium</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Accipiter cooperii</t>
+          <t>Caladium x hortulanum</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>Copperhead</t>
+          <t>Canna Lily</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Agkistrodon contortrix</t>
+          <t>Canna generalis</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>Coriander</t>
+          <t>Capsicum</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Coriandrum sativum</t>
+          <t>Capsicum fruitscence</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>Corn Snake</t>
+          <t>Carrot</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Pantherophis guttatus</t>
+          <t>Daucus carota</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>Coton de Tulear</t>
+          <t>Cashew nut</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Anacardium occidentale</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>Cotton</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Gossypium herbaceum</t>
+          <t>Felis catus</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>Cotton-top Tamarin</t>
+          <t>Centipede</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Saguinus oedipus</t>
+          <t>Chilopoda</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>Cottonmouth</t>
+          <t>Cheetah</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Agkistrodon piscivorus</t>
+          <t>Acinonyx jubatus</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>Cougar</t>
+          <t>Chiku</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Puma concolor</t>
+          <t>Achras sapota</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>Cow</t>
+          <t>Chimpanzee</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Bos Taurus</t>
+          <t>Pan troglodytes</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>Coyote</t>
+          <t>China Pink</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Canis latrans</t>
+          <t>Dianthus chinensis</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>Crab</t>
+          <t>Cigar Flower</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Brachyura</t>
+          <t>Cuphea ignea</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>Crab Spider</t>
+          <t>Clove</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Thomisidae</t>
+          <t>Syzygium aromaticum</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>Crab-Eating Macaque</t>
+          <t>Cockroach</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Macaca fascicularis</t>
+          <t>Blattodea</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>Crabeater Seal</t>
+          <t>Cockroaches</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Lobodon carcinophagus</t>
+          <t>Blattodea</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>Crane</t>
+          <t>Coleus</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Gruidae</t>
+          <t>Solenostemon scutellaroides</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>Crappie Fish</t>
+          <t>Common Frog</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Pomoxis</t>
+          <t>Rana temporaria</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>Crested Gecko</t>
+          <t>Common Furniture Beetle</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Correlophus ciliatus</t>
+          <t>Anobium punctatum</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>Crested Penguin</t>
+          <t>Common House Spider</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Eudyptes sclateri</t>
+          <t>Parasteatoda tepidariorum</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>Cricket</t>
+          <t>Common Loon</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Grylloidea</t>
+          <t>Gavia immer</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>Crickets</t>
+          <t>Common Raven</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Grylloidea</t>
+          <t>Corvus corax</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>Crocodile</t>
+          <t>Common Toad</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Crocodylidae</t>
+          <t>Bufo bufo</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>Cross Fox</t>
+          <t>Common Yarrow</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Vulpes vulpes</t>
+          <t>Achillea millefolium</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>Cross River Gorilla</t>
+          <t>Common Zinnia</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Gorilla gorilla diehli</t>
+          <t>Zinnia elegans</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>Crow</t>
+          <t>Congo Snake</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Corvus</t>
+          <t>Amphiuma</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>Crucian Carp</t>
+          <t>Cookiecutter Shark</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Carassius carassius</t>
+          <t>Isistius brasiliensis</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>Cuban Cockroach</t>
+          <t>Coopers Hawk</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Panchlora nivea</t>
+          <t>Accipiter cooperii</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>Cuckoo</t>
+          <t>Copperhead</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Cuculidae</t>
+          <t>Agkistrodon contortrix</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>Cucumber</t>
+          <t>Coral Bells</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Cucumis sativas</t>
+          <t>Heuchera hybrid</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>Curly Coated Retriever</t>
+          <t>Coral Snake</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Micrurus fulvius</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>Curry leaf</t>
+          <t>Coriander</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Murraya koenigii</t>
+          <t>Coriandrum sativum</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>Cuscus</t>
+          <t>Corn Snake</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Phalanger</t>
+          <t>Pantherophis guttatus</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>Cuttlefish</t>
+          <t>Coton de Tulear</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Sepiida</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>Date Palm</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Phoenix dactylifera</t>
+          <t>Gossypium herbaceum</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>Dog</t>
+          <t>Cotton-top Tamarin</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Saguinus oedipus</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>Donkey</t>
+          <t>Cottonmouth</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Equus africanus asinus</t>
+          <t>Agkistrodon piscivorus</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>Dragon fruit</t>
+          <t>Cougar</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Hylocereus undatus</t>
+          <t>Puma concolor</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>Dragonflies</t>
+          <t>Cow</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Anisoptera</t>
+          <t>Bos Taurus</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>Dragonfly</t>
+          <t>Coyote</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Anisoptera</t>
+          <t>Canis latrans</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>Dromedary Camel</t>
+          <t>Crab</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Camelus dromedaries</t>
+          <t>Brachyura</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>Earwigs</t>
+          <t>Crab Spider</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Dermaptera</t>
+          <t>Thomisidae</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>Finger millet</t>
+          <t>Crab-Eating Macaque</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Eleusine coracana</t>
+          <t>Macaca fascicularis</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>Firefly</t>
+          <t>Crabeater Seal</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Lampyridae</t>
+          <t>Lobodon carcinophagus</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>Flea</t>
+          <t>Crane</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Siphonaptera</t>
+          <t>Gruidae</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>Fleas</t>
+          <t>Crappie Fish</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Siphonaptera</t>
+          <t>Pomoxis</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Creeping Zinnia</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Diptera</t>
+          <t>Sanvitalia speciosa</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>Fowl</t>
+          <t>Crested Cockscomb</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Gallus gallus domesticus</t>
+          <t>Celosia agentea var. cristata</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>Garlic</t>
+          <t>Crested Gecko</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Allium sativum</t>
+          <t>Correlophus ciliatus</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>Gharial</t>
+          <t>Crested Iris</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Gavialis gangeticus</t>
+          <t>Iris cristata</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>Ginger</t>
+          <t>Crested Penguin</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Zingiber officinale</t>
+          <t>Eudyptes sclateri</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>Goat</t>
+          <t>Cricket</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Capra aegagrus hircus</t>
+          <t>Grylloidea</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Crickets</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Grylloidea</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>Grasshopper</t>
+          <t>Crocodile</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Caelifera</t>
+          <t>Crocodylidae</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Cross Fox</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Caelifera</t>
+          <t>Vulpes vulpes</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>Great white shark</t>
+          <t>Cross River Gorilla</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Carcharodon carcharias</t>
+          <t>Gorilla gorilla diehli</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>Green Gram</t>
+          <t>Crow</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Phaseolus audicus</t>
+          <t>Corvus</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>Greenfly</t>
+          <t>Crucian Carp</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Aphidoidea</t>
+          <t>Carassius carassius</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>Guava</t>
+          <t>Cuban Cockroach</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Psidium guava</t>
+          <t>Panchlora nivea</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>Hippopotamus</t>
+          <t>Cuckoo</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Hippopotamus amphibius</t>
+          <t>Cuculidae</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>Horse</t>
+          <t>Cucumber</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Equus ferus caballus</t>
+          <t>Cucumis sativas</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>House wall Lizard</t>
+          <t>Curly Coated Retriever</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Hemidactylus flaviviridis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>Human beings</t>
+          <t>Curry leaf</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Murraya koenigii</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>Humpback whale</t>
+          <t>Cuscus</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Megaptera novaeangliae</t>
+          <t>Phalanger</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>Ibex</t>
+          <t>Cuttlefish</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Capra ibex</t>
+          <t>Sepiida</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>Ibis</t>
+          <t>Date Palm</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Threskiornithinae</t>
+          <t>Phoenix dactylifera</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>Ibizan Hound</t>
+          <t>Daylily</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Hemerocallis hybrids</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>Icelandic Sheepdog</t>
+          <t>Dog</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -4557,2652 +4557,4200 @@
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>Iguana</t>
+          <t>Donkey</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Iguana</t>
+          <t>Equus africanus asinus</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>Immortal Jellyfish</t>
+          <t>Doublefile Viburnum</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Turritopsis dohrnii</t>
+          <t>Viburnum plicatum var. tomentosum</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>Impala</t>
+          <t>Dragon fruit</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Aepyceros melampus</t>
+          <t>Hylocereus undatus</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>Imperial Moth</t>
+          <t>Dragonflies</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Eacles imperialis</t>
+          <t>Anisoptera</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>Indian Cobra</t>
+          <t>Dragonfly</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Naja naja</t>
+          <t>Anisoptera</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>Indian Elephant</t>
+          <t>Dromedary Camel</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Elephas maximus</t>
+          <t>Camelus dromedaries</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>Indian Giant Squirrel</t>
+          <t>Dusty Miller</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Ratufa indica</t>
+          <t>Senecio cineraria</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>Indian Palm Squirrel</t>
+          <t>Earwigs</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Funambulus palmarum</t>
+          <t>Dermaptera</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>Indian Rhinoceros</t>
+          <t>Eastern Redbud</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Rhinoceros unicornis</t>
+          <t>Cercis canadensis</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>Indian Star Tortoise</t>
+          <t>Eulalia Grass</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Geochelone elegans</t>
+          <t>Miscanthus</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>Indigo Snake</t>
+          <t>False Indigo</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Drymarchon couperi</t>
+          <t>Baptisia australis</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>Indochinese Tiger</t>
+          <t>Fan Flower</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Panthera tigris corbetti</t>
+          <t>Scaevola aemula</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>Indri</t>
+          <t>Feather Reed Grass</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Indri indri</t>
+          <t>Calamagrostis</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>Irish Doodle</t>
+          <t>Fern-leaf Yarrow</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Achillea fillipenulina</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>Irish Setter</t>
+          <t>Field Pansy</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Viola tricolor</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>Irish Terrier</t>
+          <t>Finger millet</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Eleusine coracana</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>Irish Water Spaniel</t>
+          <t>Firefly</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Lampyridae</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>Irish WolfHound</t>
+          <t>Flea</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Siphonaptera</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>Italian Greyhound</t>
+          <t>Fleas</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Siphonaptera</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>Ivory-billed woodpecker</t>
+          <t>Flowering Cabbage/Kale</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Campephilus principalis</t>
+          <t>Brassica oleracea</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>Jacana</t>
+          <t>Flowering Tobacco</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Jacanidae</t>
+          <t>Nicotiana x sanderae</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>Jack Russell</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Diptera</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>Jackal</t>
+          <t>Fortune's Hosta</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Canis aureus</t>
+          <t>Hosta fortunei 'Albomarginata'</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>Jackdaw</t>
+          <t>Fountain Grass</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Corvus monedula</t>
+          <t>Pennisetum alopecuroides</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>Jackfruit</t>
+          <t>Fowl</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Artocarpus integra</t>
+          <t>Gallus gallus domesticus</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
         <is>
-          <t>Jackrabbit</t>
+          <t>Fragrant Sumac</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Lepus californicus</t>
+          <t>Rhus aromatica</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>Jackson's Chameleon</t>
+          <t>French Marigold</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Trioceros jacksonii</t>
+          <t>Tagetes patula</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>Jaguar</t>
+          <t>Fringed Bleeding-heart</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Panthera onca</t>
+          <t>Dicentra exima</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
         <is>
-          <t>Jaguarundi Cat</t>
+          <t>Garden Impatiens</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Puma yagouaroundi</t>
+          <t>Impatiens walleriana</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>Japanese Beetle</t>
+          <t>Garden Lily</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Popillia japonica</t>
+          <t>Lilium</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>Japanese Chin</t>
+          <t>Garden Phlox</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Phlox paniculata</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>Japanese Macaque</t>
+          <t>Garden Verbena</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Macaca fuscata</t>
+          <t>Verbena x hybrida</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>Japanese Spitz</t>
+          <t>Garlic</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Allium sativum</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>Japanese Squirrel</t>
+          <t>Gazania</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Sciurus lis</t>
+          <t>Gazania rigens</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
         <is>
-          <t>Japanese Terrier</t>
+          <t>Gentian Sage</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Salvia patens</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
         <is>
-          <t>Javan Rhinoceros</t>
+          <t>Gharial</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Rhinoceros sondaicus</t>
+          <t>Gavialis gangeticus</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
         <is>
-          <t>Jonah Crab</t>
+          <t>Ginger</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Cancer borealis</t>
+          <t>Zingiber officinale</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
         <is>
-          <t>Joro Spider</t>
+          <t>Globe Amaranth</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Nephila clavata</t>
+          <t>Gomphrena haageana</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>Jowar</t>
+          <t>Goat</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Sorghum Vulgare</t>
+          <t>Capra aegagrus hircus</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>Jumping Spider</t>
+          <t>Gooseneck Loosestrife</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Salticidae</t>
+          <t>Lysimachia</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>Junglefowl</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Gallus</t>
+          <t>Gorilla</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
         <is>
-          <t>Kadamb</t>
+          <t>Grass Pink</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Anthocephalus indicus</t>
+          <t>Dianthus plumarius</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>King cobra</t>
+          <t>Grasshopper</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Ophiophagus hannah</t>
+          <t>Caelifera</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
         <is>
-          <t>Kingfisher</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Alcedo atthis</t>
+          <t>Caelifera</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
         <is>
-          <t>Ladybug</t>
+          <t>Great white shark</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Coccinellidae</t>
+          <t>Carcharodon carcharias</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
         <is>
-          <t>Ladybugs</t>
+          <t>Green Gram</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Coccinellidae</t>
+          <t>Phaseolus audicus</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
         <is>
-          <t>Lapwing</t>
+          <t>Greenfly</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Vanellus vanellus</t>
+          <t>Aphidoidea</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
         <is>
-          <t>Lemon</t>
+          <t>Guava</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Citrus Limonium</t>
+          <t>Psidium guava</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>Lesser</t>
+          <t>Hakone Grass</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>redpoll Carduelis cabaret</t>
+          <t>Hakonechloa</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
         <is>
-          <t>Lion</t>
+          <t>Hinoki Falsecypress</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Panthera leo</t>
+          <t>Chamaecyparis obtusa</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>Locust</t>
+          <t>Hippopotamus</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Schistocerca gregaria</t>
+          <t>Hippopotamus amphibius</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Horse</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>tailed tit Aegithalos caudatus</t>
+          <t>Equus ferus caballus</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>Magpie</t>
+          <t>Hosta Kabitan</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Pica pica</t>
+          <t>Hosta sieboldii</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>House wall Lizard</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Zea mays</t>
+          <t>Hemidactylus flaviviridis</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>Mallard</t>
+          <t>Human beings</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Anas platyrhynchos</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
         <is>
-          <t>Mango</t>
+          <t>Humpback whale</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Mangifera indica</t>
+          <t>Megaptera novaeangliae</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
         <is>
-          <t>Meadow</t>
+          <t>Hybrid Astilbe</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>pipit Anthus pratensis</t>
+          <t>Astilbe hybrids</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Hybrid Bearded Iris</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Mentha arvensis</t>
+          <t>Iris hybrids</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
         <is>
-          <t>Mistle</t>
+          <t>Hybrid Columbine</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>thrush Turdus viscivorus</t>
+          <t>Aquilegia x hybrida</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
         <is>
-          <t>Moorhen</t>
+          <t>Hybrid Pansy</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Gallinula chloropus</t>
+          <t>Viola x wittrockiana</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
         <is>
-          <t>Mosquito</t>
+          <t>Ibex</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Culicidae</t>
+          <t>Capra ibex</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
         <is>
-          <t>Moths</t>
+          <t>Ibis</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Lepidoptera</t>
+          <t>Threskiornithinae</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
         <is>
-          <t>Narwal</t>
+          <t>Ibizan Hound</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Monodon monoceros</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
         <is>
-          <t>Neem</t>
+          <t>Icelandic Sheepdog</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Azadirachta indica</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
         <is>
-          <t>Nettle</t>
+          <t>Iguana</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Urtica dioica</t>
+          <t>Iguana</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
         <is>
-          <t>Oak Toad</t>
+          <t>Immortal Jellyfish</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Anaxyrus quercicus</t>
+          <t>Turritopsis dohrnii</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
         <is>
-          <t>Ocelot</t>
+          <t>Impala</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Leopardus pardalis</t>
+          <t>Aepyceros melampus</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>Octopus</t>
+          <t>Imperial Moth</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Octopoda</t>
+          <t>Eacles imperialis</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
         <is>
-          <t>Okapi</t>
+          <t>Indian Cobra</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Okapia johnstoni</t>
+          <t>Naja naja</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
         <is>
-          <t>Old English Sheepdog</t>
+          <t>Indian Elephant</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Elephas maximus</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
         <is>
-          <t>Olive Baboon</t>
+          <t>Indian Giant Squirrel</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Papio anubis</t>
+          <t>Ratufa indica</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
         <is>
-          <t>Olm</t>
+          <t>Indian Grass</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proteus anguinus</t>
+          <t>Sorghastrum x</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
         <is>
-          <t>Onion</t>
+          <t>Indian Palm Squirrel</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Allium cepa</t>
+          <t>Funambulus palmarum</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
         <is>
-          <t>Opossum</t>
+          <t>Indian Rhinoceros</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Didelphidae</t>
+          <t>Rhinoceros unicornis</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
         <is>
-          <t>Orang-utan</t>
+          <t>Indian Star Tortoise</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Pongo</t>
+          <t>Geochelone elegans</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Indigo Snake</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Citrus aurantium</t>
+          <t>Drymarchon couperi</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
         <is>
-          <t>Orange-Crowned Warbler</t>
+          <t>Indochinese Tiger</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Vermivora celata</t>
+          <t>Panthera tigris corbetti</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
         <is>
-          <t>Orangutans</t>
+          <t>Indri</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Pongo</t>
+          <t>Indri indri</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
         <is>
-          <t>Orb Weaver</t>
+          <t>Irish Doodle</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Araneidae</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
         <is>
-          <t>Orca</t>
+          <t>Irish Setter</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Orcinus orca</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
         <is>
-          <t>Ortolan Bunting</t>
+          <t>Irish Terrier</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Emberiza hortulana</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
         <is>
-          <t>Oscar Fish</t>
+          <t>Irish Water Spaniel</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Astronotus ocellatus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
         <is>
-          <t>Ostrich</t>
+          <t>Irish WolfHound</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Struthio camelus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
         <is>
-          <t>Otter</t>
+          <t>Italian Greyhound</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Lutrinae</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
         <is>
-          <t>Otterhound</t>
+          <t>Ivory-billed woodpecker</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Campephilus principalis</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Ivy Geranium</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Strigiformes</t>
+          <t>Pelargonium peltatum</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
         <is>
-          <t>Ox</t>
+          <t>Jacana</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Jacanidae</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
         <is>
-          <t>Oyster</t>
+          <t>Jack Russell</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Ostreidae</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
         <is>
-          <t>Oyster Toadfish</t>
+          <t>Jackal</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Opsanus tau</t>
+          <t>Canis aureus</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
         <is>
-          <t>Oystercatcher</t>
+          <t>Jackdaw</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Haematopus ostralegus</t>
+          <t>Corvus monedula</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="inlineStr">
         <is>
-          <t>Panda</t>
+          <t>Jackfruit</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Ailuropoda melanoleuca</t>
+          <t>Artocarpus integra</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
         <is>
-          <t>Papaya</t>
+          <t>Jackrabbit</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Carica papaya</t>
+          <t>Lepus californicus</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
         <is>
-          <t>Pea</t>
+          <t>Jackson's Chameleon</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Pisum sativum</t>
+          <t>Trioceros jacksonii</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
         <is>
-          <t>Peacock Flower (Gulmohar)</t>
+          <t>Jaguar</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Delonix regia rafin</t>
+          <t>Panthera onca</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
         <is>
-          <t>Peepal</t>
+          <t>Jaguarundi Cat</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Ficus religiosa Linn.</t>
+          <t>Puma yagouaroundi</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
         <is>
-          <t>Peregrine</t>
+          <t>Japanese Beetle</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Falco peregrinus</t>
+          <t>Popillia japonica</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
         <is>
-          <t>Pheasant</t>
+          <t>Japanese Blood Grass</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Phasianus colchicus</t>
+          <t>Imperata</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
         <is>
-          <t>Pied</t>
+          <t>Japanese Chin</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>wagtail Motacilla alba</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="inlineStr">
         <is>
-          <t>Pig</t>
+          <t>Japanese Iris</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Sus scrofa domesticus</t>
+          <t>Iris ensata</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
         <is>
-          <t>Pineapple</t>
+          <t>Japanese Macaque</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Ananus sativus</t>
+          <t>Macaca fuscata</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
         <is>
-          <t>Pink</t>
+          <t>Japanese Spitz</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>footed goose Anser brachyrhynchus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
         <is>
-          <t>Pomegranate</t>
+          <t>Japanese Squirrel</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Punica granatum</t>
+          <t>Sciurus lis</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
         <is>
-          <t>Potato</t>
+          <t>Japanese Terrier</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Solanum tuberosum</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
         <is>
-          <t>Praying Mantids</t>
+          <t>Japanese tree lilac</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Mantodea</t>
+          <t>Syringa reticulata</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="inlineStr">
         <is>
-          <t>Purple orchid tree (Kachnar)</t>
+          <t>Javan Rhinoceros</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Bauhinia purpurea</t>
+          <t>Rhinoceros sondaicus</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
         <is>
-          <t>Quagga</t>
+          <t>Joe-Pye Weed</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Equus quagga quagga</t>
+          <t>Eupatorium purpureum</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="inlineStr">
         <is>
-          <t>Quail</t>
+          <t>Jonah Crab</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Coturnix coturnix</t>
+          <t>Cancer borealis</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
         <is>
-          <t>Queen snake</t>
+          <t>Joro Spider</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Regina septemvittata</t>
+          <t>Nephila clavata</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="inlineStr">
         <is>
-          <t>Quokka</t>
+          <t>Jowar</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Setonix brachyurus</t>
+          <t>Sorghum Vulgare</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="inlineStr">
         <is>
-          <t>Quoll</t>
+          <t>Jumping Spider</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Dasyurus</t>
+          <t>Salticidae</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="inlineStr">
         <is>
-          <t>Radish</t>
+          <t>Junglefowl</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Raphanus sativus</t>
+          <t>Gallus</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="inlineStr">
         <is>
-          <t>Rat snake</t>
+          <t>Kadamb</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Ptyas mucosa</t>
+          <t>Anthocephalus indicus</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="inlineStr">
         <is>
-          <t>Raven</t>
+          <t>King cobra</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Corvus corax</t>
+          <t>Ophiophagus hannah</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Kingfisher</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>kite Milvus milvus</t>
+          <t>Alcedo atthis</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="inlineStr">
         <is>
-          <t>Red fox</t>
+          <t>Lady's Mantle</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Vulpes Vulpes</t>
+          <t>Alchemilla mollis</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="inlineStr">
         <is>
-          <t>Red maple</t>
+          <t>Ladybug</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Acer rubrum</t>
+          <t>Coccinellidae</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
         <is>
-          <t>Redstart</t>
+          <t>Ladybugs</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Phoenicurus phoenicurus</t>
+          <t>Coccinellidae</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
         <is>
-          <t>Redwing</t>
+          <t>Lambs Ears</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Turdus iliacus</t>
+          <t>Stachys x</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
         <is>
-          <t>Reed</t>
+          <t>Lapwing</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>bunting Emberiza schoeniclus</t>
+          <t>Vanellus vanellus</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Lavender</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Oryza sativa</t>
+          <t>Lavendula angustifolia</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
         <is>
-          <t>Robin</t>
+          <t>Lemon</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Erithacus rubecula</t>
+          <t>Citrus Limonium</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="inlineStr">
         <is>
-          <t>Rook</t>
+          <t>Lesser</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Corvus frugilegus</t>
+          <t>redpoll Carduelis cabaret</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="inlineStr">
         <is>
-          <t>Rose</t>
+          <t>Lilac</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Syringa vulgaris</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="inlineStr">
         <is>
-          <t>Sandalwood</t>
+          <t>Lily-of-the-Valley</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Santalum album</t>
+          <t>Convallaria majalis</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="inlineStr">
         <is>
-          <t>Sea Lions</t>
+          <t>Lion</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Hydrurga leptonyx</t>
+          <t>Panthera leo</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Lobelia</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Ovis aries</t>
+          <t>Lobelia erinus</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
         <is>
-          <t>Silkworms</t>
+          <t>Locust</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Bombyx mori</t>
+          <t>Schistocerca gregaria</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="inlineStr">
         <is>
-          <t>Silver Oak</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Grevillea robusta</t>
+          <t>tailed tit Aegithalos caudatus</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="inlineStr">
         <is>
-          <t>Silverfish</t>
+          <t>Magpie</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Lepisma saccharina</t>
+          <t>Pica pica</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="inlineStr">
         <is>
-          <t>Siskin</t>
+          <t>Maiden Pink</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Carduelis spinus</t>
+          <t>Dianthus deltoides</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="inlineStr">
         <is>
-          <t>Skylark</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Alauda arvensis</t>
+          <t>Zea mays</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="inlineStr">
         <is>
-          <t>Snail</t>
+          <t>Mallard</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Gastropoda</t>
+          <t>Anas platyrhynchos</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
         <is>
-          <t>Snakefly</t>
+          <t>Mango</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Raphidioptera</t>
+          <t>Mangifera indica</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="inlineStr">
         <is>
-          <t>Snipe</t>
+          <t>Meadow</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Gallinago gallinago</t>
+          <t>pipit Anthus pratensis</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Million Gold</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>thrush Turdus philomelos</t>
+          <t>Melampodium paludosum</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="inlineStr">
         <is>
-          <t>Soya bean</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Glycine max</t>
+          <t>Mentha arvensis</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="inlineStr">
         <is>
-          <t>Sparrowhawk</t>
+          <t>Mistle</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Accipiter nisus</t>
+          <t>thrush Turdus viscivorus</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="inlineStr">
         <is>
-          <t>Sperm Whale</t>
+          <t>Moorhen</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Physeter macrocephalus</t>
+          <t>Gallinula chloropus</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="inlineStr">
         <is>
-          <t>Spinach</t>
+          <t>Mosquito</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Lactuca sativa</t>
+          <t>Culicidae</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="inlineStr">
         <is>
-          <t>Spotted</t>
+          <t>Moss Phlox</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>flycatcher Muscicapa striata</t>
+          <t>Phlox subulata</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="inlineStr">
         <is>
-          <t>Starling</t>
+          <t>Moss Verbena</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Sturnus vulgaris</t>
+          <t>Verbena tenuisecta</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="inlineStr">
         <is>
-          <t>Stink Bugs</t>
+          <t>Moths</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Halyomorpha halys</t>
+          <t>Lepidoptera</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="inlineStr">
         <is>
-          <t>Stock</t>
+          <t>Narrow-leaved Zinnia</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>dove Columba oenas</t>
+          <t>Zinnia angustifolia</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
         <is>
-          <t>Stonechat</t>
+          <t>Narwal</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Saxicola torquata</t>
+          <t>Monodon monoceros</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="inlineStr">
         <is>
-          <t>Sunflower</t>
+          <t>Nasturtium</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Helianthus annuus</t>
+          <t>Tropaeolum majus</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
         <is>
-          <t>Swallow</t>
+          <t>Neem</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Hirundo rustica</t>
+          <t>Azadirachta indica</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="inlineStr">
         <is>
-          <t>Sweet Potato</t>
+          <t>Nettle</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Ipomoea batatas</t>
+          <t>Urtica dioica</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="inlineStr">
         <is>
-          <t>Tamarind tree</t>
+          <t>New England Aster</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Tamarindus indica</t>
+          <t>Aster novae-angliae</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="inlineStr">
         <is>
-          <t>Teak</t>
+          <t>New Guniea Impatiens</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Tectona grandis Linn.</t>
+          <t>Impatiens hawkeri</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
         <is>
-          <t>Termite</t>
+          <t>Oak Toad</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Isoptera</t>
+          <t>Anaxyrus quercicus</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="inlineStr">
         <is>
-          <t>Termites</t>
+          <t>Ocelot</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Isoptera</t>
+          <t>Leopardus pardalis</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
         <is>
-          <t>Tick</t>
+          <t>Octopus</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Ixodida</t>
+          <t>Octopoda</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
         <is>
-          <t>Tiger</t>
+          <t>Okapi</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Panthera tigris</t>
+          <t>Okapia johnstoni</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
         <is>
-          <t>Tiger Shark</t>
+          <t>Old English Sheepdog</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Galeocerdo cuvier</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
         <is>
-          <t>Tobacco</t>
+          <t>Olive Baboon</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Nicotina tobaccum</t>
+          <t>Papio anubis</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
         <is>
-          <t>Tomato</t>
+          <t>Olm</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Lycopersicon esculentum</t>
+          <t>Proteus anguinus</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
         <is>
-          <t>Tree</t>
+          <t>Onion</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>pipit Anthus trivialis</t>
+          <t>Allium cepa</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
         <is>
-          <t>Treecreeper</t>
+          <t>Opossum</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Certhia familiaris</t>
+          <t>Didelphidae</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
         <is>
-          <t>Tufted</t>
+          <t>Orang-utan</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>duck Aythya fuligula</t>
+          <t>Pongo</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
         <is>
-          <t>Tulsi</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Ocimum sanctum</t>
+          <t>Citrus aurantium</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
         <is>
-          <t>Turmeric</t>
+          <t>Orange-Crowned Warbler</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Curcuma longa</t>
+          <t>Vermivora celata</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
         <is>
-          <t>Uakari</t>
+          <t>Orangutans</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Cacajao</t>
+          <t>Pongo</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
         <is>
-          <t>Uguisu</t>
+          <t>Orb Weaver</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Horornis diphone</t>
+          <t>Araneidae</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
         <is>
-          <t>Uinta Ground Squirrel</t>
+          <t>Orca</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Urocitellus armatus</t>
+          <t>Orcinus orca</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
         <is>
-          <t>Umbrellabird</t>
+          <t>Ornamental Pepper</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Cephalopterus</t>
+          <t>Capsicum annuum</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
         <is>
-          <t>Unau</t>
+          <t>Ornamental Purslane</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Choloepus didactylus</t>
+          <t>Portulaca oleracea</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
         <is>
-          <t>Ural owl</t>
+          <t>Ornamental Sweet Potato</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Strix uralensis</t>
+          <t>Ipomoea batatas</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
         <is>
-          <t>Utonagan</t>
+          <t>Ortolan Bunting</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Emberiza hortulana</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
         <is>
-          <t>Vampire Bat</t>
+          <t>Oscar Fish</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Desmodontinae</t>
+          <t>Astronotus ocellatus</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
         <is>
-          <t>Vampire Squid</t>
+          <t>Ostrich</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Vampyroteuthis infernalis</t>
+          <t>Struthio camelus</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="inlineStr">
         <is>
-          <t>Vaquita</t>
+          <t>Otter</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Phocoena sinus</t>
+          <t>Lutrinae</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="inlineStr">
         <is>
-          <t>Venus Flytrap</t>
+          <t>Otterhound</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Dionaea muscipula</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="inlineStr">
         <is>
-          <t>Vervet Monkey</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Chlorocebus pygerythrus</t>
+          <t>Strigiformes</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="inlineStr">
         <is>
-          <t>VicuÃ±a</t>
+          <t>Ox</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Vicugna vicugna</t>
+          <t>Bos taurus</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="inlineStr">
         <is>
-          <t>Vinegaroon</t>
+          <t>Oyster</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Uropygi</t>
+          <t>Ostreidae</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="inlineStr">
         <is>
-          <t>Viper shark (dogfish)</t>
+          <t>Oyster Toadfish</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Trigonognathus kabeyai</t>
+          <t>Opsanus tau</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="inlineStr">
         <is>
-          <t>Virgin Islands Dwarf Gecko</t>
+          <t>Oystercatcher</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Sphaerodactylus parthenopion</t>
+          <t>Haematopus ostralegus</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="inlineStr">
         <is>
-          <t>Vizsla</t>
+          <t>PJM Rhododendron (group)</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Rhododendron PJM Group</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="inlineStr">
         <is>
-          <t>Volpino Italiano</t>
+          <t>Panda</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Ailuropoda melanoleuca</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="inlineStr">
         <is>
-          <t>Walrus</t>
+          <t>Papaya</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Odobenus rosmarus</t>
+          <t>Carica papaya</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="inlineStr">
         <is>
-          <t>Wasp</t>
+          <t>Pea</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Vespa</t>
+          <t>Pisum sativum</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="inlineStr">
         <is>
-          <t>Wasps</t>
+          <t>Peacock Flower (Gulmohar)</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Vespidae</t>
+          <t>Delonix regia rafin</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="inlineStr">
         <is>
-          <t>Water Buffalo</t>
+          <t>Peepal</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Bubalus bubalis</t>
+          <t>Ficus religiosa Linn.</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="inlineStr">
         <is>
-          <t>Watermelon</t>
+          <t>Peony</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Citrullus vulgaris</t>
+          <t>Paeonia Iactiflora</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="inlineStr">
         <is>
-          <t>Whale Shark</t>
+          <t>Peregrine</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Rhincodon typus</t>
+          <t>Falco peregrinus</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="inlineStr">
         <is>
-          <t>Wheatear</t>
+          <t>Petunia</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Oenanthe oenanthe</t>
+          <t>Petunia x hybrida</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="inlineStr">
         <is>
-          <t>Whinchat</t>
+          <t>Pheasant</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Saxicola rubetra</t>
+          <t>Phasianus colchicus</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="inlineStr">
         <is>
-          <t>Whitethroat</t>
+          <t>Pied</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Sylvia communis</t>
+          <t>wagtail Motacilla alba</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="inlineStr">
         <is>
-          <t>Willow</t>
+          <t>Pig</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>warbler Phylloscopus trochilus</t>
+          <t>Sus scrofa domesticus</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="inlineStr">
         <is>
-          <t>Wolf</t>
+          <t>Pineapple</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Canis lupus</t>
+          <t>Ananus sativus</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="inlineStr">
         <is>
-          <t>Wood</t>
+          <t>Pink</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>warbler Phylloscopus sibilatrix</t>
+          <t>footed goose Anser brachyrhynchus</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="inlineStr">
         <is>
-          <t>Woodpigeon</t>
+          <t>Pink Cosmos</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Columba palumbus</t>
+          <t>Cosmos bipinnatus</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="inlineStr">
         <is>
-          <t>Wren</t>
+          <t>Pinwheel Zinnia</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Troglodytes troglodytes</t>
+          <t>Zinnia marylandica</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="inlineStr">
         <is>
-          <t>X-Ray Tetra</t>
+          <t>Plumed Cockscomb</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Pristella maxillaris</t>
+          <t>Celosia agentea var. plumosa</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="inlineStr">
         <is>
-          <t>Xerus</t>
+          <t>Pomegranate</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Xerus</t>
+          <t>Punica granatum</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="inlineStr">
         <is>
-          <t>Xoloitzcuintli</t>
+          <t>Potato</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Solanum tuberosum</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="inlineStr">
         <is>
-          <t>Yak</t>
+          <t>Prairie Gayfeather</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Bos grunniens</t>
+          <t>Liatris spicata</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="inlineStr">
         <is>
-          <t>Yakutian Laika</t>
+          <t>Praying Mantids</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Mantodea</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="inlineStr">
         <is>
-          <t>Yellow Sac Spider</t>
+          <t>Purple Coneflower</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Cheiracanthium inclusum</t>
+          <t>Echinacea purpurea</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="inlineStr">
         <is>
-          <t>Yellow Spotted Lizard</t>
+          <t>Purple Millet</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Lepidophyma flavimaculatum</t>
+          <t>Pennisetum glaucum</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="inlineStr">
         <is>
-          <t>Yellow-Eyed Penguin</t>
+          <t>Purple orchid tree (Kachnar)</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Megadyptes antipodes</t>
+          <t>Bauhinia purpurea</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="inlineStr">
         <is>
-          <t>Yellowfin Tuna</t>
+          <t>Quagga</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Thunnus albacares</t>
+          <t>Equus quagga quagga</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="inlineStr">
         <is>
-          <t>Yellowhammer</t>
+          <t>Quail</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Emberiza citrinella</t>
+          <t>Coturnix coturnix</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="inlineStr">
         <is>
-          <t>Yeti Crab</t>
+          <t>Queen snake</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Kiwa hirsuta</t>
+          <t>Regina septemvittata</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="inlineStr">
         <is>
-          <t>Yorkie-poo</t>
+          <t>Quokka</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Setonix brachyurus</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="inlineStr">
         <is>
-          <t>Yorkshire Terrier</t>
+          <t>Quoll</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Dasyurus</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="inlineStr">
         <is>
-          <t>Coral Snake</t>
+          <t>Radish</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Micrurus fulvius</t>
+          <t>Raphanus sativus</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="inlineStr">
         <is>
-          <t>Apple Head Chihuahua</t>
+          <t>Rat snake</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Ptyas mucosa</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="inlineStr">
         <is>
-          <t>Australian Gecko</t>
+          <t>Raven</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Nephrurus levis</t>
+          <t>Corvus corax</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="inlineStr">
         <is>
-          <t>Angora Ferret</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Mustela furo</t>
+          <t>kite Milvus milvus</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="inlineStr">
         <is>
-          <t>Antarctic scale worm</t>
+          <t>Red fox</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Eulagisca gigantea</t>
+          <t>Vulpes Vulpes</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="inlineStr">
         <is>
-          <t>Aussiedor</t>
+          <t>Red maple</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Acer rubrum</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="inlineStr">
         <is>
-          <t>Zebra</t>
+          <t>Red-hot Poker</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Equus quagga</t>
+          <t>Kniphofia uvaria</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="inlineStr">
         <is>
-          <t>Zebra Finch</t>
+          <t>Redstart</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Taeniopygia guttata castanotis</t>
+          <t>Phoenicurus phoenicurus</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="inlineStr">
         <is>
-          <t>Zebra Mussels</t>
+          <t>Redwing</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Dreissena polymorpha</t>
+          <t>Turdus iliacus</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="inlineStr">
         <is>
-          <t>Zebra Pleco</t>
+          <t>Reed</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Hypancistrus zebra</t>
+          <t>bunting Emberiza schoeniclus</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="inlineStr">
         <is>
-          <t>Zebra Shark</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Stegostoma fasciatum</t>
+          <t>Oryza sativa</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="inlineStr">
         <is>
-          <t>Zebu</t>
+          <t>River Birch</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Bos taurus indicus</t>
+          <t>Betula nigra</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="inlineStr">
         <is>
-          <t>Zonkey</t>
+          <t>Robin</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Equus zebra x Equus asinus</t>
+          <t>Erithacus rubecula</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="inlineStr">
         <is>
-          <t>Zorse</t>
+          <t>Rook</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Equus zebra x Equus caballus</t>
+          <t>Corvus frugilegus</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="inlineStr">
         <is>
+          <t>Rose</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Rosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="inlineStr">
+        <is>
+          <t>Rose Campion</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Lychnis coronaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="inlineStr">
+        <is>
+          <t>Rose Moss</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Portulaca grandiflora</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>Russian Sage</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Perovskia atriplicifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="inlineStr">
+        <is>
+          <t>Salvia May Night</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Salvia nemerosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="inlineStr">
+        <is>
+          <t>Sandalwood</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Santalum album</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="inlineStr">
+        <is>
+          <t>Saucer Magnolia</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Magnolia x soulangiana</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="inlineStr">
+        <is>
+          <t>Sea Holly</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Eryngium amethystinum</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="inlineStr">
+        <is>
+          <t>Sea Lions</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Hydrurga leptonyx</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="inlineStr">
+        <is>
+          <t>Shasta Daisy</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Leucanthemum x superbum</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="inlineStr">
+        <is>
+          <t>Sheep</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Ovis aries</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="inlineStr">
+        <is>
+          <t>Showy Stonecrop</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Sedum spectabile</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="inlineStr">
+        <is>
+          <t>Siberian Iris</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Iris sibirica</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="inlineStr">
+        <is>
+          <t>Siebold Hosta</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Hosta sieboldiana</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="inlineStr">
+        <is>
+          <t>Siebold viburnum</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Viburnum sieboldii</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="inlineStr">
+        <is>
+          <t>Signet Marigold</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Tagetes tenuifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="inlineStr">
+        <is>
+          <t>Silkworms</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Bombyx mori</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="inlineStr">
+        <is>
+          <t>Silver Oak</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Grevillea robusta</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="inlineStr">
+        <is>
+          <t>Silverfish</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Lepisma saccharina</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="inlineStr">
+        <is>
+          <t>Siskin</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Carduelis spinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="inlineStr">
+        <is>
+          <t>Skylark</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Alauda arvensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="inlineStr">
+        <is>
+          <t>Snail</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Gastropoda</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="inlineStr">
+        <is>
+          <t>Snakefly</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Raphidioptera</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="inlineStr">
+        <is>
+          <t>Snapdragon</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Antirrhinum majus</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>Snipe</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Gallinago gallinago</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>Snow-in-Summer</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Cerastium tomentosum</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>Solcito Zinnia</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Zinnia maritima 'Solcito'</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="inlineStr">
+        <is>
+          <t>Song</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>thrush Turdus philomelos</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="inlineStr">
+        <is>
+          <t>Soya bean</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Glycine max</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="inlineStr">
+        <is>
+          <t>Sparrowhawk</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Accipiter nisus</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="inlineStr">
+        <is>
+          <t>Sperm Whale</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Physeter macrocephalus</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>Spice bush</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Lindera benzoin</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="inlineStr">
+        <is>
+          <t>Spider Flower</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Cleome hassleriana</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="inlineStr">
+        <is>
+          <t>Spinach</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Lactuca sativa</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="inlineStr">
+        <is>
+          <t>Spotted</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>flycatcher Muscicapa striata</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="inlineStr">
+        <is>
+          <t>Starling</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Sturnus vulgaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="inlineStr">
+        <is>
+          <t>Stiletto Hybrid Hosta</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Hosta 'Stiletto'</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>Stink Bugs</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Halyomorpha halys</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>dove Columba oenas</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>Stonechat</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Saxicola torquata</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>Sugar Maple</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Acer saccharum</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>Summer Snapdragon</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Angelonia angustifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>Sun and Substance Hybrid Hosta</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Hosta 'Sun and Substance'</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>Sunflower</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Helianthus annuus</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>Swallow</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Hirundo rustica</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>Sweet Alyssum</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Lobularia maritima</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>Sweet Potato</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Ipomoea batatas</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>Tall Verbena</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Verbena bonariensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>Tamarind tree</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Tamarindus indica</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>Teak</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Tectona grandis Linn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>Termite</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Isoptera</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>Termites</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Isoptera</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>Texas Sage</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Salvia coccinea</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>Thread-leaf Tickseed</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Coreopsis verticillata</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>Tick</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Ixodida</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>Tiger</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Panthera tigris</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>Tiger Shark</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Galeocerdo cuvier</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="inlineStr">
+        <is>
+          <t>Tobacco</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Nicotina tobaccum</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Lycopersicon esculentum</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>Tree</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>pipit Anthus trivialis</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>Treecreeper</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Certhia familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>Tuberous-rooted Begonia</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Begonia x tuberhybrida</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>Tufted</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>duck Aythya fuligula</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>Tulsi</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Ocimum sanctum</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>Turmeric</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Curcuma longa</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>Uakari</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Cacajao</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>Uguisu</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Horornis diphone</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>Uinta Ground Squirrel</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Urocitellus armatus</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>Umbrellabird</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Cephalopterus</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>Unau</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Choloepus didactylus</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>Ural owl</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Strix uralensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="inlineStr">
+        <is>
+          <t>Utonagan</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>Vampire Bat</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Desmodontinae</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>Vampire Squid</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Vampyroteuthis infernalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="inlineStr">
+        <is>
+          <t>Vaquita</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Phocoena sinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>Variegated Solomon's Seal</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Polygonatum odoratum</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>Venus Flytrap</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Dionaea muscipula</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>Vervet Monkey</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Chlorocebus pygerythrus</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>VicuÃ±a</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Vicugna vicugna</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>Vinegaroon</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Uropygi</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>Viper shark (dogfish)</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Trigonognathus kabeyai</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>Virgin Islands Dwarf Gecko</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Sphaerodactylus parthenopion</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>Vizsla</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>Volpino Italiano</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>Walrus</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Odobenus rosmarus</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>Wasp</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Vespa</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>Wasps</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Vespidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>Water Buffalo</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Bubalus bubalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>Watermelon</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Citrullus vulgaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>Wavy-leaved Hosta</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Hosta undulata</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>Wax Begonia</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Begonia x semperflorens-cultorum</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>Whale Shark</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Rhincodon typus</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>Wheat Cockscomb</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Celosia agentea var. spicata</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>Wheatear</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Oenanthe oenanthe</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="inlineStr">
+        <is>
+          <t>Whinchat</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Saxicola rubetra</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="inlineStr">
+        <is>
+          <t>Whitethroat</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Sylvia communis</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="inlineStr">
+        <is>
+          <t>Willow</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>warbler Phylloscopus trochilus</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="inlineStr">
+        <is>
+          <t>Wolf</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Canis lupus</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>warbler Phylloscopus sibilatrix</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="inlineStr">
+        <is>
+          <t>Woodpigeon</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Columba palumbus</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="inlineStr">
+        <is>
+          <t>Wren</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Troglodytes troglodytes</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="inlineStr">
+        <is>
+          <t>X-Ray Tetra</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Pristella maxillaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="inlineStr">
+        <is>
+          <t>Xerus</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Xerus</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="inlineStr">
+        <is>
+          <t>Xoloitzcuintli</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="inlineStr">
+        <is>
+          <t>Yak</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Bos grunniens</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="inlineStr">
+        <is>
+          <t>Yakutian Laika</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="inlineStr">
+        <is>
+          <t>Yarrow</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Achillea millefolium</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="inlineStr">
+        <is>
+          <t>Yellow Cosmos</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Cosmos sulphureus</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="inlineStr">
+        <is>
+          <t>Yellow Sac Spider</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Cheiracanthium inclusum</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="inlineStr">
+        <is>
+          <t>Yellow Spotted Lizard</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Lepidophyma flavimaculatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="inlineStr">
+        <is>
+          <t>Yellow-Eyed Penguin</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Megadyptes antipodes</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="inlineStr">
+        <is>
+          <t>Yellowfin Tuna</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Thunnus albacares</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="inlineStr">
+        <is>
+          <t>Yellowhammer</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Emberiza citrinella</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="inlineStr">
+        <is>
+          <t>Yeti Crab</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Kiwa hirsuta</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="inlineStr">
+        <is>
+          <t>Yorkie-poo</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="inlineStr">
+        <is>
+          <t>Yorkshire Terrier</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="inlineStr">
+        <is>
+          <t>Zebra</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Equus quagga</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Finch</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Taeniopygia guttata castanotis</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Mussels</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Dreissena polymorpha</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Pleco</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Hypancistrus zebra</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Shark</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Stegostoma fasciatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="inlineStr">
+        <is>
+          <t>Zebu</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Bos taurus indicus</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="inlineStr">
+        <is>
+          <t>Zonal Geranium</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Pelargonium x hortorum</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="inlineStr">
+        <is>
+          <t>Zonkey</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Equus zebra x Equus asinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="inlineStr">
+        <is>
+          <t>Zorse</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Equus zebra x Equus caballus</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="inlineStr">
+        <is>
           <t>Zuchon</t>
         </is>
       </c>
-      <c r="B565" t="inlineStr">
-        <is>
-          <t>Canis lupus familiaris</t>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="inlineStr">
+        <is>
+          <t>chokeberry</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Aronia arbutifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="inlineStr">
+        <is>
+          <t>oakleaf hydrangea</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Hydrangea quercifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="inlineStr">
+        <is>
+          <t>smoketree</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Cotinus coggygria</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="inlineStr">
+        <is>
+          <t>thornless honeylocust</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Gleditsia tricanthos f. inermis</t>
         </is>
       </c>
     </row>

--- a/nomenclature.xlsx
+++ b/nomenclature.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B694"/>
+  <dimension ref="A1:B773"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,535 +1125,535 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Amur Leopard</t>
+          <t>Amla</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Panthera pardus orientalis</t>
+          <t>Phyllanthus emblica</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Anaconda</t>
+          <t>Amur Leopard</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Eunectes murinus</t>
+          <t>Panthera pardus orientalis</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Anatolian Shepherd Dog</t>
+          <t>Anaconda</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Eunectes murinus</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Anchovies</t>
+          <t>Anatolian Shepherd Dog</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Engraulidae</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Angelfish</t>
+          <t>Anchovies</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Pterophyllum</t>
+          <t>Engraulidae</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Anglerfish</t>
+          <t>Angelfish</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Lophiiformes</t>
+          <t>Pterophyllum</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Angora Ferret</t>
+          <t>Anglerfish</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Mustela furo</t>
+          <t>Lophiiformes</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Angora Goat</t>
+          <t>Angora Ferret</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Capra aegagrus hircus</t>
+          <t>Mustela furo</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Annual Vinca</t>
+          <t>Angora Goat</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Catharanthus roseus</t>
+          <t>Capra aegagrus hircus</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Anole Lizard</t>
+          <t>Annual Vinca</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Anolis carolinensis</t>
+          <t>Catharanthus roseus</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Ant</t>
+          <t>Anole Lizard</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Formicidae</t>
+          <t>Anolis carolinensis</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Antarctic scale worm</t>
+          <t>Ant</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Eulagisca gigantea</t>
+          <t>Formicidae</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Anteater</t>
+          <t>Antarctic scale worm</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Vermilingua</t>
+          <t>Eulagisca gigantea</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Antelope</t>
+          <t>Anteater</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Bovidae</t>
+          <t>Vermilingua</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Ants</t>
+          <t>Antelope</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Formicidae</t>
+          <t>Bovidae</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Ape</t>
+          <t>Ants</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Hominoidea</t>
+          <t>Formicidae</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Appenzeller Dog</t>
+          <t>Ape</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Hominoidea</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Appenzeller Dog</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Pyrus malus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Apple Head Chihuahua</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Pyrus malus</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Arafura File Snake</t>
+          <t>Apple Head Chihuahua</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Acrochordus arafurae</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Arapaima</t>
+          <t>Apricot</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Arapaima</t>
+          <t>Prunus armeniaca</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Arctic Fox</t>
+          <t>Arafura File Snake</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Vulpes lagopus</t>
+          <t>Acrochordus arafurae</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Arctic Hare</t>
+          <t>Arapaima</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Lepus arcticus</t>
+          <t>Arapaima</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Arctic Wolf</t>
+          <t>Arctic Fox</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Canis lupus arctos</t>
+          <t>Vulpes lagopus</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Arizona Bark Scorpion</t>
+          <t>Arctic Hare</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Centruroides sculpturatus</t>
+          <t>Lepus arcticus</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Arizona Black Rattlesnake</t>
+          <t>Arctic Wolf</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Crotalus cerberus</t>
+          <t>Canis lupus arctos</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Armadillo</t>
+          <t>Arizona Bark Scorpion</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Cingulata</t>
+          <t>Centruroides sculpturatus</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Armadillo Lizard</t>
+          <t>Arizona Black Rattlesnake</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Ouroborus cataphractus</t>
+          <t>Crotalus cerberus</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Armyworm</t>
+          <t>Armadillo</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Spodoptera frugiperda</t>
+          <t>Cingulata</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Aruba Rattlesnake</t>
+          <t>Armadillo Lizard</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Crotalus durissus unicolor</t>
+          <t>Ouroborus cataphractus</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Asian Cockroach</t>
+          <t>Armyworm</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Blattella asahinai</t>
+          <t>Spodoptera frugiperda</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Asian Elephant</t>
+          <t>Artichoke</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Elephas maximus</t>
+          <t>Cynara cardunculus var. scolymus</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Asian Giant Hornet</t>
+          <t>Aruba Rattlesnake</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Vespa mandarinia</t>
+          <t>Crotalus durissus unicolor</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Asian Palm Civet</t>
+          <t>Arugula</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Paradoxurus hermaphroditus</t>
+          <t>Eruca vesicaria ssp. sativa</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Asiatic Black Bear</t>
+          <t>Asian Cockroach</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ursus thibetanus</t>
+          <t>Blattella asahinai</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Asp</t>
+          <t>Asian Elephant</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Vipera aspis</t>
+          <t>Elephas maximus</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Assassin Bug</t>
+          <t>Asian Giant Hornet</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Reduviidae</t>
+          <t>Vespa mandarinia</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Aurochs</t>
+          <t>Asian Palm Civet</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Bos primigenius</t>
+          <t>Paradoxurus hermaphroditus</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Aussiedoodle</t>
+          <t>Asiatic Black Bear</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Ursus thibetanus</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Aussiedor</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Vipera aspis</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Australian Bulldog</t>
+          <t>Asparagus</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Asparagus officinalis</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Australian Cattle Dog</t>
+          <t>Assassin Bug</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Reduviidae</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Australian Cockroach</t>
+          <t>Aurochs</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Periplaneta australasiae</t>
+          <t>Bos primigenius</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Australian Gecko</t>
+          <t>Aussiedoodle</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Nephrurus levis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Australian Kelpie Dog</t>
+          <t>Aussiedor</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1665,7 +1665,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Australian Labradoodle</t>
+          <t>Australian Bulldog</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1677,43 +1677,43 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Australian Mist</t>
+          <t>Australian Cattle Dog</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Felis catus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Australian Retriever</t>
+          <t>Australian Cockroach</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Periplaneta australasiae</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Australian Shepherd</t>
+          <t>Australian Gecko</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Nephrurus levis</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Australian Terrier</t>
+          <t>Australian Kelpie Dog</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1725,463 +1725,463 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Avocet</t>
+          <t>Australian Labradoodle</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Recurvirostra</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Axolotl</t>
+          <t>Australian Mist</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Ambystoma mexicanum</t>
+          <t>Felis catus</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Aye Aye</t>
+          <t>Australian Retriever</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Daubentonia madagascariensis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Babirusa</t>
+          <t>Australian Shepherd</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Babyrousa</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Baboon</t>
+          <t>Australian Terrier</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Papio</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Bacopa</t>
+          <t>Avocado</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Sutera cordata</t>
+          <t>Persea americana</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Bactrian Camel</t>
+          <t>Avocet</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Camelus bactrianus</t>
+          <t>Recurvirostra</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Baiji</t>
+          <t>Axolotl</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Lipotes vexillifer</t>
+          <t>Ambystoma mexicanum</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Bald Eagle</t>
+          <t>Aye Aye</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Haliaeetus leucocephalus</t>
+          <t>Daubentonia madagascariensis</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Baleen Whale</t>
+          <t>Babirusa</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Mysticeti</t>
+          <t>Babyrousa</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Balinese</t>
+          <t>Baboon</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Felis catus</t>
+          <t>Papio</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Balkan Lynx</t>
+          <t>Bacopa</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Lynx lynx balcanicus</t>
+          <t>Sutera cordata</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Ball Python</t>
+          <t>Bactrian Camel</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Python regius</t>
+          <t>Camelus bactrianus</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Balloon Flower</t>
+          <t>Baiji</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Platycodon grandiflorus</t>
+          <t>Lipotes vexillifer</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Bamboo</t>
+          <t>Bald Eagle</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Bamboosa aridinarifolia</t>
+          <t>Haliaeetus leucocephalus</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Banana</t>
+          <t>Baleen Whale</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Musa paradisicum</t>
+          <t>Mysticeti</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Banana Ball Python</t>
+          <t>Balinese</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Python regius</t>
+          <t>Felis catus</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Banana Spider</t>
+          <t>Balkan Lynx</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Nephila</t>
+          <t>Lynx lynx balcanicus</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Banded Palm Civet</t>
+          <t>Ball Python</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Hemigalus derbyanus</t>
+          <t>Python regius</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Banded Water Snake</t>
+          <t>Balloon Flower</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Nerodia fasciata</t>
+          <t>Platycodon grandiflorus</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Bandicoot</t>
+          <t>Bamboo</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Peramelemorphia</t>
+          <t>Bamboosa aridinarifolia</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Banjo Catfish</t>
+          <t>Banana</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Aspredinidae</t>
+          <t>Musa paradisicum</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Banyan</t>
+          <t>Banana Ball Python</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Ficus benghalensis</t>
+          <t>Python regius</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Barb</t>
+          <t>Banana Spider</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Barbus</t>
+          <t>Nephila</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Barbet</t>
+          <t>Banded Palm Civet</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Megalaimidae</t>
+          <t>Hemigalus derbyanus</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Barley</t>
+          <t>Banded Water Snake</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Hordeum vulgare</t>
+          <t>Nerodia fasciata</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Barn Owl</t>
+          <t>Bandicoot</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Tyto alba</t>
+          <t>Peramelemorphia</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Barn Swallow</t>
+          <t>Banjo Catfish</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Hirundo rustica</t>
+          <t>Aspredinidae</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Barnacle</t>
+          <t>Banyan</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Cirripedia</t>
+          <t>Ficus benghalensis</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Barracuda</t>
+          <t>Barb</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Sphyraena</t>
+          <t>Barbus</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Barramundi Fish</t>
+          <t>Barbet</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Lates calcarifer</t>
+          <t>Megalaimidae</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Barred Owl</t>
+          <t>Barley</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Strix varia</t>
+          <t>Hordeum vulgare</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Basenji Dog</t>
+          <t>Barn Owl</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Tyto alba</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Basilisk Lizard</t>
+          <t>Barn Swallow</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Basiliscus basiliscus</t>
+          <t>Hirundo rustica</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Basking Shark</t>
+          <t>Barnacle</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Cetorhinus maximus</t>
+          <t>Cirripedia</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Bassador</t>
+          <t>Barracuda</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Sphyraena</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Basset Fauve de Bretagne</t>
+          <t>Barramundi Fish</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Lates calcarifer</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Basset Hound</t>
+          <t>Barred Owl</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Strix varia</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Bassetoodle</t>
+          <t>Basenji Dog</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2193,43 +2193,43 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Bat</t>
+          <t>Basilisk Lizard</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Chiroptera</t>
+          <t>Basiliscus basiliscus</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Bavarian Mountain Hound</t>
+          <t>Basking Shark</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Cetorhinus maximus</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Baya</t>
+          <t>Bassador</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Ploceus philippinus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Bea-Tzu</t>
+          <t>Basset Fauve de Bretagne</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2241,7 +2241,7 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Beabull</t>
+          <t>Basset Hound</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2253,7 +2253,7 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Beagador</t>
+          <t>Bassetoodle</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2265,19 +2265,19 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Beagle</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Chiroptera</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Beagle Shepherd</t>
+          <t>Bavarian Mountain Hound</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2289,19 +2289,19 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Beaglier</t>
+          <t>Baya</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Ploceus philippinus</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Beago</t>
+          <t>Bea-Tzu</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2313,19 +2313,19 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Bear</t>
+          <t>Beabull</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ursidae</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Bearded Collie</t>
+          <t>Beagador</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2337,31 +2337,31 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Bearded Dragon</t>
+          <t>Beagle</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Pogona</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Bearded Vulture</t>
+          <t>Beagle Shepherd</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Gypaetus barbatus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Beaski </t>
+          <t>Beaglier</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Beauceron</t>
+          <t>Beago</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2385,55 +2385,55 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Beautybush</t>
+          <t>Bear</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Kolkwitzia amabilis</t>
+          <t>Ursidae</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Beaver</t>
+          <t>Bearded Collie</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Castor</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Bed Bugs</t>
+          <t>Bearded Dragon</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Cimicidae</t>
+          <t>Pogona</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Bed bugs</t>
+          <t>Bearded Vulture</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Cimicidae</t>
+          <t>Gypaetus barbatus</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Bedlington Terrier</t>
+          <t xml:space="preserve">Beaski </t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2445,163 +2445,163 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Bee</t>
+          <t>Beauceron</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Anthophila</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Bee-Balm</t>
+          <t>Beautybush</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Monarda didyma</t>
+          <t>Kolkwitzia amabilis</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Beefalo</t>
+          <t>Beaver</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Bos taurus X Bison bison</t>
+          <t>Castor</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Bees</t>
+          <t>Bed Bugs</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Anthophila</t>
+          <t>Cimicidae</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Beetle</t>
+          <t>Bed bugs</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Coleoptera</t>
+          <t>Cimicidae</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Beetles</t>
+          <t>Bedlington Terrier</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Coleoptera</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Belgian Shepherd</t>
+          <t>Bee</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Anthophila</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Belgian Tervuren</t>
+          <t>Bee-Balm</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Monarda didyma</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Beluga Sturgeon</t>
+          <t>Beefalo</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Huso huso</t>
+          <t>Bos taurus X Bison bison</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Beluga whale</t>
+          <t>Bees</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Delphinapterus leucas</t>
+          <t>Anthophila</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Bengal Tiger</t>
+          <t>Beetle</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Panthera tigris tigris</t>
+          <t>Coleoptera</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Bergamasco</t>
+          <t>Beetles</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Coleoptera</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Berger Picard</t>
+          <t>Beetroot/ Beet</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Beta vulgaris</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Bernedoodle</t>
+          <t>Belgian Shepherd</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2613,7 +2613,7 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Bernese Mountain Dog</t>
+          <t>Belgian Tervuren</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2625,55 +2625,55 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Bernese Shepherd</t>
+          <t>Bell Pepper</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Capsicum annuum Group</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Betta Fish (Siamese Fighting Fish)</t>
+          <t>Beluga Sturgeon</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Betta splendens</t>
+          <t>Huso huso</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Bichir</t>
+          <t>Beluga whale</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Polypteridae</t>
+          <t>Delphinapterus leucas</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Bichon Frise</t>
+          <t>Bengal Tiger</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Panthera tigris tigris</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Bichpoo</t>
+          <t>Bergamasco</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2685,7 +2685,7 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Biewer Terrier</t>
+          <t>Berger Picard</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2697,715 +2697,715 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Bighorn Sheep</t>
+          <t>Bernedoodle</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Ovis canadensis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Bilby</t>
+          <t>Bernese Mountain Dog</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Macrotis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Binturong</t>
+          <t>Bernese Shepherd</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Arctictis binturong</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Betta Fish (Siamese Fighting Fish)</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Aves</t>
+          <t>Betta splendens</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Bird Of Paradise</t>
+          <t>Bichir</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Strelitzia</t>
+          <t>Polypteridae</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Birman</t>
+          <t>Bichon Frise</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Felis catus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Biscuit Beetle</t>
+          <t>Bichpoo</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Stegobium paniceum</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Bison</t>
+          <t>Biewer Terrier</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Bison</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Black And Tan Coonhound</t>
+          <t>Bighorn Sheep</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Ovis canadensis</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Black Gram</t>
+          <t>Bilby</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Palsoes mungo</t>
+          <t>Macrotis</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Black Mamba</t>
+          <t>Binturong</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Dendroaspis polylepis</t>
+          <t>Arctictis binturong</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Black Marlin</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Istiompax indica</t>
+          <t>Aves</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>Black Pepper</t>
+          <t>Bird Of Paradise</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Piper nigrum</t>
+          <t>Strelitzia</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Black Rhinoceros</t>
+          <t>Birman</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Diceros bicornis</t>
+          <t>Felis catus</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Black Russian Terrier</t>
+          <t>Biscuit Beetle</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Stegobium paniceum</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Black Wasp</t>
+          <t>Bison</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Sphex pensylvanicus</t>
+          <t>Bison</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Black Widow Spider</t>
+          <t>Bitter Melon</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Latrodectus</t>
+          <t>Momordica charantia</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Black-Capped Chickadee</t>
+          <t>Black And Tan Coonhound</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Poecile atricapillus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>Black-Footed Ferret</t>
+          <t>Black Gram</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Mustela nigripes</t>
+          <t>Palsoes mungo</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Black-eyed Susan</t>
+          <t>Black Mamba</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Rudbeckia hirta</t>
+          <t>Dendroaspis polylepis</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Blackbuck</t>
+          <t>Black Marlin</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Antilope cervicapra</t>
+          <t>Istiompax indica</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Blackpoll Warbler</t>
+          <t>Black Pepper</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Setophaga striata</t>
+          <t>Piper nigrum</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>Blanket Octopus</t>
+          <t>Black Rhinoceros</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Tremoctopus</t>
+          <t>Diceros bicornis</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>Bleeding-heart</t>
+          <t>Black Russian Terrier</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Dicentra spectabilis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>Blister Beetle</t>
+          <t>Black Wasp</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Meloidae</t>
+          <t>Sphex pensylvanicus</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>Blobfish</t>
+          <t>Black Widow Spider</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Psychrolutes marcidus</t>
+          <t>Latrodectus</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Blood Python</t>
+          <t>Black-Capped Chickadee</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Python brongersmai</t>
+          <t>Poecile atricapillus</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Bloodhound</t>
+          <t>Black-Footed Ferret</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Mustela nigripes</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>Bloody Cranesbill</t>
+          <t>Black-eyed Susan</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Geranium sanguineum</t>
+          <t>Rudbeckia hirta</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>Blue Belly Lizard</t>
+          <t>Blackberry</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Sceloporus occidentalis</t>
+          <t>Rubus</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>Blue Catfish</t>
+          <t>Blackbuck</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Ictalurus furcatus</t>
+          <t>Antilope cervicapra</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>Blue Fescue</t>
+          <t>Blackcurrant</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Festuca glauca</t>
+          <t>Ribes nigrum</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>Blue Iguana</t>
+          <t>Blackpoll Warbler</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Cyclura lewisi</t>
+          <t>Setophaga striata</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>Blue Jay</t>
+          <t>Blanket Octopus</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Cyanocitta cristata</t>
+          <t>Tremoctopus</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>Blue Lacy Dog</t>
+          <t>Bleeding-heart</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Dicentra spectabilis</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>Blue Picardy Spaniel</t>
+          <t>Blister Beetle</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Meloidae</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>Blue Sage</t>
+          <t>Blobfish</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Salvia farinacea</t>
+          <t>Psychrolutes marcidus</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>Blue Shark</t>
+          <t>Blood Python</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Prionace glauca</t>
+          <t>Python brongersmai</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>Blue Tit</t>
+          <t>Bloodhound</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Cyanistes caeruleus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>Blue Whale</t>
+          <t>Bloody Cranesbill</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Balaenoptera musculus</t>
+          <t>Geranium sanguineum</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>Blue grosbeak</t>
+          <t>Blue Belly Lizard</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Passerina caerulea</t>
+          <t>Sceloporus occidentalis</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>Blue-Ringed Octopus</t>
+          <t>Blue Catfish</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Hapalochlaena</t>
+          <t>Ictalurus furcatus</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>Bluefin Tuna</t>
+          <t>Blue Fescue</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Thunnus thynnus</t>
+          <t>Festuca glauca</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>Bluestem</t>
+          <t>Blue Iguana</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Schizachyrium x</t>
+          <t>Cyclura lewisi</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>Bluetick Coonhound</t>
+          <t>Blue Jay</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Cyanocitta cristata</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>Bobcat</t>
+          <t>Blue Lacy Dog</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Lynx rufus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>Bobolink</t>
+          <t>Blue Picardy Spaniel</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Dolichonyx oryzivorus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>Boggle</t>
+          <t>Blue Sage</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Salvia farinacea</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>Boglen Terrier</t>
+          <t>Blue Shark</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Prionace glauca</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>Boiga</t>
+          <t>Blue Tit</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Boiga</t>
+          <t>Cyanistes caeruleus</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>Bolognese Dog</t>
+          <t>Blue Whale</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Balaenoptera musculus</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>Bombay</t>
+          <t>Blue grosbeak</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Felis catus</t>
+          <t>Passerina caerulea</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>Bongo</t>
+          <t>Blue-Ringed Octopus</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Tragelaphus eurycerus</t>
+          <t>Hapalochlaena</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>Bonito Fish</t>
+          <t>Blueberry</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Sardini</t>
+          <t>Vaccinium sect. Cyanococcus</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>Bonnethead Shark</t>
+          <t>Bluefin Tuna</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Sphyrna tiburo</t>
+          <t>Thunnus thynnus</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>Bonobo</t>
+          <t>Bluestem</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Pan paniscus</t>
+          <t>Schizachyrium x</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>Booby</t>
+          <t>Bluetick Coonhound</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Sula</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>Booklice</t>
+          <t>Bobcat</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Psocoptera</t>
+          <t>Lynx rufus</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>Boomslang</t>
+          <t>Bobolink</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Dispholidus typus</t>
+          <t>Dolichonyx oryzivorus</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>Borador</t>
+          <t>Boggle</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -3417,7 +3417,7 @@
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>Border Collie</t>
+          <t>Boglen Terrier</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -3429,19 +3429,19 @@
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>Border Terrier</t>
+          <t>Boiga</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Boiga</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>Bordoodle</t>
+          <t>Bolognese Dog</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -3453,115 +3453,115 @@
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>Borkie</t>
+          <t>Bombay</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Felis catus</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>Bornean Orang-utan</t>
+          <t>Bongo</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Pongo pygmaeus</t>
+          <t>Tragelaphus eurycerus</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>Borneo Elephant</t>
+          <t>Bonito Fish</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Elephas maximus borneensis</t>
+          <t>Sardini</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>Boston Terrier</t>
+          <t>Bonnethead Shark</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Sphyrna tiburo</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>Bottlenose Dolphin</t>
+          <t>Bonobo</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Tursiops</t>
+          <t>Pan paniscus</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>Bouvier Des Flandres</t>
+          <t>Booby</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Sula</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>Bowfin</t>
+          <t>Booklice</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Amia calva</t>
+          <t>Psocoptera</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>Bowhead Whale</t>
+          <t>Boomslang</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Balaena mysticetus</t>
+          <t>Dispholidus typus</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>Box Turtle</t>
+          <t>Borador</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Terrapene</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>Boxador</t>
+          <t>Border Collie</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -3573,7 +3573,7 @@
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>Boxer Dog</t>
+          <t>Border Terrier</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -3585,7 +3585,7 @@
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>Boxerdoodle</t>
+          <t>Bordoodle</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -3597,43 +3597,43 @@
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>Boxfish</t>
+          <t>Borkie</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Ostraciidae</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>Boxsky</t>
+          <t>Bornean Orang-utan</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Pongo pygmaeus</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>Boxweiler</t>
+          <t>Borneo Elephant</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Elephas maximus borneensis</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>Boykin Spaniel</t>
+          <t>Boston Terrier</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -3645,5110 +3645,6058 @@
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>Brazilian Terrier</t>
+          <t>Bottlenose Dolphin</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Tursiops</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>Brinjal</t>
+          <t>Bouvier Des Flandres</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Solanum melongena</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>Brittany</t>
+          <t>Bowfin</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Amia calva</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>Brookesia Micra</t>
+          <t>Bowhead Whale</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Brookesia micra</t>
+          <t>Balaena mysticetus</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>Bug</t>
+          <t>Box Turtle</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Insecta</t>
+          <t>Terrapene</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>Bulbul</t>
+          <t>Boxador</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Molpastes cafer</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>Butterflies</t>
+          <t>Boxer Dog</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Rhopalocera</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>Butterfly</t>
+          <t>Boxerdoodle</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Rhopalocera</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>Butterfly-Weed</t>
+          <t>Boxfish</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Asclepias tuberosa</t>
+          <t>Ostraciidae</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>Caladium</t>
+          <t>Boxsky</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Caladium x hortulanum</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>Canna Lily</t>
+          <t>Boxweiler</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Canna generalis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>Capsicum</t>
+          <t>Boykin Spaniel</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Capsicum fruitscence</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>Carrot</t>
+          <t>Brazilian Terrier</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Daucus carota</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>Cashew nut</t>
+          <t>Brinjal</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Anacardium occidentale</t>
+          <t>Solanum melongena</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Brittany</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Felis catus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>Centipede</t>
+          <t>Broccoli</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Chilopoda</t>
+          <t>Brassica oleracea var. italica</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>Cheetah</t>
+          <t>Brookesia Micra</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Acinonyx jubatus</t>
+          <t>Brookesia micra</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>Chiku</t>
+          <t>Brussels Sprout</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Achras sapota</t>
+          <t>Brassica oleracea var. gemmifera</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>Chimpanzee</t>
+          <t>Bug</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Pan troglodytes</t>
+          <t>Insecta</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>China Pink</t>
+          <t>Bulbul</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Dianthus chinensis</t>
+          <t>Molpastes cafer</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>Cigar Flower</t>
+          <t>Butterflies</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Cuphea ignea</t>
+          <t>Rhopalocera</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>Clove</t>
+          <t>Butterfly</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Syzygium aromaticum</t>
+          <t>Rhopalocera</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>Cockroach</t>
+          <t>Butterfly-Weed</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Blattodea</t>
+          <t>Asclepias tuberosa</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>Cockroaches</t>
+          <t>Caladium</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Blattodea</t>
+          <t>Caladium x hortulanum</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>Coleus</t>
+          <t>Canna Lily</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Solenostemon scutellaroides</t>
+          <t>Canna generalis</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>Common Frog</t>
+          <t>Capsicum</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Rana temporaria</t>
+          <t>Capsicum fruitscence</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>Common Furniture Beetle</t>
+          <t>Carambola</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Anobium punctatum</t>
+          <t>Averrhoa carambola</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>Common House Spider</t>
+          <t>Carrot</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Parasteatoda tepidariorum</t>
+          <t>Daucus carota</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>Common Loon</t>
+          <t>Cashew nut</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Gavia immer</t>
+          <t>Anacardium occidentale</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>Common Raven</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Corvus corax</t>
+          <t>Felis catus</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>Common Toad</t>
+          <t>Cauliflower</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Bufo bufo</t>
+          <t>Brassica oleracea var. botrytis</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>Common Yarrow</t>
+          <t>Celery</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Achillea millefolium</t>
+          <t>Apium graveolens</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>Common Zinnia</t>
+          <t>Centipede</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Zinnia elegans</t>
+          <t>Chilopoda</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>Congo Snake</t>
+          <t>Cheetah</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Amphiuma</t>
+          <t>Acinonyx jubatus</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>Cookiecutter Shark</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Isistius brasiliensis</t>
+          <t>Prunus avium</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>Coopers Hawk</t>
+          <t>Chiku</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Accipiter cooperii</t>
+          <t>Achras sapota</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>Copperhead</t>
+          <t>Chimpanzee</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Agkistrodon contortrix</t>
+          <t>Pan troglodytes</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>Coral Bells</t>
+          <t>China Pink</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Heuchera hybrid</t>
+          <t>Dianthus chinensis</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>Coral Snake</t>
+          <t>Cigar Flower</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Micrurus fulvius</t>
+          <t>Cuphea ignea</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>Coriander</t>
+          <t>Clove</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Coriandrum sativum</t>
+          <t>Syzygium aromaticum</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>Corn Snake</t>
+          <t>Cockroach</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Pantherophis guttatus</t>
+          <t>Blattodea</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>Coton de Tulear</t>
+          <t>Cockroaches</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Blattodea</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>Cotton</t>
+          <t>Coconut</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Gossypium herbaceum</t>
+          <t>Cocos nucifera</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>Cotton-top Tamarin</t>
+          <t>Coleus</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Saguinus oedipus</t>
+          <t>Solenostemon scutellaroides</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>Cottonmouth</t>
+          <t>Common Frog</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Agkistrodon piscivorus</t>
+          <t>Rana temporaria</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>Cougar</t>
+          <t>Common Furniture Beetle</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Puma concolor</t>
+          <t>Anobium punctatum</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>Cow</t>
+          <t>Common House Spider</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Bos Taurus</t>
+          <t>Parasteatoda tepidariorum</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>Coyote</t>
+          <t>Common Loon</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Canis latrans</t>
+          <t>Gavia immer</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>Crab</t>
+          <t>Common Raven</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Brachyura</t>
+          <t>Corvus corax</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>Crab Spider</t>
+          <t>Common Toad</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Thomisidae</t>
+          <t>Bufo bufo</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>Crab-Eating Macaque</t>
+          <t>Common Yarrow</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Macaca fascicularis</t>
+          <t>Achillea millefolium</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>Crabeater Seal</t>
+          <t>Common Zinnia</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Lobodon carcinophagus</t>
+          <t>Zinnia elegans</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>Crane</t>
+          <t>Congo Snake</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Gruidae</t>
+          <t>Amphiuma</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>Crappie Fish</t>
+          <t>Cookiecutter Shark</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Pomoxis</t>
+          <t>Isistius brasiliensis</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>Creeping Zinnia</t>
+          <t>Coopers Hawk</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Sanvitalia speciosa</t>
+          <t>Accipiter cooperii</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>Crested Cockscomb</t>
+          <t>Copperhead</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Celosia agentea var. cristata</t>
+          <t>Agkistrodon contortrix</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>Crested Gecko</t>
+          <t>Coral Bells</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Correlophus ciliatus</t>
+          <t>Heuchera hybrid</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>Crested Iris</t>
+          <t>Coral Snake</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Iris cristata</t>
+          <t>Micrurus fulvius</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>Crested Penguin</t>
+          <t>Coriander</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Eudyptes sclateri</t>
+          <t>Coriandrum sativum</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>Cricket</t>
+          <t>Coriander/ Cilantro</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Grylloidea</t>
+          <t>Coriandrum sativum</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>Crickets</t>
+          <t>Corn</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Grylloidea</t>
+          <t>Zea mays</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>Crocodile</t>
+          <t>Corn Snake</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Crocodylidae</t>
+          <t>Pantherophis guttatus</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>Cross Fox</t>
+          <t>Coton de Tulear</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Vulpes vulpes</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>Cross River Gorilla</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Gorilla gorilla diehli</t>
+          <t>Gossypium herbaceum</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>Crow</t>
+          <t>Cotton-top Tamarin</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Corvus</t>
+          <t>Saguinus oedipus</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>Crucian Carp</t>
+          <t>Cottonmouth</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Carassius carassius</t>
+          <t>Agkistrodon piscivorus</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>Cuban Cockroach</t>
+          <t>Cougar</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Panchlora nivea</t>
+          <t>Puma concolor</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>Cuckoo</t>
+          <t>Cow</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Cuculidae</t>
+          <t>Bos Taurus</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>Cucumber</t>
+          <t>Coyote</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Cucumis sativas</t>
+          <t>Canis latrans</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>Curly Coated Retriever</t>
+          <t>Crab</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Brachyura</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>Curry leaf</t>
+          <t>Crab Spider</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Murraya koenigii</t>
+          <t>Thomisidae</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>Cuscus</t>
+          <t>Crab-Eating Macaque</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Phalanger</t>
+          <t>Macaca fascicularis</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>Cuttlefish</t>
+          <t>Crabeater Seal</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Sepiida</t>
+          <t>Lobodon carcinophagus</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>Date Palm</t>
+          <t>Cranberry</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Phoenix dactylifera</t>
+          <t>Vaccinium subg. Oxycoccus</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>Daylily</t>
+          <t>Crane</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Hemerocallis hybrids</t>
+          <t>Gruidae</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>Dog</t>
+          <t>Crappie Fish</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Pomoxis</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>Donkey</t>
+          <t>Creeping Zinnia</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Equus africanus asinus</t>
+          <t>Sanvitalia speciosa</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>Doublefile Viburnum</t>
+          <t>Crested Cockscomb</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Viburnum plicatum var. tomentosum</t>
+          <t>Celosia agentea var. cristata</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>Dragon fruit</t>
+          <t>Crested Gecko</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Hylocereus undatus</t>
+          <t>Correlophus ciliatus</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>Dragonflies</t>
+          <t>Crested Iris</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Anisoptera</t>
+          <t>Iris cristata</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>Dragonfly</t>
+          <t>Crested Penguin</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Anisoptera</t>
+          <t>Eudyptes sclateri</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>Dromedary Camel</t>
+          <t>Cricket</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Camelus dromedaries</t>
+          <t>Grylloidea</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>Dusty Miller</t>
+          <t>Crickets</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Senecio cineraria</t>
+          <t>Grylloidea</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>Earwigs</t>
+          <t>Crocodile</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Dermaptera</t>
+          <t>Crocodylidae</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>Eastern Redbud</t>
+          <t>Cross Fox</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Cercis canadensis</t>
+          <t>Vulpes vulpes</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>Eulalia Grass</t>
+          <t>Cross River Gorilla</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Miscanthus</t>
+          <t>Gorilla gorilla diehli</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>False Indigo</t>
+          <t>Crow</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Baptisia australis</t>
+          <t>Corvus</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>Fan Flower</t>
+          <t>Crucian Carp</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Scaevola aemula</t>
+          <t>Carassius carassius</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>Feather Reed Grass</t>
+          <t>Cuban Cockroach</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Calamagrostis</t>
+          <t>Panchlora nivea</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>Fern-leaf Yarrow</t>
+          <t>Cuckoo</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Achillea fillipenulina</t>
+          <t>Cuculidae</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>Field Pansy</t>
+          <t>Cucumber</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Viola tricolor</t>
+          <t>Cucumis sativas</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>Finger millet</t>
+          <t>Curly Coated Retriever</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Eleusine coracana</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>Firefly</t>
+          <t>Curry leaf</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Lampyridae</t>
+          <t>Murraya koenigii</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>Flea</t>
+          <t>Curuba</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Siphonaptera</t>
+          <t>Passiflora tarminiana</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>Fleas</t>
+          <t>Cuscus</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Siphonaptera</t>
+          <t>Phalanger</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>Flowering Cabbage/Kale</t>
+          <t>Cuttlefish</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Brassica oleracea</t>
+          <t>Sepiida</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>Flowering Tobacco</t>
+          <t>Date Palm</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Nicotiana x sanderae</t>
+          <t>Phoenix dactylifera</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Daylily</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Diptera</t>
+          <t>Hemerocallis hybrids</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>Fortune's Hosta</t>
+          <t>Dog</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Hosta fortunei 'Albomarginata'</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>Fountain Grass</t>
+          <t>Donkey</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Pennisetum alopecuroides</t>
+          <t>Equus africanus asinus</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>Fowl</t>
+          <t>Doublefile Viburnum</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Gallus gallus domesticus</t>
+          <t>Viburnum plicatum var. tomentosum</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
         <is>
-          <t>Fragrant Sumac</t>
+          <t>Dragon Fruit</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Rhus aromatica</t>
+          <t>Selenicereus undatus</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>French Marigold</t>
+          <t>Dragon fruit</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Tagetes patula</t>
+          <t>Hylocereus undatus</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>Fringed Bleeding-heart</t>
+          <t>Dragonflies</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Dicentra exima</t>
+          <t>Anisoptera</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
         <is>
-          <t>Garden Impatiens</t>
+          <t>Dragonfly</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Impatiens walleriana</t>
+          <t>Anisoptera</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>Garden Lily</t>
+          <t>Dromedary Camel</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Lilium</t>
+          <t>Camelus dromedaries</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>Garden Phlox</t>
+          <t>Durian</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Phlox paniculata</t>
+          <t>Durio</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>Garden Verbena</t>
+          <t>Dusty Miller</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Verbena x hybrida</t>
+          <t>Senecio cineraria</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>Garlic</t>
+          <t>Earwigs</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Allium sativum</t>
+          <t>Dermaptera</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>Gazania</t>
+          <t>Eastern Redbud</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Gazania rigens</t>
+          <t>Cercis canadensis</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
         <is>
-          <t>Gentian Sage</t>
+          <t>Eggplant</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Salvia patens</t>
+          <t>Solanum melongena</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
         <is>
-          <t>Gharial</t>
+          <t>Eulalia Grass</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Gavialis gangeticus</t>
+          <t>Miscanthus</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
         <is>
-          <t>Ginger</t>
+          <t>False Indigo</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Zingiber officinale</t>
+          <t>Baptisia australis</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
         <is>
-          <t>Globe Amaranth</t>
+          <t>Fan Flower</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Gomphrena haageana</t>
+          <t>Scaevola aemula</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>Goat</t>
+          <t>Feather Reed Grass</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Capra aegagrus hircus</t>
+          <t>Calamagrostis</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>Gooseneck Loosestrife</t>
+          <t>Fennel</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Lysimachia</t>
+          <t>Foeniculum vulgare</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Fern-leaf Yarrow</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Achillea fillipenulina</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
         <is>
-          <t>Grass Pink</t>
+          <t>Field Pansy</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Dianthus plumarius</t>
+          <t>Viola tricolor</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>Grasshopper</t>
+          <t>Fig</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Caelifera</t>
+          <t>Ficus carica</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Finger millet</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Caelifera</t>
+          <t>Eleusine coracana</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
         <is>
-          <t>Great white shark</t>
+          <t>Firefly</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Carcharodon carcharias</t>
+          <t>Lampyridae</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
         <is>
-          <t>Green Gram</t>
+          <t>Flea</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Phaseolus audicus</t>
+          <t>Siphonaptera</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
         <is>
-          <t>Greenfly</t>
+          <t>Fleas</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Aphidoidea</t>
+          <t>Siphonaptera</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
         <is>
-          <t>Guava</t>
+          <t>Flowering Cabbage/Kale</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Psidium guava</t>
+          <t>Brassica oleracea</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>Hakone Grass</t>
+          <t>Flowering Tobacco</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Hakonechloa</t>
+          <t>Nicotiana x sanderae</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
         <is>
-          <t>Hinoki Falsecypress</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Chamaecyparis obtusa</t>
+          <t>Diptera</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>Hippopotamus</t>
+          <t>Fortune's Hosta</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Hippopotamus amphibius</t>
+          <t>Hosta fortunei 'Albomarginata'</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
         <is>
-          <t>Horse</t>
+          <t>Fountain Grass</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Equus ferus caballus</t>
+          <t>Pennisetum alopecuroides</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>Hosta Kabitan</t>
+          <t>Fowl</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Hosta sieboldii</t>
+          <t>Gallus gallus domesticus</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>House wall Lizard</t>
+          <t>Fragrant Sumac</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Hemidactylus flaviviridis</t>
+          <t>Rhus aromatica</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>Human beings</t>
+          <t>French Marigold</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Tagetes patula</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
         <is>
-          <t>Humpback whale</t>
+          <t>Fringed Bleeding-heart</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Megaptera novaeangliae</t>
+          <t>Dicentra exima</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
         <is>
-          <t>Hybrid Astilbe</t>
+          <t>Garden Impatiens</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Astilbe hybrids</t>
+          <t>Impatiens walleriana</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
         <is>
-          <t>Hybrid Bearded Iris</t>
+          <t>Garden Lily</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Iris hybrids</t>
+          <t>Lilium</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
         <is>
-          <t>Hybrid Columbine</t>
+          <t>Garden Phlox</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Aquilegia x hybrida</t>
+          <t>Phlox paniculata</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
         <is>
-          <t>Hybrid Pansy</t>
+          <t>Garden Verbena</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Viola x wittrockiana</t>
+          <t>Verbena x hybrida</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
         <is>
-          <t>Ibex</t>
+          <t>Garlic</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Capra ibex</t>
+          <t>Allium sativum</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
         <is>
-          <t>Ibis</t>
+          <t>Gazania</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Threskiornithinae</t>
+          <t>Gazania rigens</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
         <is>
-          <t>Ibizan Hound</t>
+          <t>Gentian Sage</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Salvia patens</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
         <is>
-          <t>Icelandic Sheepdog</t>
+          <t>Gharial</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Gavialis gangeticus</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
         <is>
-          <t>Iguana</t>
+          <t>Ginger</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Iguana</t>
+          <t>Zingiber officinale</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
         <is>
-          <t>Immortal Jellyfish</t>
+          <t>Globe Amaranth</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Turritopsis dohrnii</t>
+          <t>Gomphrena haageana</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
         <is>
-          <t>Impala</t>
+          <t>Goat</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Aepyceros melampus</t>
+          <t>Capra aegagrus hircus</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>Imperial Moth</t>
+          <t>Gooseneck Loosestrife</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Eacles imperialis</t>
+          <t>Lysimachia</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
         <is>
-          <t>Indian Cobra</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Naja naja</t>
+          <t>Gorilla</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
         <is>
-          <t>Indian Elephant</t>
+          <t>Granadilla</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Elephas maximus</t>
+          <t>Passiflora edulis</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
         <is>
-          <t>Indian Giant Squirrel</t>
+          <t>Grape</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Ratufa indica</t>
+          <t>Vitis</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
         <is>
-          <t>Indian Grass</t>
+          <t>Grapefruit</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Sorghastrum x</t>
+          <t>Citrus × paradisi</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
         <is>
-          <t>Indian Palm Squirrel</t>
+          <t>Grass Pink</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Funambulus palmarum</t>
+          <t>Dianthus plumarius</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
         <is>
-          <t>Indian Rhinoceros</t>
+          <t>Grasshopper</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Rhinoceros unicornis</t>
+          <t>Caelifera</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
         <is>
-          <t>Indian Star Tortoise</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Geochelone elegans</t>
+          <t>Caelifera</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
         <is>
-          <t>Indigo Snake</t>
+          <t>Great white shark</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Drymarchon couperi</t>
+          <t>Carcharodon carcharias</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
         <is>
-          <t>Indochinese Tiger</t>
+          <t>Green Chili</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Panthera tigris corbetti</t>
+          <t>Capsicum annuum</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
         <is>
-          <t>Indri</t>
+          <t>Green Gram</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Indri indri</t>
+          <t>Phaseolus audicus</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
         <is>
-          <t>Irish Doodle</t>
+          <t>Greenfly</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Aphidoidea</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
         <is>
-          <t>Irish Setter</t>
+          <t>Guava</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Psidium guava</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
         <is>
-          <t>Irish Terrier</t>
+          <t>Hakone Grass</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Hakonechloa</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
         <is>
-          <t>Irish Water Spaniel</t>
+          <t>Hinoki Falsecypress</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Chamaecyparis obtusa</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
         <is>
-          <t>Irish WolfHound</t>
+          <t>Hippopotamus</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Hippopotamus amphibius</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
         <is>
-          <t>Italian Greyhound</t>
+          <t>Horse</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Equus ferus caballus</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
         <is>
-          <t>Ivory-billed woodpecker</t>
+          <t>Hosta Kabitan</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Campephilus principalis</t>
+          <t>Hosta sieboldii</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
         <is>
-          <t>Ivy Geranium</t>
+          <t>House wall Lizard</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Pelargonium peltatum</t>
+          <t>Hemidactylus flaviviridis</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
         <is>
-          <t>Jacana</t>
+          <t>Human beings</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Jacanidae</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
         <is>
-          <t>Jack Russell</t>
+          <t>Humpback whale</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Megaptera novaeangliae</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
         <is>
-          <t>Jackal</t>
+          <t>Hybrid Astilbe</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Canis aureus</t>
+          <t>Astilbe hybrids</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
         <is>
-          <t>Jackdaw</t>
+          <t>Hybrid Bearded Iris</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Corvus monedula</t>
+          <t>Iris hybrids</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="inlineStr">
         <is>
-          <t>Jackfruit</t>
+          <t>Hybrid Columbine</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Artocarpus integra</t>
+          <t>Aquilegia x hybrida</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
         <is>
-          <t>Jackrabbit</t>
+          <t>Hybrid Pansy</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Lepus californicus</t>
+          <t>Viola x wittrockiana</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
         <is>
-          <t>Jackson's Chameleon</t>
+          <t>Ibex</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Trioceros jacksonii</t>
+          <t>Capra ibex</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
         <is>
-          <t>Jaguar</t>
+          <t>Ibis</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Panthera onca</t>
+          <t>Threskiornithinae</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
         <is>
-          <t>Jaguarundi Cat</t>
+          <t>Ibizan Hound</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Puma yagouaroundi</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
         <is>
-          <t>Japanese Beetle</t>
+          <t>Icelandic Sheepdog</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Popillia japonica</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
         <is>
-          <t>Japanese Blood Grass</t>
+          <t>Iguana</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Imperata</t>
+          <t>Iguana</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
         <is>
-          <t>Japanese Chin</t>
+          <t>Immortal Jellyfish</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Turritopsis dohrnii</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="inlineStr">
         <is>
-          <t>Japanese Iris</t>
+          <t>Impala</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Iris ensata</t>
+          <t>Aepyceros melampus</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
         <is>
-          <t>Japanese Macaque</t>
+          <t>Imperial Moth</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Macaca fuscata</t>
+          <t>Eacles imperialis</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
         <is>
-          <t>Japanese Spitz</t>
+          <t>Indian Cobra</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Naja naja</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
         <is>
-          <t>Japanese Squirrel</t>
+          <t>Indian Elephant</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Sciurus lis</t>
+          <t>Elephas maximus</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
         <is>
-          <t>Japanese Terrier</t>
+          <t>Indian Giant Squirrel</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Ratufa indica</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
         <is>
-          <t>Japanese tree lilac</t>
+          <t>Indian Grass</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Syringa reticulata</t>
+          <t>Sorghastrum x</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="inlineStr">
         <is>
-          <t>Javan Rhinoceros</t>
+          <t>Indian Palm Squirrel</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Rhinoceros sondaicus</t>
+          <t>Funambulus palmarum</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
         <is>
-          <t>Joe-Pye Weed</t>
+          <t>Indian Rhinoceros</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Eupatorium purpureum</t>
+          <t>Rhinoceros unicornis</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="inlineStr">
         <is>
-          <t>Jonah Crab</t>
+          <t>Indian Star Tortoise</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Cancer borealis</t>
+          <t>Geochelone elegans</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
         <is>
-          <t>Joro Spider</t>
+          <t>Indigo Snake</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Nephila clavata</t>
+          <t>Drymarchon couperi</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="inlineStr">
         <is>
-          <t>Jowar</t>
+          <t>Indochinese Tiger</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Sorghum Vulgare</t>
+          <t>Panthera tigris corbetti</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="inlineStr">
         <is>
-          <t>Jumping Spider</t>
+          <t>Indri</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Salticidae</t>
+          <t>Indri indri</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="inlineStr">
         <is>
-          <t>Junglefowl</t>
+          <t>Irish Doodle</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Gallus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="inlineStr">
         <is>
-          <t>Kadamb</t>
+          <t>Irish Setter</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Anthocephalus indicus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="inlineStr">
         <is>
-          <t>King cobra</t>
+          <t>Irish Terrier</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Ophiophagus hannah</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
         <is>
-          <t>Kingfisher</t>
+          <t>Irish Water Spaniel</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Alcedo atthis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="inlineStr">
         <is>
-          <t>Lady's Mantle</t>
+          <t>Irish WolfHound</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Alchemilla mollis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="inlineStr">
         <is>
-          <t>Ladybug</t>
+          <t>Italian Greyhound</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Coccinellidae</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
         <is>
-          <t>Ladybugs</t>
+          <t>Ivory-billed woodpecker</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Coccinellidae</t>
+          <t>Campephilus principalis</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
         <is>
-          <t>Lambs Ears</t>
+          <t>Ivy Geranium</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Stachys x</t>
+          <t>Pelargonium peltatum</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
         <is>
-          <t>Lapwing</t>
+          <t>Jacana</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Vanellus vanellus</t>
+          <t>Jacanidae</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="inlineStr">
         <is>
-          <t>Lavender</t>
+          <t>Jack Russell</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Lavendula angustifolia</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
         <is>
-          <t>Lemon</t>
+          <t>Jackal</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Citrus Limonium</t>
+          <t>Canis aureus</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="inlineStr">
         <is>
-          <t>Lesser</t>
+          <t>Jackdaw</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>redpoll Carduelis cabaret</t>
+          <t>Corvus monedula</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="inlineStr">
         <is>
-          <t>Lilac</t>
+          <t>Jackfruit</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Syringa vulgaris</t>
+          <t>Artocarpus integra</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="inlineStr">
         <is>
-          <t>Lily-of-the-Valley</t>
+          <t>Jackrabbit</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Convallaria majalis</t>
+          <t>Lepus californicus</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="inlineStr">
         <is>
-          <t>Lion</t>
+          <t>Jackson's Chameleon</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Panthera leo</t>
+          <t>Trioceros jacksonii</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="inlineStr">
         <is>
-          <t>Lobelia</t>
+          <t>Jaguar</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Lobelia erinus</t>
+          <t>Panthera onca</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
         <is>
-          <t>Locust</t>
+          <t>Jaguarundi Cat</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Schistocerca gregaria</t>
+          <t>Puma yagouaroundi</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Japanese Beetle</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>tailed tit Aegithalos caudatus</t>
+          <t>Popillia japonica</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="inlineStr">
         <is>
-          <t>Magpie</t>
+          <t>Japanese Blood Grass</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Pica pica</t>
+          <t>Imperata</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="inlineStr">
         <is>
-          <t>Maiden Pink</t>
+          <t>Japanese Chin</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Dianthus deltoides</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Japanese Iris</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Zea mays</t>
+          <t>Iris ensata</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="inlineStr">
         <is>
-          <t>Mallard</t>
+          <t>Japanese Macaque</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Anas platyrhynchos</t>
+          <t>Macaca fuscata</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
         <is>
-          <t>Mango</t>
+          <t>Japanese Spitz</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Mangifera indica</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="inlineStr">
         <is>
-          <t>Meadow</t>
+          <t>Japanese Squirrel</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>pipit Anthus pratensis</t>
+          <t>Sciurus lis</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="inlineStr">
         <is>
-          <t>Million Gold</t>
+          <t>Japanese Terrier</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Melampodium paludosum</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Japanese tree lilac</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Mentha arvensis</t>
+          <t>Syringa reticulata</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="inlineStr">
         <is>
-          <t>Mistle</t>
+          <t>Javan Rhinoceros</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>thrush Turdus viscivorus</t>
+          <t>Rhinoceros sondaicus</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="inlineStr">
         <is>
-          <t>Moorhen</t>
+          <t>Joe-Pye Weed</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Gallinula chloropus</t>
+          <t>Eupatorium purpureum</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="inlineStr">
         <is>
-          <t>Mosquito</t>
+          <t>Jonah Crab</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Culicidae</t>
+          <t>Cancer borealis</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="inlineStr">
         <is>
-          <t>Moss Phlox</t>
+          <t>Joro Spider</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Phlox subulata</t>
+          <t>Nephila clavata</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="inlineStr">
         <is>
-          <t>Moss Verbena</t>
+          <t>Jowar</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Verbena tenuisecta</t>
+          <t>Sorghum Vulgare</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="inlineStr">
         <is>
-          <t>Moths</t>
+          <t>Jumping Spider</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Lepidoptera</t>
+          <t>Salticidae</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="inlineStr">
         <is>
-          <t>Narrow-leaved Zinnia</t>
+          <t>Junglefowl</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Zinnia angustifolia</t>
+          <t>Gallus</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
         <is>
-          <t>Narwal</t>
+          <t>Kadamb</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Monodon monoceros</t>
+          <t>Anthocephalus indicus</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="inlineStr">
         <is>
-          <t>Nasturtium</t>
+          <t>Kale</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Tropaeolum majus</t>
+          <t>Brassica oleracea var. sabellica</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
         <is>
-          <t>Neem</t>
+          <t>King cobra</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Azadirachta indica</t>
+          <t>Ophiophagus hannah</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="inlineStr">
         <is>
-          <t>Nettle</t>
+          <t>Kingfisher</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Urtica dioica</t>
+          <t>Alcedo atthis</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="inlineStr">
         <is>
-          <t>New England Aster</t>
+          <t>Kiwi</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Aster novae-angliae</t>
+          <t>Actinidia deliciosa</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="inlineStr">
         <is>
-          <t>New Guniea Impatiens</t>
+          <t>Kohlrabi</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Impatiens hawkeri</t>
+          <t>Brassica oleracea Gongylodes Group</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
         <is>
-          <t>Oak Toad</t>
+          <t>Kratt's lichen mantis</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Anaxyrus quercicus</t>
+          <t>Liturgusa krattorum</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="inlineStr">
         <is>
-          <t>Ocelot</t>
+          <t>Lady's Mantle</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Leopardus pardalis</t>
+          <t>Alchemilla mollis</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
         <is>
-          <t>Octopus</t>
+          <t>Ladybug</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Octopoda</t>
+          <t>Coccinellidae</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
         <is>
-          <t>Okapi</t>
+          <t>Ladybugs</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Okapia johnstoni</t>
+          <t>Coccinellidae</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
         <is>
-          <t>Old English Sheepdog</t>
+          <t>Lambs Ears</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Stachys x</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
         <is>
-          <t>Olive Baboon</t>
+          <t>Lapwing</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Papio anubis</t>
+          <t>Vanellus vanellus</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
         <is>
-          <t>Olm</t>
+          <t>Lavender</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Proteus anguinus</t>
+          <t>Lavendula angustifolia</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
         <is>
-          <t>Onion</t>
+          <t>Leek</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Allium cepa</t>
+          <t>Allium porrum</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
         <is>
-          <t>Opossum</t>
+          <t>Lemon</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Didelphidae</t>
+          <t>Citrus Limonium</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
         <is>
-          <t>Orang-utan</t>
+          <t>Lesser</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Pongo</t>
+          <t>redpoll Carduelis cabaret</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Lettuce</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Citrus aurantium</t>
+          <t>Lactuca sativa</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
         <is>
-          <t>Orange-Crowned Warbler</t>
+          <t>Lilac</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Vermivora celata</t>
+          <t>Syringa vulgaris</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
         <is>
-          <t>Orangutans</t>
+          <t>Lily-of-the-Valley</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Pongo</t>
+          <t>Convallaria majalis</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
         <is>
-          <t>Orb Weaver</t>
+          <t>Lime</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Araneidae</t>
+          <t>Citrus × aurantiifolia</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
         <is>
-          <t>Orca</t>
+          <t>Lion</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Orcinus orca</t>
+          <t>Panthera leo</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
         <is>
-          <t>Ornamental Pepper</t>
+          <t>Lobelia</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Capsicum annuum</t>
+          <t>Lobelia erinus</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
         <is>
-          <t>Ornamental Purslane</t>
+          <t>Locust</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Portulaca oleracea</t>
+          <t>Schistocerca gregaria</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
         <is>
-          <t>Ornamental Sweet Potato</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Ipomoea batatas</t>
+          <t>tailed tit Aegithalos caudatus</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
         <is>
-          <t>Ortolan Bunting</t>
+          <t>Longan</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Emberiza hortulana</t>
+          <t>Dimocarpus longan</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
         <is>
-          <t>Oscar Fish</t>
+          <t>Lychee</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Astronotus ocellatus</t>
+          <t>Litchi chinensis</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
         <is>
-          <t>Ostrich</t>
+          <t>Magpie</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Struthio camelus</t>
+          <t>Pica pica</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="inlineStr">
         <is>
-          <t>Otter</t>
+          <t>Maiden Pink</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Lutrinae</t>
+          <t>Dianthus deltoides</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="inlineStr">
         <is>
-          <t>Otterhound</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Zea mays</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Mallard</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Strigiformes</t>
+          <t>Anas platyrhynchos</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="inlineStr">
         <is>
-          <t>Ox</t>
+          <t>Mandarin</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Citrus reticulata</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="inlineStr">
         <is>
-          <t>Oyster</t>
+          <t>Mango</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Ostreidae</t>
+          <t>Mangifera indica</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="inlineStr">
         <is>
-          <t>Oyster Toadfish</t>
+          <t>Mangosteen</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Opsanus tau</t>
+          <t>Garcinia mangostana</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="inlineStr">
         <is>
-          <t>Oystercatcher</t>
+          <t>Meadow</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Haematopus ostralegus</t>
+          <t>pipit Anthus pratensis</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="inlineStr">
         <is>
-          <t>PJM Rhododendron (group)</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Rhododendron PJM Group</t>
+          <t>Cucumis melo</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="inlineStr">
         <is>
-          <t>Panda</t>
+          <t>Melon Cantaloupe</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Ailuropoda melanoleuca</t>
+          <t>Cucumis melo var. cantalupensis</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="inlineStr">
         <is>
-          <t>Papaya</t>
+          <t>Million Gold</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Carica papaya</t>
+          <t>Melampodium paludosum</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="inlineStr">
         <is>
-          <t>Pea</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Pisum sativum</t>
+          <t>Mentha arvensis</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="inlineStr">
         <is>
-          <t>Peacock Flower (Gulmohar)</t>
+          <t>Mistle</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Delonix regia rafin</t>
+          <t>thrush Turdus viscivorus</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="inlineStr">
         <is>
-          <t>Peepal</t>
+          <t>Moorhen</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Ficus religiosa Linn.</t>
+          <t>Gallinula chloropus</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="inlineStr">
         <is>
-          <t>Peony</t>
+          <t>Mosquito</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Paeonia Iactiflora</t>
+          <t>Culicidae</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="inlineStr">
         <is>
-          <t>Peregrine</t>
+          <t>Moss Phlox</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Falco peregrinus</t>
+          <t>Phlox subulata</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="inlineStr">
         <is>
-          <t>Petunia</t>
+          <t>Moss Verbena</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Petunia x hybrida</t>
+          <t>Verbena tenuisecta</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="inlineStr">
         <is>
-          <t>Pheasant</t>
+          <t>Moths</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Phasianus colchicus</t>
+          <t>Lepidoptera</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="inlineStr">
         <is>
-          <t>Pied</t>
+          <t>Mulberry</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>wagtail Motacilla alba</t>
+          <t>Morus alba</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="inlineStr">
         <is>
-          <t>Pig</t>
+          <t>Mung Bean</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Sus scrofa domesticus</t>
+          <t>Vigna radiata</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="inlineStr">
         <is>
-          <t>Pineapple</t>
+          <t>Mushroom</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Ananus sativus</t>
+          <t>Agaricus bisporus</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="inlineStr">
         <is>
-          <t>Pink</t>
+          <t>Napa Cabbage</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>footed goose Anser brachyrhynchus</t>
+          <t>Brassica rapa subsp. pekinensis</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="inlineStr">
         <is>
-          <t>Pink Cosmos</t>
+          <t>Narrow-leaved Zinnia</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Cosmos bipinnatus</t>
+          <t>Zinnia angustifolia</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="inlineStr">
         <is>
-          <t>Pinwheel Zinnia</t>
+          <t>Narwal</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Zinnia marylandica</t>
+          <t>Monodon monoceros</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="inlineStr">
         <is>
-          <t>Plumed Cockscomb</t>
+          <t>Nasturtium</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Celosia agentea var. plumosa</t>
+          <t>Tropaeolum majus</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="inlineStr">
         <is>
-          <t>Pomegranate</t>
+          <t>Nectarine</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Punica granatum</t>
+          <t>Prunus persica var. nucipersica</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="inlineStr">
         <is>
-          <t>Potato</t>
+          <t>Neem</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Solanum tuberosum</t>
+          <t>Azadirachta indica</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="inlineStr">
         <is>
-          <t>Prairie Gayfeather</t>
+          <t>Nettle</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Liatris spicata</t>
+          <t>Urtica dioica</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="inlineStr">
         <is>
-          <t>Praying Mantids</t>
+          <t>New England Aster</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Mantodea</t>
+          <t>Aster novae-angliae</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="inlineStr">
         <is>
-          <t>Purple Coneflower</t>
+          <t>New Guniea Impatiens</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Echinacea purpurea</t>
+          <t>Impatiens hawkeri</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="inlineStr">
         <is>
-          <t>Purple Millet</t>
+          <t>Oak Toad</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Pennisetum glaucum</t>
+          <t>Anaxyrus quercicus</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="inlineStr">
         <is>
-          <t>Purple orchid tree (Kachnar)</t>
+          <t>Ocelot</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Bauhinia purpurea</t>
+          <t>Leopardus pardalis</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="inlineStr">
         <is>
-          <t>Quagga</t>
+          <t>Octopus</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Equus quagga quagga</t>
+          <t>Octopoda</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="inlineStr">
         <is>
-          <t>Quail</t>
+          <t>Okapi</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Coturnix coturnix</t>
+          <t>Okapia johnstoni</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="inlineStr">
         <is>
-          <t>Queen snake</t>
+          <t>Old English Sheepdog</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Regina septemvittata</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="inlineStr">
         <is>
-          <t>Quokka</t>
+          <t>Olive Baboon</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Setonix brachyurus</t>
+          <t>Papio anubis</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="inlineStr">
         <is>
-          <t>Quoll</t>
+          <t>Olm</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Dasyurus</t>
+          <t>Proteus anguinus</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="inlineStr">
         <is>
-          <t>Radish</t>
+          <t>Onion</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Raphanus sativus</t>
+          <t>Allium cepa</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="inlineStr">
         <is>
-          <t>Rat snake</t>
+          <t>Opossum</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Ptyas mucosa</t>
+          <t>Didelphidae</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="inlineStr">
         <is>
-          <t>Raven</t>
+          <t>Orang-utan</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Corvus corax</t>
+          <t>Pongo</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>kite Milvus milvus</t>
+          <t>Citrus aurantium</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="inlineStr">
         <is>
-          <t>Red fox</t>
+          <t>Orange-Crowned Warbler</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Vulpes Vulpes</t>
+          <t>Vermivora celata</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="inlineStr">
         <is>
-          <t>Red maple</t>
+          <t>Orangutans</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Acer rubrum</t>
+          <t>Pongo</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="inlineStr">
         <is>
-          <t>Red-hot Poker</t>
+          <t>Orb Weaver</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Kniphofia uvaria</t>
+          <t>Araneidae</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="inlineStr">
         <is>
-          <t>Redstart</t>
+          <t>Orca</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Phoenicurus phoenicurus</t>
+          <t>Orcinus orca</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="inlineStr">
         <is>
-          <t>Redwing</t>
+          <t>Ornamental Pepper</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Turdus iliacus</t>
+          <t>Capsicum annuum</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="inlineStr">
         <is>
-          <t>Reed</t>
+          <t>Ornamental Purslane</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>bunting Emberiza schoeniclus</t>
+          <t>Portulaca oleracea</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Ornamental Sweet Potato</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Oryza sativa</t>
+          <t>Ipomoea batatas</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="inlineStr">
         <is>
-          <t>River Birch</t>
+          <t>Ortolan Bunting</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Betula nigra</t>
+          <t>Emberiza hortulana</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="inlineStr">
         <is>
-          <t>Robin</t>
+          <t>Oscar Fish</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Erithacus rubecula</t>
+          <t>Astronotus ocellatus</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="inlineStr">
         <is>
-          <t>Rook</t>
+          <t>Ostrich</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Corvus frugilegus</t>
+          <t>Struthio camelus</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="inlineStr">
         <is>
-          <t>Rose</t>
+          <t>Otter</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Lutrinae</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="inlineStr">
         <is>
-          <t>Rose Campion</t>
+          <t>Otterhound</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Lychnis coronaria</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="inlineStr">
         <is>
-          <t>Rose Moss</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Portulaca grandiflora</t>
+          <t>Strigiformes</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="inlineStr">
         <is>
-          <t>Russian Sage</t>
+          <t>Ox</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Perovskia atriplicifolia</t>
+          <t>Bos taurus</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="inlineStr">
         <is>
-          <t>Salvia May Night</t>
+          <t>Oyster</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Salvia nemerosa</t>
+          <t>Ostreidae</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="inlineStr">
         <is>
-          <t>Sandalwood</t>
+          <t>Oyster Toadfish</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Santalum album</t>
+          <t>Opsanus tau</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="inlineStr">
         <is>
-          <t>Saucer Magnolia</t>
+          <t>Oystercatcher</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Magnolia x soulangiana</t>
+          <t>Haematopus ostralegus</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="inlineStr">
         <is>
-          <t>Sea Holly</t>
+          <t>PJM Rhododendron (group)</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Eryngium amethystinum</t>
+          <t>Rhododendron PJM Group</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="inlineStr">
         <is>
-          <t>Sea Lions</t>
+          <t>Panda</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Hydrurga leptonyx</t>
+          <t>Ailuropoda melanoleuca</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="inlineStr">
         <is>
-          <t>Shasta Daisy</t>
+          <t>Papaya</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Leucanthemum x superbum</t>
+          <t>Carica papaya</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Passionfruit</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Ovis aries</t>
+          <t>Passiflora edulis</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="inlineStr">
         <is>
-          <t>Showy Stonecrop</t>
+          <t>Pea</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Sedum spectabile</t>
+          <t>Pisum sativum</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="inlineStr">
         <is>
-          <t>Siberian Iris</t>
+          <t>Peach</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Iris sibirica</t>
+          <t>Prunus persica</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="inlineStr">
         <is>
-          <t>Siebold Hosta</t>
+          <t>Peacock Flower (Gulmohar)</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Hosta sieboldiana</t>
+          <t>Delonix regia rafin</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="inlineStr">
         <is>
-          <t>Siebold viburnum</t>
+          <t>Pear</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Viburnum sieboldii</t>
+          <t>Pyrus</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="inlineStr">
         <is>
-          <t>Signet Marigold</t>
+          <t>Peepal</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Tagetes tenuifolia</t>
+          <t>Ficus religiosa Linn.</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="inlineStr">
         <is>
-          <t>Silkworms</t>
+          <t>Peony</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Bombyx mori</t>
+          <t>Paeonia Iactiflora</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="inlineStr">
         <is>
-          <t>Silver Oak</t>
+          <t>Peregrine</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Grevillea robusta</t>
+          <t>Falco peregrinus</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="inlineStr">
         <is>
-          <t>Silverfish</t>
+          <t>Persimmon</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Lepisma saccharina</t>
+          <t>Diospyros kaki</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="inlineStr">
         <is>
-          <t>Siskin</t>
+          <t>Petunia</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Carduelis spinus</t>
+          <t>Petunia x hybrida</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="inlineStr">
         <is>
-          <t>Skylark</t>
+          <t>Pheasant</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Alauda arvensis</t>
+          <t>Phasianus colchicus</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="inlineStr">
         <is>
-          <t>Snail</t>
+          <t>Pied</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Gastropoda</t>
+          <t>wagtail Motacilla alba</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="inlineStr">
         <is>
-          <t>Snakefly</t>
+          <t>Pig</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Raphidioptera</t>
+          <t>Sus scrofa domesticus</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="inlineStr">
         <is>
-          <t>Snapdragon</t>
+          <t>Pineapple</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Antirrhinum majus</t>
+          <t>Ananus sativus</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="inlineStr">
         <is>
-          <t>Snipe</t>
+          <t>Pink</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Gallinago gallinago</t>
+          <t>footed goose Anser brachyrhynchus</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="inlineStr">
         <is>
-          <t>Snow-in-Summer</t>
+          <t>Pink Cosmos</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Cerastium tomentosum</t>
+          <t>Cosmos bipinnatus</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="inlineStr">
         <is>
-          <t>Solcito Zinnia</t>
+          <t>Pinwheel Zinnia</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Zinnia maritima 'Solcito'</t>
+          <t>Zinnia marylandica</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Plum</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>thrush Turdus philomelos</t>
+          <t>Prunus domestica</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="inlineStr">
         <is>
-          <t>Soya bean</t>
+          <t>Plumed Cockscomb</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Glycine max</t>
+          <t>Celosia agentea var. plumosa</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="inlineStr">
         <is>
-          <t>Sparrowhawk</t>
+          <t>Pomegranate</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Accipiter nisus</t>
+          <t>Punica granatum</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="inlineStr">
         <is>
-          <t>Sperm Whale</t>
+          <t>Pomelo</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Physeter macrocephalus</t>
+          <t>Citrus maxima</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="inlineStr">
         <is>
-          <t>Spice bush</t>
+          <t>Potato</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Lindera benzoin</t>
+          <t>Solanum tuberosum</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="inlineStr">
         <is>
-          <t>Spider Flower</t>
+          <t>Prairie Gayfeather</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Cleome hassleriana</t>
+          <t>Liatris spicata</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="inlineStr">
         <is>
-          <t>Spinach</t>
+          <t>Praying Mantids</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Lactuca sativa</t>
+          <t>Mantodea</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="inlineStr">
         <is>
-          <t>Spotted</t>
+          <t>Pumpkin</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>flycatcher Muscicapa striata</t>
+          <t>Cucurbita</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="inlineStr">
         <is>
-          <t>Starling</t>
+          <t>Purple Coneflower</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Sturnus vulgaris</t>
+          <t>Echinacea purpurea</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="inlineStr">
         <is>
-          <t>Stiletto Hybrid Hosta</t>
+          <t>Purple Millet</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Hosta 'Stiletto'</t>
+          <t>Pennisetum glaucum</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="inlineStr">
         <is>
-          <t>Stink Bugs</t>
+          <t>Purple orchid tree (Kachnar)</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Halyomorpha halys</t>
+          <t>Bauhinia purpurea</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="inlineStr">
         <is>
-          <t>Stock</t>
+          <t>Quagga</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>dove Columba oenas</t>
+          <t>Equus quagga quagga</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="inlineStr">
         <is>
-          <t>Stonechat</t>
+          <t>Quail</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Saxicola torquata</t>
+          <t>Coturnix coturnix</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="inlineStr">
         <is>
-          <t>Sugar Maple</t>
+          <t>Queen snake</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Acer saccharum</t>
+          <t>Regina septemvittata</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="inlineStr">
         <is>
-          <t>Summer Snapdragon</t>
+          <t>Quince</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Angelonia angustifolia</t>
+          <t>Cydonia oblonga</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="inlineStr">
         <is>
-          <t>Sun and Substance Hybrid Hosta</t>
+          <t>Quokka</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Hosta 'Sun and Substance'</t>
+          <t>Setonix brachyurus</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="inlineStr">
         <is>
-          <t>Sunflower</t>
+          <t>Quoll</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Helianthus annuus</t>
+          <t>Dasyurus</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="inlineStr">
         <is>
-          <t>Swallow</t>
+          <t>Radish</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Hirundo rustica</t>
+          <t>Raphanus sativus</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="inlineStr">
         <is>
-          <t>Sweet Alyssum</t>
+          <t>Rambutan</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Lobularia maritima</t>
+          <t>Nephelium lappaceum</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="inlineStr">
         <is>
-          <t>Sweet Potato</t>
+          <t>Raspberry</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Ipomoea batatas</t>
+          <t>Rubus idaeus</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="inlineStr">
         <is>
-          <t>Tall Verbena</t>
+          <t>Rat snake</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Verbena bonariensis</t>
+          <t>Ptyas mucosa</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="inlineStr">
         <is>
-          <t>Tamarind tree</t>
+          <t>Raven</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Tamarindus indica</t>
+          <t>Corvus corax</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="inlineStr">
         <is>
-          <t>Teak</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Tectona grandis Linn.</t>
+          <t>kite Milvus milvus</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="inlineStr">
         <is>
-          <t>Termite</t>
+          <t>Red Cabbage</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Isoptera</t>
+          <t>Brassica oleracea var. capitata f. rubra</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="inlineStr">
         <is>
-          <t>Termites</t>
+          <t>Red Chili</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Isoptera</t>
+          <t>Capsicum annuum</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="inlineStr">
         <is>
-          <t>Texas Sage</t>
+          <t>Red Onion</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Salvia coccinea</t>
+          <t>Allium cepa</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="inlineStr">
         <is>
-          <t>Thread-leaf Tickseed</t>
+          <t>Red fox</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Coreopsis verticillata</t>
+          <t>Vulpes Vulpes</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="inlineStr">
         <is>
-          <t>Tick</t>
+          <t>Red maple</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Ixodida</t>
+          <t>Acer rubrum</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="inlineStr">
         <is>
-          <t>Tiger</t>
+          <t>Red-hot Poker</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Panthera tigris</t>
+          <t>Kniphofia uvaria</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="inlineStr">
         <is>
-          <t>Tiger Shark</t>
+          <t>Redstart</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Galeocerdo cuvier</t>
+          <t>Phoenicurus phoenicurus</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="inlineStr">
         <is>
-          <t>Tobacco</t>
+          <t>Redwing</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Nicotina tobaccum</t>
+          <t>Turdus iliacus</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="inlineStr">
         <is>
-          <t>Tomato</t>
+          <t>Reed</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Lycopersicon esculentum</t>
+          <t>bunting Emberiza schoeniclus</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="inlineStr">
         <is>
-          <t>Tree</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>pipit Anthus trivialis</t>
+          <t>Oryza sativa</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="inlineStr">
         <is>
-          <t>Treecreeper</t>
+          <t>River Birch</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Certhia familiaris</t>
+          <t>Betula nigra</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="inlineStr">
         <is>
-          <t>Tuberous-rooted Begonia</t>
+          <t>Robin</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Begonia x tuberhybrida</t>
+          <t>Erithacus rubecula</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="inlineStr">
         <is>
-          <t>Tufted</t>
+          <t>Rook</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>duck Aythya fuligula</t>
+          <t>Corvus frugilegus</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="inlineStr">
         <is>
-          <t>Tulsi</t>
+          <t>Rose</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Ocimum sanctum</t>
+          <t>Rosa</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="inlineStr">
         <is>
-          <t>Turmeric</t>
+          <t>Rose Apple</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Curcuma longa</t>
+          <t>Syzygium jambos</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="inlineStr">
         <is>
-          <t>Uakari</t>
+          <t>Rose Campion</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Cacajao</t>
+          <t>Lychnis coronaria</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="inlineStr">
         <is>
-          <t>Uguisu</t>
+          <t>Rose Moss</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Horornis diphone</t>
+          <t>Portulaca grandiflora</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="inlineStr">
         <is>
-          <t>Uinta Ground Squirrel</t>
+          <t>Russian Sage</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Urocitellus armatus</t>
+          <t>Perovskia atriplicifolia</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="inlineStr">
         <is>
-          <t>Umbrellabird</t>
+          <t>Salvia May Night</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Cephalopterus</t>
+          <t>Salvia nemerosa</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="inlineStr">
         <is>
-          <t>Unau</t>
+          <t>Sandalwood</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Choloepus didactylus</t>
+          <t>Santalum album</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="inlineStr">
         <is>
-          <t>Ural owl</t>
+          <t>Saucer Magnolia</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Strix uralensis</t>
+          <t>Magnolia x soulangiana</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="inlineStr">
         <is>
-          <t>Utonagan</t>
+          <t>Sea Holly</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Eryngium amethystinum</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="inlineStr">
         <is>
-          <t>Vampire Bat</t>
+          <t>Sea Lions</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Desmodontinae</t>
+          <t>Hydrurga leptonyx</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="inlineStr">
         <is>
-          <t>Vampire Squid</t>
+          <t>Shasta Daisy</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Vampyroteuthis infernalis</t>
+          <t>Leucanthemum x superbum</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="inlineStr">
         <is>
-          <t>Vaquita</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Phocoena sinus</t>
+          <t>Ovis aries</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="inlineStr">
         <is>
-          <t>Variegated Solomon's Seal</t>
+          <t>Showy Stonecrop</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Polygonatum odoratum</t>
+          <t>Sedum spectabile</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="inlineStr">
         <is>
-          <t>Venus Flytrap</t>
+          <t>Siberian Iris</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Dionaea muscipula</t>
+          <t>Iris sibirica</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="inlineStr">
         <is>
-          <t>Vervet Monkey</t>
+          <t>Siebold Hosta</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Chlorocebus pygerythrus</t>
+          <t>Hosta sieboldiana</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="inlineStr">
         <is>
-          <t>VicuÃ±a</t>
+          <t>Siebold viburnum</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Vicugna vicugna</t>
+          <t>Viburnum sieboldii</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="inlineStr">
         <is>
-          <t>Vinegaroon</t>
+          <t>Signet Marigold</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Uropygi</t>
+          <t>Tagetes tenuifolia</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="inlineStr">
         <is>
-          <t>Viper shark (dogfish)</t>
+          <t>Silkworms</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Trigonognathus kabeyai</t>
+          <t>Bombyx mori</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="inlineStr">
         <is>
-          <t>Virgin Islands Dwarf Gecko</t>
+          <t>Silver Oak</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Sphaerodactylus parthenopion</t>
+          <t>Grevillea robusta</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="inlineStr">
         <is>
-          <t>Vizsla</t>
+          <t>Silverfish</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Lepisma saccharina</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="inlineStr">
         <is>
-          <t>Volpino Italiano</t>
+          <t>Siskin</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Carduelis spinus</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="inlineStr">
         <is>
-          <t>Walrus</t>
+          <t>Skylark</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Odobenus rosmarus</t>
+          <t>Alauda arvensis</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="inlineStr">
         <is>
-          <t>Wasp</t>
+          <t>Snail</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Vespa</t>
+          <t>Gastropoda</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="inlineStr">
         <is>
-          <t>Wasps</t>
+          <t>Snakefly</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Vespidae</t>
+          <t>Raphidioptera</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="inlineStr">
         <is>
-          <t>Water Buffalo</t>
+          <t>Snapdragon</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Bubalus bubalis</t>
+          <t>Antirrhinum majus</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="inlineStr">
         <is>
-          <t>Watermelon</t>
+          <t>Snipe</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>Citrullus vulgaris</t>
+          <t>Gallinago gallinago</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="inlineStr">
         <is>
-          <t>Wavy-leaved Hosta</t>
+          <t>Snow-in-Summer</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Hosta undulata</t>
+          <t>Cerastium tomentosum</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="inlineStr">
         <is>
-          <t>Wax Begonia</t>
+          <t>Solcito Zinnia</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Begonia x semperflorens-cultorum</t>
+          <t>Zinnia maritima 'Solcito'</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="inlineStr">
         <is>
-          <t>Whale Shark</t>
+          <t>Song</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Rhincodon typus</t>
+          <t>thrush Turdus philomelos</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="inlineStr">
         <is>
-          <t>Wheat Cockscomb</t>
+          <t>Soursop</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Celosia agentea var. spicata</t>
+          <t>Annona muricata</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="inlineStr">
         <is>
-          <t>Wheatear</t>
+          <t>Soya bean</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Oenanthe oenanthe</t>
+          <t>Glycine max</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="inlineStr">
         <is>
-          <t>Whinchat</t>
+          <t>Sparrowhawk</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Saxicola rubetra</t>
+          <t>Accipiter nisus</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="inlineStr">
         <is>
-          <t>Whitethroat</t>
+          <t>Sperm Whale</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Sylvia communis</t>
+          <t>Physeter macrocephalus</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="inlineStr">
         <is>
-          <t>Willow</t>
+          <t>Spice bush</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>warbler Phylloscopus trochilus</t>
+          <t>Lindera benzoin</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="inlineStr">
         <is>
-          <t>Wolf</t>
+          <t>Spider Flower</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Canis lupus</t>
+          <t>Cleome hassleriana</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="inlineStr">
         <is>
-          <t>Wood</t>
+          <t>Spinach</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>warbler Phylloscopus sibilatrix</t>
+          <t>Lactuca sativa</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="inlineStr">
         <is>
-          <t>Woodpigeon</t>
+          <t>Spotted</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Columba palumbus</t>
+          <t>flycatcher Muscicapa striata</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="inlineStr">
         <is>
-          <t>Wren</t>
+          <t>Spring Onion</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Troglodytes troglodytes</t>
+          <t>Allium fistulosum</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="inlineStr">
         <is>
-          <t>X-Ray Tetra</t>
+          <t>Squash</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Pristella maxillaris</t>
+          <t>Cucurbita</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="inlineStr">
         <is>
-          <t>Xerus</t>
+          <t>Star Apple</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Xerus</t>
+          <t>Chrysophyllum cainito</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="inlineStr">
         <is>
-          <t>Xoloitzcuintli</t>
+          <t>Starling</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Sturnus vulgaris</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="inlineStr">
         <is>
-          <t>Yak</t>
+          <t>Stiletto Hybrid Hosta</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Bos grunniens</t>
+          <t>Hosta 'Stiletto'</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="inlineStr">
         <is>
-          <t>Yakutian Laika</t>
+          <t>Stink Bugs</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Halyomorpha halys</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="inlineStr">
         <is>
-          <t>Yarrow</t>
+          <t>Stock</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Achillea millefolium</t>
+          <t>dove Columba oenas</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="inlineStr">
         <is>
-          <t>Yellow Cosmos</t>
+          <t>Stonechat</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>Cosmos sulphureus</t>
+          <t>Saxicola torquata</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="inlineStr">
         <is>
-          <t>Yellow Sac Spider</t>
+          <t>Strawberry</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>Cheiracanthium inclusum</t>
+          <t>Fragaria × ananassa</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="inlineStr">
         <is>
-          <t>Yellow Spotted Lizard</t>
+          <t>Sugar Maple</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>Lepidophyma flavimaculatum</t>
+          <t>Acer saccharum</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="inlineStr">
         <is>
-          <t>Yellow-Eyed Penguin</t>
+          <t>Summer Snapdragon</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>Megadyptes antipodes</t>
+          <t>Angelonia angustifolia</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="inlineStr">
         <is>
-          <t>Yellowfin Tuna</t>
+          <t>Sun and Substance Hybrid Hosta</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Thunnus albacares</t>
+          <t>Hosta 'Sun and Substance'</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="inlineStr">
         <is>
-          <t>Yellowhammer</t>
+          <t>Sunflower</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Emberiza citrinella</t>
+          <t>Helianthus annuus</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="inlineStr">
         <is>
-          <t>Yeti Crab</t>
+          <t>Swallow</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Kiwa hirsuta</t>
+          <t>Hirundo rustica</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="inlineStr">
         <is>
-          <t>Yorkie-poo</t>
+          <t>Swede/ Rutabaga</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Brassica napus Napobrassica Group</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="inlineStr">
         <is>
-          <t>Yorkshire Terrier</t>
+          <t>Sweet Alyssum</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Lobularia maritima</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="inlineStr">
         <is>
-          <t>Zebra</t>
+          <t>Sweet Potato</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Equus quagga</t>
+          <t>Ipomoea batatas</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="inlineStr">
         <is>
-          <t>Zebra Finch</t>
+          <t>Tall Verbena</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Taeniopygia guttata castanotis</t>
+          <t>Verbena bonariensis</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="inlineStr">
         <is>
-          <t>Zebra Mussels</t>
+          <t>Tamarillo</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Dreissena polymorpha</t>
+          <t>Solanum betaceum</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="inlineStr">
         <is>
-          <t>Zebra Pleco</t>
+          <t>Tamarind</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>Hypancistrus zebra</t>
+          <t>Tamarindus indica</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="inlineStr">
         <is>
-          <t>Zebra Shark</t>
+          <t>Tamarind tree</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Stegostoma fasciatum</t>
+          <t>Tamarindus indica</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="inlineStr">
         <is>
-          <t>Zebu</t>
+          <t>Tangerine</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Bos taurus indicus</t>
+          <t>Citrus reticulata</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="inlineStr">
         <is>
-          <t>Zonal Geranium</t>
+          <t>Taro</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Pelargonium x hortorum</t>
+          <t>Colocasia esculenta</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="inlineStr">
         <is>
-          <t>Zonkey</t>
+          <t>Teak</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Equus zebra x Equus asinus</t>
+          <t>Tectona grandis Linn.</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="inlineStr">
         <is>
-          <t>Zorse</t>
+          <t>Termite</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Equus zebra x Equus caballus</t>
+          <t>Isoptera</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="inlineStr">
         <is>
-          <t>Zuchon</t>
+          <t>Termites</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Isoptera</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="inlineStr">
         <is>
-          <t>chokeberry</t>
+          <t>Texas Sage</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Aronia arbutifolia</t>
+          <t>Salvia coccinea</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="1" t="inlineStr">
         <is>
-          <t>oakleaf hydrangea</t>
+          <t>Thread-leaf Tickseed</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Hydrangea quercifolia</t>
+          <t>Coreopsis verticillata</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="1" t="inlineStr">
         <is>
-          <t>smoketree</t>
+          <t>Tick</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Cotinus coggygria</t>
+          <t>Ixodida</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="1" t="inlineStr">
         <is>
+          <t>Tiger</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Panthera tigris</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="inlineStr">
+        <is>
+          <t>Tiger Shark</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Galeocerdo cuvier</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="inlineStr">
+        <is>
+          <t>Tobacco</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Nicotina tobaccum</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="inlineStr">
+        <is>
+          <t>Tomato</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Lycopersicon esculentum</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="inlineStr">
+        <is>
+          <t>Tree</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>pipit Anthus trivialis</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="inlineStr">
+        <is>
+          <t>Treecreeper</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Certhia familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="inlineStr">
+        <is>
+          <t>Tuberous-rooted Begonia</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Begonia x tuberhybrida</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="inlineStr">
+        <is>
+          <t>Tufted</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>duck Aythya fuligula</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="inlineStr">
+        <is>
+          <t>Tulsi</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Ocimum sanctum</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="inlineStr">
+        <is>
+          <t>Turmeric</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Curcuma longa</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="inlineStr">
+        <is>
+          <t>Turnip</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Brassica rapa subsp. rapa</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="inlineStr">
+        <is>
+          <t>Uakari</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Cacajao</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="inlineStr">
+        <is>
+          <t>Uchuva</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Physalis peruviana</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="inlineStr">
+        <is>
+          <t>Uguisu</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Horornis diphone</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="inlineStr">
+        <is>
+          <t>Uinta Ground Squirrel</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Urocitellus armatus</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="inlineStr">
+        <is>
+          <t>Umbrellabird</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Cephalopterus</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="inlineStr">
+        <is>
+          <t>Unau</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Choloepus didactylus</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="inlineStr">
+        <is>
+          <t>Ural owl</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Strix uralensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="inlineStr">
+        <is>
+          <t>Utonagan</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="inlineStr">
+        <is>
+          <t>Vampire Bat</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Desmodontinae</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="inlineStr">
+        <is>
+          <t>Vampire Squid</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Vampyroteuthis infernalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="inlineStr">
+        <is>
+          <t>Vaquita</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Phocoena sinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="inlineStr">
+        <is>
+          <t>Variegated Solomon's Seal</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Polygonatum odoratum</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="inlineStr">
+        <is>
+          <t>Venus Flytrap</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Dionaea muscipula</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="inlineStr">
+        <is>
+          <t>Vervet Monkey</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Chlorocebus pygerythrus</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="inlineStr">
+        <is>
+          <t>VicuÃ±a</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Vicugna vicugna</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="inlineStr">
+        <is>
+          <t>Vinegaroon</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Uropygi</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="inlineStr">
+        <is>
+          <t>Viper shark (dogfish)</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Trigonognathus kabeyai</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="inlineStr">
+        <is>
+          <t>Virgin Islands Dwarf Gecko</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Sphaerodactylus parthenopion</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="inlineStr">
+        <is>
+          <t>Vizsla</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="inlineStr">
+        <is>
+          <t>Volpino Italiano</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="inlineStr">
+        <is>
+          <t>Walrus</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Odobenus rosmarus</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="inlineStr">
+        <is>
+          <t>Wasp</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Vespa</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="inlineStr">
+        <is>
+          <t>Wasps</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Vespidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="inlineStr">
+        <is>
+          <t>Water Buffalo</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Bubalus bubalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="inlineStr">
+        <is>
+          <t>Watermelon</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Citrullus vulgaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="inlineStr">
+        <is>
+          <t>Wavy-leaved Hosta</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Hosta undulata</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="inlineStr">
+        <is>
+          <t>Wax Begonia</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Begonia x semperflorens-cultorum</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="inlineStr">
+        <is>
+          <t>Whale Shark</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Rhincodon typus</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="inlineStr">
+        <is>
+          <t>Wheat Cockscomb</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Celosia agentea var. spicata</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="inlineStr">
+        <is>
+          <t>Wheatear</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Oenanthe oenanthe</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="inlineStr">
+        <is>
+          <t>Whinchat</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Saxicola rubetra</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="inlineStr">
+        <is>
+          <t>White Cabbage</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Brassica oleracea var. capitata</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="inlineStr">
+        <is>
+          <t>Whitethroat</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Sylvia communis</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="inlineStr">
+        <is>
+          <t>Willow</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>warbler Phylloscopus trochilus</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="inlineStr">
+        <is>
+          <t>Wolf</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Canis lupus</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="inlineStr">
+        <is>
+          <t>Wood</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>warbler Phylloscopus sibilatrix</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="inlineStr">
+        <is>
+          <t>Woodpigeon</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Columba palumbus</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="inlineStr">
+        <is>
+          <t>Wren</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Troglodytes troglodytes</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="inlineStr">
+        <is>
+          <t>X-Ray Tetra</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Pristella maxillaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="inlineStr">
+        <is>
+          <t>Xerus</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Xerus</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="inlineStr">
+        <is>
+          <t>Xoloitzcuintli</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="inlineStr">
+        <is>
+          <t>Yak</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Bos grunniens</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="inlineStr">
+        <is>
+          <t>Yakutian Laika</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="inlineStr">
+        <is>
+          <t>Yam</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Dioscorea</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="inlineStr">
+        <is>
+          <t>Yarrow</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Achillea millefolium</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="inlineStr">
+        <is>
+          <t>Yellow Cosmos</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Cosmos sulphureus</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="inlineStr">
+        <is>
+          <t>Yellow Onion</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Allium cepa 'White onion'</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="inlineStr">
+        <is>
+          <t>Yellow Sac Spider</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Cheiracanthium inclusum</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="inlineStr">
+        <is>
+          <t>Yellow Spotted Lizard</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>Lepidophyma flavimaculatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="inlineStr">
+        <is>
+          <t>Yellow-Eyed Penguin</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>Megadyptes antipodes</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="inlineStr">
+        <is>
+          <t>Yellowfin Tuna</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Thunnus albacares</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="inlineStr">
+        <is>
+          <t>Yellowhammer</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Emberiza citrinella</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="inlineStr">
+        <is>
+          <t>Yeti Crab</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Kiwa hirsuta</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="inlineStr">
+        <is>
+          <t>Yorkie-poo</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="inlineStr">
+        <is>
+          <t>Yorkshire Terrier</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="inlineStr">
+        <is>
+          <t>Zebra</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Equus quagga</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Finch</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Taeniopygia guttata castanotis</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Mussels</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Dreissena polymorpha</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Pleco</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Hypancistrus zebra</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Shark</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Stegostoma fasciatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="inlineStr">
+        <is>
+          <t>Zebu</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Bos taurus indicus</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="inlineStr">
+        <is>
+          <t>Zonal Geranium</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Pelargonium x hortorum</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="inlineStr">
+        <is>
+          <t>Zonkey</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Equus zebra x Equus asinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="inlineStr">
+        <is>
+          <t>Zorse</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Equus zebra x Equus caballus</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="inlineStr">
+        <is>
+          <t>Zuchon</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="inlineStr">
+        <is>
+          <t>chokeberry</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>Aronia arbutifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="inlineStr">
+        <is>
+          <t>oakleaf hydrangea</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>Hydrangea quercifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="inlineStr">
+        <is>
+          <t>smoketree</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>Cotinus coggygria</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="inlineStr">
+        <is>
           <t>thornless honeylocust</t>
         </is>
       </c>
-      <c r="B694" t="inlineStr">
+      <c r="B773" t="inlineStr">
         <is>
           <t>Gleditsia tricanthos f. inermis</t>
         </is>

--- a/nomenclature.xlsx
+++ b/nomenclature.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B773"/>
+  <dimension ref="A1:B777"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4653,7 +4653,7 @@
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>Cross Fox</t>
+          <t>Fox</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -8445,1258 +8445,1306 @@
     <row r="669">
       <c r="A669" s="1" t="inlineStr">
         <is>
-          <t>Stiletto Hybrid Hosta</t>
+          <t>Sunfish</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Hosta 'Stiletto'</t>
+          <t>Mola mola</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="inlineStr">
         <is>
-          <t>Stink Bugs</t>
+          <t xml:space="preserve">Wild Turkey </t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Halyomorpha halys</t>
+          <t>Meleagris gallopavo</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="inlineStr">
         <is>
-          <t>Stock</t>
+          <t>Emu</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>dove Columba oenas</t>
+          <t>Dromaius novaehollandiae</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="inlineStr">
         <is>
-          <t>Stonechat</t>
+          <t>Honey badger</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>Saxicola torquata</t>
+          <t>Mellivora capensis</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="inlineStr">
         <is>
-          <t>Strawberry</t>
+          <t>Stiletto Hybrid Hosta</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>Fragaria × ananassa</t>
+          <t>Hosta 'Stiletto'</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="inlineStr">
         <is>
-          <t>Sugar Maple</t>
+          <t>Stink Bugs</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>Acer saccharum</t>
+          <t>Halyomorpha halys</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="inlineStr">
         <is>
-          <t>Summer Snapdragon</t>
+          <t>Stock</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>Angelonia angustifolia</t>
+          <t>dove Columba oenas</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="inlineStr">
         <is>
-          <t>Sun and Substance Hybrid Hosta</t>
+          <t>Stonechat</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Hosta 'Sun and Substance'</t>
+          <t>Saxicola torquata</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="inlineStr">
         <is>
-          <t>Sunflower</t>
+          <t>Strawberry</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Helianthus annuus</t>
+          <t>Fragaria × ananassa</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="inlineStr">
         <is>
-          <t>Swallow</t>
+          <t>Sugar Maple</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Hirundo rustica</t>
+          <t>Acer saccharum</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="inlineStr">
         <is>
-          <t>Swede/ Rutabaga</t>
+          <t>Summer Snapdragon</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Brassica napus Napobrassica Group</t>
+          <t>Angelonia angustifolia</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="inlineStr">
         <is>
-          <t>Sweet Alyssum</t>
+          <t>Sun and Substance Hybrid Hosta</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Lobularia maritima</t>
+          <t>Hosta 'Sun and Substance'</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="inlineStr">
         <is>
-          <t>Sweet Potato</t>
+          <t>Sunflower</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Ipomoea batatas</t>
+          <t>Helianthus annuus</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="inlineStr">
         <is>
-          <t>Tall Verbena</t>
+          <t>Swallow</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Verbena bonariensis</t>
+          <t>Hirundo rustica</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="inlineStr">
         <is>
-          <t>Tamarillo</t>
+          <t>Swede/ Rutabaga</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Solanum betaceum</t>
+          <t>Brassica napus Napobrassica Group</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="inlineStr">
         <is>
-          <t>Tamarind</t>
+          <t>Sweet Alyssum</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>Tamarindus indica</t>
+          <t>Lobularia maritima</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="inlineStr">
         <is>
-          <t>Tamarind tree</t>
+          <t>Sweet Potato</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Tamarindus indica</t>
+          <t>Ipomoea batatas</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="inlineStr">
         <is>
-          <t>Tangerine</t>
+          <t>Tall Verbena</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Citrus reticulata</t>
+          <t>Verbena bonariensis</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="inlineStr">
         <is>
-          <t>Taro</t>
+          <t>Tamarillo</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Colocasia esculenta</t>
+          <t>Solanum betaceum</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="inlineStr">
         <is>
-          <t>Teak</t>
+          <t>Tamarind</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Tectona grandis Linn.</t>
+          <t>Tamarindus indica</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="inlineStr">
         <is>
-          <t>Termite</t>
+          <t>Tamarind tree</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Isoptera</t>
+          <t>Tamarindus indica</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="inlineStr">
         <is>
-          <t>Termites</t>
+          <t>Tangerine</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Isoptera</t>
+          <t>Citrus reticulata</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="inlineStr">
         <is>
-          <t>Texas Sage</t>
+          <t>Taro</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Salvia coccinea</t>
+          <t>Colocasia esculenta</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="1" t="inlineStr">
         <is>
-          <t>Thread-leaf Tickseed</t>
+          <t>Teak</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Coreopsis verticillata</t>
+          <t>Tectona grandis Linn.</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="1" t="inlineStr">
         <is>
-          <t>Tick</t>
+          <t>Termite</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Ixodida</t>
+          <t>Isoptera</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="1" t="inlineStr">
         <is>
-          <t>Tiger</t>
+          <t>Termites</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Panthera tigris</t>
+          <t>Isoptera</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="1" t="inlineStr">
         <is>
-          <t>Tiger Shark</t>
+          <t>Texas Sage</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Galeocerdo cuvier</t>
+          <t>Salvia coccinea</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="1" t="inlineStr">
         <is>
-          <t>Tobacco</t>
+          <t>Thread-leaf Tickseed</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Nicotina tobaccum</t>
+          <t>Coreopsis verticillata</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="1" t="inlineStr">
         <is>
-          <t>Tomato</t>
+          <t>Tick</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Lycopersicon esculentum</t>
+          <t>Ixodida</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="1" t="inlineStr">
         <is>
-          <t>Tree</t>
+          <t>Tiger</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>pipit Anthus trivialis</t>
+          <t>Panthera tigris</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="1" t="inlineStr">
         <is>
-          <t>Treecreeper</t>
+          <t>Tiger Shark</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Certhia familiaris</t>
+          <t>Galeocerdo cuvier</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="1" t="inlineStr">
         <is>
-          <t>Tuberous-rooted Begonia</t>
+          <t>Tobacco</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Begonia x tuberhybrida</t>
+          <t>Nicotina tobaccum</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="1" t="inlineStr">
         <is>
-          <t>Tufted</t>
+          <t>Tomato</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>duck Aythya fuligula</t>
+          <t>Lycopersicon esculentum</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="1" t="inlineStr">
         <is>
-          <t>Tulsi</t>
+          <t>Tree</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>Ocimum sanctum</t>
+          <t>pipit Anthus trivialis</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="1" t="inlineStr">
         <is>
-          <t>Turmeric</t>
+          <t>Treecreeper</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>Curcuma longa</t>
+          <t>Certhia familiaris</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="1" t="inlineStr">
         <is>
-          <t>Turnip</t>
+          <t>Tuberous-rooted Begonia</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>Brassica rapa subsp. rapa</t>
+          <t>Begonia x tuberhybrida</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="1" t="inlineStr">
         <is>
-          <t>Uakari</t>
+          <t>Tufted</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Cacajao</t>
+          <t>duck Aythya fuligula</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="1" t="inlineStr">
         <is>
-          <t>Uchuva</t>
+          <t>Tulsi</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>Physalis peruviana</t>
+          <t>Ocimum sanctum</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="1" t="inlineStr">
         <is>
-          <t>Uguisu</t>
+          <t>Turmeric</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Horornis diphone</t>
+          <t>Curcuma longa</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="1" t="inlineStr">
         <is>
-          <t>Uinta Ground Squirrel</t>
+          <t>Turnip</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Urocitellus armatus</t>
+          <t>Brassica rapa subsp. rapa</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="1" t="inlineStr">
         <is>
-          <t>Umbrellabird</t>
+          <t>Uakari</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Cephalopterus</t>
+          <t>Cacajao</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="1" t="inlineStr">
         <is>
-          <t>Unau</t>
+          <t>Uchuva</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Choloepus didactylus</t>
+          <t>Physalis peruviana</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="1" t="inlineStr">
         <is>
-          <t>Ural owl</t>
+          <t>Uguisu</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Strix uralensis</t>
+          <t>Horornis diphone</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="1" t="inlineStr">
         <is>
-          <t>Utonagan</t>
+          <t>Uinta Ground Squirrel</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Urocitellus armatus</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="1" t="inlineStr">
         <is>
-          <t>Vampire Bat</t>
+          <t>Umbrellabird</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>Desmodontinae</t>
+          <t>Cephalopterus</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="1" t="inlineStr">
         <is>
-          <t>Vampire Squid</t>
+          <t>Unau</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>Vampyroteuthis infernalis</t>
+          <t>Choloepus didactylus</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="1" t="inlineStr">
         <is>
-          <t>Vaquita</t>
+          <t>Ural owl</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>Phocoena sinus</t>
+          <t>Strix uralensis</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="1" t="inlineStr">
         <is>
-          <t>Variegated Solomon's Seal</t>
+          <t>Utonagan</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Polygonatum odoratum</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="1" t="inlineStr">
         <is>
-          <t>Venus Flytrap</t>
+          <t>Vampire Bat</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Dionaea muscipula</t>
+          <t>Desmodontinae</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="1" t="inlineStr">
         <is>
-          <t>Vervet Monkey</t>
+          <t>Vampire Squid</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>Chlorocebus pygerythrus</t>
+          <t>Vampyroteuthis infernalis</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="1" t="inlineStr">
         <is>
-          <t>VicuÃ±a</t>
+          <t>Vaquita</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Vicugna vicugna</t>
+          <t>Phocoena sinus</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="1" t="inlineStr">
         <is>
-          <t>Vinegaroon</t>
+          <t>Variegated Solomon's Seal</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Uropygi</t>
+          <t>Polygonatum odoratum</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="1" t="inlineStr">
         <is>
-          <t>Viper shark (dogfish)</t>
+          <t>Venus Flytrap</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Trigonognathus kabeyai</t>
+          <t>Dionaea muscipula</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="1" t="inlineStr">
         <is>
-          <t>Virgin Islands Dwarf Gecko</t>
+          <t>Vervet Monkey</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Sphaerodactylus parthenopion</t>
+          <t>Chlorocebus pygerythrus</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="1" t="inlineStr">
         <is>
-          <t>Vizsla</t>
+          <t>VicuÃ±a</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Vicugna vicugna</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="1" t="inlineStr">
         <is>
-          <t>Volpino Italiano</t>
+          <t>Vinegaroon</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Uropygi</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="1" t="inlineStr">
         <is>
-          <t>Walrus</t>
+          <t>Viper shark (dogfish)</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Odobenus rosmarus</t>
+          <t>Trigonognathus kabeyai</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="1" t="inlineStr">
         <is>
-          <t>Wasp</t>
+          <t>Virgin Islands Dwarf Gecko</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Vespa</t>
+          <t>Sphaerodactylus parthenopion</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="1" t="inlineStr">
         <is>
-          <t>Wasps</t>
+          <t>Vizsla</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Vespidae</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="1" t="inlineStr">
         <is>
-          <t>Water Buffalo</t>
+          <t>Volpino Italiano</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Bubalus bubalis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="1" t="inlineStr">
         <is>
-          <t>Watermelon</t>
+          <t>Walrus</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Citrullus vulgaris</t>
+          <t>Odobenus rosmarus</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="1" t="inlineStr">
         <is>
-          <t>Wavy-leaved Hosta</t>
+          <t>Wasp</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Hosta undulata</t>
+          <t>Vespa</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="1" t="inlineStr">
         <is>
-          <t>Wax Begonia</t>
+          <t>Wasps</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>Begonia x semperflorens-cultorum</t>
+          <t>Vespidae</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="1" t="inlineStr">
         <is>
-          <t>Whale Shark</t>
+          <t>Water Buffalo</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Rhincodon typus</t>
+          <t>Bubalus bubalis</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="1" t="inlineStr">
         <is>
-          <t>Wheat Cockscomb</t>
+          <t>Watermelon</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Celosia agentea var. spicata</t>
+          <t>Citrullus vulgaris</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="1" t="inlineStr">
         <is>
-          <t>Wheatear</t>
+          <t>Wavy-leaved Hosta</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>Oenanthe oenanthe</t>
+          <t>Hosta undulata</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="1" t="inlineStr">
         <is>
-          <t>Whinchat</t>
+          <t>Wax Begonia</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>Saxicola rubetra</t>
+          <t>Begonia x semperflorens-cultorum</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="1" t="inlineStr">
         <is>
-          <t>White Cabbage</t>
+          <t>Whale Shark</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>Brassica oleracea var. capitata</t>
+          <t>Rhincodon typus</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="1" t="inlineStr">
         <is>
-          <t>Whitethroat</t>
+          <t>Wheat Cockscomb</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>Sylvia communis</t>
+          <t>Celosia agentea var. spicata</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="1" t="inlineStr">
         <is>
-          <t>Willow</t>
+          <t>Wheatear</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>warbler Phylloscopus trochilus</t>
+          <t>Oenanthe oenanthe</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="1" t="inlineStr">
         <is>
-          <t>Wolf</t>
+          <t>Whinchat</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>Canis lupus</t>
+          <t>Saxicola rubetra</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="1" t="inlineStr">
         <is>
-          <t>Wood</t>
+          <t>White Cabbage</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>warbler Phylloscopus sibilatrix</t>
+          <t>Brassica oleracea var. capitata</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="1" t="inlineStr">
         <is>
-          <t>Woodpigeon</t>
+          <t>Whitethroat</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>Columba palumbus</t>
+          <t>Sylvia communis</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="1" t="inlineStr">
         <is>
-          <t>Wren</t>
+          <t>Willow</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>Troglodytes troglodytes</t>
+          <t>warbler Phylloscopus trochilus</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="1" t="inlineStr">
         <is>
-          <t>X-Ray Tetra</t>
+          <t>Wolf</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>Pristella maxillaris</t>
+          <t>Canis lupus</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="1" t="inlineStr">
         <is>
-          <t>Xerus</t>
+          <t>Wood</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>Xerus</t>
+          <t>warbler Phylloscopus sibilatrix</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="1" t="inlineStr">
         <is>
-          <t>Xoloitzcuintli</t>
+          <t>Woodpigeon</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Columba palumbus</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="1" t="inlineStr">
         <is>
-          <t>Yak</t>
+          <t>Wren</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>Bos grunniens</t>
+          <t>Troglodytes troglodytes</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="1" t="inlineStr">
         <is>
-          <t>Yakutian Laika</t>
+          <t>X-Ray Tetra</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Pristella maxillaris</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="1" t="inlineStr">
         <is>
-          <t>Yam</t>
+          <t>Xerus</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>Dioscorea</t>
+          <t>Xerus</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="1" t="inlineStr">
         <is>
-          <t>Yarrow</t>
+          <t>Xoloitzcuintli</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>Achillea millefolium</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="1" t="inlineStr">
         <is>
-          <t>Yellow Cosmos</t>
+          <t>Yak</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>Cosmos sulphureus</t>
+          <t>Bos grunniens</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="1" t="inlineStr">
         <is>
-          <t>Yellow Onion</t>
+          <t>Yakutian Laika</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>Allium cepa 'White onion'</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="1" t="inlineStr">
         <is>
-          <t>Yellow Sac Spider</t>
+          <t>Yam</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>Cheiracanthium inclusum</t>
+          <t>Dioscorea</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="1" t="inlineStr">
         <is>
-          <t>Yellow Spotted Lizard</t>
+          <t>Yarrow</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>Lepidophyma flavimaculatum</t>
+          <t>Achillea millefolium</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="1" t="inlineStr">
         <is>
-          <t>Yellow-Eyed Penguin</t>
+          <t>Yellow Cosmos</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>Megadyptes antipodes</t>
+          <t>Cosmos sulphureus</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="1" t="inlineStr">
         <is>
-          <t>Yellowfin Tuna</t>
+          <t>Yellow Onion</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>Thunnus albacares</t>
+          <t>Allium cepa 'White onion'</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="1" t="inlineStr">
         <is>
-          <t>Yellowhammer</t>
+          <t>Yellow Sac Spider</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Emberiza citrinella</t>
+          <t>Cheiracanthium inclusum</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="1" t="inlineStr">
         <is>
-          <t>Yeti Crab</t>
+          <t>Yellow Spotted Lizard</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>Kiwa hirsuta</t>
+          <t>Lepidophyma flavimaculatum</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="1" t="inlineStr">
         <is>
-          <t>Yorkie-poo</t>
+          <t>Yellow-Eyed Penguin</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Megadyptes antipodes</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="1" t="inlineStr">
         <is>
-          <t>Yorkshire Terrier</t>
+          <t>Yellowfin Tuna</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Thunnus albacares</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="1" t="inlineStr">
         <is>
-          <t>Zebra</t>
+          <t>Yellowhammer</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>Equus quagga</t>
+          <t>Emberiza citrinella</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="1" t="inlineStr">
         <is>
-          <t>Zebra Finch</t>
+          <t>Yeti Crab</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>Taeniopygia guttata castanotis</t>
+          <t>Kiwa hirsuta</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="1" t="inlineStr">
         <is>
-          <t>Zebra Mussels</t>
+          <t>Yorkie-poo</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>Dreissena polymorpha</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="1" t="inlineStr">
         <is>
-          <t>Zebra Pleco</t>
+          <t>Yorkshire Terrier</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>Hypancistrus zebra</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="1" t="inlineStr">
         <is>
-          <t>Zebra Shark</t>
+          <t>Zebra</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>Stegostoma fasciatum</t>
+          <t>Equus quagga</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="1" t="inlineStr">
         <is>
-          <t>Zebu</t>
+          <t>Zebra Finch</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>Bos taurus indicus</t>
+          <t>Taeniopygia guttata castanotis</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="1" t="inlineStr">
         <is>
-          <t>Zonal Geranium</t>
+          <t>Zebra Mussels</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>Pelargonium x hortorum</t>
+          <t>Dreissena polymorpha</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="1" t="inlineStr">
         <is>
-          <t>Zonkey</t>
+          <t>Zebra Pleco</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>Equus zebra x Equus asinus</t>
+          <t>Hypancistrus zebra</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="1" t="inlineStr">
         <is>
-          <t>Zorse</t>
+          <t>Zebra Shark</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>Equus zebra x Equus caballus</t>
+          <t>Stegostoma fasciatum</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="1" t="inlineStr">
         <is>
-          <t>Zuchon</t>
+          <t>Zebu</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Bos taurus indicus</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="1" t="inlineStr">
         <is>
-          <t>chokeberry</t>
+          <t>Zonal Geranium</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>Aronia arbutifolia</t>
+          <t>Pelargonium x hortorum</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="1" t="inlineStr">
         <is>
-          <t>oakleaf hydrangea</t>
+          <t>Zonkey</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>Hydrangea quercifolia</t>
+          <t>Equus zebra x Equus asinus</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="1" t="inlineStr">
         <is>
-          <t>smoketree</t>
+          <t>Zorse</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>Cotinus coggygria</t>
+          <t>Equus zebra x Equus caballus</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="1" t="inlineStr">
         <is>
+          <t>Zuchon</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="inlineStr">
+        <is>
+          <t>chokeberry</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>Aronia arbutifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="inlineStr">
+        <is>
+          <t>oakleaf hydrangea</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>Hydrangea quercifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="inlineStr">
+        <is>
+          <t>smoketree</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>Cotinus coggygria</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="inlineStr">
+        <is>
           <t>thornless honeylocust</t>
         </is>
       </c>
-      <c r="B773" t="inlineStr">
+      <c r="B777" t="inlineStr">
         <is>
           <t>Gleditsia tricanthos f. inermis</t>
         </is>

--- a/nomenclature.xlsx
+++ b/nomenclature.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B777"/>
+  <dimension ref="A1:B795"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4161,739 +4161,739 @@
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>Coleus</t>
+          <t>Coelacanth</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Solenostemon scutellaroides</t>
+          <t>Actinistia</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>Common Frog</t>
+          <t>Coleus</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Rana temporaria</t>
+          <t>Solenostemon scutellaroides</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>Common Furniture Beetle</t>
+          <t>Common Frog</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Anobium punctatum</t>
+          <t>Rana temporaria</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>Common House Spider</t>
+          <t>Common Furniture Beetle</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Parasteatoda tepidariorum</t>
+          <t>Anobium punctatum</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>Common Loon</t>
+          <t>Common House Spider</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Gavia immer</t>
+          <t>Parasteatoda tepidariorum</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>Common Raven</t>
+          <t>Common Loon</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Corvus corax</t>
+          <t>Gavia immer</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>Common Toad</t>
+          <t>Common Raven</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Bufo bufo</t>
+          <t>Corvus corax</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>Common Yarrow</t>
+          <t>Common Snapping Turtle</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Achillea millefolium</t>
+          <t>Chelydra serpentina</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>Common Zinnia</t>
+          <t>Common Toad</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Zinnia elegans</t>
+          <t>Bufo bufo</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>Congo Snake</t>
+          <t>Common Yarrow</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Amphiuma</t>
+          <t>Achillea millefolium</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>Cookiecutter Shark</t>
+          <t>Common Zinnia</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Isistius brasiliensis</t>
+          <t>Zinnia elegans</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>Coopers Hawk</t>
+          <t>Congo Snake</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Accipiter cooperii</t>
+          <t>Amphiuma</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>Copperhead</t>
+          <t>Cookiecutter Shark</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Agkistrodon contortrix</t>
+          <t>Isistius brasiliensis</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>Coral Bells</t>
+          <t>Coopers Hawk</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Heuchera hybrid</t>
+          <t>Accipiter cooperii</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>Coral Snake</t>
+          <t>Copperhead</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Micrurus fulvius</t>
+          <t>Agkistrodon contortrix</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>Coriander</t>
+          <t>Coral Bells</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Coriandrum sativum</t>
+          <t>Heuchera hybrid</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>Coriander/ Cilantro</t>
+          <t>Coral Snake</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Coriandrum sativum</t>
+          <t>Micrurus fulvius</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>Corn</t>
+          <t>Coriander</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Zea mays</t>
+          <t>Coriandrum sativum</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>Corn Snake</t>
+          <t>Coriander/ Cilantro</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Pantherophis guttatus</t>
+          <t>Coriandrum sativum</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>Coton de Tulear</t>
+          <t>Corn</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Zea mays</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>Cotton</t>
+          <t>Corn Snake</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Gossypium herbaceum</t>
+          <t>Pantherophis guttatus</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>Cotton-top Tamarin</t>
+          <t>Coton de Tulear</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Saguinus oedipus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>Cottonmouth</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Agkistrodon piscivorus</t>
+          <t>Gossypium herbaceum</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>Cougar</t>
+          <t>Cotton-top Tamarin</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Puma concolor</t>
+          <t>Saguinus oedipus</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>Cow</t>
+          <t>Cottonmouth</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Bos Taurus</t>
+          <t>Agkistrodon piscivorus</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>Coyote</t>
+          <t>Cougar</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Canis latrans</t>
+          <t>Puma concolor</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>Crab</t>
+          <t>Cow</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Brachyura</t>
+          <t>Bos Taurus</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>Crab Spider</t>
+          <t>Coyote</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Thomisidae</t>
+          <t>Canis latrans</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>Crab-Eating Macaque</t>
+          <t>Crab</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Macaca fascicularis</t>
+          <t>Brachyura</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>Crabeater Seal</t>
+          <t>Crab Spider</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Lobodon carcinophagus</t>
+          <t>Thomisidae</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>Cranberry</t>
+          <t>Crab-Eating Macaque</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Vaccinium subg. Oxycoccus</t>
+          <t>Macaca fascicularis</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>Crane</t>
+          <t>Crabeater Seal</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Gruidae</t>
+          <t>Lobodon carcinophagus</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>Crappie Fish</t>
+          <t>Cranberry</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Pomoxis</t>
+          <t>Vaccinium subg. Oxycoccus</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>Creeping Zinnia</t>
+          <t>Crane</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Sanvitalia speciosa</t>
+          <t>Gruidae</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>Crested Cockscomb</t>
+          <t>Crappie Fish</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Celosia agentea var. cristata</t>
+          <t>Pomoxis</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>Crested Gecko</t>
+          <t>Creeping Zinnia</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Correlophus ciliatus</t>
+          <t>Sanvitalia speciosa</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>Crested Iris</t>
+          <t>Crested Cockscomb</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Iris cristata</t>
+          <t>Celosia agentea var. cristata</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>Crested Penguin</t>
+          <t>Crested Gecko</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Eudyptes sclateri</t>
+          <t>Correlophus ciliatus</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>Cricket</t>
+          <t>Crested Iris</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Grylloidea</t>
+          <t>Iris cristata</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>Crickets</t>
+          <t>Crested Penguin</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Grylloidea</t>
+          <t>Eudyptes sclateri</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>Crocodile</t>
+          <t>Cricket</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Crocodylidae</t>
+          <t>Grylloidea</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>Fox</t>
+          <t>Crickets</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Vulpes vulpes</t>
+          <t>Grylloidea</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>Cross River Gorilla</t>
+          <t>Crocodile</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Gorilla gorilla diehli</t>
+          <t>Crocodylidae</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>Crow</t>
+          <t>Cross River Gorilla</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Corvus</t>
+          <t>Gorilla gorilla diehli</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>Crucian Carp</t>
+          <t>Crow</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Carassius carassius</t>
+          <t>Corvus</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>Cuban Cockroach</t>
+          <t>Crucian Carp</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Panchlora nivea</t>
+          <t>Carassius carassius</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>Cuckoo</t>
+          <t>Cuban Cockroach</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Cuculidae</t>
+          <t>Panchlora nivea</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>Cucumber</t>
+          <t>Cuckoo</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Cucumis sativas</t>
+          <t>Cuculidae</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>Curly Coated Retriever</t>
+          <t>Cucumber</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Cucumis sativas</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>Curry leaf</t>
+          <t>Curly Coated Retriever</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Murraya koenigii</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>Curuba</t>
+          <t>Curry leaf</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Passiflora tarminiana</t>
+          <t>Murraya koenigii</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>Cuscus</t>
+          <t>Curuba</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Phalanger</t>
+          <t>Passiflora tarminiana</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>Cuttlefish</t>
+          <t>Cuscus</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Sepiida</t>
+          <t>Phalanger</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>Date Palm</t>
+          <t>Cuttlefish</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Phoenix dactylifera</t>
+          <t>Sepiida</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>Daylily</t>
+          <t>Date Palm</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Hemerocallis hybrids</t>
+          <t>Phoenix dactylifera</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>Dog</t>
+          <t>Daylily</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Hemerocallis hybrids</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>Donkey</t>
+          <t>Dog</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Equus africanus asinus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>Doublefile Viburnum</t>
+          <t>Donkey</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Viburnum plicatum var. tomentosum</t>
+          <t>Equus africanus asinus</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
         <is>
-          <t>Dragon Fruit</t>
+          <t>Doublefile Viburnum</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Selenicereus undatus</t>
+          <t>Viburnum plicatum var. tomentosum</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>Dragon fruit</t>
+          <t>Dragon Fruit</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Hylocereus undatus</t>
+          <t>Selenicereus undatus</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>Dragonflies</t>
+          <t>Dragon fruit</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Anisoptera</t>
+          <t>Hylocereus undatus</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
         <is>
-          <t>Dragonfly</t>
+          <t>Dragonflies</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -4905,1087 +4905,1087 @@
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>Dromedary Camel</t>
+          <t>Dragonfly</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Camelus dromedaries</t>
+          <t>Anisoptera</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>Durian</t>
+          <t>Dromedary Camel</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Durio</t>
+          <t>Camelus dromedaries</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>Dusty Miller</t>
+          <t>Durian</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Senecio cineraria</t>
+          <t>Durio</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>Earwigs</t>
+          <t>Dusty Miller</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Dermaptera</t>
+          <t>Senecio cineraria</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>Eastern Redbud</t>
+          <t>Earwigs</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Cercis canadensis</t>
+          <t>Dermaptera</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
         <is>
-          <t>Eggplant</t>
+          <t>Eastern Redbud</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Solanum melongena</t>
+          <t>Cercis canadensis</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
         <is>
-          <t>Eulalia Grass</t>
+          <t>Eggplant</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Miscanthus</t>
+          <t>Solanum melongena</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
         <is>
-          <t>False Indigo</t>
+          <t>Emu</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Baptisia australis</t>
+          <t>Dromaius novaehollandiae</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
         <is>
-          <t>Fan Flower</t>
+          <t>Eulalia Grass</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Scaevola aemula</t>
+          <t>Miscanthus</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>Feather Reed Grass</t>
+          <t>False Indigo</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Calamagrostis</t>
+          <t>Baptisia australis</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>Fennel</t>
+          <t>Fan Flower</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Foeniculum vulgare</t>
+          <t>Scaevola aemula</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>Fern-leaf Yarrow</t>
+          <t>Feather Reed Grass</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Achillea fillipenulina</t>
+          <t>Calamagrostis</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
         <is>
-          <t>Field Pansy</t>
+          <t>Fennel</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Viola tricolor</t>
+          <t>Foeniculum vulgare</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>Fig</t>
+          <t>Fern-leaf Yarrow</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Ficus carica</t>
+          <t>Achillea fillipenulina</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
         <is>
-          <t>Finger millet</t>
+          <t>Field Pansy</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Eleusine coracana</t>
+          <t>Viola tricolor</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
         <is>
-          <t>Firefly</t>
+          <t>Fig</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Lampyridae</t>
+          <t>Ficus carica</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
         <is>
-          <t>Flea</t>
+          <t>Finger millet</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Siphonaptera</t>
+          <t>Eleusine coracana</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
         <is>
-          <t>Fleas</t>
+          <t>Firefly</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Siphonaptera</t>
+          <t>Lampyridae</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
         <is>
-          <t>Flowering Cabbage/Kale</t>
+          <t>Flea</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Brassica oleracea</t>
+          <t>Siphonaptera</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>Flowering Tobacco</t>
+          <t>Fleas</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Nicotiana x sanderae</t>
+          <t>Siphonaptera</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Flowering Cabbage/Kale</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Diptera</t>
+          <t>Brassica oleracea</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>Fortune's Hosta</t>
+          <t>Flowering Tobacco</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Hosta fortunei 'Albomarginata'</t>
+          <t>Nicotiana x sanderae</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
         <is>
-          <t>Fountain Grass</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Pennisetum alopecuroides</t>
+          <t>Diptera</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>Fowl</t>
+          <t>Flying squirrels</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Gallus gallus domesticus</t>
+          <t>Pteromyini</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>Fragrant Sumac</t>
+          <t>Fortune's Hosta</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Rhus aromatica</t>
+          <t>Hosta fortunei 'Albomarginata'</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>French Marigold</t>
+          <t>Fountain Grass</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tagetes patula</t>
+          <t>Pennisetum alopecuroides</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
         <is>
-          <t>Fringed Bleeding-heart</t>
+          <t>Fowl</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Dicentra exima</t>
+          <t>Gallus gallus domesticus</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
         <is>
-          <t>Garden Impatiens</t>
+          <t>Fox</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Impatiens walleriana</t>
+          <t>Vulpes vulpes</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
         <is>
-          <t>Garden Lily</t>
+          <t>Fragrant Sumac</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Lilium</t>
+          <t>Rhus aromatica</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
         <is>
-          <t>Garden Phlox</t>
+          <t>French Marigold</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Phlox paniculata</t>
+          <t>Tagetes patula</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
         <is>
-          <t>Garden Verbena</t>
+          <t>Fringed Bleeding-heart</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Verbena x hybrida</t>
+          <t>Dicentra exima</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
         <is>
-          <t>Garlic</t>
+          <t>Fruitfly</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Allium sativum</t>
+          <t>Drosophila melanogaster</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
         <is>
-          <t>Gazania</t>
+          <t>Garden Impatiens</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Gazania rigens</t>
+          <t>Impatiens walleriana</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
         <is>
-          <t>Gentian Sage</t>
+          <t>Garden Lily</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Salvia patens</t>
+          <t>Lilium</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
         <is>
-          <t>Gharial</t>
+          <t>Garden Phlox</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Gavialis gangeticus</t>
+          <t>Phlox paniculata</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
         <is>
-          <t>Ginger</t>
+          <t>Garden Verbena</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Zingiber officinale</t>
+          <t>Verbena x hybrida</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
         <is>
-          <t>Globe Amaranth</t>
+          <t>Garlic</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Gomphrena haageana</t>
+          <t>Allium sativum</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
         <is>
-          <t>Goat</t>
+          <t>Gazania</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Capra aegagrus hircus</t>
+          <t>Gazania rigens</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>Gooseneck Loosestrife</t>
+          <t>Gentian Sage</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Lysimachia</t>
+          <t>Salvia patens</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Gharial</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Gavialis gangeticus</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
         <is>
-          <t>Granadilla</t>
+          <t>Ginger</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Passiflora edulis</t>
+          <t>Zingiber officinale</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
         <is>
-          <t>Grape</t>
+          <t>Globe Amaranth</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Vitis</t>
+          <t>Gomphrena haageana</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
         <is>
-          <t>Grapefruit</t>
+          <t>Goat</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Citrus × paradisi</t>
+          <t>Capra aegagrus hircus</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
         <is>
-          <t>Grass Pink</t>
+          <t>Gooseneck Loosestrife</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Dianthus plumarius</t>
+          <t>Lysimachia</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
         <is>
-          <t>Grasshopper</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Caelifera</t>
+          <t>Gorilla</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Granadilla</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Caelifera</t>
+          <t>Passiflora edulis</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
         <is>
-          <t>Great white shark</t>
+          <t>Grape</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Carcharodon carcharias</t>
+          <t>Vitis</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
         <is>
-          <t>Green Chili</t>
+          <t>Grapefruit</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Capsicum annuum</t>
+          <t>Citrus × paradisi</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
         <is>
-          <t>Green Gram</t>
+          <t>Grass Pink</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Phaseolus audicus</t>
+          <t>Dianthus plumarius</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
         <is>
-          <t>Greenfly</t>
+          <t>Grasshopper</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Aphidoidea</t>
+          <t>Caelifera</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
         <is>
-          <t>Guava</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Psidium guava</t>
+          <t>Caelifera</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
         <is>
-          <t>Hakone Grass</t>
+          <t>Great white shark</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Hakonechloa</t>
+          <t>Carcharodon carcharias</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
         <is>
-          <t>Hinoki Falsecypress</t>
+          <t>Green Chili</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Chamaecyparis obtusa</t>
+          <t>Capsicum annuum</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
         <is>
-          <t>Hippopotamus</t>
+          <t>Green Gram</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Hippopotamus amphibius</t>
+          <t>Phaseolus audicus</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
         <is>
-          <t>Horse</t>
+          <t>Greenfly</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Equus ferus caballus</t>
+          <t>Aphidoidea</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
         <is>
-          <t>Hosta Kabitan</t>
+          <t>Guava</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Hosta sieboldii</t>
+          <t>Psidium guava</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
         <is>
-          <t>House wall Lizard</t>
+          <t>Guinea pig</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Hemidactylus flaviviridis</t>
+          <t>Cavia porcellus</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
         <is>
-          <t>Human beings</t>
+          <t>Hakone Grass</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Hakonechloa</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
         <is>
-          <t>Humpback whale</t>
+          <t>Hinoki Falsecypress</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Megaptera novaeangliae</t>
+          <t>Chamaecyparis obtusa</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
         <is>
-          <t>Hybrid Astilbe</t>
+          <t>Hippopotamus</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Astilbe hybrids</t>
+          <t>Hippopotamus amphibius</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
         <is>
-          <t>Hybrid Bearded Iris</t>
+          <t>Honey badger</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Iris hybrids</t>
+          <t>Mellivora capensis</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="inlineStr">
         <is>
-          <t>Hybrid Columbine</t>
+          <t>Horse</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Aquilegia x hybrida</t>
+          <t>Equus ferus caballus</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
         <is>
-          <t>Hybrid Pansy</t>
+          <t>Hosta Kabitan</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Viola x wittrockiana</t>
+          <t>Hosta sieboldii</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
         <is>
-          <t>Ibex</t>
+          <t>House wall Lizard</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Capra ibex</t>
+          <t>Hemidactylus flaviviridis</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
         <is>
-          <t>Ibis</t>
+          <t>Housefly</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Threskiornithinae</t>
+          <t>Musca domestica</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
         <is>
-          <t>Ibizan Hound</t>
+          <t>Human beings</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
         <is>
-          <t>Icelandic Sheepdog</t>
+          <t>Humpback whale</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Megaptera novaeangliae</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
         <is>
-          <t>Iguana</t>
+          <t>Hybrid Astilbe</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Iguana</t>
+          <t>Astilbe hybrids</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
         <is>
-          <t>Immortal Jellyfish</t>
+          <t>Hybrid Bearded Iris</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Turritopsis dohrnii</t>
+          <t>Iris hybrids</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="inlineStr">
         <is>
-          <t>Impala</t>
+          <t>Hybrid Columbine</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Aepyceros melampus</t>
+          <t>Aquilegia x hybrida</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
         <is>
-          <t>Imperial Moth</t>
+          <t>Hybrid Pansy</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Eacles imperialis</t>
+          <t>Viola x wittrockiana</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
         <is>
-          <t>Indian Cobra</t>
+          <t>Ibex</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Naja naja</t>
+          <t>Capra ibex</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
         <is>
-          <t>Indian Elephant</t>
+          <t>Ibis</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Elephas maximus</t>
+          <t>Threskiornithinae</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
         <is>
-          <t>Indian Giant Squirrel</t>
+          <t>Ibizan Hound</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Ratufa indica</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
         <is>
-          <t>Indian Grass</t>
+          <t>Icelandic Sheepdog</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Sorghastrum x</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="inlineStr">
         <is>
-          <t>Indian Palm Squirrel</t>
+          <t>Iguana</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Funambulus palmarum</t>
+          <t>Iguana</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
         <is>
-          <t>Indian Rhinoceros</t>
+          <t>Immortal Jellyfish</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Rhinoceros unicornis</t>
+          <t>Turritopsis dohrnii</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="inlineStr">
         <is>
-          <t>Indian Star Tortoise</t>
+          <t>Impala</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Geochelone elegans</t>
+          <t>Aepyceros melampus</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
         <is>
-          <t>Indigo Snake</t>
+          <t>Imperial Moth</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Drymarchon couperi</t>
+          <t>Eacles imperialis</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="inlineStr">
         <is>
-          <t>Indochinese Tiger</t>
+          <t>Indian Cobra</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Panthera tigris corbetti</t>
+          <t>Naja naja</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="inlineStr">
         <is>
-          <t>Indri</t>
+          <t>Indian Elephant</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Indri indri</t>
+          <t>Elephas maximus</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="inlineStr">
         <is>
-          <t>Irish Doodle</t>
+          <t>Indian Giant Squirrel</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Ratufa indica</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="inlineStr">
         <is>
-          <t>Irish Setter</t>
+          <t>Indian Grass</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Sorghastrum x</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="inlineStr">
         <is>
-          <t>Irish Terrier</t>
+          <t>Indian Palm Squirrel</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Funambulus palmarum</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
         <is>
-          <t>Irish Water Spaniel</t>
+          <t>Indian Rhinoceros</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Rhinoceros unicornis</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="inlineStr">
         <is>
-          <t>Irish WolfHound</t>
+          <t>Indian Star Tortoise</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Geochelone elegans</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="inlineStr">
         <is>
-          <t>Italian Greyhound</t>
+          <t>Indigo Snake</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Drymarchon couperi</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
         <is>
-          <t>Ivory-billed woodpecker</t>
+          <t>Indochinese Tiger</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Campephilus principalis</t>
+          <t>Panthera tigris corbetti</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
         <is>
-          <t>Ivy Geranium</t>
+          <t>Indri</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Pelargonium peltatum</t>
+          <t>Indri indri</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
         <is>
-          <t>Jacana</t>
+          <t>Irish Doodle</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Jacanidae</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="inlineStr">
         <is>
-          <t>Jack Russell</t>
+          <t>Irish Setter</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -5997,3754 +5997,3970 @@
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
         <is>
-          <t>Jackal</t>
+          <t>Irish Terrier</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Canis aureus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="inlineStr">
         <is>
-          <t>Jackdaw</t>
+          <t>Irish Water Spaniel</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Corvus monedula</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="inlineStr">
         <is>
-          <t>Jackfruit</t>
+          <t>Irish WolfHound</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Artocarpus integra</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="inlineStr">
         <is>
-          <t>Jackrabbit</t>
+          <t>Italian Greyhound</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Lepus californicus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="inlineStr">
         <is>
-          <t>Jackson's Chameleon</t>
+          <t>Ivory-billed woodpecker</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Trioceros jacksonii</t>
+          <t>Campephilus principalis</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="inlineStr">
         <is>
-          <t>Jaguar</t>
+          <t>Ivy Geranium</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Panthera onca</t>
+          <t>Pelargonium peltatum</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
         <is>
-          <t>Jaguarundi Cat</t>
+          <t>Jacana</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Puma yagouaroundi</t>
+          <t>Jacanidae</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="inlineStr">
         <is>
-          <t>Japanese Beetle</t>
+          <t>Jack Russell</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Popillia japonica</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="inlineStr">
         <is>
-          <t>Japanese Blood Grass</t>
+          <t>Jackal</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Imperata</t>
+          <t>Canis aureus</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="inlineStr">
         <is>
-          <t>Japanese Chin</t>
+          <t>Jackdaw</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Corvus monedula</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="inlineStr">
         <is>
-          <t>Japanese Iris</t>
+          <t>Jackfruit</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Iris ensata</t>
+          <t>Artocarpus integra</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="inlineStr">
         <is>
-          <t>Japanese Macaque</t>
+          <t>Jackrabbit</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Macaca fuscata</t>
+          <t>Lepus californicus</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
         <is>
-          <t>Japanese Spitz</t>
+          <t>Jackson's Chameleon</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Trioceros jacksonii</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="inlineStr">
         <is>
-          <t>Japanese Squirrel</t>
+          <t>Jaguar</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Sciurus lis</t>
+          <t>Panthera onca</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="inlineStr">
         <is>
-          <t>Japanese Terrier</t>
+          <t>Jaguarundi Cat</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Puma yagouaroundi</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="inlineStr">
         <is>
-          <t>Japanese tree lilac</t>
+          <t>Japanese Beetle</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Syringa reticulata</t>
+          <t>Popillia japonica</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="inlineStr">
         <is>
-          <t>Javan Rhinoceros</t>
+          <t>Japanese Blood Grass</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Rhinoceros sondaicus</t>
+          <t>Imperata</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="inlineStr">
         <is>
-          <t>Joe-Pye Weed</t>
+          <t>Japanese Chin</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Eupatorium purpureum</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="inlineStr">
         <is>
-          <t>Jonah Crab</t>
+          <t>Japanese Iris</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Cancer borealis</t>
+          <t>Iris ensata</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="inlineStr">
         <is>
-          <t>Joro Spider</t>
+          <t>Japanese Macaque</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Nephila clavata</t>
+          <t>Macaca fuscata</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="inlineStr">
         <is>
-          <t>Jowar</t>
+          <t>Japanese Spitz</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Sorghum Vulgare</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="inlineStr">
         <is>
-          <t>Jumping Spider</t>
+          <t>Japanese Squirrel</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Salticidae</t>
+          <t>Sciurus lis</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="inlineStr">
         <is>
-          <t>Junglefowl</t>
+          <t>Japanese Terrier</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Gallus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
         <is>
-          <t>Kadamb</t>
+          <t>Japanese tree lilac</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Anthocephalus indicus</t>
+          <t>Syringa reticulata</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="inlineStr">
         <is>
-          <t>Kale</t>
+          <t>Javan Rhinoceros</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Brassica oleracea var. sabellica</t>
+          <t>Rhinoceros sondaicus</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
         <is>
-          <t>King cobra</t>
+          <t>Joe-Pye Weed</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Ophiophagus hannah</t>
+          <t>Eupatorium purpureum</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="inlineStr">
         <is>
-          <t>Kingfisher</t>
+          <t>Jonah Crab</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Alcedo atthis</t>
+          <t>Cancer borealis</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="inlineStr">
         <is>
-          <t>Kiwi</t>
+          <t>Joro Spider</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Actinidia deliciosa</t>
+          <t>Nephila clavata</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="inlineStr">
         <is>
-          <t>Kohlrabi</t>
+          <t>Jowar</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Brassica oleracea Gongylodes Group</t>
+          <t>Sorghum Vulgare</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
         <is>
-          <t>Kratt's lichen mantis</t>
+          <t>Jumping Spider</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Liturgusa krattorum</t>
+          <t>Salticidae</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="inlineStr">
         <is>
-          <t>Lady's Mantle</t>
+          <t>Junglefowl</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Alchemilla mollis</t>
+          <t>Gallus</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
         <is>
-          <t>Ladybug</t>
+          <t>Kadamb</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Coccinellidae</t>
+          <t>Anthocephalus indicus</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
         <is>
-          <t>Ladybugs</t>
+          <t>Kale</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Coccinellidae</t>
+          <t>Brassica oleracea var. sabellica</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
         <is>
-          <t>Lambs Ears</t>
+          <t>Kangaroo</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Stachys x</t>
+          <t>Macropodidae</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
         <is>
-          <t>Lapwing</t>
+          <t>King cobra</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Vanellus vanellus</t>
+          <t>Ophiophagus hannah</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
         <is>
-          <t>Lavender</t>
+          <t>Kingfisher</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Lavendula angustifolia</t>
+          <t>Alcedo atthis</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
         <is>
-          <t>Leek</t>
+          <t>Kiwi</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Allium porrum</t>
+          <t>Actinidia deliciosa</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
         <is>
-          <t>Lemon</t>
+          <t>Koala</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Citrus Limonium</t>
+          <t>Phascolarctos cinereus</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
         <is>
-          <t>Lesser</t>
+          <t>Kohlrabi</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>redpoll Carduelis cabaret</t>
+          <t>Brassica oleracea Gongylodes Group</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
         <is>
-          <t>Lettuce</t>
+          <t>Kratt's lichen mantis</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Lactuca sativa</t>
+          <t>Liturgusa krattorum</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
         <is>
-          <t>Lilac</t>
+          <t>Lady's Mantle</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Syringa vulgaris</t>
+          <t>Alchemilla mollis</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
         <is>
-          <t>Lily-of-the-Valley</t>
+          <t>Ladybug</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Convallaria majalis</t>
+          <t>Coccinellidae</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
         <is>
-          <t>Lime</t>
+          <t>Ladybugs</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Citrus × aurantiifolia</t>
+          <t>Coccinellidae</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
         <is>
-          <t>Lion</t>
+          <t>Lambs Ears</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Panthera leo</t>
+          <t>Stachys x</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
         <is>
-          <t>Lobelia</t>
+          <t>Lamprey</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Lobelia erinus</t>
+          <t>Petromyzontiformes</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
         <is>
-          <t>Locust</t>
+          <t>Lapwing</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Schistocerca gregaria</t>
+          <t>Vanellus vanellus</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Lavender</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>tailed tit Aegithalos caudatus</t>
+          <t>Lavendula angustifolia</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
         <is>
-          <t>Longan</t>
+          <t>Leek</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Dimocarpus longan</t>
+          <t>Allium porrum</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
         <is>
-          <t>Lychee</t>
+          <t>Lemon</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Litchi chinensis</t>
+          <t>Citrus Limonium</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
         <is>
-          <t>Magpie</t>
+          <t>Lesser</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Pica pica</t>
+          <t>redpoll Carduelis cabaret</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="inlineStr">
         <is>
-          <t>Maiden Pink</t>
+          <t>Lettuce</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Dianthus deltoides</t>
+          <t>Lactuca sativa</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Lilac</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Zea mays</t>
+          <t>Syringa vulgaris</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="inlineStr">
         <is>
-          <t>Mallard</t>
+          <t>Lily-of-the-Valley</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Anas platyrhynchos</t>
+          <t>Convallaria majalis</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="inlineStr">
         <is>
-          <t>Mandarin</t>
+          <t>Lime</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Citrus reticulata</t>
+          <t>Citrus × aurantiifolia</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="inlineStr">
         <is>
-          <t>Mango</t>
+          <t>Lion</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Mangifera indica</t>
+          <t>Panthera leo</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="inlineStr">
         <is>
-          <t>Mangosteen</t>
+          <t>Lobelia</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Garcinia mangostana</t>
+          <t>Lobelia erinus</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="inlineStr">
         <is>
-          <t>Meadow</t>
+          <t>Locust</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>pipit Anthus pratensis</t>
+          <t>Schistocerca gregaria</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Cucumis melo</t>
+          <t>tailed tit Aegithalos caudatus</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="inlineStr">
         <is>
-          <t>Melon Cantaloupe</t>
+          <t>Longan</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Cucumis melo var. cantalupensis</t>
+          <t>Dimocarpus longan</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="inlineStr">
         <is>
-          <t>Million Gold</t>
+          <t>Lychee</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Melampodium paludosum</t>
+          <t>Litchi chinensis</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Magpie</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Mentha arvensis</t>
+          <t>Pica pica</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="inlineStr">
         <is>
-          <t>Mistle</t>
+          <t>Maiden Pink</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>thrush Turdus viscivorus</t>
+          <t>Dianthus deltoides</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="inlineStr">
         <is>
-          <t>Moorhen</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Gallinula chloropus</t>
+          <t>Zea mays</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="inlineStr">
         <is>
-          <t>Mosquito</t>
+          <t>Mallard</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Culicidae</t>
+          <t>Anas platyrhynchos</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="inlineStr">
         <is>
-          <t>Moss Phlox</t>
+          <t>Mandarin</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Phlox subulata</t>
+          <t>Citrus reticulata</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="inlineStr">
         <is>
-          <t>Moss Verbena</t>
+          <t>Mango</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Verbena tenuisecta</t>
+          <t>Mangifera indica</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="inlineStr">
         <is>
-          <t>Moths</t>
+          <t>Mangosteen</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Lepidoptera</t>
+          <t>Garcinia mangostana</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="inlineStr">
         <is>
-          <t>Mulberry</t>
+          <t>Meadow</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Morus alba</t>
+          <t>pipit Anthus pratensis</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="inlineStr">
         <is>
-          <t>Mung Bean</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Vigna radiata</t>
+          <t>Cucumis melo</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="inlineStr">
         <is>
-          <t>Mushroom</t>
+          <t>Melon Cantaloupe</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Agaricus bisporus</t>
+          <t>Cucumis melo var. cantalupensis</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="inlineStr">
         <is>
-          <t>Napa Cabbage</t>
+          <t>Million Gold</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Brassica rapa subsp. pekinensis</t>
+          <t>Melampodium paludosum</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="inlineStr">
         <is>
-          <t>Narrow-leaved Zinnia</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Zinnia angustifolia</t>
+          <t>Mentha arvensis</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="inlineStr">
         <is>
-          <t>Narwal</t>
+          <t>Mistle</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Monodon monoceros</t>
+          <t>thrush Turdus viscivorus</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="inlineStr">
         <is>
-          <t>Nasturtium</t>
+          <t>Moorhen</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Tropaeolum majus</t>
+          <t>Gallinula chloropus</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="inlineStr">
         <is>
-          <t>Nectarine</t>
+          <t>Mosquito</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Prunus persica var. nucipersica</t>
+          <t>Culicidae</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="inlineStr">
         <is>
-          <t>Neem</t>
+          <t>Moss Phlox</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Azadirachta indica</t>
+          <t>Phlox subulata</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="inlineStr">
         <is>
-          <t>Nettle</t>
+          <t>Moss Verbena</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Urtica dioica</t>
+          <t>Verbena tenuisecta</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="inlineStr">
         <is>
-          <t>New England Aster</t>
+          <t>Moths</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Aster novae-angliae</t>
+          <t>Lepidoptera</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="inlineStr">
         <is>
-          <t>New Guniea Impatiens</t>
+          <t>Mulberry</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Impatiens hawkeri</t>
+          <t>Morus alba</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="inlineStr">
         <is>
-          <t>Oak Toad</t>
+          <t>Mung Bean</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Anaxyrus quercicus</t>
+          <t>Vigna radiata</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="inlineStr">
         <is>
-          <t>Ocelot</t>
+          <t>Mushroom</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Leopardus pardalis</t>
+          <t>Agaricus bisporus</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="inlineStr">
         <is>
-          <t>Octopus</t>
+          <t>Napa Cabbage</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Octopoda</t>
+          <t>Brassica rapa subsp. pekinensis</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="inlineStr">
         <is>
-          <t>Okapi</t>
+          <t>Narrow-leaved Zinnia</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Okapia johnstoni</t>
+          <t>Zinnia angustifolia</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="inlineStr">
         <is>
-          <t>Old English Sheepdog</t>
+          <t>Narwal</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Monodon monoceros</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="inlineStr">
         <is>
-          <t>Olive Baboon</t>
+          <t>Nasturtium</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Papio anubis</t>
+          <t>Tropaeolum majus</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="inlineStr">
         <is>
-          <t>Olm</t>
+          <t>Nectarine</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Proteus anguinus</t>
+          <t>Prunus persica var. nucipersica</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="inlineStr">
         <is>
-          <t>Onion</t>
+          <t>Neem</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Allium cepa</t>
+          <t>Azadirachta indica</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="inlineStr">
         <is>
-          <t>Opossum</t>
+          <t>Nettle</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Didelphidae</t>
+          <t>Urtica dioica</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="inlineStr">
         <is>
-          <t>Orang-utan</t>
+          <t>New England Aster</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Pongo</t>
+          <t>Aster novae-angliae</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>New Guniea Impatiens</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Citrus aurantium</t>
+          <t>Impatiens hawkeri</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="inlineStr">
         <is>
-          <t>Orange-Crowned Warbler</t>
+          <t>Oak Toad</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Vermivora celata</t>
+          <t>Anaxyrus quercicus</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="inlineStr">
         <is>
-          <t>Orangutans</t>
+          <t>Ocelot</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Pongo</t>
+          <t>Leopardus pardalis</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="inlineStr">
         <is>
-          <t>Orb Weaver</t>
+          <t>Octopus</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Araneidae</t>
+          <t>Octopoda</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="inlineStr">
         <is>
-          <t>Orca</t>
+          <t>Okapi</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Orcinus orca</t>
+          <t>Okapia johnstoni</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="inlineStr">
         <is>
-          <t>Ornamental Pepper</t>
+          <t>Old English Sheepdog</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Capsicum annuum</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="inlineStr">
         <is>
-          <t>Ornamental Purslane</t>
+          <t>Olive Baboon</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Portulaca oleracea</t>
+          <t>Papio anubis</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="inlineStr">
         <is>
-          <t>Ornamental Sweet Potato</t>
+          <t>Olm</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Ipomoea batatas</t>
+          <t>Proteus anguinus</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="inlineStr">
         <is>
-          <t>Ortolan Bunting</t>
+          <t>Onion</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Emberiza hortulana</t>
+          <t>Allium cepa</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="inlineStr">
         <is>
-          <t>Oscar Fish</t>
+          <t>Opossum</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Astronotus ocellatus</t>
+          <t>Didelphidae</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="inlineStr">
         <is>
-          <t>Ostrich</t>
+          <t>Orang-utan</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Struthio camelus</t>
+          <t>Pongo</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="inlineStr">
         <is>
-          <t>Otter</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Lutrinae</t>
+          <t>Citrus aurantium</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="inlineStr">
         <is>
-          <t>Otterhound</t>
+          <t>Orange-Crowned Warbler</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Vermivora celata</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Orangutans</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Strigiformes</t>
+          <t>Pongo</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="inlineStr">
         <is>
-          <t>Ox</t>
+          <t>Orb Weaver</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Araneidae</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="inlineStr">
         <is>
-          <t>Oyster</t>
+          <t>Orca</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Ostreidae</t>
+          <t>Orcinus orca</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="inlineStr">
         <is>
-          <t>Oyster Toadfish</t>
+          <t>Ornamental Pepper</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Opsanus tau</t>
+          <t>Capsicum annuum</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="inlineStr">
         <is>
-          <t>Oystercatcher</t>
+          <t>Ornamental Purslane</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Haematopus ostralegus</t>
+          <t>Portulaca oleracea</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="inlineStr">
         <is>
-          <t>PJM Rhododendron (group)</t>
+          <t>Ornamental Sweet Potato</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Rhododendron PJM Group</t>
+          <t>Ipomoea batatas</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="inlineStr">
         <is>
-          <t>Panda</t>
+          <t>Ortolan Bunting</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Ailuropoda melanoleuca</t>
+          <t>Emberiza hortulana</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="inlineStr">
         <is>
-          <t>Papaya</t>
+          <t>Oscar Fish</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Carica papaya</t>
+          <t>Astronotus ocellatus</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="inlineStr">
         <is>
-          <t>Passionfruit</t>
+          <t>Ostrich</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Passiflora edulis</t>
+          <t>Struthio camelus</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="inlineStr">
         <is>
-          <t>Pea</t>
+          <t>Otter</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Pisum sativum</t>
+          <t>Lutrinae</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="inlineStr">
         <is>
-          <t>Peach</t>
+          <t>Otterhound</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Prunus persica</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="inlineStr">
         <is>
-          <t>Peacock Flower (Gulmohar)</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Delonix regia rafin</t>
+          <t>Strigiformes</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="inlineStr">
         <is>
-          <t>Pear</t>
+          <t>Ox</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Pyrus</t>
+          <t>Bos taurus</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="inlineStr">
         <is>
-          <t>Peepal</t>
+          <t>Oyster</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Ficus religiosa Linn.</t>
+          <t>Ostreidae</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="inlineStr">
         <is>
-          <t>Peony</t>
+          <t>Oyster Toadfish</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Paeonia Iactiflora</t>
+          <t>Opsanus tau</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="inlineStr">
         <is>
-          <t>Peregrine</t>
+          <t>Oystercatcher</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Falco peregrinus</t>
+          <t>Haematopus ostralegus</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="inlineStr">
         <is>
-          <t>Persimmon</t>
+          <t>PJM Rhododendron (group)</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Diospyros kaki</t>
+          <t>Rhododendron PJM Group</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="inlineStr">
         <is>
-          <t>Petunia</t>
+          <t>Panda</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Petunia x hybrida</t>
+          <t>Ailuropoda melanoleuca</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="inlineStr">
         <is>
-          <t>Pheasant</t>
+          <t>Pangolin</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Phasianus colchicus</t>
+          <t>Pholidota</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="inlineStr">
         <is>
-          <t>Pied</t>
+          <t>Papaya</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>wagtail Motacilla alba</t>
+          <t>Carica papaya</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="inlineStr">
         <is>
-          <t>Pig</t>
+          <t>Passionfruit</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Sus scrofa domesticus</t>
+          <t>Passiflora edulis</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="inlineStr">
         <is>
-          <t>Pineapple</t>
+          <t>Pea</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Ananus sativus</t>
+          <t>Pisum sativum</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="inlineStr">
         <is>
-          <t>Pink</t>
+          <t>Peach</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>footed goose Anser brachyrhynchus</t>
+          <t>Prunus persica</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="inlineStr">
         <is>
-          <t>Pink Cosmos</t>
+          <t>Peacock Flower (Gulmohar)</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Cosmos bipinnatus</t>
+          <t>Delonix regia rafin</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="inlineStr">
         <is>
-          <t>Pinwheel Zinnia</t>
+          <t>Pear</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Zinnia marylandica</t>
+          <t>Pyrus</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="inlineStr">
         <is>
-          <t>Plum</t>
+          <t>Peepal</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Prunus domestica</t>
+          <t>Ficus religiosa Linn.</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="inlineStr">
         <is>
-          <t>Plumed Cockscomb</t>
+          <t>Peony</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Celosia agentea var. plumosa</t>
+          <t>Paeonia Iactiflora</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="inlineStr">
         <is>
-          <t>Pomegranate</t>
+          <t>Peregrine</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Punica granatum</t>
+          <t>Falco peregrinus</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="inlineStr">
         <is>
-          <t>Pomelo</t>
+          <t>Persimmon</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Citrus maxima</t>
+          <t>Diospyros kaki</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="inlineStr">
         <is>
-          <t>Potato</t>
+          <t>Petunia</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Solanum tuberosum</t>
+          <t>Petunia x hybrida</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="inlineStr">
         <is>
-          <t>Prairie Gayfeather</t>
+          <t>Pheasant</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Liatris spicata</t>
+          <t>Phasianus colchicus</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="inlineStr">
         <is>
-          <t>Praying Mantids</t>
+          <t>Pied</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Mantodea</t>
+          <t>wagtail Motacilla alba</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="inlineStr">
         <is>
-          <t>Pumpkin</t>
+          <t>Pig</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Cucurbita</t>
+          <t>Sus scrofa domesticus</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="inlineStr">
         <is>
-          <t>Purple Coneflower</t>
+          <t>Pineapple</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Echinacea purpurea</t>
+          <t>Ananus sativus</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="inlineStr">
         <is>
-          <t>Purple Millet</t>
+          <t>Pink</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Pennisetum glaucum</t>
+          <t>footed goose Anser brachyrhynchus</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="inlineStr">
         <is>
-          <t>Purple orchid tree (Kachnar)</t>
+          <t>Pink Cosmos</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Bauhinia purpurea</t>
+          <t>Cosmos bipinnatus</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="inlineStr">
         <is>
-          <t>Quagga</t>
+          <t>Pinwheel Zinnia</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Equus quagga quagga</t>
+          <t>Zinnia marylandica</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="inlineStr">
         <is>
-          <t>Quail</t>
+          <t>Plum</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Coturnix coturnix</t>
+          <t>Prunus domestica</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="inlineStr">
         <is>
-          <t>Queen snake</t>
+          <t>Plumed Cockscomb</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Regina septemvittata</t>
+          <t>Celosia agentea var. plumosa</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="inlineStr">
         <is>
-          <t>Quince</t>
+          <t>Pomegranate</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Cydonia oblonga</t>
+          <t>Punica granatum</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="inlineStr">
         <is>
-          <t>Quokka</t>
+          <t>Pomelo</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Setonix brachyurus</t>
+          <t>Citrus maxima</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="inlineStr">
         <is>
-          <t>Quoll</t>
+          <t>Potato</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Dasyurus</t>
+          <t>Solanum tuberosum</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="inlineStr">
         <is>
-          <t>Radish</t>
+          <t>Prairie Gayfeather</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Raphanus sativus</t>
+          <t>Liatris spicata</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="inlineStr">
         <is>
-          <t>Rambutan</t>
+          <t>Praying Mantids</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Nephelium lappaceum</t>
+          <t>Mantodea</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="inlineStr">
         <is>
-          <t>Raspberry</t>
+          <t>Pumpkin</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Rubus idaeus</t>
+          <t>Cucurbita</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="inlineStr">
         <is>
-          <t>Rat snake</t>
+          <t>Purple Coneflower</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Ptyas mucosa</t>
+          <t>Echinacea purpurea</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="inlineStr">
         <is>
-          <t>Raven</t>
+          <t>Purple Millet</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Corvus corax</t>
+          <t>Pennisetum glaucum</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Purple orchid tree (Kachnar)</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>kite Milvus milvus</t>
+          <t>Bauhinia purpurea</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="inlineStr">
         <is>
-          <t>Red Cabbage</t>
+          <t>Quagga</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Brassica oleracea var. capitata f. rubra</t>
+          <t>Equus quagga quagga</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="inlineStr">
         <is>
-          <t>Red Chili</t>
+          <t>Quail</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Capsicum annuum</t>
+          <t>Coturnix coturnix</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="inlineStr">
         <is>
-          <t>Red Onion</t>
+          <t>Queen snake</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Allium cepa</t>
+          <t>Regina septemvittata</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="inlineStr">
         <is>
-          <t>Red fox</t>
+          <t>Quince</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Vulpes Vulpes</t>
+          <t>Cydonia oblonga</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="inlineStr">
         <is>
-          <t>Red maple</t>
+          <t>Quokka</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Acer rubrum</t>
+          <t>Setonix brachyurus</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="inlineStr">
         <is>
-          <t>Red-hot Poker</t>
+          <t>Quoll</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Kniphofia uvaria</t>
+          <t>Dasyurus</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="inlineStr">
         <is>
-          <t>Redstart</t>
+          <t>Radish</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Phoenicurus phoenicurus</t>
+          <t>Raphanus sativus</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="inlineStr">
         <is>
-          <t>Redwing</t>
+          <t>Rambutan</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Turdus iliacus</t>
+          <t>Nephelium lappaceum</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="inlineStr">
         <is>
-          <t>Reed</t>
+          <t>Raspberry</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>bunting Emberiza schoeniclus</t>
+          <t>Rubus idaeus</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Rat snake</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Oryza sativa</t>
+          <t>Ptyas mucosa</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="inlineStr">
         <is>
-          <t>River Birch</t>
+          <t>Raven</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Betula nigra</t>
+          <t>Corvus corax</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="inlineStr">
         <is>
-          <t>Robin</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Erithacus rubecula</t>
+          <t>kite Milvus milvus</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="inlineStr">
         <is>
-          <t>Rook</t>
+          <t>Red Cabbage</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Corvus frugilegus</t>
+          <t>Brassica oleracea var. capitata f. rubra</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="inlineStr">
         <is>
-          <t>Rose</t>
+          <t>Red Chili</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Capsicum annuum</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="inlineStr">
         <is>
-          <t>Rose Apple</t>
+          <t>Red Onion</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Syzygium jambos</t>
+          <t>Allium cepa</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="inlineStr">
         <is>
-          <t>Rose Campion</t>
+          <t>Red fox</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Lychnis coronaria</t>
+          <t>Vulpes Vulpes</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="inlineStr">
         <is>
-          <t>Rose Moss</t>
+          <t>Red maple</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Portulaca grandiflora</t>
+          <t>Acer rubrum</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="inlineStr">
         <is>
-          <t>Russian Sage</t>
+          <t>Red-hot Poker</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Perovskia atriplicifolia</t>
+          <t>Kniphofia uvaria</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="inlineStr">
         <is>
-          <t>Salvia May Night</t>
+          <t>Redstart</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Salvia nemerosa</t>
+          <t>Phoenicurus phoenicurus</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="inlineStr">
         <is>
-          <t>Sandalwood</t>
+          <t>Redwing</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Santalum album</t>
+          <t>Turdus iliacus</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="inlineStr">
         <is>
-          <t>Saucer Magnolia</t>
+          <t>Reed</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Magnolia x soulangiana</t>
+          <t>bunting Emberiza schoeniclus</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="inlineStr">
         <is>
-          <t>Sea Holly</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Eryngium amethystinum</t>
+          <t>Oryza sativa</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="inlineStr">
         <is>
-          <t>Sea Lions</t>
+          <t>River Birch</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Hydrurga leptonyx</t>
+          <t>Betula nigra</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="inlineStr">
         <is>
-          <t>Shasta Daisy</t>
+          <t>Robin</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Leucanthemum x superbum</t>
+          <t>Erithacus rubecula</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Rook</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Ovis aries</t>
+          <t>Corvus frugilegus</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="inlineStr">
         <is>
-          <t>Showy Stonecrop</t>
+          <t>Rose</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Sedum spectabile</t>
+          <t>Rosa</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="inlineStr">
         <is>
-          <t>Siberian Iris</t>
+          <t>Rose Apple</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Iris sibirica</t>
+          <t>Syzygium jambos</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="inlineStr">
         <is>
-          <t>Siebold Hosta</t>
+          <t>Rose Campion</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Hosta sieboldiana</t>
+          <t>Lychnis coronaria</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="inlineStr">
         <is>
-          <t>Siebold viburnum</t>
+          <t>Rose Moss</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Viburnum sieboldii</t>
+          <t>Portulaca grandiflora</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="inlineStr">
         <is>
-          <t>Signet Marigold</t>
+          <t>Russian Sage</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Tagetes tenuifolia</t>
+          <t>Perovskia atriplicifolia</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="inlineStr">
         <is>
-          <t>Silkworms</t>
+          <t>Salvia May Night</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Bombyx mori</t>
+          <t>Salvia nemerosa</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="inlineStr">
         <is>
-          <t>Silver Oak</t>
+          <t>Sandalwood</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Grevillea robusta</t>
+          <t>Santalum album</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="inlineStr">
         <is>
-          <t>Silverfish</t>
+          <t>Saola</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Lepisma saccharina</t>
+          <t>Pseudoryx nghetinhensis</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="inlineStr">
         <is>
-          <t>Siskin</t>
+          <t>Saucer Magnolia</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Carduelis spinus</t>
+          <t>Magnolia x soulangiana</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="inlineStr">
         <is>
-          <t>Skylark</t>
+          <t>Sea Holly</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Alauda arvensis</t>
+          <t>Eryngium amethystinum</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="inlineStr">
         <is>
-          <t>Snail</t>
+          <t>Sea Lions</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Gastropoda</t>
+          <t>Hydrurga leptonyx</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="inlineStr">
         <is>
-          <t>Snakefly</t>
+          <t>Shasta Daisy</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Raphidioptera</t>
+          <t>Leucanthemum x superbum</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="inlineStr">
         <is>
-          <t>Snapdragon</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Antirrhinum majus</t>
+          <t>Ovis aries</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="inlineStr">
         <is>
-          <t>Snipe</t>
+          <t>Showy Stonecrop</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>Gallinago gallinago</t>
+          <t>Sedum spectabile</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="inlineStr">
         <is>
-          <t>Snow-in-Summer</t>
+          <t>Siberian Iris</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Cerastium tomentosum</t>
+          <t>Iris sibirica</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="inlineStr">
         <is>
-          <t>Solcito Zinnia</t>
+          <t>Siebold Hosta</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Zinnia maritima 'Solcito'</t>
+          <t>Hosta sieboldiana</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Siebold viburnum</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>thrush Turdus philomelos</t>
+          <t>Viburnum sieboldii</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="inlineStr">
         <is>
-          <t>Soursop</t>
+          <t>Signet Marigold</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Annona muricata</t>
+          <t>Tagetes tenuifolia</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="inlineStr">
         <is>
-          <t>Soya bean</t>
+          <t>Silkworms</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Glycine max</t>
+          <t>Bombyx mori</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="inlineStr">
         <is>
-          <t>Sparrowhawk</t>
+          <t>Silver Oak</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Accipiter nisus</t>
+          <t>Grevillea robusta</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="inlineStr">
         <is>
-          <t>Sperm Whale</t>
+          <t>Silverfish</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Physeter macrocephalus</t>
+          <t>Lepisma saccharina</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="inlineStr">
         <is>
-          <t>Spice bush</t>
+          <t>Siskin</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Lindera benzoin</t>
+          <t>Carduelis spinus</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="inlineStr">
         <is>
-          <t>Spider Flower</t>
+          <t>Skylark</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Cleome hassleriana</t>
+          <t>Alauda arvensis</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="inlineStr">
         <is>
-          <t>Spinach</t>
+          <t>Snail</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Lactuca sativa</t>
+          <t>Gastropoda</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="inlineStr">
         <is>
-          <t>Spotted</t>
+          <t>Snakefly</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>flycatcher Muscicapa striata</t>
+          <t>Raphidioptera</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="inlineStr">
         <is>
-          <t>Spring Onion</t>
+          <t>Snapdragon</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Allium fistulosum</t>
+          <t>Antirrhinum majus</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="inlineStr">
         <is>
-          <t>Squash</t>
+          <t>Snipe</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Cucurbita</t>
+          <t>Gallinago gallinago</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="inlineStr">
         <is>
-          <t>Star Apple</t>
+          <t>Snow-in-Summer</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Chrysophyllum cainito</t>
+          <t>Cerastium tomentosum</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="inlineStr">
         <is>
-          <t>Starling</t>
+          <t>Solcito Zinnia</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Sturnus vulgaris</t>
+          <t>Zinnia maritima 'Solcito'</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="inlineStr">
         <is>
-          <t>Sunfish</t>
+          <t>Song</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Mola mola</t>
+          <t>thrush Turdus philomelos</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wild Turkey </t>
+          <t>Soursop</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Meleagris gallopavo</t>
+          <t>Annona muricata</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="inlineStr">
         <is>
-          <t>Emu</t>
+          <t>Soya bean</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Dromaius novaehollandiae</t>
+          <t>Glycine max</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="inlineStr">
         <is>
-          <t>Honey badger</t>
+          <t>Sparrowhawk</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>Mellivora capensis</t>
+          <t>Accipiter nisus</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="inlineStr">
         <is>
-          <t>Stiletto Hybrid Hosta</t>
+          <t>Sperm Whale</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>Hosta 'Stiletto'</t>
+          <t>Physeter macrocephalus</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="inlineStr">
         <is>
-          <t>Stink Bugs</t>
+          <t>Spice bush</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>Halyomorpha halys</t>
+          <t>Lindera benzoin</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="inlineStr">
         <is>
-          <t>Stock</t>
+          <t>Spider Flower</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>dove Columba oenas</t>
+          <t>Cleome hassleriana</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="inlineStr">
         <is>
-          <t>Stonechat</t>
+          <t>Spinach</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Saxicola torquata</t>
+          <t>Lactuca sativa</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="inlineStr">
         <is>
-          <t>Strawberry</t>
+          <t>Spotted</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Fragaria × ananassa</t>
+          <t>flycatcher Muscicapa striata</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="inlineStr">
         <is>
-          <t>Sugar Maple</t>
+          <t>Spring Onion</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Acer saccharum</t>
+          <t>Allium fistulosum</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="inlineStr">
         <is>
-          <t>Summer Snapdragon</t>
+          <t>Squash</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Angelonia angustifolia</t>
+          <t>Cucurbita</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="inlineStr">
         <is>
-          <t>Sun and Substance Hybrid Hosta</t>
+          <t>Squid</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Hosta 'Sun and Substance'</t>
+          <t>Decapodiformes</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="inlineStr">
         <is>
-          <t>Sunflower</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Helianthus annuus</t>
+          <t>Sciuridae</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="inlineStr">
         <is>
-          <t>Swallow</t>
+          <t>Star Apple</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Hirundo rustica</t>
+          <t>Chrysophyllum cainito</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="inlineStr">
         <is>
-          <t>Swede/ Rutabaga</t>
+          <t>Starfish</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Brassica napus Napobrassica Group</t>
+          <t>Asteroidea</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="inlineStr">
         <is>
-          <t>Sweet Alyssum</t>
+          <t>Starling</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>Lobularia maritima</t>
+          <t>Sturnus vulgaris</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="inlineStr">
         <is>
-          <t>Sweet Potato</t>
+          <t>Stiletto Hybrid Hosta</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Ipomoea batatas</t>
+          <t>Hosta 'Stiletto'</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="inlineStr">
         <is>
-          <t>Tall Verbena</t>
+          <t>Stink Bugs</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Verbena bonariensis</t>
+          <t>Halyomorpha halys</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="inlineStr">
         <is>
-          <t>Tamarillo</t>
+          <t>Stock</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Solanum betaceum</t>
+          <t>dove Columba oenas</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="inlineStr">
         <is>
-          <t>Tamarind</t>
+          <t>Stonechat</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Tamarindus indica</t>
+          <t>Saxicola torquata</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="inlineStr">
         <is>
-          <t>Tamarind tree</t>
+          <t>Strawberry</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Tamarindus indica</t>
+          <t>Fragaria × ananassa</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="inlineStr">
         <is>
-          <t>Tangerine</t>
+          <t>Sturgeon</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Citrus reticulata</t>
+          <t>Acipenseridae</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="inlineStr">
         <is>
-          <t>Taro</t>
+          <t>Sugar Maple</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Colocasia esculenta</t>
+          <t>Acer saccharum</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="1" t="inlineStr">
         <is>
-          <t>Teak</t>
+          <t>Summer Snapdragon</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Tectona grandis Linn.</t>
+          <t>Angelonia angustifolia</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="1" t="inlineStr">
         <is>
-          <t>Termite</t>
+          <t>Sun and Substance Hybrid Hosta</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Isoptera</t>
+          <t>Hosta 'Sun and Substance'</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="1" t="inlineStr">
         <is>
-          <t>Termites</t>
+          <t>Sunfish</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Isoptera</t>
+          <t>Mola mola</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="1" t="inlineStr">
         <is>
-          <t>Texas Sage</t>
+          <t>Sunflower</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Salvia coccinea</t>
+          <t>Helianthus annuus</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="1" t="inlineStr">
         <is>
-          <t>Thread-leaf Tickseed</t>
+          <t>Swallow</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Coreopsis verticillata</t>
+          <t>Hirundo rustica</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="1" t="inlineStr">
         <is>
-          <t>Tick</t>
+          <t>Swede/ Rutabaga</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Ixodida</t>
+          <t>Brassica napus Napobrassica Group</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="1" t="inlineStr">
         <is>
-          <t>Tiger</t>
+          <t>Sweet Alyssum</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>Panthera tigris</t>
+          <t>Lobularia maritima</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="1" t="inlineStr">
         <is>
-          <t>Tiger Shark</t>
+          <t>Sweet Potato</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Galeocerdo cuvier</t>
+          <t>Ipomoea batatas</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="1" t="inlineStr">
         <is>
-          <t>Tobacco</t>
+          <t>Swordfish</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Nicotina tobaccum</t>
+          <t>Xiphias gladius</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="1" t="inlineStr">
         <is>
-          <t>Tomato</t>
+          <t>Tall Verbena</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Lycopersicon esculentum</t>
+          <t>Verbena bonariensis</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="1" t="inlineStr">
         <is>
-          <t>Tree</t>
+          <t>Tamarillo</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>pipit Anthus trivialis</t>
+          <t>Solanum betaceum</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="1" t="inlineStr">
         <is>
-          <t>Treecreeper</t>
+          <t>Tamarind</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>Certhia familiaris</t>
+          <t>Tamarindus indica</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="1" t="inlineStr">
         <is>
-          <t>Tuberous-rooted Begonia</t>
+          <t>Tamarind tree</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>Begonia x tuberhybrida</t>
+          <t>Tamarindus indica</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="1" t="inlineStr">
         <is>
-          <t>Tufted</t>
+          <t>Tangerine</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>duck Aythya fuligula</t>
+          <t>Citrus reticulata</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="1" t="inlineStr">
         <is>
-          <t>Tulsi</t>
+          <t>Taro</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>Ocimum sanctum</t>
+          <t>Colocasia esculenta</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="1" t="inlineStr">
         <is>
-          <t>Turmeric</t>
+          <t>Teak</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Curcuma longa</t>
+          <t>Tectona grandis Linn.</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="1" t="inlineStr">
         <is>
-          <t>Turnip</t>
+          <t>Termite</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Brassica rapa subsp. rapa</t>
+          <t>Isoptera</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="1" t="inlineStr">
         <is>
-          <t>Uakari</t>
+          <t>Termites</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Cacajao</t>
+          <t>Isoptera</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="1" t="inlineStr">
         <is>
-          <t>Uchuva</t>
+          <t>Texas Sage</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Physalis peruviana</t>
+          <t>Salvia coccinea</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="1" t="inlineStr">
         <is>
-          <t>Uguisu</t>
+          <t>Thread-leaf Tickseed</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Horornis diphone</t>
+          <t>Coreopsis verticillata</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="1" t="inlineStr">
         <is>
-          <t>Uinta Ground Squirrel</t>
+          <t>Tick</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>Urocitellus armatus</t>
+          <t>Ixodida</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="1" t="inlineStr">
         <is>
-          <t>Umbrellabird</t>
+          <t>Tiger</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>Cephalopterus</t>
+          <t>Panthera tigris</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="1" t="inlineStr">
         <is>
-          <t>Unau</t>
+          <t>Tiger Shark</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>Choloepus didactylus</t>
+          <t>Galeocerdo cuvier</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="1" t="inlineStr">
         <is>
-          <t>Ural owl</t>
+          <t>Tobacco</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>Strix uralensis</t>
+          <t>Nicotina tobaccum</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="1" t="inlineStr">
         <is>
-          <t>Utonagan</t>
+          <t>Tomato</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Lycopersicon esculentum</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="1" t="inlineStr">
         <is>
-          <t>Vampire Bat</t>
+          <t>Tree</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Desmodontinae</t>
+          <t>pipit Anthus trivialis</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="1" t="inlineStr">
         <is>
-          <t>Vampire Squid</t>
+          <t>Treecreeper</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>Vampyroteuthis infernalis</t>
+          <t>Certhia familiaris</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="1" t="inlineStr">
         <is>
-          <t>Vaquita</t>
+          <t>Tuberous-rooted Begonia</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Phocoena sinus</t>
+          <t>Begonia x tuberhybrida</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="1" t="inlineStr">
         <is>
-          <t>Variegated Solomon's Seal</t>
+          <t>Tufted</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Polygonatum odoratum</t>
+          <t>duck Aythya fuligula</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="1" t="inlineStr">
         <is>
-          <t>Venus Flytrap</t>
+          <t>Tulsi</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Dionaea muscipula</t>
+          <t>Ocimum sanctum</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="1" t="inlineStr">
         <is>
-          <t>Vervet Monkey</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Chlorocebus pygerythrus</t>
+          <t>Thunnini</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="1" t="inlineStr">
         <is>
-          <t>VicuÃ±a</t>
+          <t>Turmeric</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Vicugna vicugna</t>
+          <t>Curcuma longa</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="1" t="inlineStr">
         <is>
-          <t>Vinegaroon</t>
+          <t>Turnip</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Uropygi</t>
+          <t>Brassica rapa subsp. rapa</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="1" t="inlineStr">
         <is>
-          <t>Viper shark (dogfish)</t>
+          <t>Uakari</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Trigonognathus kabeyai</t>
+          <t>Cacajao</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="1" t="inlineStr">
         <is>
-          <t>Virgin Islands Dwarf Gecko</t>
+          <t>Uchuva</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Sphaerodactylus parthenopion</t>
+          <t>Physalis peruviana</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="1" t="inlineStr">
         <is>
-          <t>Vizsla</t>
+          <t>Uguisu</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Horornis diphone</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="1" t="inlineStr">
         <is>
-          <t>Volpino Italiano</t>
+          <t>Uinta Ground Squirrel</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Urocitellus armatus</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="1" t="inlineStr">
         <is>
-          <t>Walrus</t>
+          <t>Umbrellabird</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Odobenus rosmarus</t>
+          <t>Cephalopterus</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="1" t="inlineStr">
         <is>
-          <t>Wasp</t>
+          <t>Unau</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Vespa</t>
+          <t>Choloepus didactylus</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="1" t="inlineStr">
         <is>
-          <t>Wasps</t>
+          <t>Ural owl</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>Vespidae</t>
+          <t>Strix uralensis</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="1" t="inlineStr">
         <is>
-          <t>Water Buffalo</t>
+          <t>Utonagan</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Bubalus bubalis</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="1" t="inlineStr">
         <is>
-          <t>Watermelon</t>
+          <t>Vampire Bat</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Citrullus vulgaris</t>
+          <t>Desmodontinae</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="1" t="inlineStr">
         <is>
-          <t>Wavy-leaved Hosta</t>
+          <t>Vampire Squid</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>Hosta undulata</t>
+          <t>Vampyroteuthis infernalis</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="1" t="inlineStr">
         <is>
-          <t>Wax Begonia</t>
+          <t>Vaquita</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>Begonia x semperflorens-cultorum</t>
+          <t>Phocoena sinus</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="1" t="inlineStr">
         <is>
-          <t>Whale Shark</t>
+          <t>Variegated Solomon's Seal</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>Rhincodon typus</t>
+          <t>Polygonatum odoratum</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="1" t="inlineStr">
         <is>
-          <t>Wheat Cockscomb</t>
+          <t>Venus Flytrap</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>Celosia agentea var. spicata</t>
+          <t>Dionaea muscipula</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="1" t="inlineStr">
         <is>
-          <t>Wheatear</t>
+          <t>Vervet Monkey</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>Oenanthe oenanthe</t>
+          <t>Chlorocebus pygerythrus</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="1" t="inlineStr">
         <is>
-          <t>Whinchat</t>
+          <t>VicuÃ±a</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>Saxicola rubetra</t>
+          <t>Vicugna vicugna</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="1" t="inlineStr">
         <is>
-          <t>White Cabbage</t>
+          <t>Vinegaroon</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>Brassica oleracea var. capitata</t>
+          <t>Uropygi</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="1" t="inlineStr">
         <is>
-          <t>Whitethroat</t>
+          <t>Viper shark (dogfish)</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>Sylvia communis</t>
+          <t>Trigonognathus kabeyai</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="1" t="inlineStr">
         <is>
-          <t>Willow</t>
+          <t>Virgin Islands Dwarf Gecko</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>warbler Phylloscopus trochilus</t>
+          <t>Sphaerodactylus parthenopion</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="1" t="inlineStr">
         <is>
-          <t>Wolf</t>
+          <t>Vizsla</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>Canis lupus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="1" t="inlineStr">
         <is>
-          <t>Wood</t>
+          <t>Volpino Italiano</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>warbler Phylloscopus sibilatrix</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="1" t="inlineStr">
         <is>
-          <t>Woodpigeon</t>
+          <t>Walrus</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>Columba palumbus</t>
+          <t>Odobenus rosmarus</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="1" t="inlineStr">
         <is>
-          <t>Wren</t>
+          <t>Wasp</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>Troglodytes troglodytes</t>
+          <t>Vespa</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="1" t="inlineStr">
         <is>
-          <t>X-Ray Tetra</t>
+          <t>Wasps</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>Pristella maxillaris</t>
+          <t>Vespidae</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="1" t="inlineStr">
         <is>
-          <t>Xerus</t>
+          <t>Water Buffalo</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>Xerus</t>
+          <t>Bubalus bubalis</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="1" t="inlineStr">
         <is>
-          <t>Xoloitzcuintli</t>
+          <t>Watermelon</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Citrullus vulgaris</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="1" t="inlineStr">
         <is>
-          <t>Yak</t>
+          <t>Wavy-leaved Hosta</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>Bos grunniens</t>
+          <t>Hosta undulata</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="1" t="inlineStr">
         <is>
-          <t>Yakutian Laika</t>
+          <t>Wax Begonia</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Begonia x semperflorens-cultorum</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="1" t="inlineStr">
         <is>
-          <t>Yam</t>
+          <t>Whale Shark</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>Dioscorea</t>
+          <t>Rhincodon typus</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="1" t="inlineStr">
         <is>
-          <t>Yarrow</t>
+          <t>Wheat Cockscomb</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>Achillea millefolium</t>
+          <t>Celosia agentea var. spicata</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="1" t="inlineStr">
         <is>
-          <t>Yellow Cosmos</t>
+          <t>Wheatear</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>Cosmos sulphureus</t>
+          <t>Oenanthe oenanthe</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="1" t="inlineStr">
         <is>
-          <t>Yellow Onion</t>
+          <t>Whinchat</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>Allium cepa 'White onion'</t>
+          <t>Saxicola rubetra</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="1" t="inlineStr">
         <is>
-          <t>Yellow Sac Spider</t>
+          <t>White Cabbage</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Cheiracanthium inclusum</t>
+          <t>Brassica oleracea var. capitata</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="1" t="inlineStr">
         <is>
-          <t>Yellow Spotted Lizard</t>
+          <t>Whitethroat</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>Lepidophyma flavimaculatum</t>
+          <t>Sylvia communis</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="1" t="inlineStr">
         <is>
-          <t>Yellow-Eyed Penguin</t>
+          <t xml:space="preserve">Wild Turkey </t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>Megadyptes antipodes</t>
+          <t>Meleagris gallopavo</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="1" t="inlineStr">
         <is>
-          <t>Yellowfin Tuna</t>
+          <t>Willow</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>Thunnus albacares</t>
+          <t>warbler Phylloscopus trochilus</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="1" t="inlineStr">
         <is>
-          <t>Yellowhammer</t>
+          <t>Wolf</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>Emberiza citrinella</t>
+          <t>Canis lupus</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="1" t="inlineStr">
         <is>
-          <t>Yeti Crab</t>
+          <t>Wombat</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>Kiwa hirsuta</t>
+          <t>Vombatus ursinus</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="1" t="inlineStr">
         <is>
-          <t>Yorkie-poo</t>
+          <t>Wood</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>warbler Phylloscopus sibilatrix</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="1" t="inlineStr">
         <is>
-          <t>Yorkshire Terrier</t>
+          <t>Woodpigeon</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Columba palumbus</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="1" t="inlineStr">
         <is>
-          <t>Zebra</t>
+          <t>Wren</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>Equus quagga</t>
+          <t>Troglodytes troglodytes</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="1" t="inlineStr">
         <is>
-          <t>Zebra Finch</t>
+          <t>X-Ray Tetra</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>Taeniopygia guttata castanotis</t>
+          <t>Pristella maxillaris</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="1" t="inlineStr">
         <is>
-          <t>Zebra Mussels</t>
+          <t>Xerus</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>Dreissena polymorpha</t>
+          <t>Xerus</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="1" t="inlineStr">
         <is>
-          <t>Zebra Pleco</t>
+          <t>Xoloitzcuintli</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>Hypancistrus zebra</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="1" t="inlineStr">
         <is>
-          <t>Zebra Shark</t>
+          <t>Yak</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>Stegostoma fasciatum</t>
+          <t>Bos grunniens</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="1" t="inlineStr">
         <is>
-          <t>Zebu</t>
+          <t>Yakutian Laika</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>Bos taurus indicus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="1" t="inlineStr">
         <is>
-          <t>Zonal Geranium</t>
+          <t>Yam</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>Pelargonium x hortorum</t>
+          <t>Dioscorea</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="1" t="inlineStr">
         <is>
-          <t>Zonkey</t>
+          <t>Yarrow</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>Equus zebra x Equus asinus</t>
+          <t>Achillea millefolium</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="1" t="inlineStr">
         <is>
-          <t>Zorse</t>
+          <t>Yellow Cosmos</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>Equus zebra x Equus caballus</t>
+          <t>Cosmos sulphureus</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="1" t="inlineStr">
         <is>
-          <t>Zuchon</t>
+          <t>Yellow Onion</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Allium cepa 'White onion'</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="1" t="inlineStr">
         <is>
-          <t>chokeberry</t>
+          <t>Yellow Sac Spider</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>Aronia arbutifolia</t>
+          <t>Cheiracanthium inclusum</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="1" t="inlineStr">
         <is>
-          <t>oakleaf hydrangea</t>
+          <t>Yellow Spotted Lizard</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>Hydrangea quercifolia</t>
+          <t>Lepidophyma flavimaculatum</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="1" t="inlineStr">
         <is>
-          <t>smoketree</t>
+          <t>Yellow-Eyed Penguin</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>Cotinus coggygria</t>
+          <t>Megadyptes antipodes</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="1" t="inlineStr">
         <is>
+          <t>Yellowfin Tuna</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Thunnus albacares</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="inlineStr">
+        <is>
+          <t>Yellowhammer</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Emberiza citrinella</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="inlineStr">
+        <is>
+          <t>Yeti Crab</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Kiwa hirsuta</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="inlineStr">
+        <is>
+          <t>Yorkie-poo</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="inlineStr">
+        <is>
+          <t>Yorkshire Terrier</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="inlineStr">
+        <is>
+          <t>Zebra</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Equus quagga</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Finch</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Taeniopygia guttata castanotis</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Mussels</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>Dreissena polymorpha</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Pleco</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Hypancistrus zebra</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Shark</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Stegostoma fasciatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="inlineStr">
+        <is>
+          <t>Zebu</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>Bos taurus indicus</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="inlineStr">
+        <is>
+          <t>Zonal Geranium</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>Pelargonium x hortorum</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="inlineStr">
+        <is>
+          <t>Zonkey</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Equus zebra x Equus asinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="inlineStr">
+        <is>
+          <t>Zorse</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Equus zebra x Equus caballus</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="inlineStr">
+        <is>
+          <t>Zuchon</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>Canis lupus familiaris</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="inlineStr">
+        <is>
+          <t>chokeberry</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Aronia arbutifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="inlineStr">
+        <is>
+          <t>oakleaf hydrangea</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Hydrangea quercifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="inlineStr">
+        <is>
+          <t>smoketree</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Cotinus coggygria</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="inlineStr">
+        <is>
           <t>thornless honeylocust</t>
         </is>
       </c>
-      <c r="B777" t="inlineStr">
+      <c r="B795" t="inlineStr">
         <is>
           <t>Gleditsia tricanthos f. inermis</t>
         </is>

--- a/nomenclature.xlsx
+++ b/nomenclature.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B644"/>
+  <dimension ref="A1:B652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7690 +465,7786 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Addax</t>
+          <t>Aarwolf</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Addax nasomaculatus</t>
+          <t>Proteles cristata</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Adelie Penguin</t>
+          <t>Addax</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pygoscelis adeliae</t>
+          <t>Addax nasomaculatus</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Aesculapian snake</t>
+          <t>Adelie Penguin</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Zamenis longissimus</t>
+          <t>Pygoscelis adeliae</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>African Bullfrog</t>
+          <t>Aesculapian snake</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pyxicephalus adspersus</t>
+          <t>Zamenis longissimus</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>African Bush Elephant</t>
+          <t>African Bullfrog</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Loxodonta africana</t>
+          <t>Pyxicephalus adspersus</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>African Civet</t>
+          <t>African Bush Elephant</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Civettictis civetta</t>
+          <t>Loxodonta africana</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>African Clawed Frog</t>
+          <t>African Civet</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Xenopus laevis</t>
+          <t>Civettictis civetta</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>African Forest Elephant</t>
+          <t>African Clawed Frog</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Loxodonta cyclotis</t>
+          <t>Xenopus laevis</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>African Grey Parrot</t>
+          <t>African Forest Elephant</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Psittacus erithacus</t>
+          <t>Loxodonta cyclotis</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>African Palm Civet</t>
+          <t>African Grey Parrot</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nandinia binotata</t>
+          <t>Psittacus erithacus</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>African Penguin</t>
+          <t>African Palm Civet</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Spheniscus demersus</t>
+          <t>Nandinia binotata</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>African Tree Toad</t>
+          <t>African Penguin</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nectophryne afra</t>
+          <t>Spheniscus demersus</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>African Wild Dog</t>
+          <t>African Tree Toad</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Lycaon pictus</t>
+          <t>Nectophryne afra</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>African ground squirrel</t>
+          <t>African Wild Dog</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Xerus</t>
+          <t>Lycaon pictus</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Agama Lizard</t>
+          <t>African ground squirrel</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Agama</t>
+          <t>Xerus</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Ageratum</t>
+          <t>Agama Lizard</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ageratum houstonianum</t>
+          <t>Agama</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Albacore Tuna</t>
+          <t>Ageratum</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Thunnus alalunga</t>
+          <t>Ageratum houstonianum</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Albatross</t>
+          <t>Albacore Tuna</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Diomedeidae</t>
+          <t>Thunnus alalunga</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Aldabra Giant Tortoise</t>
+          <t>Albatross</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Aldabrachelys gigantea</t>
+          <t>Diomedeidae</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Alligator</t>
+          <t>Aldabra Giant Tortoise</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Alligator mississippiensis</t>
+          <t>Aldabrachelys gigantea</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Alligator Gar</t>
+          <t>Alligator</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Atractosteus spatula</t>
+          <t>Alligator mississippiensis</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Alpaca</t>
+          <t>Alligator Gar</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Vicugna pacos</t>
+          <t>Atractosteus spatula</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Amazon Parrot</t>
+          <t>Alpaca</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Amazona</t>
+          <t>Vicugna pacos</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Amazon River Dolphin (Pink Dolphin)</t>
+          <t>Amazon Parrot</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Inia geoffrensis</t>
+          <t>Amazona</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Ambrosia Beetle</t>
+          <t>Amazon River Dolphin (Pink Dolphin)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Platypodinae</t>
+          <t>Inia geoffrensis</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>American Cockroach</t>
+          <t>Ambrosia Beetle</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Periplaneta americana</t>
+          <t>Platypodinae</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>American Robin</t>
+          <t>American Cockroach</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Turdus migratorius</t>
+          <t>Periplaneta americana</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>American Toad</t>
+          <t>American Robin</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Anaxyrus americanus</t>
+          <t>Turdus migratorius</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Amla</t>
+          <t>American Toad</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Phyllanthus emblica</t>
+          <t>Anaxyrus americanus</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Amur Leopard</t>
+          <t>Amla</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Panthera pardus orientalis</t>
+          <t>Phyllanthus emblica</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Anaconda</t>
+          <t>Amur Leopard</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Eunectes murinus</t>
+          <t>Panthera pardus orientalis</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Anchovies</t>
+          <t>Anaconda</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Engraulidae</t>
+          <t>Eunectes murinus</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Angelfish</t>
+          <t>Anchovies</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pterophyllum</t>
+          <t>Engraulidae</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Anglerfish</t>
+          <t>Angelfish</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Lophiiformes</t>
+          <t>Pterophyllum</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Angora Ferret</t>
+          <t>Anglerfish</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Mustela furo</t>
+          <t>Lophiiformes</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Annual Vinca</t>
+          <t>Angora Ferret</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Catharanthus roseus</t>
+          <t>Mustela furo</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Anole Lizard</t>
+          <t>Annual Vinca</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Anolis carolinensis</t>
+          <t>Catharanthus roseus</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Antarctic scale worm</t>
+          <t>Anole Lizard</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Eulagisca gigantea</t>
+          <t>Anolis carolinensis</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Anteater</t>
+          <t>Antarctic scale worm</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Vermilingua</t>
+          <t>Eulagisca gigantea</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Antelope</t>
+          <t>Anteater</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Bovidae</t>
+          <t>Vermilingua</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Ants</t>
+          <t>Antelope</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Formicidae</t>
+          <t>Bovidae</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Ape</t>
+          <t>Ants</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hominoidea</t>
+          <t>Formicidae</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Ape</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Pyrus malus</t>
+          <t>Hominoidea</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Apricot</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Prunus armeniaca</t>
+          <t>Pyrus malus</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Arafura File Snake</t>
+          <t>Apricot</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Acrochordus arafurae</t>
+          <t>Prunus armeniaca</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Arapaima</t>
+          <t>Arafura File Snake</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Arapaima</t>
+          <t>Acrochordus arafurae</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Arctic Fox</t>
+          <t>Arapaima</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Vulpes lagopus</t>
+          <t>Arapaima</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Arctic Hare</t>
+          <t>Arctic Fox</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Lepus arcticus</t>
+          <t>Vulpes lagopus</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Arctic Wolf</t>
+          <t>Arctic Hare</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Canis lupus arctos</t>
+          <t>Lepus arcticus</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Arizona Bark Scorpion</t>
+          <t>Arctic Wolf</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Centruroides sculpturatus</t>
+          <t>Canis lupus arctos</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Arizona Black Rattlesnake</t>
+          <t>Arizona Bark Scorpion</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Crotalus cerberus</t>
+          <t>Centruroides sculpturatus</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Armadillo</t>
+          <t>Arizona Black Rattlesnake</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Cingulata</t>
+          <t>Crotalus cerberus</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Armadillo Lizard</t>
+          <t>Armadillo</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ouroborus cataphractus</t>
+          <t>Cingulata</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Armyworm</t>
+          <t>Armadillo Lizard</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Spodoptera frugiperda</t>
+          <t>Ouroborus cataphractus</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Artichoke</t>
+          <t>Armyworm</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cynara cardunculus var. scolymus</t>
+          <t>Spodoptera frugiperda</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Aruba Rattlesnake</t>
+          <t>Artichoke</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Crotalus durissus unicolor</t>
+          <t>Cynara cardunculus var. scolymus</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Arugula</t>
+          <t>Aruba Rattlesnake</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Eruca vesicaria ssp. sativa</t>
+          <t>Crotalus durissus unicolor</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Asian Cockroach</t>
+          <t>Arugula</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Blattella asahinai</t>
+          <t>Eruca vesicaria ssp. sativa</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Asian Giant Hornet</t>
+          <t>Asian Cockroach</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Vespa mandarinia</t>
+          <t>Blattella asahinai</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Asian Palm Civet</t>
+          <t>Asian Giant Hornet</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Paradoxurus hermaphroditus</t>
+          <t>Vespa mandarinia</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Asiatic Black Bear</t>
+          <t>Asian Palm Civet</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ursus thibetanus</t>
+          <t>Paradoxurus hermaphroditus</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Asp</t>
+          <t>Asiatic Black Bear</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Vipera aspis</t>
+          <t>Ursus thibetanus</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Asparagus</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Asparagus officinalis</t>
+          <t>Vipera aspis</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Assassin Bug</t>
+          <t>Asparagus</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Reduviidae</t>
+          <t>Asparagus officinalis</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Aurochs</t>
+          <t>Assassin Bug</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Bos primigenius</t>
+          <t>Reduviidae</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Australian Cockroach</t>
+          <t>Aurochs</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Periplaneta australasiae</t>
+          <t>Bos primigenius</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Australian Gecko</t>
+          <t>Australian Cockroach</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Nephrurus levis</t>
+          <t>Periplaneta australasiae</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Avocado</t>
+          <t>Australian Gecko</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Persea americana</t>
+          <t>Nephrurus levis</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Avocet</t>
+          <t>Avocado</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Recurvirostra</t>
+          <t>Persea americana</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Axolotl</t>
+          <t>Avocet</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ambystoma mexicanum</t>
+          <t>Recurvirostra</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Aye Aye</t>
+          <t>Axolotl</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Daubentonia madagascariensis</t>
+          <t>Ambystoma mexicanum</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Babirusa</t>
+          <t>Aye Aye</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Babyrousa</t>
+          <t>Daubentonia madagascariensis</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Baboon</t>
+          <t>Babirusa</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Papio</t>
+          <t>Babyrousa</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Bacopa</t>
+          <t>Baboon</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sutera cordata</t>
+          <t>Papio</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Bactrian Camel</t>
+          <t>Bacopa</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Camelus bactrianus</t>
+          <t>Sutera cordata</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Baiji</t>
+          <t>Bactrian Camel</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Lipotes vexillifer</t>
+          <t>Camelus bactrianus</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Bald Eagle</t>
+          <t>Baiji</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Haliaeetus leucocephalus</t>
+          <t>Lipotes vexillifer</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Baleen Whale</t>
+          <t>Bald Eagle</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Mysticeti</t>
+          <t>Haliaeetus leucocephalus</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Balkan Lynx</t>
+          <t>Baleen Whale</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Lynx lynx balcanicus</t>
+          <t>Mysticeti</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Balloon Flower</t>
+          <t>Balkan Lynx</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Platycodon grandiflorus</t>
+          <t>Lynx lynx balcanicus</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Bamboo</t>
+          <t>Balloon Flower</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Bamboosa aridinarifolia</t>
+          <t>Platycodon grandiflorus</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Banana</t>
+          <t>Bamboo</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Musa paradisicum</t>
+          <t>Bamboosa aridinarifolia</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Banana Ball Python</t>
+          <t>Banana</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Python regius</t>
+          <t>Musa paradisicum</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Banana Spider</t>
+          <t>Banana Ball Python</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Nephila</t>
+          <t>Python regius</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Banded Palm Civet</t>
+          <t>Banana Spider</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Hemigalus derbyanus</t>
+          <t>Nephila</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Banded Water Snake</t>
+          <t>Banded Palm Civet</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Nerodia fasciata</t>
+          <t>Hemigalus derbyanus</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Bandicoot</t>
+          <t>Banded Water Snake</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Peramelemorphia</t>
+          <t>Nerodia fasciata</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Banjo Catfish</t>
+          <t>Bandicoot</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Aspredinidae</t>
+          <t>Peramelemorphia</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Banyan</t>
+          <t>Banjo Catfish</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ficus benghalensis</t>
+          <t>Aspredinidae</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Barb</t>
+          <t>Banyan</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Barbus</t>
+          <t>Ficus benghalensis</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Barbet</t>
+          <t>Barb</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Megalaimidae</t>
+          <t>Barbus</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>Barley</t>
+          <t>Barbet</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Hordeum vulgare</t>
+          <t>Megalaimidae</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Barn Owl</t>
+          <t>Barley</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Tyto alba</t>
+          <t>Hordeum vulgare</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Barnacle</t>
+          <t>Barn Owl</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Cirripedia</t>
+          <t>Tyto alba</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Barracuda</t>
+          <t>Barnacle</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Sphyraena</t>
+          <t>Cirripedia</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Barramundi Fish</t>
+          <t>Barracuda</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Lates calcarifer</t>
+          <t>Sphyraena</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>Barred Owl</t>
+          <t>Barramundi Fish</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Strix varia</t>
+          <t>Lates calcarifer</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Basilisk Lizard</t>
+          <t>Barred Owl</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Basiliscus basiliscus</t>
+          <t>Strix varia</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Basking Shark</t>
+          <t>Basilisk Lizard</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Cetorhinus maximus</t>
+          <t>Basiliscus basiliscus</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Bat</t>
+          <t>Basking Shark</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Chiroptera</t>
+          <t>Cetorhinus maximus</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Baya</t>
+          <t>Bat</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ploceus philippinus</t>
+          <t>Chiroptera</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Bear</t>
+          <t>Baya</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Ursidae</t>
+          <t>Ploceus philippinus</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Bearded Dragon</t>
+          <t>Bear</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Pogona</t>
+          <t>Ursidae</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Bearded Vulture</t>
+          <t>Bearded Dragon</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Gypaetus barbatus</t>
+          <t>Pogona</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Beautybush</t>
+          <t>Bearded Vulture</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Kolkwitzia amabilis</t>
+          <t>Gypaetus barbatus</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Beaver</t>
+          <t>Beautybush</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Castor</t>
+          <t>Kolkwitzia amabilis</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Bed bugs</t>
+          <t>Beaver</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Cimicidae</t>
+          <t>Castor</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Bee-Balm</t>
+          <t>Bed bugs</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Monarda didyma</t>
+          <t>Cimicidae</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Beefalo</t>
+          <t>Bee-Balm</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Bos taurus X Bison bison</t>
+          <t>Monarda didyma</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Bees</t>
+          <t>Beefalo</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Anthophila</t>
+          <t>Bos taurus X Bison bison</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Beetles</t>
+          <t>Bees</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Coleoptera</t>
+          <t>Anthophila</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Beetroot/ Beet</t>
+          <t>Beetles</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Beta vulgaris</t>
+          <t>Coleoptera</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Bell Pepper</t>
+          <t>Beetroot/ Beet</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Capsicum annuum Group</t>
+          <t>Beta vulgaris</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Beluga Sturgeon</t>
+          <t>Bell Pepper</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Huso huso</t>
+          <t>Capsicum annuum Group</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Beluga whale</t>
+          <t>Beluga Sturgeon</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Delphinapterus leucas</t>
+          <t>Huso huso</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Bengal Tiger</t>
+          <t>Beluga whale</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Panthera tigris tigris</t>
+          <t>Delphinapterus leucas</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Betta Fish</t>
+          <t>Bengal Tiger</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Betta splendens</t>
+          <t>Panthera tigris tigris</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Bichir</t>
+          <t>Betta Fish</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Polypteridae</t>
+          <t>Betta splendens</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Bighorn Sheep</t>
+          <t>Bichir</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Ovis canadensis</t>
+          <t>Polypteridae</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Bilby</t>
+          <t>Bighorn Sheep</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Macrotis</t>
+          <t>Ovis canadensis</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Binturong</t>
+          <t>Bilby</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Arctictis binturong</t>
+          <t>Macrotis</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Binturong</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Aves</t>
+          <t>Arctictis binturong</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Bird Of Paradise</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Strelitzia</t>
+          <t>Aves</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Biscuit Beetle</t>
+          <t>Bird Of Paradise</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Stegobium paniceum</t>
+          <t>Strelitzia</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Bison</t>
+          <t>Biscuit Beetle</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Bison</t>
+          <t>Stegobium paniceum</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Bitter Melon</t>
+          <t>Bison</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Momordica charantia</t>
+          <t>Bison</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Black Gram</t>
+          <t>Bitter Melon</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Palsoes mungo</t>
+          <t>Momordica charantia</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Black Mamba</t>
+          <t>Black Gram</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Dendroaspis polylepis</t>
+          <t>Palsoes mungo</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Black Marlin</t>
+          <t>Black Mamba</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Istiompax indica</t>
+          <t>Dendroaspis polylepis</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Black Pepper</t>
+          <t>Black Marlin</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Piper nigrum</t>
+          <t>Istiompax indica</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Black Rhinoceros</t>
+          <t>Black Pepper</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Diceros bicornis</t>
+          <t>Piper nigrum</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Black Wasp</t>
+          <t>Black Rhinoceros</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sphex pensylvanicus</t>
+          <t>Diceros bicornis</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Black Widow Spider</t>
+          <t>Black Wasp</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Latrodectus</t>
+          <t>Sphex pensylvanicus</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Black-Capped Chickadee</t>
+          <t>Black Widow Spider</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Poecile atricapillus</t>
+          <t>Latrodectus</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Black-Footed Ferret</t>
+          <t>Black-Capped Chickadee</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Mustela nigripes</t>
+          <t>Poecile atricapillus</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Black-eyed Susan</t>
+          <t>Black-Footed Ferret</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Rudbeckia hirta</t>
+          <t>Mustela nigripes</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Blackberry</t>
+          <t>Black-eyed Susan</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Rubus</t>
+          <t>Rudbeckia hirta</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Blackbuck</t>
+          <t>Blackberry</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Antilope cervicapra</t>
+          <t>Rubus</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Blackcurrant</t>
+          <t>Blackbuck</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ribes nigrum</t>
+          <t>Antilope cervicapra</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Blackpoll Warbler</t>
+          <t>Blackcurrant</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Setophaga striata</t>
+          <t>Ribes nigrum</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Blanket Octopus</t>
+          <t>Blackpoll Warbler</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Tremoctopus</t>
+          <t>Setophaga striata</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Bleeding-heart</t>
+          <t>Blanket Octopus</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Dicentra spectabilis</t>
+          <t>Tremoctopus</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Blister Beetle</t>
+          <t>Bleeding-heart</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Meloidae</t>
+          <t>Dicentra spectabilis</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Blobfish</t>
+          <t>Blister Beetle</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Psychrolutes marcidus</t>
+          <t>Meloidae</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Blood Python</t>
+          <t>Blobfish</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Python brongersmai</t>
+          <t>Psychrolutes marcidus</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Bloody Cranesbill</t>
+          <t>Blood Python</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Geranium sanguineum</t>
+          <t>Python brongersmai</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Blue Belly Lizard</t>
+          <t>Bloody Cranesbill</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Sceloporus occidentalis</t>
+          <t>Geranium sanguineum</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Blue Catfish</t>
+          <t>Blue Belly Lizard</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Ictalurus furcatus</t>
+          <t>Sceloporus occidentalis</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Blue Fescue</t>
+          <t>Blue Catfish</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Festuca glauca</t>
+          <t>Ictalurus furcatus</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Blue Iguana</t>
+          <t>Blue Fescue</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Cyclura lewisi</t>
+          <t>Festuca glauca</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Blue Jay</t>
+          <t>Blue Iguana</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Cyanocitta cristata</t>
+          <t>Cyclura lewisi</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Blue Sage</t>
+          <t>Blue Jay</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Salvia farinacea</t>
+          <t>Cyanocitta cristata</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Blue Shark</t>
+          <t>Blue Sage</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Prionace glauca</t>
+          <t>Salvia farinacea</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Blue Tit</t>
+          <t>Blue Shark</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Cyanistes caeruleus</t>
+          <t>Prionace glauca</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Blue Whale</t>
+          <t>Blue Tit</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Balaenoptera musculus</t>
+          <t>Cyanistes caeruleus</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Blue grosbeak</t>
+          <t>Blue Whale</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Passerina caerulea</t>
+          <t>Balaenoptera musculus</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Blue-Ringed Octopus</t>
+          <t>Blue grosbeak</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Hapalochlaena</t>
+          <t>Passerina caerulea</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Blueberry</t>
+          <t>Blue-Ringed Octopus</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Vaccinium sect. Cyanococcus</t>
+          <t>Hapalochlaena</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Bluefin Tuna</t>
+          <t>Blueberry</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Thunnus thynnus</t>
+          <t>Vaccinium sect. Cyanococcus</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Bluestem</t>
+          <t>Bluefin Tuna</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Schizachyrium x</t>
+          <t>Thunnus thynnus</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Bobcat</t>
+          <t>Bluestem</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Lynx rufus</t>
+          <t>Schizachyrium x</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Bobolink</t>
+          <t>Bobcat</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Dolichonyx oryzivorus</t>
+          <t>Lynx rufus</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Boiga</t>
+          <t>Bobolink</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Boiga</t>
+          <t>Dolichonyx oryzivorus</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Bongo</t>
+          <t>Boiga</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Tragelaphus eurycerus</t>
+          <t>Boiga</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Bonito Fish</t>
+          <t>Bongo</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Sardini</t>
+          <t>Tragelaphus eurycerus</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Bonnethead Shark</t>
+          <t>Bonito Fish</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Sphyrna tiburo</t>
+          <t>Sardini</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Bonobo</t>
+          <t>Bonnethead Shark</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Pan paniscus</t>
+          <t>Sphyrna tiburo</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Booby</t>
+          <t>Bonobo</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Sula</t>
+          <t>Pan paniscus</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Booklice</t>
+          <t>Booby</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Psocoptera</t>
+          <t>Sula</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Boomslang</t>
+          <t>Booklice</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Dispholidus typus</t>
+          <t>Psocoptera</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Bornean Orang-utan</t>
+          <t>Boomslang</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Pongo pygmaeus</t>
+          <t>Dispholidus typus</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Borneo Elephant</t>
+          <t>Bornean Orang-utan</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Elephas maximus borneensis</t>
+          <t>Pongo pygmaeus</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Bottle Guard</t>
+          <t>Borneo Elephant</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Lagenaria siceraria</t>
+          <t>Elephas maximus borneensis</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Bottlenose Dolphin</t>
+          <t>Bottle Guard</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Tursiops</t>
+          <t>Lagenaria siceraria</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Bowfin</t>
+          <t>Bottlenose Dolphin</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Amia calva</t>
+          <t>Tursiops</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Bowhead Whale</t>
+          <t>Bowfin</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Balaena mysticetus</t>
+          <t>Amia calva</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Box Turtle</t>
+          <t>Bowhead Whale</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Terrapene</t>
+          <t>Balaena mysticetus</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Boxfish</t>
+          <t>Box Turtle</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ostraciidae</t>
+          <t>Terrapene</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Brinjal</t>
+          <t>Boxfish</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Solanum melongena</t>
+          <t>Ostraciidae</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Broccoli</t>
+          <t>Brinjal</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Brassica oleracea var. italica</t>
+          <t>Solanum melongena</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Brookesia Micra</t>
+          <t>Broccoli</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Brookesia micra</t>
+          <t>Brassica oleracea var. italica</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Brussels Sprout</t>
+          <t>Brookesia Micra</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Brassica oleracea var. gemmifera</t>
+          <t>Brookesia micra</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Bug</t>
+          <t>Brown Hyena</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Insecta</t>
+          <t>Hyaena brunnea</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Bulbul</t>
+          <t>Brussels Sprout</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Molpastes cafer</t>
+          <t>Brassica oleracea var. gemmifera</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Butterfly</t>
+          <t>Bug</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Rhopalocera</t>
+          <t>Insecta</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Butterfly-Weed</t>
+          <t>Bulbul</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Asclepias tuberosa</t>
+          <t>Molpastes cafer</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Caladium</t>
+          <t>Butterfly</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Caladium x hortulanum</t>
+          <t>Rhopalocera</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Canna Lily</t>
+          <t>Butterfly-Weed</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Canna generalis</t>
+          <t>Asclepias tuberosa</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Capsicum</t>
+          <t>Caladium</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Capsicum fruitscence</t>
+          <t>Caladium x hortulanum</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Carambola</t>
+          <t>Canna Lily</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Averrhoa carambola</t>
+          <t>Canna generalis</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Carrot</t>
+          <t>Capsicum</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Daucus carota</t>
+          <t>Capsicum fruitscence</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Cashew nut</t>
+          <t>Carambola</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Anacardium occidentale</t>
+          <t>Averrhoa carambola</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Carrot</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Felis catus</t>
+          <t>Daucus carota</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Cauliflower</t>
+          <t>Cashew nut</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Brassica oleracea var. botrytis</t>
+          <t>Anacardium occidentale</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Celery</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Apium graveolens</t>
+          <t>Felis catus</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Centipede</t>
+          <t>Cauliflower</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Chilopoda</t>
+          <t>Brassica oleracea var. botrytis</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Cheetah</t>
+          <t>Celery</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Acinonyx jubatus</t>
+          <t>Apium graveolens</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Centipede</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Prunus avium</t>
+          <t>Chilopoda</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>Chiku</t>
+          <t>Cheetah</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Achras sapota</t>
+          <t>Acinonyx jubatus</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Chimpanzee</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Pan troglodytes</t>
+          <t>Prunus avium</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>China Pink</t>
+          <t>Chiku</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Dianthus chinensis</t>
+          <t>Achras sapota</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Cigar Flower</t>
+          <t>Chimpanzee</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Cuphea ignea</t>
+          <t>Pan troglodytes</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Clove</t>
+          <t>China Pink</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Syzygium aromaticum</t>
+          <t>Dianthus chinensis</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Coconut</t>
+          <t>Cigar Flower</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Cocos nucifera</t>
+          <t>Cuphea ignea</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>Coelacanth</t>
+          <t>Clove</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Actinistia</t>
+          <t>Syzygium aromaticum</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Coleus</t>
+          <t>Coconut</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Solenostemon scutellaroides</t>
+          <t>Cocos nucifera</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Common Frog</t>
+          <t>Coelacanth</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Rana temporaria</t>
+          <t>Actinistia</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Common Furniture Beetle</t>
+          <t>Coleus</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Anobium punctatum</t>
+          <t>Solenostemon scutellaroides</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>Common House Spider</t>
+          <t>Common Frog</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Parasteatoda tepidariorum</t>
+          <t>Rana temporaria</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>Common Loon</t>
+          <t>Common Furniture Beetle</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Gavia immer</t>
+          <t>Anobium punctatum</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>Common Snapping Turtle</t>
+          <t>Common House Spider</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Chelydra serpentina</t>
+          <t>Parasteatoda tepidariorum</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>Common Toad</t>
+          <t>Common Loon</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Bufo bufo</t>
+          <t>Gavia immer</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Common Zinnia</t>
+          <t>Common Snapping Turtle</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Zinnia elegans</t>
+          <t>Chelydra serpentina</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Congo Snake</t>
+          <t>Common Toad</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Amphiuma</t>
+          <t>Bufo bufo</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>Cookiecutter Shark</t>
+          <t>Common Zinnia</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Isistius brasiliensis</t>
+          <t>Zinnia elegans</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>Coopers Hawk</t>
+          <t>Congo Snake</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Accipiter cooperii</t>
+          <t>Amphiuma</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>Copperhead</t>
+          <t>Cookiecutter Shark</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Agkistrodon contortrix</t>
+          <t>Isistius brasiliensis</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>Coral Bells</t>
+          <t>Coopers Hawk</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Heuchera hybrid</t>
+          <t>Accipiter cooperii</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>Coral Snake</t>
+          <t>Copperhead</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Micrurus fulvius</t>
+          <t>Agkistrodon contortrix</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>Coriander/ Cilantro</t>
+          <t>Coral Bells</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Coriandrum sativum</t>
+          <t>Heuchera hybrid</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>Corn Snake</t>
+          <t>Coral Snake</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Pantherophis guttatus</t>
+          <t>Micrurus fulvius</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>Cotton</t>
+          <t>Coriander/ Cilantro</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Gossypium herbaceum</t>
+          <t>Coriandrum sativum</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>Cotton-top Tamarin</t>
+          <t>Corn Snake</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Saguinus oedipus</t>
+          <t>Pantherophis guttatus</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>Cottonmouth</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Agkistrodon piscivorus</t>
+          <t>Gossypium herbaceum</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>Cougar</t>
+          <t>Cotton-top Tamarin</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Puma concolor</t>
+          <t>Saguinus oedipus</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>Cow</t>
+          <t>Cottonmouth</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Bos Taurus</t>
+          <t>Agkistrodon piscivorus</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>Coyote</t>
+          <t>Cougar</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Canis latrans</t>
+          <t>Puma concolor</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>Crab</t>
+          <t>Cow</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Brachyura</t>
+          <t>Bos Taurus</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>Crab Spider</t>
+          <t>Coyote</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Thomisidae</t>
+          <t>Canis latrans</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>Crab-Eating Macaque</t>
+          <t>Crab</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Macaca fascicularis</t>
+          <t>Brachyura</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>Crabeater Seal</t>
+          <t>Crab Spider</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Lobodon carcinophagus</t>
+          <t>Thomisidae</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>Cranberry</t>
+          <t>Crab-Eating Macaque</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Vaccinium subg. Oxycoccus</t>
+          <t>Macaca fascicularis</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>Crane</t>
+          <t>Crabeater Seal</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Gruidae</t>
+          <t>Lobodon carcinophagus</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>Crappie Fish</t>
+          <t>Cranberry</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Pomoxis</t>
+          <t>Vaccinium subg. Oxycoccus</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>Creeping Zinnia</t>
+          <t>Crane</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Sanvitalia speciosa</t>
+          <t>Gruidae</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>Crested Cockscomb</t>
+          <t>Crappie Fish</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Celosia agentea var. cristata</t>
+          <t>Pomoxis</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>Crested Gecko</t>
+          <t>Creeping Zinnia</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Correlophus ciliatus</t>
+          <t>Sanvitalia speciosa</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>Crested Iris</t>
+          <t>Crested Cockscomb</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Iris cristata</t>
+          <t>Celosia agentea var. cristata</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>Crested Penguin</t>
+          <t>Crested Gecko</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Eudyptes sclateri</t>
+          <t>Correlophus ciliatus</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>Crickets</t>
+          <t>Crested Iris</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Grylloidea</t>
+          <t>Iris cristata</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>Crocodile</t>
+          <t>Crested Penguin</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Crocodylidae</t>
+          <t>Eudyptes sclateri</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>Cross River Gorilla</t>
+          <t>Crickets</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Gorilla gorilla diehli</t>
+          <t>Grylloidea</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>Crow</t>
+          <t>Crocodile</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Corvus</t>
+          <t>Crocodylidae</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>Crucian Carp</t>
+          <t>Cross River Gorilla</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Carassius carassius</t>
+          <t>Gorilla gorilla diehli</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>Cuban Cockroach</t>
+          <t>Crow</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Panchlora nivea</t>
+          <t>Corvus</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>Cuckoo</t>
+          <t>Crucian Carp</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Cuculidae</t>
+          <t>Carassius carassius</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>Cucumber</t>
+          <t>Cuban Cockroach</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Cucumis sativas</t>
+          <t>Panchlora nivea</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>Curry leaf</t>
+          <t>Cuckoo</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Murraya koenigii</t>
+          <t>Cuculidae</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>Curuba</t>
+          <t>Cucumber</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Passiflora tarminiana</t>
+          <t>Cucumis sativas</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>Cuscus</t>
+          <t>Curry leaf</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Phalanger</t>
+          <t>Murraya koenigii</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>Cuttlefish</t>
+          <t>Curuba</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Sepiida</t>
+          <t>Passiflora tarminiana</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>Date Palm</t>
+          <t>Cuscus</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Phoenix dactylifera</t>
+          <t>Phalanger</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>Daylily</t>
+          <t>Cuttlefish</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Hemerocallis hybrids</t>
+          <t>Sepiida</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>Dog</t>
+          <t>Date Palm</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Phoenix dactylifera</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>Donkey</t>
+          <t>Daylily</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Equus africanus asinus</t>
+          <t>Hemerocallis hybrids</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>Doublefile Viburnum</t>
+          <t>Dog</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Viburnum plicatum var. tomentosum</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>Dragon Fruit</t>
+          <t>Donkey</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Selenicereus undatus</t>
+          <t>Equus africanus asinus</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>Dragonfly</t>
+          <t>Doublefile Viburnum</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Anisoptera</t>
+          <t>Viburnum plicatum var. tomentosum</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>Dromedary Camel</t>
+          <t>Dragon Fruit</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Camelus dromedaries</t>
+          <t>Selenicereus undatus</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>Durian</t>
+          <t>Dragonfly</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Durio</t>
+          <t>Anisoptera</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>Dusty Miller</t>
+          <t>Dromedary Camel</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Senecio cineraria</t>
+          <t>Camelus dromedaries</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>Earwigs</t>
+          <t>Durian</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Dermaptera</t>
+          <t>Durio</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>Eastern Redbud</t>
+          <t>Dusty Miller</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Cercis canadensis</t>
+          <t>Senecio cineraria</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>Eggplant</t>
+          <t>Earwigs</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Solanum melongena</t>
+          <t>Dermaptera</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>Emu</t>
+          <t>Eastern Redbud</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Dromaius novaehollandiae</t>
+          <t>Cercis canadensis</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>Eulalia Grass</t>
+          <t>Eggplant</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Miscanthus</t>
+          <t>Solanum melongena</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>False Indigo</t>
+          <t>Emperor Penguin</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Baptisia australis</t>
+          <t>Aptenodytes forsteri</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>Fan Flower</t>
+          <t>Emu</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Scaevola aemula</t>
+          <t>Dromaius novaehollandiae</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>Feather Reed Grass</t>
+          <t>Eulalia Grass</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Calamagrostis</t>
+          <t>Miscanthus</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>Fennel</t>
+          <t>False Indigo</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Foeniculum vulgare</t>
+          <t>Baptisia australis</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>Fern-leaf Yarrow</t>
+          <t>Fan Flower</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Achillea fillipenulina</t>
+          <t>Scaevola aemula</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>Field Pansy</t>
+          <t>Feather Reed Grass</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Viola tricolor</t>
+          <t>Calamagrostis</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>Fig</t>
+          <t>Fennel</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Ficus carica</t>
+          <t>Foeniculum vulgare</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>Finger millet</t>
+          <t>Fern-leaf Yarrow</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Eleusine coracana</t>
+          <t>Achillea fillipenulina</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>Firefly</t>
+          <t>Field Pansy</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Lampyridae</t>
+          <t>Viola tricolor</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>Fleas</t>
+          <t>Fig</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Siphonaptera</t>
+          <t>Ficus carica</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>Flowering Cabbage/Kale</t>
+          <t>Finger millet</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Brassica oleracea</t>
+          <t>Eleusine coracana</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>Flowering Tobacco</t>
+          <t>Firefly</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Nicotiana x sanderae</t>
+          <t>Lampyridae</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Fleas</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Diptera</t>
+          <t>Siphonaptera</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>Flying squirrels</t>
+          <t>Flowering Cabbage/Kale</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Pteromyini</t>
+          <t>Brassica oleracea</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>Fortune's Hosta</t>
+          <t>Flowering Tobacco</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Hosta fortunei 'Albomarginata'</t>
+          <t>Nicotiana x sanderae</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>Fountain Grass</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Pennisetum alopecuroides</t>
+          <t>Diptera</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>Fowl</t>
+          <t>Flying squirrels</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Gallus gallus domesticus</t>
+          <t>Pteromyini</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>Fox</t>
+          <t>Fortune's Hosta</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Vulpes vulpes</t>
+          <t>Hosta fortunei 'Albomarginata'</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>Fragrant Sumac</t>
+          <t>Fountain Grass</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Rhus aromatica</t>
+          <t>Pennisetum alopecuroides</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>Fringed Bleeding-heart</t>
+          <t>Fowl</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Dicentra exima</t>
+          <t>Gallus gallus domesticus</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>Fruitfly</t>
+          <t>Fox</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Drosophila melanogaster</t>
+          <t>Vulpes vulpes</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>Garden Impatiens</t>
+          <t>Fragrant Sumac</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Impatiens walleriana</t>
+          <t>Rhus aromatica</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>Garden Lily</t>
+          <t>Fringed Bleeding-heart</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Lilium</t>
+          <t>Dicentra exima</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>Garden Phlox</t>
+          <t>Fruitfly</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Phlox paniculata</t>
+          <t>Drosophila melanogaster</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>Garden Verbena</t>
+          <t>Garden Impatiens</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Verbena x hybrida</t>
+          <t>Impatiens walleriana</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>Garlic</t>
+          <t>Garden Lily</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Allium sativum</t>
+          <t>Lilium</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>Gazania</t>
+          <t>Garden Phlox</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Gazania rigens</t>
+          <t>Phlox paniculata</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>Gentian Sage</t>
+          <t>Garden Verbena</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Salvia patens</t>
+          <t>Verbena x hybrida</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>Gharial</t>
+          <t>Garlic</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Gavialis gangeticus</t>
+          <t>Allium sativum</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>Ginger</t>
+          <t>Gazania</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Zingiber officinale</t>
+          <t>Gazania rigens</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>Globe Amaranth</t>
+          <t>Gentian Sage</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Gomphrena haageana</t>
+          <t>Salvia patens</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>Goat</t>
+          <t>Gharial</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Capra aegagrus hircus</t>
+          <t>Gavialis gangeticus</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>Gooseneck Loosestrife</t>
+          <t>Giggly Spotted Hyena</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Lysimachia</t>
+          <t>Crocuta crocuta</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Ginger</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Zingiber officinale</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>Grape</t>
+          <t>Globe Amaranth</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Vitis</t>
+          <t>Gomphrena haageana</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>Grapefruit</t>
+          <t>Goat</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Citrus × paradisi</t>
+          <t>Capra aegagrus hircus</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>Grass Pink</t>
+          <t>Gooseneck Loosestrife</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Dianthus plumarius</t>
+          <t>Lysimachia</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Caelifera</t>
+          <t>Gorilla</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>Great white shark</t>
+          <t>Grape</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Carcharodon carcharias</t>
+          <t>Vitis</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>Green Gram</t>
+          <t>Grapefruit</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Phaseolus audicus</t>
+          <t>Citrus × paradisi</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>Greenfly</t>
+          <t>Grass Pink</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Aphidoidea</t>
+          <t>Dianthus plumarius</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>Guava</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Psidium guava</t>
+          <t>Caelifera</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>Guinea pig</t>
+          <t>Great white shark</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cavia porcellus</t>
+          <t>Carcharodon carcharias</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>Hakone Grass</t>
+          <t>Green Gram</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Hakonechloa</t>
+          <t>Phaseolus audicus</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>Hinoki Falsecypress</t>
+          <t>Greenfly</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Chamaecyparis obtusa</t>
+          <t>Aphidoidea</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>Hippopotamus</t>
+          <t>Guava</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Hippopotamus amphibius</t>
+          <t>Psidium guava</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>Honey badger</t>
+          <t>Guinea pig</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Mellivora capensis</t>
+          <t>Cavia porcellus</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>Horse</t>
+          <t>Hakone Grass</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Equus ferus caballus</t>
+          <t>Hakonechloa</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>Hosta Kabitan</t>
+          <t>Hinoki Falsecypress</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Hosta sieboldii</t>
+          <t>Chamaecyparis obtusa</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>House wall Lizard</t>
+          <t>Hippopotamus</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Hemidactylus flaviviridis</t>
+          <t>Hippopotamus amphibius</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>Housefly</t>
+          <t>Honey badger</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Musca domestica</t>
+          <t>Mellivora capensis</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>Human beings</t>
+          <t>Horse</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Equus ferus caballus</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>Humpback whale</t>
+          <t>Hosta Kabitan</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Megaptera novaeangliae</t>
+          <t>Hosta sieboldii</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>Hybrid Astilbe</t>
+          <t>House wall Lizard</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Astilbe hybrids</t>
+          <t>Hemidactylus flaviviridis</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>Hybrid Bearded Iris</t>
+          <t>Housefly</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Iris hybrids</t>
+          <t>Musca domestica</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>Hybrid Columbine</t>
+          <t>Human beings</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Aquilegia x hybrida</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>Hybrid Pansy</t>
+          <t>Humpback whale</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Viola x wittrockiana</t>
+          <t>Megaptera novaeangliae</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>Ibex</t>
+          <t>Hybrid Astilbe</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Capra ibex</t>
+          <t>Astilbe hybrids</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>Ibis</t>
+          <t>Hybrid Bearded Iris</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Threskiornithinae</t>
+          <t>Iris hybrids</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>Iguana</t>
+          <t>Hybrid Columbine</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Iguana</t>
+          <t>Aquilegia x hybrida</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>Immortal Jellyfish</t>
+          <t>Hybrid Pansy</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Turritopsis dohrnii</t>
+          <t>Viola x wittrockiana</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>Impala</t>
+          <t>Ibex</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Aepyceros melampus</t>
+          <t>Capra ibex</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>Imperial Moth</t>
+          <t>Ibis</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Eacles imperialis</t>
+          <t>Threskiornithinae</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>Indian Cobra</t>
+          <t>Iguana</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Naja naja</t>
+          <t>Iguana</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>Indian Elephant</t>
+          <t>Immortal Jellyfish</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Elephas maximus</t>
+          <t>Turritopsis dohrnii</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>Indian Giant Squirrel</t>
+          <t>Impala</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Ratufa indica</t>
+          <t>Aepyceros melampus</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>Indian Grass</t>
+          <t>Imperial Moth</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Sorghastrum x</t>
+          <t>Eacles imperialis</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>Indian Palm Squirrel</t>
+          <t>Indian Cobra</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Funambulus palmarum</t>
+          <t>Naja naja</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>Indian Rhinoceros</t>
+          <t>Indian Elephant</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Rhinoceros unicornis</t>
+          <t>Elephas maximus</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>Indian Star Tortoise</t>
+          <t>Indian Giant Squirrel</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Geochelone elegans</t>
+          <t>Ratufa indica</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>Indigo Snake</t>
+          <t>Indian Grass</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Drymarchon couperi</t>
+          <t>Sorghastrum x</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>Indochinese Tiger</t>
+          <t>Indian Palm Squirrel</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Panthera tigris corbetti</t>
+          <t>Funambulus palmarum</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>Indri</t>
+          <t>Indian Rhinoceros</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Indri indri</t>
+          <t>Rhinoceros unicornis</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>Ivory-billed woodpecker</t>
+          <t>Indian Star Tortoise</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Campephilus principalis</t>
+          <t>Geochelone elegans</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>Ivy Geranium</t>
+          <t>Indigo Snake</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Pelargonium peltatum</t>
+          <t>Drymarchon couperi</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>Jacana</t>
+          <t>Indochinese Tiger</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Jacanidae</t>
+          <t>Panthera tigris corbetti</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>Jackal</t>
+          <t>Indri</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Canis aureus</t>
+          <t>Indri indri</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>Jackdaw</t>
+          <t>Ivory-billed woodpecker</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Corvus monedula</t>
+          <t>Campephilus principalis</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>Jackfruit</t>
+          <t>Ivy Geranium</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Artocarpus integra</t>
+          <t>Pelargonium peltatum</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>Jackrabbit</t>
+          <t>Jacana</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Lepus californicus</t>
+          <t>Jacanidae</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>Jackson's Chameleon</t>
+          <t>Jackal</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Trioceros jacksonii</t>
+          <t>Canis aureus</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>Jaguar</t>
+          <t>Jackdaw</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Panthera onca</t>
+          <t>Corvus monedula</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>Jaguarundi Cat</t>
+          <t>Jackfruit</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Puma yagouaroundi</t>
+          <t>Artocarpus integra</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>Japanese Beetle</t>
+          <t>Jackrabbit</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Popillia japonica</t>
+          <t>Lepus californicus</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>Japanese Blood Grass</t>
+          <t>Jackson's Chameleon</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Imperata</t>
+          <t>Trioceros jacksonii</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>Japanese Iris</t>
+          <t>Jaguar</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Iris ensata</t>
+          <t>Panthera onca</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>Japanese Macaque</t>
+          <t>Jaguarundi Cat</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Macaca fuscata</t>
+          <t>Puma yagouaroundi</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>Japanese Squirrel</t>
+          <t>Japanese Beetle</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Sciurus lis</t>
+          <t>Popillia japonica</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>Japanese tree lilac</t>
+          <t>Japanese Blood Grass</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Syringa reticulata</t>
+          <t>Imperata</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>Javan Rhinoceros</t>
+          <t>Japanese Iris</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Rhinoceros sondaicus</t>
+          <t>Iris ensata</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>Joe-Pye Weed</t>
+          <t>Japanese Macaque</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Eupatorium purpureum</t>
+          <t>Macaca fuscata</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>Jonah Crab</t>
+          <t>Japanese Squirrel</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Cancer borealis</t>
+          <t>Sciurus lis</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>Joro Spider</t>
+          <t>Japanese tree lilac</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Nephila clavata</t>
+          <t>Syringa reticulata</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>Jowar</t>
+          <t>Javan Rhinoceros</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Sorghum Vulgare</t>
+          <t>Rhinoceros sondaicus</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>Jumping Spider</t>
+          <t>Joe-Pye Weed</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Salticidae</t>
+          <t>Eupatorium purpureum</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>Junglefowl</t>
+          <t>Jonah Crab</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Gallus</t>
+          <t>Cancer borealis</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>Kadamb</t>
+          <t>Joro Spider</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Anthocephalus indicus</t>
+          <t>Nephila clavata</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>Kale</t>
+          <t>Jowar</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Brassica oleracea var. sabellica</t>
+          <t>Sorghum Vulgare</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>Kangaroo</t>
+          <t>Jumping Spider</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Macropodidae</t>
+          <t>Salticidae</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>King cobra</t>
+          <t>Junglefowl</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Ophiophagus hannah</t>
+          <t>Gallus</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
         <is>
-          <t>Kingfisher</t>
+          <t>Kadamb</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Alcedo atthis</t>
+          <t>Anthocephalus indicus</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>Kiwi</t>
+          <t>Kale</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Actinidia deliciosa</t>
+          <t>Brassica oleracea var. sabellica</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>Koala</t>
+          <t>Kangaroo</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Phascolarctos cinereus</t>
+          <t>Macropodidae</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
         <is>
-          <t>Kohlrabi</t>
+          <t>King Penguin</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Brassica oleracea Gongylodes Group</t>
+          <t>Aptenodytes patagonicus</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>Kratt's lichen mantis</t>
+          <t>King cobra</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Liturgusa krattorum</t>
+          <t>Ophiophagus hannah</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>Lady's Mantle</t>
+          <t>Kingfisher</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Alchemilla mollis</t>
+          <t>Alcedo atthis</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>Ladybugs</t>
+          <t>Kiwi</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Coccinellidae</t>
+          <t>Actinidia deliciosa</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>Lambs Ears</t>
+          <t>Koala</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Stachys x</t>
+          <t>Phascolarctos cinereus</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>Lamprey</t>
+          <t>Kohlrabi</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Petromyzontiformes</t>
+          <t>Brassica oleracea Gongylodes Group</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
         <is>
-          <t>Lapwing</t>
+          <t>Kratt's lichen mantis</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Vanellus vanellus</t>
+          <t>Liturgusa krattorum</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
         <is>
-          <t>Lavender</t>
+          <t>Lady's Mantle</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Lavendula angustifolia</t>
+          <t>Alchemilla mollis</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
         <is>
-          <t>Leek</t>
+          <t>Ladybugs</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Allium porrum</t>
+          <t>Coccinellidae</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
         <is>
-          <t>Lemon</t>
+          <t>Lambs Ears</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Citrus Limonium</t>
+          <t>Stachys x</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>Lesser</t>
+          <t>Lamprey</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>redpoll Carduelis cabaret</t>
+          <t>Petromyzontiformes</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>Lilac</t>
+          <t>Lapwing</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Syringa vulgaris</t>
+          <t>Vanellus vanellus</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>Lily-of-the-Valley</t>
+          <t>Lavender</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Convallaria majalis</t>
+          <t>Lavendula angustifolia</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
         <is>
-          <t>Lime</t>
+          <t>Leek</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Citrus × aurantiifolia</t>
+          <t>Allium porrum</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>Lion</t>
+          <t>Lemon</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Panthera leo</t>
+          <t>Citrus Limonium</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
         <is>
-          <t>Lobelia</t>
+          <t>Lesser</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Lobelia erinus</t>
+          <t>redpoll Carduelis cabaret</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
         <is>
-          <t>Locust</t>
+          <t>Lilac</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Schistocerca gregaria</t>
+          <t>Syringa vulgaris</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Lily-of-the-Valley</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>tailed tit Aegithalos caudatus</t>
+          <t>Convallaria majalis</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
         <is>
-          <t>Longan</t>
+          <t>Lime</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Dimocarpus longan</t>
+          <t>Citrus × aurantiifolia</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
         <is>
-          <t>Lychee</t>
+          <t>Lion</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Litchi chinensis</t>
+          <t>Panthera leo</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>Magpie</t>
+          <t>Lobelia</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Pica pica</t>
+          <t>Lobelia erinus</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
         <is>
-          <t>Maiden Pink</t>
+          <t>Locust</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Dianthus deltoides</t>
+          <t>Schistocerca gregaria</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Zea mays</t>
+          <t>tailed tit Aegithalos caudatus</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
         <is>
-          <t>Mallard</t>
+          <t>Longan</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Anas platyrhynchos</t>
+          <t>Dimocarpus longan</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>Mango</t>
+          <t>Lychee</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Mangifera indica</t>
+          <t>Litchi chinensis</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>Mangosteen</t>
+          <t>Macaroni penguin</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Garcinia mangostana</t>
+          <t>Eudyptes chrysolophus</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>Marigold</t>
+          <t>Magpie</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tagetes erecta</t>
+          <t>Pica pica</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
         <is>
-          <t>Meadow</t>
+          <t>Maiden Pink</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>pipit Anthus pratensis</t>
+          <t>Dianthus deltoides</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Cucumis melo</t>
+          <t>Zea mays</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
         <is>
-          <t>Melon Cantaloupe</t>
+          <t>Mallard</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Cucumis melo var. cantalupensis</t>
+          <t>Anas platyrhynchos</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
         <is>
-          <t>Million Gold</t>
+          <t>Mango</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Melampodium paludosum</t>
+          <t>Mangifera indica</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Mangosteen</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Mentha arvensis</t>
+          <t>Garcinia mangostana</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
         <is>
-          <t>Mistle</t>
+          <t>Marigold</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>thrush Turdus viscivorus</t>
+          <t>Tagetes erecta</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
         <is>
-          <t>Moorhen</t>
+          <t>Meadow</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Gallinula chloropus</t>
+          <t>pipit Anthus pratensis</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
         <is>
-          <t>Mosquito</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Culicidae</t>
+          <t>Cucumis melo</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
         <is>
-          <t>Moss Phlox</t>
+          <t>Melon Cantaloupe</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Phlox subulata</t>
+          <t>Cucumis melo var. cantalupensis</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
         <is>
-          <t>Moss Verbena</t>
+          <t>Million Gold</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Verbena tenuisecta</t>
+          <t>Melampodium paludosum</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
         <is>
-          <t>Moths</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Lepidoptera</t>
+          <t>Mentha arvensis</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
         <is>
-          <t>Mulberry</t>
+          <t>Mistle</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Morus alba</t>
+          <t>thrush Turdus viscivorus</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>Mung Bean</t>
+          <t>Moorhen</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Vigna radiata</t>
+          <t>Gallinula chloropus</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
         <is>
-          <t>Mushroom</t>
+          <t>Mosquito</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Agaricus bisporus</t>
+          <t>Culicidae</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
         <is>
-          <t>Napa Cabbage</t>
+          <t>Moss Phlox</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Brassica rapa subsp. pekinensis</t>
+          <t>Phlox subulata</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
         <is>
-          <t>Narrow-leaved Zinnia</t>
+          <t>Moss Verbena</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Zinnia angustifolia</t>
+          <t>Verbena tenuisecta</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
         <is>
-          <t>Narwal</t>
+          <t>Moths</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Monodon monoceros</t>
+          <t>Lepidoptera</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
         <is>
-          <t>Nasturtium</t>
+          <t>Mulberry</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Tropaeolum majus</t>
+          <t>Morus alba</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
         <is>
-          <t>Nectarine</t>
+          <t>Mung Bean</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Prunus persica var. nucipersica</t>
+          <t>Vigna radiata</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
         <is>
-          <t>Neem</t>
+          <t>Mushroom</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Azadirachta indica</t>
+          <t>Agaricus bisporus</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
         <is>
-          <t>Nettle</t>
+          <t>Napa Cabbage</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Urtica dioica</t>
+          <t>Brassica rapa subsp. pekinensis</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
         <is>
-          <t>New England Aster</t>
+          <t>Narrow-leaved Zinnia</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Aster novae-angliae</t>
+          <t>Zinnia angustifolia</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
         <is>
-          <t>New Guniea Impatiens</t>
+          <t>Narwal</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Impatiens hawkeri</t>
+          <t>Monodon monoceros</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
         <is>
-          <t>Oak Toad</t>
+          <t>Nasturtium</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Anaxyrus quercicus</t>
+          <t>Tropaeolum majus</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
         <is>
-          <t>Ocelot</t>
+          <t>Nectarine</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Leopardus pardalis</t>
+          <t>Prunus persica var. nucipersica</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
         <is>
-          <t>Octopus</t>
+          <t>Neem</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Octopoda</t>
+          <t>Azadirachta indica</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
         <is>
-          <t>Okapi</t>
+          <t>Nettle</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Okapia johnstoni</t>
+          <t>Urtica dioica</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
         <is>
-          <t>Okra</t>
+          <t>New England Aster</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Abelmoschus esculentus</t>
+          <t>Aster novae-angliae</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
         <is>
-          <t>Olive Baboon</t>
+          <t>New Guniea Impatiens</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Papio anubis</t>
+          <t>Impatiens hawkeri</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
         <is>
-          <t>Olm</t>
+          <t>Oak Toad</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Proteus anguinus</t>
+          <t>Anaxyrus quercicus</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
         <is>
-          <t>Onion</t>
+          <t>Ocelot</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Allium cepa</t>
+          <t>Leopardus pardalis</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
         <is>
-          <t>Opossum</t>
+          <t>Octopus</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Didelphidae</t>
+          <t>Octopoda</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Okapi</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Citrus aurantium</t>
+          <t>Okapia johnstoni</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
         <is>
-          <t>Orange-Crowned Warbler</t>
+          <t>Okra</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Vermivora celata</t>
+          <t>Abelmoschus esculentus</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
         <is>
-          <t>Orangutans</t>
+          <t>Olive Baboon</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Pongo</t>
+          <t>Papio anubis</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="inlineStr">
         <is>
-          <t>Orb Weaver</t>
+          <t>Olm</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Araneidae</t>
+          <t>Proteus anguinus</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
         <is>
-          <t>Orca</t>
+          <t>Onion</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Orcinus orca</t>
+          <t>Allium cepa</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
         <is>
-          <t>Ornamental Purslane</t>
+          <t>Opossum</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Portulaca oleracea</t>
+          <t>Didelphidae</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
         <is>
-          <t>Ortolan Bunting</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Emberiza hortulana</t>
+          <t>Citrus aurantium</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
         <is>
-          <t>Oscar Fish</t>
+          <t>Orange-Crowned Warbler</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Astronotus ocellatus</t>
+          <t>Vermivora celata</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
         <is>
-          <t>Ostrich</t>
+          <t>Orangutans</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Struthio camelus</t>
+          <t>Pongo</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
         <is>
-          <t>Otter</t>
+          <t>Orb Weaver</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Lutrinae</t>
+          <t>Araneidae</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Orca</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Strigiformes</t>
+          <t>Orcinus orca</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="inlineStr">
         <is>
-          <t>Ox</t>
+          <t>Ornamental Purslane</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Portulaca oleracea</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
         <is>
-          <t>Oyster</t>
+          <t>Ortolan Bunting</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Ostreidae</t>
+          <t>Emberiza hortulana</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
         <is>
-          <t>Oyster Toadfish</t>
+          <t>Oscar Fish</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Opsanus tau</t>
+          <t>Astronotus ocellatus</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
         <is>
-          <t>Oystercatcher</t>
+          <t>Ostrich</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Haematopus ostralegus</t>
+          <t>Struthio camelus</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
         <is>
-          <t>Panda</t>
+          <t>Otter</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Ailuropoda melanoleuca</t>
+          <t>Lutrinae</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
         <is>
-          <t>Pangolin</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Pholidota</t>
+          <t>Strigiformes</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="inlineStr">
         <is>
-          <t>Papaya</t>
+          <t>Ox</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Carica papaya</t>
+          <t>Bos taurus</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
         <is>
-          <t>Passionfruit</t>
+          <t>Oyster</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Passiflora edulis</t>
+          <t>Ostreidae</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="inlineStr">
         <is>
-          <t>Pea</t>
+          <t>Oyster Toadfish</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Pisum sativum</t>
+          <t>Opsanus tau</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
         <is>
-          <t>Peach</t>
+          <t>Oystercatcher</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Prunus persica</t>
+          <t>Haematopus ostralegus</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="inlineStr">
         <is>
-          <t>Peacock Flower (Gulmohar)</t>
+          <t>Panda</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Delonix regia rafin</t>
+          <t>Ailuropoda melanoleuca</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="inlineStr">
         <is>
-          <t>Pear</t>
+          <t>Pangolin</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Pyrus</t>
+          <t>Pholidota</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="inlineStr">
         <is>
-          <t>Peepal</t>
+          <t>Papaya</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Ficus religiosa Linn.</t>
+          <t>Carica papaya</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="inlineStr">
         <is>
-          <t>Peony</t>
+          <t>Passionfruit</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Paeonia Iactiflora</t>
+          <t>Passiflora edulis</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="inlineStr">
         <is>
-          <t>Peregrine</t>
+          <t>Pea</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Falco peregrinus</t>
+          <t>Pisum sativum</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
         <is>
-          <t>Persimmon</t>
+          <t>Peach</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Diospyros kaki</t>
+          <t>Prunus persica</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="inlineStr">
         <is>
-          <t>Petunia</t>
+          <t>Peacock Flower (Gulmohar)</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Petunia x hybrida</t>
+          <t>Delonix regia rafin</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="inlineStr">
         <is>
-          <t>Pheasant</t>
+          <t>Pear</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Phasianus colchicus</t>
+          <t>Pyrus</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
         <is>
-          <t>Pied</t>
+          <t>Peepal</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>wagtail Motacilla alba</t>
+          <t>Ficus religiosa Linn.</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
         <is>
-          <t>Pig</t>
+          <t>Peony</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Sus scrofa domesticus</t>
+          <t>Paeonia Iactiflora</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
         <is>
-          <t>Pineapple</t>
+          <t>Peregrine</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Ananus sativus</t>
+          <t>Falco peregrinus</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="inlineStr">
         <is>
-          <t>Pink</t>
+          <t>Persimmon</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>footed goose Anser brachyrhynchus</t>
+          <t>Diospyros kaki</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
         <is>
-          <t>Pink Cosmos</t>
+          <t>Petunia</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Cosmos bipinnatus</t>
+          <t>Petunia x hybrida</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="inlineStr">
         <is>
-          <t>Pinwheel Zinnia</t>
+          <t>Pheasant</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Zinnia marylandica</t>
+          <t>Phasianus colchicus</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="inlineStr">
         <is>
-          <t>Plum</t>
+          <t>Pied</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Prunus domestica</t>
+          <t>wagtail Motacilla alba</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="inlineStr">
         <is>
-          <t>Plumed Cockscomb</t>
+          <t>Pig</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Celosia agentea var. plumosa</t>
+          <t>Sus scrofa domesticus</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="inlineStr">
         <is>
-          <t>Pomegranate</t>
+          <t>Pineapple</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Punica granatum</t>
+          <t>Ananus sativus</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="inlineStr">
         <is>
-          <t>Pomelo</t>
+          <t>Pink</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Citrus maxima</t>
+          <t>footed goose Anser brachyrhynchus</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
         <is>
-          <t>Potato</t>
+          <t>Pink Cosmos</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Solanum tuberosum</t>
+          <t>Cosmos bipinnatus</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="inlineStr">
         <is>
-          <t>Prairie Gayfeather</t>
+          <t>Pinwheel Zinnia</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Liatris spicata</t>
+          <t>Zinnia marylandica</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="inlineStr">
         <is>
-          <t>Praying Mantids</t>
+          <t>Plum</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Mantodea</t>
+          <t>Prunus domestica</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="inlineStr">
         <is>
-          <t>Pumpkin</t>
+          <t>Plumed Cockscomb</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Cucurbita</t>
+          <t>Celosia agentea var. plumosa</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="inlineStr">
         <is>
-          <t>Purple Coneflower</t>
+          <t>Pomegranate</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Echinacea purpurea</t>
+          <t>Punica granatum</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="inlineStr">
         <is>
-          <t>Purple Millet</t>
+          <t>Pomelo</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Pennisetum glaucum</t>
+          <t>Citrus maxima</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
         <is>
-          <t>Purple orchid tree (Kachnar)</t>
+          <t>Potato</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Bauhinia purpurea</t>
+          <t>Solanum tuberosum</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="inlineStr">
         <is>
-          <t>Quagga</t>
+          <t>Prairie Gayfeather</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Equus quagga quagga</t>
+          <t>Liatris spicata</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="inlineStr">
         <is>
-          <t>Quail</t>
+          <t>Praying Mantids</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Coturnix coturnix</t>
+          <t>Mantodea</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="inlineStr">
         <is>
-          <t>Queen snake</t>
+          <t>Pumpkin</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Regina septemvittata</t>
+          <t>Cucurbita</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="inlineStr">
         <is>
-          <t>Quince</t>
+          <t>Purple Coneflower</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Cydonia oblonga</t>
+          <t>Echinacea purpurea</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="inlineStr">
         <is>
-          <t>Quokka</t>
+          <t>Purple Millet</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Setonix brachyurus</t>
+          <t>Pennisetum glaucum</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="inlineStr">
         <is>
-          <t>Quoll</t>
+          <t>Purple orchid tree (Kachnar)</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Dasyurus</t>
+          <t>Bauhinia purpurea</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="inlineStr">
         <is>
-          <t>Radish</t>
+          <t>Quagga</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Raphanus sativus</t>
+          <t>Equus quagga quagga</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="inlineStr">
         <is>
-          <t>Rambutan</t>
+          <t>Quail</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Nephelium lappaceum</t>
+          <t>Coturnix coturnix</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="inlineStr">
         <is>
-          <t>Raspberry</t>
+          <t>Queen snake</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Rubus idaeus</t>
+          <t>Regina septemvittata</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="inlineStr">
         <is>
-          <t>Rat snake</t>
+          <t>Quince</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Ptyas mucosa</t>
+          <t>Cydonia oblonga</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
         <is>
-          <t>Raven</t>
+          <t>Quokka</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Corvus corax</t>
+          <t>Setonix brachyurus</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Quoll</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>kite Milvus milvus</t>
+          <t>Dasyurus</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
         <is>
-          <t>Red Cabbage</t>
+          <t>Radish</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Brassica oleracea var. capitata f. rubra</t>
+          <t>Raphanus sativus</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="inlineStr">
         <is>
-          <t>Red Chili</t>
+          <t>Rambutan</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Capsicum annuum</t>
+          <t>Nephelium lappaceum</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="inlineStr">
         <is>
-          <t>Red fox</t>
+          <t>Raspberry</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Vulpes Vulpes</t>
+          <t>Rubus idaeus</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="inlineStr">
         <is>
-          <t>Red maple</t>
+          <t>Rat snake</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Acer rubrum</t>
+          <t>Ptyas mucosa</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
         <is>
-          <t>Red-hot Poker</t>
+          <t>Raven</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Kniphofia uvaria</t>
+          <t>Corvus corax</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="inlineStr">
         <is>
-          <t>Redstart</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Phoenicurus phoenicurus</t>
+          <t>kite Milvus milvus</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
         <is>
-          <t>Redwing</t>
+          <t>Red Cabbage</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Turdus iliacus</t>
+          <t>Brassica oleracea var. capitata f. rubra</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
         <is>
-          <t>Reed</t>
+          <t>Red Chili</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>bunting Emberiza schoeniclus</t>
+          <t>Capsicum annuum</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Red fox</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Oryza sativa</t>
+          <t>Vulpes Vulpes</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
         <is>
-          <t>River Birch</t>
+          <t>Red maple</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Betula nigra</t>
+          <t>Acer rubrum</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
         <is>
-          <t>Robin</t>
+          <t>Red-hot Poker</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Erithacus rubecula</t>
+          <t>Kniphofia uvaria</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
         <is>
-          <t>Rook</t>
+          <t>Redstart</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Corvus frugilegus</t>
+          <t>Phoenicurus phoenicurus</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
         <is>
-          <t>Rose</t>
+          <t>Redwing</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Turdus iliacus</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
         <is>
-          <t>Rose Apple</t>
+          <t>Reed</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Syzygium jambos</t>
+          <t>bunting Emberiza schoeniclus</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
         <is>
-          <t>Rose Campion</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Lychnis coronaria</t>
+          <t>Oryza sativa</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
         <is>
-          <t>Rose Moss</t>
+          <t>River Birch</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Portulaca grandiflora</t>
+          <t>Betula nigra</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
         <is>
-          <t>Russian Sage</t>
+          <t>Robin</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Perovskia atriplicifolia</t>
+          <t>Erithacus rubecula</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
         <is>
-          <t>Salvia May Night</t>
+          <t>Rook</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Salvia nemerosa</t>
+          <t>Corvus frugilegus</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
         <is>
-          <t>Sandalwood</t>
+          <t>Rose</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Santalum album</t>
+          <t>Rosa</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
         <is>
-          <t>Saola</t>
+          <t>Rose Apple</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Pseudoryx nghetinhensis</t>
+          <t>Syzygium jambos</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
         <is>
-          <t>Saucer Magnolia</t>
+          <t>Rose Campion</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Magnolia x soulangiana</t>
+          <t>Lychnis coronaria</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
         <is>
-          <t>Sea Holly</t>
+          <t>Rose Moss</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Eryngium amethystinum</t>
+          <t>Portulaca grandiflora</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
         <is>
-          <t>Sea Lions</t>
+          <t>Russian Sage</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Hydrurga leptonyx</t>
+          <t>Perovskia atriplicifolia</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
         <is>
-          <t>Shasta Daisy</t>
+          <t>Salvia May Night</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Leucanthemum x superbum</t>
+          <t>Salvia nemerosa</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Sandalwood</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Ovis aries</t>
+          <t>Santalum album</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="inlineStr">
         <is>
-          <t>Showy Stonecrop</t>
+          <t>Saola</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Sedum spectabile</t>
+          <t>Pseudoryx nghetinhensis</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="inlineStr">
         <is>
-          <t>Siberian Iris</t>
+          <t>Saucer Magnolia</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Iris sibirica</t>
+          <t>Magnolia x soulangiana</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="inlineStr">
         <is>
-          <t>Siebold Hosta</t>
+          <t>Sea Holly</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Hosta sieboldiana</t>
+          <t>Eryngium amethystinum</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="inlineStr">
         <is>
-          <t>Siebold viburnum</t>
+          <t>Sea Lions</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Viburnum sieboldii</t>
+          <t>Hydrurga leptonyx</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="inlineStr">
         <is>
-          <t>Silkworms</t>
+          <t>Shasta Daisy</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Bombyx mori</t>
+          <t>Leucanthemum x superbum</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="inlineStr">
         <is>
-          <t>Silver Oak</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Grevillea robusta</t>
+          <t>Ovis aries</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="inlineStr">
         <is>
-          <t>Silverfish</t>
+          <t>Showy Stonecrop</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Lepisma saccharina</t>
+          <t>Sedum spectabile</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="inlineStr">
         <is>
-          <t>Siskin</t>
+          <t>Siberian Iris</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Carduelis spinus</t>
+          <t>Iris sibirica</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="inlineStr">
         <is>
-          <t>Skylark</t>
+          <t>Siebold Hosta</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Alauda arvensis</t>
+          <t>Hosta sieboldiana</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="inlineStr">
         <is>
-          <t>Snail</t>
+          <t>Siebold viburnum</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Gastropoda</t>
+          <t>Viburnum sieboldii</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="inlineStr">
         <is>
-          <t>Snakefly</t>
+          <t>Silkworms</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Raphidioptera</t>
+          <t>Bombyx mori</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="inlineStr">
         <is>
-          <t>Snapdragon</t>
+          <t>Silver Oak</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Antirrhinum majus</t>
+          <t>Grevillea robusta</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="inlineStr">
         <is>
-          <t>Snipe</t>
+          <t>Silverfish</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Gallinago gallinago</t>
+          <t>Lepisma saccharina</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="inlineStr">
         <is>
-          <t>Snow-in-Summer</t>
+          <t>Siskin</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Cerastium tomentosum</t>
+          <t>Carduelis spinus</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="inlineStr">
         <is>
-          <t>Solcito Zinnia</t>
+          <t>Skylark</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Zinnia maritima 'Solcito'</t>
+          <t>Alauda arvensis</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Snail</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>thrush Turdus philomelos</t>
+          <t>Gastropoda</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="inlineStr">
         <is>
-          <t>Soursop</t>
+          <t>Snakefly</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Annona muricata</t>
+          <t>Raphidioptera</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="inlineStr">
         <is>
-          <t>Soya bean</t>
+          <t>Snapdragon</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Glycine max</t>
+          <t>Antirrhinum majus</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="inlineStr">
         <is>
-          <t>Sparrowhawk</t>
+          <t>Snipe</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Accipiter nisus</t>
+          <t>Gallinago gallinago</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="inlineStr">
         <is>
-          <t>Sperm Whale</t>
+          <t>Snow-in-Summer</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Physeter macrocephalus</t>
+          <t>Cerastium tomentosum</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="inlineStr">
         <is>
-          <t>Spice bush</t>
+          <t>Solcito Zinnia</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Lindera benzoin</t>
+          <t>Zinnia maritima 'Solcito'</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="inlineStr">
         <is>
-          <t>Spider Flower</t>
+          <t>Song</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Cleome hassleriana</t>
+          <t>thrush Turdus philomelos</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="inlineStr">
         <is>
-          <t>Spinach</t>
+          <t>Soursop</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Lactuca sativa</t>
+          <t>Annona muricata</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="inlineStr">
         <is>
-          <t>Spotted</t>
+          <t>Southern rockhopper penguin</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>flycatcher Muscicapa striata</t>
+          <t>Eudyptes chrysocome</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="inlineStr">
         <is>
-          <t>Spring Onion</t>
+          <t>Soya bean</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Allium fistulosum</t>
+          <t>Glycine max</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="inlineStr">
         <is>
-          <t>Squash</t>
+          <t>Sparrowhawk</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Cucurbita</t>
+          <t>Accipiter nisus</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="inlineStr">
         <is>
-          <t>Squid</t>
+          <t>Sperm Whale</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Decapodiformes</t>
+          <t>Physeter macrocephalus</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="inlineStr">
         <is>
-          <t>Squirrel</t>
+          <t>Spice bush</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Sciuridae</t>
+          <t>Lindera benzoin</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="inlineStr">
         <is>
-          <t>Star Apple</t>
+          <t>Spider Flower</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Chrysophyllum cainito</t>
+          <t>Cleome hassleriana</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="inlineStr">
         <is>
-          <t>Starfish</t>
+          <t>Spinach</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Asteroidea</t>
+          <t>Lactuca sativa</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="inlineStr">
         <is>
-          <t>Starling</t>
+          <t>Spotted</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Sturnus vulgaris</t>
+          <t>flycatcher Muscicapa striata</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="inlineStr">
         <is>
-          <t>Stiletto Hybrid Hosta</t>
+          <t>Spring Onion</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Hosta 'Stiletto'</t>
+          <t>Allium fistulosum</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="inlineStr">
         <is>
-          <t>Stink Bugs</t>
+          <t>Squash</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Halyomorpha halys</t>
+          <t>Cucurbita</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="inlineStr">
         <is>
-          <t>Stock</t>
+          <t>Squid</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>dove Columba oenas</t>
+          <t>Decapodiformes</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="inlineStr">
         <is>
-          <t>Stonechat</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Saxicola torquata</t>
+          <t>Sciuridae</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="inlineStr">
         <is>
-          <t>Strawberry</t>
+          <t>Star Apple</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Fragaria × ananassa</t>
+          <t>Chrysophyllum cainito</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="inlineStr">
         <is>
-          <t>Sturgeon</t>
+          <t>Starfish</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Acipenseridae</t>
+          <t>Asteroidea</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="inlineStr">
         <is>
-          <t>Sugar Maple</t>
+          <t>Starling</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Acer saccharum</t>
+          <t>Sturnus vulgaris</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="inlineStr">
         <is>
-          <t>Summer Snapdragon</t>
+          <t>Stiletto Hybrid Hosta</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Angelonia angustifolia</t>
+          <t>Hosta 'Stiletto'</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="inlineStr">
         <is>
-          <t>Sun and Substance Hybrid Hosta</t>
+          <t>Stink Bugs</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Hosta 'Sun and Substance'</t>
+          <t>Halyomorpha halys</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="inlineStr">
         <is>
-          <t>Sunfish</t>
+          <t>Stock</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Mola mola</t>
+          <t>dove Columba oenas</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="inlineStr">
         <is>
-          <t>Sunflower</t>
+          <t>Stonechat</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Helianthus annuus</t>
+          <t>Saxicola torquata</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="inlineStr">
         <is>
-          <t>Swallow</t>
+          <t>Strawberry</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Hirundo rustica</t>
+          <t>Fragaria × ananassa</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="inlineStr">
         <is>
-          <t>Swede/ Rutabaga</t>
+          <t>Striped Hynea</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Brassica napus Napobrassica Group</t>
+          <t>Hyaena hyaena</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="inlineStr">
         <is>
-          <t>Sweet Alyssum</t>
+          <t>Sturgeon</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Lobularia maritima</t>
+          <t>Acipenseridae</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="inlineStr">
         <is>
-          <t>Sweet Potato</t>
+          <t>Sugar Maple</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Ipomoea batatas</t>
+          <t>Acer saccharum</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="inlineStr">
         <is>
-          <t>Swordfish</t>
+          <t>Summer Snapdragon</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Xiphias gladius</t>
+          <t>Angelonia angustifolia</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="inlineStr">
         <is>
-          <t>Tall Verbena</t>
+          <t>Sun and Substance Hybrid Hosta</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Verbena bonariensis</t>
+          <t>Hosta 'Sun and Substance'</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="inlineStr">
         <is>
-          <t>Tamarillo</t>
+          <t>Sunfish</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Solanum betaceum</t>
+          <t>Mola mola</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="inlineStr">
         <is>
-          <t>Tamarind tree</t>
+          <t>Sunflower</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Tamarindus indica</t>
+          <t>Helianthus annuus</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="inlineStr">
         <is>
-          <t>Tangerine</t>
+          <t>Swallow</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Citrus reticulata</t>
+          <t>Hirundo rustica</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="inlineStr">
         <is>
-          <t>Taro</t>
+          <t>Swede/ Rutabaga</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Colocasia esculenta</t>
+          <t>Brassica napus Napobrassica Group</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="inlineStr">
         <is>
-          <t>Teak</t>
+          <t>Sweet Alyssum</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Tectona grandis Linn.</t>
+          <t>Lobularia maritima</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="inlineStr">
         <is>
-          <t>Termites</t>
+          <t>Sweet Potato</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Isoptera</t>
+          <t>Ipomoea batatas</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="inlineStr">
         <is>
-          <t>Texas Sage</t>
+          <t>Swordfish</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Salvia coccinea</t>
+          <t>Xiphias gladius</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="inlineStr">
         <is>
-          <t>Thread-leaf Tickseed</t>
+          <t>Tall Verbena</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Coreopsis verticillata</t>
+          <t>Verbena bonariensis</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="inlineStr">
         <is>
-          <t>Tick</t>
+          <t>Tamarillo</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Ixodida</t>
+          <t>Solanum betaceum</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="inlineStr">
         <is>
-          <t>Tiger</t>
+          <t>Tamarind tree</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Panthera tigris</t>
+          <t>Tamarindus indica</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="inlineStr">
         <is>
-          <t>Tiger Shark</t>
+          <t>Tangerine</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Galeocerdo cuvier</t>
+          <t>Citrus reticulata</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="inlineStr">
         <is>
-          <t>Tobacco</t>
+          <t>Taro</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Nicotina tobaccum</t>
+          <t>Colocasia esculenta</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="inlineStr">
         <is>
-          <t>Tomato</t>
+          <t>Teak</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Lycopersicon esculentum</t>
+          <t>Tectona grandis Linn.</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="inlineStr">
         <is>
-          <t>Tree</t>
+          <t>Termites</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>pipit Anthus trivialis</t>
+          <t>Isoptera</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="inlineStr">
         <is>
-          <t>Treecreeper</t>
+          <t>Texas Sage</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Certhia familiaris</t>
+          <t>Salvia coccinea</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="inlineStr">
         <is>
-          <t>Tuberous-rooted Begonia</t>
+          <t>Thread-leaf Tickseed</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Begonia x tuberhybrida</t>
+          <t>Coreopsis verticillata</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="inlineStr">
         <is>
-          <t>Tufted</t>
+          <t>Tick</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>duck Aythya fuligula</t>
+          <t>Ixodida</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="inlineStr">
         <is>
-          <t>Tulsi</t>
+          <t>Tiger</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Ocimum sanctum</t>
+          <t>Panthera tigris</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Tiger Shark</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Thunnini</t>
+          <t>Galeocerdo cuvier</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="inlineStr">
         <is>
-          <t>Turmeric</t>
+          <t>Tobacco</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Curcuma longa</t>
+          <t>Nicotina tobaccum</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="inlineStr">
         <is>
-          <t>Turnip</t>
+          <t>Tomato</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Brassica rapa subsp. rapa</t>
+          <t>Lycopersicon esculentum</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="inlineStr">
         <is>
-          <t>Uakari</t>
+          <t>Tree</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Cacajao</t>
+          <t>pipit Anthus trivialis</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="inlineStr">
         <is>
-          <t>Uchuva</t>
+          <t>Treecreeper</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Physalis peruviana</t>
+          <t>Certhia familiaris</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="inlineStr">
         <is>
-          <t>Uguisu</t>
+          <t>Tuberous-rooted Begonia</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Horornis diphone</t>
+          <t>Begonia x tuberhybrida</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="inlineStr">
         <is>
-          <t>Uinta Ground Squirrel</t>
+          <t>Tufted</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Urocitellus armatus</t>
+          <t>duck Aythya fuligula</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="inlineStr">
         <is>
-          <t>Umbrellabird</t>
+          <t>Tulsi</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Cephalopterus</t>
+          <t>Ocimum sanctum</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="inlineStr">
         <is>
-          <t>Unau</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Choloepus didactylus</t>
+          <t>Thunnini</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="inlineStr">
         <is>
-          <t>Ural owl</t>
+          <t>Turmeric</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Strix uralensis</t>
+          <t>Curcuma longa</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="inlineStr">
         <is>
-          <t>Vampire Bat</t>
+          <t>Turnip</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Desmodontinae</t>
+          <t>Brassica rapa subsp. rapa</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="inlineStr">
         <is>
-          <t>Vampire Squid</t>
+          <t>Uakari</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Vampyroteuthis infernalis</t>
+          <t>Cacajao</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="inlineStr">
         <is>
-          <t>Vaquita</t>
+          <t>Uchuva</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Phocoena sinus</t>
+          <t>Physalis peruviana</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="inlineStr">
         <is>
-          <t>Variegated Solomon's Seal</t>
+          <t>Uguisu</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Polygonatum odoratum</t>
+          <t>Horornis diphone</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="inlineStr">
         <is>
-          <t>Venus Flytrap</t>
+          <t>Uinta Ground Squirrel</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Dionaea muscipula</t>
+          <t>Urocitellus armatus</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="inlineStr">
         <is>
-          <t>Vervet Monkey</t>
+          <t>Umbrellabird</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Chlorocebus pygerythrus</t>
+          <t>Cephalopterus</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="inlineStr">
         <is>
-          <t>VicuÃ±a</t>
+          <t>Unau</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Vicugna vicugna</t>
+          <t>Choloepus didactylus</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="inlineStr">
         <is>
-          <t>Vinegaroon</t>
+          <t>Ural owl</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Uropygi</t>
+          <t>Strix uralensis</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="inlineStr">
         <is>
-          <t>Viper shark (dogfish)</t>
+          <t>Vampire Bat</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Trigonognathus kabeyai</t>
+          <t>Desmodontinae</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="inlineStr">
         <is>
-          <t>Virgin Islands Dwarf Gecko</t>
+          <t>Vampire Squid</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Sphaerodactylus parthenopion</t>
+          <t>Vampyroteuthis infernalis</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="inlineStr">
         <is>
-          <t>Walrus</t>
+          <t>Vaquita</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Odobenus rosmarus</t>
+          <t>Phocoena sinus</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="inlineStr">
         <is>
-          <t>Wasp</t>
+          <t>Variegated Solomon's Seal</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Vespa</t>
+          <t>Polygonatum odoratum</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="inlineStr">
         <is>
-          <t>Wasps</t>
+          <t>Venus Flytrap</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Vespidae</t>
+          <t>Dionaea muscipula</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="inlineStr">
         <is>
-          <t>Water Buffalo</t>
+          <t>Vervet Monkey</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Bubalus bubalis</t>
+          <t>Chlorocebus pygerythrus</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="inlineStr">
         <is>
-          <t>Watermelon</t>
+          <t>VicuÃ±a</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Citrullus vulgaris</t>
+          <t>Vicugna vicugna</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="inlineStr">
         <is>
-          <t>Wavy-leaved Hosta</t>
+          <t>Vinegaroon</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Hosta undulata</t>
+          <t>Uropygi</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="inlineStr">
         <is>
-          <t>Wax Begonia</t>
+          <t>Viper shark (dogfish)</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Begonia x semperflorens-cultorum</t>
+          <t>Trigonognathus kabeyai</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="inlineStr">
         <is>
-          <t>Whale Shark</t>
+          <t>Virgin Islands Dwarf Gecko</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Rhincodon typus</t>
+          <t>Sphaerodactylus parthenopion</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="inlineStr">
         <is>
-          <t>Wheat Cockscomb</t>
+          <t>Walrus</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Celosia agentea var. spicata</t>
+          <t>Odobenus rosmarus</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="inlineStr">
         <is>
-          <t>Wheatear</t>
+          <t>Wasp</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Oenanthe oenanthe</t>
+          <t>Vespa</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="inlineStr">
         <is>
-          <t>Whinchat</t>
+          <t>Wasps</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Saxicola rubetra</t>
+          <t>Vespidae</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="inlineStr">
         <is>
-          <t>White Cabbage</t>
+          <t>Water Buffalo</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Brassica oleracea var. capitata</t>
+          <t>Bubalus bubalis</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="inlineStr">
         <is>
-          <t>Whitethroat</t>
+          <t>Watermelon</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Sylvia communis</t>
+          <t>Citrullus vulgaris</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wild Turkey </t>
+          <t>Wavy-leaved Hosta</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Meleagris gallopavo</t>
+          <t>Hosta undulata</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="inlineStr">
         <is>
-          <t>Willow</t>
+          <t>Wax Begonia</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>warbler Phylloscopus trochilus</t>
+          <t>Begonia x semperflorens-cultorum</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="inlineStr">
         <is>
-          <t>Wolf</t>
+          <t>Whale Shark</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Canis lupus</t>
+          <t>Rhincodon typus</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="inlineStr">
         <is>
-          <t>Wombat</t>
+          <t>Wheat Cockscomb</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Vombatus ursinus</t>
+          <t>Celosia agentea var. spicata</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="inlineStr">
         <is>
-          <t>Wood</t>
+          <t>Wheatear</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>warbler Phylloscopus sibilatrix</t>
+          <t>Oenanthe oenanthe</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="inlineStr">
         <is>
-          <t>Woodpigeon</t>
+          <t>Whinchat</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Columba palumbus</t>
+          <t>Saxicola rubetra</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="inlineStr">
         <is>
-          <t>Wren</t>
+          <t>White Cabbage</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Troglodytes troglodytes</t>
+          <t>Brassica oleracea var. capitata</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="inlineStr">
         <is>
-          <t>X-Ray Tetra</t>
+          <t>Whitethroat</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Pristella maxillaris</t>
+          <t>Sylvia communis</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="inlineStr">
         <is>
-          <t>Yak</t>
+          <t xml:space="preserve">Wild Turkey </t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Bos grunniens</t>
+          <t>Meleagris gallopavo</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="inlineStr">
         <is>
-          <t>Yam</t>
+          <t>Willow</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Dioscorea</t>
+          <t>warbler Phylloscopus trochilus</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="inlineStr">
         <is>
-          <t>Yarrow</t>
+          <t>Wolf</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Achillea millefolium</t>
+          <t>Canis lupus</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="inlineStr">
         <is>
-          <t>Yellow Cosmos</t>
+          <t>Wombat</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Cosmos sulphureus</t>
+          <t>Vombatus ursinus</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="inlineStr">
         <is>
-          <t>Yellow Sac Spider</t>
+          <t>Wood</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Cheiracanthium inclusum</t>
+          <t>warbler Phylloscopus sibilatrix</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="inlineStr">
         <is>
-          <t>Yellow Spotted Lizard</t>
+          <t>Woodpigeon</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Lepidophyma flavimaculatum</t>
+          <t>Columba palumbus</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="inlineStr">
         <is>
-          <t>Yellow-Eyed Penguin</t>
+          <t>Wren</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Megadyptes antipodes</t>
+          <t>Troglodytes troglodytes</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="inlineStr">
         <is>
-          <t>Yellowfin Tuna</t>
+          <t>X-Ray Tetra</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Thunnus albacares</t>
+          <t>Pristella maxillaris</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="inlineStr">
         <is>
-          <t>Yellowhammer</t>
+          <t>Yak</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Emberiza citrinella</t>
+          <t>Bos grunniens</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="inlineStr">
         <is>
-          <t>Yeti Crab</t>
+          <t>Yam</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Kiwa hirsuta</t>
+          <t>Dioscorea</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="inlineStr">
         <is>
-          <t>Zebra</t>
+          <t>Yarrow</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Equus quagga</t>
+          <t>Achillea millefolium</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="inlineStr">
         <is>
-          <t>Zebra Finch</t>
+          <t>Yellow Cosmos</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Taeniopygia guttata castanotis</t>
+          <t>Cosmos sulphureus</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="inlineStr">
         <is>
-          <t>Zebra Mussels</t>
+          <t>Yellow Sac Spider</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Dreissena polymorpha</t>
+          <t>Cheiracanthium inclusum</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="inlineStr">
         <is>
-          <t>Zebra Pleco</t>
+          <t>Yellow Spotted Lizard</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Hypancistrus zebra</t>
+          <t>Lepidophyma flavimaculatum</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="inlineStr">
         <is>
-          <t>Zebra Shark</t>
+          <t>Yellow-Eyed Penguin</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Stegostoma fasciatum</t>
+          <t>Megadyptes antipodes</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="inlineStr">
         <is>
-          <t>Zebu</t>
+          <t>Yellowfin Tuna</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Bos taurus indicus</t>
+          <t>Thunnus albacares</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="inlineStr">
         <is>
-          <t>Zonal Geranium</t>
+          <t>Yellowhammer</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Pelargonium x hortorum</t>
+          <t>Emberiza citrinella</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="inlineStr">
         <is>
-          <t>Zonkey</t>
+          <t>Yeti Crab</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Equus zebra x Equus asinus</t>
+          <t>Kiwa hirsuta</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="inlineStr">
         <is>
-          <t>Zorse</t>
+          <t>Zebra</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Equus zebra x Equus caballus</t>
+          <t>Equus quagga</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="inlineStr">
         <is>
-          <t>chokeberry</t>
+          <t>Zebra Finch</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Aronia arbutifolia</t>
+          <t>Taeniopygia guttata castanotis</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="inlineStr">
         <is>
-          <t>oakleaf hydrangea</t>
+          <t>Zebra Mussels</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Hydrangea quercifolia</t>
+          <t>Dreissena polymorpha</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="inlineStr">
         <is>
-          <t>smoketree</t>
+          <t>Zebra Pleco</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Cotinus coggygria</t>
+          <t>Hypancistrus zebra</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="inlineStr">
         <is>
+          <t>Zebra Shark</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Stegostoma fasciatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>Zebu</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Bos taurus indicus</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>Zonal Geranium</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Pelargonium x hortorum</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>Zonkey</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Equus zebra x Equus asinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>Zorse</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Equus zebra x Equus caballus</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>chokeberry</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Aronia arbutifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>oakleaf hydrangea</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Hydrangea quercifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>smoketree</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Cotinus coggygria</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
           <t>thornless honeylocust</t>
         </is>
       </c>
-      <c r="B644" t="inlineStr">
+      <c r="B652" t="inlineStr">
         <is>
           <t>Gleditsia tricanthos f. inermis</t>
         </is>

--- a/nomenclature.xlsx
+++ b/nomenclature.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B652"/>
+  <dimension ref="A1:B668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2289,5962 +2289,6154 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Blue Sage</t>
+          <t>Blue Marlin</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Salvia farinacea</t>
+          <t>Makaira nigricans</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Blue Shark</t>
+          <t>Blue Sage</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Prionace glauca</t>
+          <t>Salvia farinacea</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Blue Tit</t>
+          <t>Blue Shark</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Cyanistes caeruleus</t>
+          <t>Prionace glauca</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Blue Whale</t>
+          <t>Blue Tit</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Balaenoptera musculus</t>
+          <t>Cyanistes caeruleus</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Blue grosbeak</t>
+          <t>Blue Whale</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Passerina caerulea</t>
+          <t>Balaenoptera musculus</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Blue-Ringed Octopus</t>
+          <t>Blue grosbeak</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Hapalochlaena</t>
+          <t>Passerina caerulea</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Blueberry</t>
+          <t>Blue-Ringed Octopus</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Vaccinium sect. Cyanococcus</t>
+          <t>Hapalochlaena</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Bluefin Tuna</t>
+          <t>Blueberry</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Thunnus thynnus</t>
+          <t>Vaccinium sect. Cyanococcus</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Bluestem</t>
+          <t>Bluefin Tuna</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Schizachyrium x</t>
+          <t>Thunnus thynnus</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Bobcat</t>
+          <t>Bluestem</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Lynx rufus</t>
+          <t>Schizachyrium x</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Bobolink</t>
+          <t>Bobcat</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Dolichonyx oryzivorus</t>
+          <t>Lynx rufus</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Boiga</t>
+          <t>Bobolink</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Boiga</t>
+          <t>Dolichonyx oryzivorus</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Bongo</t>
+          <t>Boiga</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Tragelaphus eurycerus</t>
+          <t>Boiga</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Bonito Fish</t>
+          <t>Bongo</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Sardini</t>
+          <t>Tragelaphus eurycerus</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Bonnethead Shark</t>
+          <t>Bonito Fish</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Sphyrna tiburo</t>
+          <t>Sardini</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Bonobo</t>
+          <t>Bonnethead Shark</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Pan paniscus</t>
+          <t>Sphyrna tiburo</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Booby</t>
+          <t>Bonobo</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Sula</t>
+          <t>Pan paniscus</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Booklice</t>
+          <t>Booby</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Psocoptera</t>
+          <t>Sula</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Boomslang</t>
+          <t>Booklice</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Dispholidus typus</t>
+          <t>Psocoptera</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Bornean Orang-utan</t>
+          <t>Boomslang</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Pongo pygmaeus</t>
+          <t>Dispholidus typus</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Borneo Elephant</t>
+          <t>Bornean Orang-utan</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Elephas maximus borneensis</t>
+          <t>Pongo pygmaeus</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Bottle Guard</t>
+          <t>Borneo Elephant</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Lagenaria siceraria</t>
+          <t>Elephas maximus borneensis</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Bottlenose Dolphin</t>
+          <t>Bottle Guard</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Tursiops</t>
+          <t>Lagenaria siceraria</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Bowfin</t>
+          <t>Bottlenose Dolphin</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Amia calva</t>
+          <t>Tursiops</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Bowhead Whale</t>
+          <t>Bowfin</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Balaena mysticetus</t>
+          <t>Amia calva</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Box Turtle</t>
+          <t>Bowhead Whale</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Terrapene</t>
+          <t>Balaena mysticetus</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Boxfish</t>
+          <t>Box Turtle</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ostraciidae</t>
+          <t>Terrapene</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Brinjal</t>
+          <t>Boxfish</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Solanum melongena</t>
+          <t>Ostraciidae</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Broccoli</t>
+          <t>Brinjal</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Brassica oleracea var. italica</t>
+          <t>Solanum melongena</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Brookesia Micra</t>
+          <t>Broccoli</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Brookesia micra</t>
+          <t>Brassica oleracea var. italica</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Brown Hyena</t>
+          <t>Brookesia Micra</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Hyaena brunnea</t>
+          <t>Brookesia micra</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Brussels Sprout</t>
+          <t>Brown Hyena</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Brassica oleracea var. gemmifera</t>
+          <t>Hyaena brunnea</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Bug</t>
+          <t>Brown-banded cockroach</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Insecta</t>
+          <t>Supella longipalpa</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Bulbul</t>
+          <t>Brussels Sprout</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Molpastes cafer</t>
+          <t>Brassica oleracea var. gemmifera</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Butterfly</t>
+          <t>Bug</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Rhopalocera</t>
+          <t>Insecta</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Butterfly-Weed</t>
+          <t>Bulbul</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Asclepias tuberosa</t>
+          <t>Molpastes cafer</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Caladium</t>
+          <t>Butterfly</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Caladium x hortulanum</t>
+          <t>Rhopalocera</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Canna Lily</t>
+          <t>Butterfly-Weed</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Canna generalis</t>
+          <t>Asclepias tuberosa</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Capsicum</t>
+          <t>Caladium</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Capsicum fruitscence</t>
+          <t>Caladium x hortulanum</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Carambola</t>
+          <t>Canna Lily</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Averrhoa carambola</t>
+          <t>Canna generalis</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Carrot</t>
+          <t>Capsicum</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Daucus carota</t>
+          <t>Capsicum fruitscence</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Cashew nut</t>
+          <t>Carambola</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Anacardium occidentale</t>
+          <t>Averrhoa carambola</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Carrot</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Felis catus</t>
+          <t>Daucus carota</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Cauliflower</t>
+          <t>Cashew nut</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Brassica oleracea var. botrytis</t>
+          <t>Anacardium occidentale</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Celery</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Apium graveolens</t>
+          <t>Felis catus</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Centipede</t>
+          <t>Cauliflower</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Chilopoda</t>
+          <t>Brassica oleracea var. botrytis</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>Cheetah</t>
+          <t>Celery</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Acinonyx jubatus</t>
+          <t>Apium graveolens</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Centipede</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Prunus avium</t>
+          <t>Chilopoda</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Chiku</t>
+          <t>Cheetah</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Achras sapota</t>
+          <t>Acinonyx jubatus</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Chimpanzee</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Pan troglodytes</t>
+          <t>Prunus avium</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>China Pink</t>
+          <t>Chiku</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Dianthus chinensis</t>
+          <t>Achras sapota</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Cigar Flower</t>
+          <t>Chimpanzee</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Cuphea ignea</t>
+          <t>Pan troglodytes</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>Clove</t>
+          <t>China Pink</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Syzygium aromaticum</t>
+          <t>Dianthus chinensis</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Coconut</t>
+          <t>Cigar Flower</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Cocos nucifera</t>
+          <t>Cuphea ignea</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Coelacanth</t>
+          <t>Clove</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Actinistia</t>
+          <t>Syzygium aromaticum</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Coleus</t>
+          <t>Coconut</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Solenostemon scutellaroides</t>
+          <t>Cocos nucifera</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>Common Frog</t>
+          <t>Coelacanth</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Rana temporaria</t>
+          <t>Actinistia</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>Common Furniture Beetle</t>
+          <t>Coleus</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Anobium punctatum</t>
+          <t>Solenostemon scutellaroides</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>Common House Spider</t>
+          <t>Common Frog</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Parasteatoda tepidariorum</t>
+          <t>Rana temporaria</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>Common Loon</t>
+          <t>Common Furniture Beetle</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Gavia immer</t>
+          <t>Anobium punctatum</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Common Snapping Turtle</t>
+          <t>Common House Spider</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Chelydra serpentina</t>
+          <t>Parasteatoda tepidariorum</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Common Toad</t>
+          <t>Common Loon</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Bufo bufo</t>
+          <t>Gavia immer</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>Common Zinnia</t>
+          <t>Common Snapping Turtle</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Zinnia elegans</t>
+          <t>Chelydra serpentina</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>Congo Snake</t>
+          <t>Common Toad</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Amphiuma</t>
+          <t>Bufo bufo</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>Cookiecutter Shark</t>
+          <t>Common Zinnia</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Isistius brasiliensis</t>
+          <t>Zinnia elegans</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>Coopers Hawk</t>
+          <t>Congo Snake</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Accipiter cooperii</t>
+          <t>Amphiuma</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>Copperhead</t>
+          <t>Cookiecutter Shark</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Agkistrodon contortrix</t>
+          <t>Isistius brasiliensis</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>Coral Bells</t>
+          <t>Cookiecutter shark</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Heuchera hybrid</t>
+          <t>Isistius brasiliensis</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>Coral Snake</t>
+          <t>Coopers Hawk</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Micrurus fulvius</t>
+          <t>Accipiter cooperii</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>Coriander/ Cilantro</t>
+          <t>Copperhead</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Coriandrum sativum</t>
+          <t>Agkistrodon contortrix</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>Corn Snake</t>
+          <t>Coral Bells</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Pantherophis guttatus</t>
+          <t>Heuchera hybrid</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>Cotton</t>
+          <t>Coral Snake</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Gossypium herbaceum</t>
+          <t>Micrurus fulvius</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>Cotton-top Tamarin</t>
+          <t>Coriander/ Cilantro</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Saguinus oedipus</t>
+          <t>Coriandrum sativum</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>Cottonmouth</t>
+          <t>Corn Snake</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Agkistrodon piscivorus</t>
+          <t>Pantherophis guttatus</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>Cougar</t>
+          <t>Cotton</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Puma concolor</t>
+          <t>Gossypium herbaceum</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>Cow</t>
+          <t>Cotton-top Tamarin</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Bos Taurus</t>
+          <t>Saguinus oedipus</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>Coyote</t>
+          <t>Cottonmouth</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Canis latrans</t>
+          <t>Agkistrodon piscivorus</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>Crab</t>
+          <t>Cougar</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Brachyura</t>
+          <t>Puma concolor</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>Crab Spider</t>
+          <t>Cow</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Thomisidae</t>
+          <t>Bos Taurus</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>Crab-Eating Macaque</t>
+          <t>Coyote</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Macaca fascicularis</t>
+          <t>Canis latrans</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>Crabeater Seal</t>
+          <t>Crab</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Lobodon carcinophagus</t>
+          <t>Brachyura</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>Cranberry</t>
+          <t>Crab Spider</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Vaccinium subg. Oxycoccus</t>
+          <t>Thomisidae</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>Crane</t>
+          <t>Crab-Eating Macaque</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Gruidae</t>
+          <t>Macaca fascicularis</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>Crappie Fish</t>
+          <t>Crabeater Seal</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Pomoxis</t>
+          <t>Lobodon carcinophagus</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>Creeping Zinnia</t>
+          <t>Cranberry</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Sanvitalia speciosa</t>
+          <t>Vaccinium subg. Oxycoccus</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>Crested Cockscomb</t>
+          <t>Crane</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Celosia agentea var. cristata</t>
+          <t>Gruidae</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>Crested Gecko</t>
+          <t>Crappie Fish</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Correlophus ciliatus</t>
+          <t>Pomoxis</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>Crested Iris</t>
+          <t>Creeping Zinnia</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Iris cristata</t>
+          <t>Sanvitalia speciosa</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>Crested Penguin</t>
+          <t>Crested Cockscomb</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Eudyptes sclateri</t>
+          <t>Celosia agentea var. cristata</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>Crickets</t>
+          <t>Crested Gecko</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Grylloidea</t>
+          <t>Correlophus ciliatus</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>Crocodile</t>
+          <t>Crested Iris</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Crocodylidae</t>
+          <t>Iris cristata</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>Cross River Gorilla</t>
+          <t>Crested Penguin</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Gorilla gorilla diehli</t>
+          <t>Eudyptes sclateri</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>Crow</t>
+          <t>Crickets</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Corvus</t>
+          <t>Grylloidea</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>Crucian Carp</t>
+          <t>Crocodile</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Carassius carassius</t>
+          <t>Crocodylidae</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>Cuban Cockroach</t>
+          <t>Cross River Gorilla</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Panchlora nivea</t>
+          <t>Gorilla gorilla diehli</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>Cuckoo</t>
+          <t>Crow</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Cuculidae</t>
+          <t>Corvus</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>Cucumber</t>
+          <t>Crucian Carp</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Cucumis sativas</t>
+          <t>Carassius carassius</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>Curry leaf</t>
+          <t>Cuban Cockroach</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Murraya koenigii</t>
+          <t>Panchlora nivea</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>Curuba</t>
+          <t>Cuckoo</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Passiflora tarminiana</t>
+          <t>Cuculidae</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>Cuscus</t>
+          <t>Cucumber</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Phalanger</t>
+          <t>Cucumis sativas</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>Cuttlefish</t>
+          <t>Curry leaf</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Sepiida</t>
+          <t>Murraya koenigii</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>Date Palm</t>
+          <t>Curuba</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Phoenix dactylifera</t>
+          <t>Passiflora tarminiana</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>Daylily</t>
+          <t>Cuscus</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Hemerocallis hybrids</t>
+          <t>Phalanger</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>Dog</t>
+          <t>Cuttlefish</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Sepiida</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>Donkey</t>
+          <t>Date Palm</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Equus africanus asinus</t>
+          <t>Phoenix dactylifera</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>Doublefile Viburnum</t>
+          <t>Daylily</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Viburnum plicatum var. tomentosum</t>
+          <t>Hemerocallis hybrids</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>Dragon Fruit</t>
+          <t>Dog</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Selenicereus undatus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>Dragonfly</t>
+          <t>Donkey</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Anisoptera</t>
+          <t>Equus africanus asinus</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>Dromedary Camel</t>
+          <t>Doublefile Viburnum</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Camelus dromedaries</t>
+          <t>Viburnum plicatum var. tomentosum</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>Durian</t>
+          <t>Dragon Fruit</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Durio</t>
+          <t>Selenicereus undatus</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>Dusty Miller</t>
+          <t>Dragonfly</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Senecio cineraria</t>
+          <t>Anisoptera</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>Earwigs</t>
+          <t>Dromedary Camel</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Dermaptera</t>
+          <t>Camelus dromedaries</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>Eastern Redbud</t>
+          <t>Durian</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Cercis canadensis</t>
+          <t>Durio</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>Eggplant</t>
+          <t>Dusty Miller</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Solanum melongena</t>
+          <t>Senecio cineraria</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>Emperor Penguin</t>
+          <t>Earwigs</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Aptenodytes forsteri</t>
+          <t>Dermaptera</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>Emu</t>
+          <t>Eastern Redbud</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Dromaius novaehollandiae</t>
+          <t>Cercis canadensis</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>Eulalia Grass</t>
+          <t>Eggplant</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Miscanthus</t>
+          <t>Solanum melongena</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>False Indigo</t>
+          <t>Electric Eel</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Baptisia australis</t>
+          <t>Electrophorus electricus</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>Fan Flower</t>
+          <t>Emperor Penguin</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Scaevola aemula</t>
+          <t>Aptenodytes forsteri</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>Feather Reed Grass</t>
+          <t>Emu</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Calamagrostis</t>
+          <t>Dromaius novaehollandiae</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>Fennel</t>
+          <t>Eulalia Grass</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Foeniculum vulgare</t>
+          <t>Miscanthus</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>Fern-leaf Yarrow</t>
+          <t>False Indigo</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Achillea fillipenulina</t>
+          <t>Baptisia australis</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>Field Pansy</t>
+          <t>Fan Flower</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Viola tricolor</t>
+          <t>Scaevola aemula</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>Fig</t>
+          <t>Feather Reed Grass</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Ficus carica</t>
+          <t>Calamagrostis</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>Finger millet</t>
+          <t>Fennel</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Eleusine coracana</t>
+          <t>Foeniculum vulgare</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>Firefly</t>
+          <t>Fern-leaf Yarrow</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Lampyridae</t>
+          <t>Achillea fillipenulina</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>Fleas</t>
+          <t>Field Pansy</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Siphonaptera</t>
+          <t>Viola tricolor</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>Flowering Cabbage/Kale</t>
+          <t>Fig</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Brassica oleracea</t>
+          <t>Ficus carica</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>Flowering Tobacco</t>
+          <t>Finger millet</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Nicotiana x sanderae</t>
+          <t>Eleusine coracana</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>Fly</t>
+          <t>Firefly</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Diptera</t>
+          <t>Lampyridae</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>Flying squirrels</t>
+          <t>Fleas</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Pteromyini</t>
+          <t>Siphonaptera</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>Fortune's Hosta</t>
+          <t>Flowering Cabbage/Kale</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Hosta fortunei 'Albomarginata'</t>
+          <t>Brassica oleracea</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>Fountain Grass</t>
+          <t>Flowering Tobacco</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Pennisetum alopecuroides</t>
+          <t>Nicotiana x sanderae</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>Fowl</t>
+          <t>Fly</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Gallus gallus domesticus</t>
+          <t>Diptera</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>Fox</t>
+          <t>Flying squirrels</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Vulpes vulpes</t>
+          <t>Pteromyini</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>Fragrant Sumac</t>
+          <t>Fortune's Hosta</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Rhus aromatica</t>
+          <t>Hosta fortunei 'Albomarginata'</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>Fringed Bleeding-heart</t>
+          <t>Fountain Grass</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Dicentra exima</t>
+          <t>Pennisetum alopecuroides</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>Fruitfly</t>
+          <t>Fowl</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Drosophila melanogaster</t>
+          <t>Gallus gallus domesticus</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>Garden Impatiens</t>
+          <t>Fox</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Impatiens walleriana</t>
+          <t>Vulpes vulpes</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>Garden Lily</t>
+          <t>Fragrant Sumac</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Lilium</t>
+          <t>Rhus aromatica</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>Garden Phlox</t>
+          <t>Frilled Shark</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Phlox paniculata</t>
+          <t>Chlamydoselachus anguineus</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>Garden Verbena</t>
+          <t>Fringed Bleeding-heart</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Verbena x hybrida</t>
+          <t>Dicentra exima</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>Garlic</t>
+          <t>Fruitfly</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Allium sativum</t>
+          <t>Drosophila melanogaster</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>Gazania</t>
+          <t>Fugu</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Gazania rigens</t>
+          <t>Takifugu rubripes</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>Gentian Sage</t>
+          <t>Garden Impatiens</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Salvia patens</t>
+          <t>Impatiens walleriana</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>Gharial</t>
+          <t>Garden Lily</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Gavialis gangeticus</t>
+          <t>Lilium</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>Giggly Spotted Hyena</t>
+          <t>Garden Phlox</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Crocuta crocuta</t>
+          <t>Phlox paniculata</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>Ginger</t>
+          <t>Garden Verbena</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Zingiber officinale</t>
+          <t>Verbena x hybrida</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>Globe Amaranth</t>
+          <t>Garlic</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Gomphrena haageana</t>
+          <t>Allium sativum</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>Goat</t>
+          <t>Gazania</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Capra aegagrus hircus</t>
+          <t>Gazania rigens</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>Gooseneck Loosestrife</t>
+          <t>Gentian Sage</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Lysimachia</t>
+          <t>Salvia patens</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>German cockroach</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Gorilla</t>
+          <t>Blattella germanica</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>Grape</t>
+          <t>Gharial</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Vitis</t>
+          <t>Gavialis gangeticus</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>Grapefruit</t>
+          <t>Giggly Spotted Hyena</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Citrus × paradisi</t>
+          <t>Crocuta crocuta</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>Grass Pink</t>
+          <t>Ginger</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Dianthus plumarius</t>
+          <t>Zingiber officinale</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Globe Amaranth</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Caelifera</t>
+          <t>Gomphrena haageana</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>Great white shark</t>
+          <t>Goat</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Carcharodon carcharias</t>
+          <t>Capra aegagrus hircus</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>Green Gram</t>
+          <t>Goblin Shark</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Phaseolus audicus</t>
+          <t>Mitsukurina owstoni</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>Greenfly</t>
+          <t>Gooseneck Loosestrife</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Aphidoidea</t>
+          <t>Lysimachia</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>Guava</t>
+          <t>Gorilla</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Psidium guava</t>
+          <t>Gorilla</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>Guinea pig</t>
+          <t>Grape</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Cavia porcellus</t>
+          <t>Vitis</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>Hakone Grass</t>
+          <t>Grapefruit</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Hakonechloa</t>
+          <t>Citrus × paradisi</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>Hinoki Falsecypress</t>
+          <t>Grass Pink</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Chamaecyparis obtusa</t>
+          <t>Dianthus plumarius</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>Hippopotamus</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Hippopotamus amphibius</t>
+          <t>Caelifera</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>Honey badger</t>
+          <t>Great white shark</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Mellivora capensis</t>
+          <t>Carcharodon carcharias</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>Horse</t>
+          <t>Green Gram</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Equus ferus caballus</t>
+          <t>Phaseolus audicus</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>Hosta Kabitan</t>
+          <t>Greenfly</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Hosta sieboldii</t>
+          <t>Aphidoidea</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>House wall Lizard</t>
+          <t>Guava</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Hemidactylus flaviviridis</t>
+          <t>Psidium guava</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>Housefly</t>
+          <t>Guinea pig</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Musca domestica</t>
+          <t>Cavia porcellus</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>Human beings</t>
+          <t>Hakone Grass</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Hakonechloa</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>Humpback whale</t>
+          <t>Hinoki Falsecypress</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Megaptera novaeangliae</t>
+          <t>Chamaecyparis obtusa</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>Hybrid Astilbe</t>
+          <t>Hippopotamus</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Astilbe hybrids</t>
+          <t>Hippopotamus amphibius</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>Hybrid Bearded Iris</t>
+          <t>Honey badger</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Iris hybrids</t>
+          <t>Mellivora capensis</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>Hybrid Columbine</t>
+          <t>Horse</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Aquilegia x hybrida</t>
+          <t>Equus ferus caballus</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>Hybrid Pansy</t>
+          <t>Hosta Kabitan</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Viola x wittrockiana</t>
+          <t>Hosta sieboldii</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>Ibex</t>
+          <t>House wall Lizard</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Capra ibex</t>
+          <t>Hemidactylus flaviviridis</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>Ibis</t>
+          <t>Housefly</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Threskiornithinae</t>
+          <t>Musca domestica</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>Iguana</t>
+          <t>Human beings</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Iguana</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>Immortal Jellyfish</t>
+          <t>Humpback whale</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Turritopsis dohrnii</t>
+          <t>Megaptera novaeangliae</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>Impala</t>
+          <t>Hybrid Astilbe</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Aepyceros melampus</t>
+          <t>Astilbe hybrids</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>Imperial Moth</t>
+          <t>Hybrid Bearded Iris</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Eacles imperialis</t>
+          <t>Iris hybrids</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>Indian Cobra</t>
+          <t>Hybrid Columbine</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Naja naja</t>
+          <t>Aquilegia x hybrida</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>Indian Elephant</t>
+          <t>Hybrid Pansy</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Elephas maximus</t>
+          <t>Viola x wittrockiana</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>Indian Giant Squirrel</t>
+          <t>Ibex</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Ratufa indica</t>
+          <t>Capra ibex</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>Indian Grass</t>
+          <t>Ibis</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Sorghastrum x</t>
+          <t>Threskiornithinae</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>Indian Palm Squirrel</t>
+          <t>Iguana</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Funambulus palmarum</t>
+          <t>Iguana</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>Indian Rhinoceros</t>
+          <t>Immortal Jellyfish</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Rhinoceros unicornis</t>
+          <t>Turritopsis dohrnii</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>Indian Star Tortoise</t>
+          <t>Impala</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Geochelone elegans</t>
+          <t>Aepyceros melampus</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>Indigo Snake</t>
+          <t>Imperial Moth</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Drymarchon couperi</t>
+          <t>Eacles imperialis</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>Indochinese Tiger</t>
+          <t>Indian Cobra</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Panthera tigris corbetti</t>
+          <t>Naja naja</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>Indri</t>
+          <t>Indian Elephant</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Indri indri</t>
+          <t>Elephas maximus</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>Ivory-billed woodpecker</t>
+          <t>Indian Giant Squirrel</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Campephilus principalis</t>
+          <t>Ratufa indica</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>Ivy Geranium</t>
+          <t>Indian Grass</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Pelargonium peltatum</t>
+          <t>Sorghastrum x</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>Jacana</t>
+          <t>Indian Palm Squirrel</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Jacanidae</t>
+          <t>Funambulus palmarum</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>Jackal</t>
+          <t>Indian Rhinoceros</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Canis aureus</t>
+          <t>Rhinoceros unicornis</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>Jackdaw</t>
+          <t>Indian Star Tortoise</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Corvus monedula</t>
+          <t>Geochelone elegans</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>Jackfruit</t>
+          <t>Indigo Snake</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Artocarpus integra</t>
+          <t>Drymarchon couperi</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>Jackrabbit</t>
+          <t>Indochinese Tiger</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Lepus californicus</t>
+          <t>Panthera tigris corbetti</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>Jackson's Chameleon</t>
+          <t>Indri</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Trioceros jacksonii</t>
+          <t>Indri indri</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>Jaguar</t>
+          <t>Ivory-billed woodpecker</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Panthera onca</t>
+          <t>Campephilus principalis</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>Jaguarundi Cat</t>
+          <t>Ivy Geranium</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Puma yagouaroundi</t>
+          <t>Pelargonium peltatum</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>Japanese Beetle</t>
+          <t>Jacana</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Popillia japonica</t>
+          <t>Jacanidae</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>Japanese Blood Grass</t>
+          <t>Jackal</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Imperata</t>
+          <t>Canis aureus</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>Japanese Iris</t>
+          <t>Jackdaw</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Iris ensata</t>
+          <t>Corvus monedula</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>Japanese Macaque</t>
+          <t>Jackfruit</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Macaca fuscata</t>
+          <t>Artocarpus integra</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>Japanese Squirrel</t>
+          <t>Jackrabbit</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Sciurus lis</t>
+          <t>Lepus californicus</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>Japanese tree lilac</t>
+          <t>Jackson's Chameleon</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Syringa reticulata</t>
+          <t>Trioceros jacksonii</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>Javan Rhinoceros</t>
+          <t>Jaguar</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Rhinoceros sondaicus</t>
+          <t>Panthera onca</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>Joe-Pye Weed</t>
+          <t>Jaguarundi Cat</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Eupatorium purpureum</t>
+          <t>Puma yagouaroundi</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>Jonah Crab</t>
+          <t>Japanese Beetle</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Cancer borealis</t>
+          <t>Popillia japonica</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>Joro Spider</t>
+          <t>Japanese Blood Grass</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Nephila clavata</t>
+          <t>Imperata</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>Jowar</t>
+          <t>Japanese Iris</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Sorghum Vulgare</t>
+          <t>Iris ensata</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>Jumping Spider</t>
+          <t>Japanese Macaque</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Salticidae</t>
+          <t>Macaca fuscata</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>Junglefowl</t>
+          <t>Japanese Squirrel</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Gallus</t>
+          <t>Sciurus lis</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
         <is>
-          <t>Kadamb</t>
+          <t>Japanese tree lilac</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Anthocephalus indicus</t>
+          <t>Syringa reticulata</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>Kale</t>
+          <t>Javan Rhinoceros</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Brassica oleracea var. sabellica</t>
+          <t>Rhinoceros sondaicus</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>Kangaroo</t>
+          <t>Joe-Pye Weed</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Macropodidae</t>
+          <t>Eupatorium purpureum</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
         <is>
-          <t>King Penguin</t>
+          <t>Jonah Crab</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Aptenodytes patagonicus</t>
+          <t>Cancer borealis</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>King cobra</t>
+          <t>Joro Spider</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Ophiophagus hannah</t>
+          <t>Nephila clavata</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>Kingfisher</t>
+          <t>Jowar</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Alcedo atthis</t>
+          <t>Sorghum Vulgare</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>Kiwi</t>
+          <t>Jumping Spider</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Actinidia deliciosa</t>
+          <t>Salticidae</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>Koala</t>
+          <t>Junglefowl</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Phascolarctos cinereus</t>
+          <t>Gallus</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>Kohlrabi</t>
+          <t>Kadamb</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Brassica oleracea Gongylodes Group</t>
+          <t>Anthocephalus indicus</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
         <is>
-          <t>Kratt's lichen mantis</t>
+          <t>Kale</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Liturgusa krattorum</t>
+          <t>Brassica oleracea var. sabellica</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
         <is>
-          <t>Lady's Mantle</t>
+          <t>Kangaroo</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Alchemilla mollis</t>
+          <t>Macropodidae</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
         <is>
-          <t>Ladybugs</t>
+          <t>King Penguin</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Coccinellidae</t>
+          <t>Aptenodytes patagonicus</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
         <is>
-          <t>Lambs Ears</t>
+          <t>King cobra</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Stachys x</t>
+          <t>Ophiophagus hannah</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>Lamprey</t>
+          <t>Kingfisher</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Petromyzontiformes</t>
+          <t>Alcedo atthis</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>Lapwing</t>
+          <t>Kiwi</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Vanellus vanellus</t>
+          <t>Actinidia deliciosa</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>Lavender</t>
+          <t>Koala</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Lavendula angustifolia</t>
+          <t>Phascolarctos cinereus</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
         <is>
-          <t>Leek</t>
+          <t>Kohlrabi</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Allium porrum</t>
+          <t>Brassica oleracea Gongylodes Group</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>Lemon</t>
+          <t>Kratt's lichen mantis</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Citrus Limonium</t>
+          <t>Liturgusa krattorum</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
         <is>
-          <t>Lesser</t>
+          <t>Lady's Mantle</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>redpoll Carduelis cabaret</t>
+          <t>Alchemilla mollis</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
         <is>
-          <t>Lilac</t>
+          <t>Ladybugs</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Syringa vulgaris</t>
+          <t>Coccinellidae</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
         <is>
-          <t>Lily-of-the-Valley</t>
+          <t>Lambs Ears</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Convallaria majalis</t>
+          <t>Stachys x</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
         <is>
-          <t>Lime</t>
+          <t>Lamprey</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Citrus × aurantiifolia</t>
+          <t>Petromyzontiformes</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
         <is>
-          <t>Lion</t>
+          <t>Lapwing</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Panthera leo</t>
+          <t>Vanellus vanellus</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>Lobelia</t>
+          <t>Lavender</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Lobelia erinus</t>
+          <t>Lavendula angustifolia</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
         <is>
-          <t>Locust</t>
+          <t>Leek</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Schistocerca gregaria</t>
+          <t>Allium porrum</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>Long</t>
+          <t>Lemon</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>tailed tit Aegithalos caudatus</t>
+          <t>Citrus Limonium</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
         <is>
-          <t>Longan</t>
+          <t>Lesser</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Dimocarpus longan</t>
+          <t>redpoll Carduelis cabaret</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>Lychee</t>
+          <t>Lilac</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Litchi chinensis</t>
+          <t>Syringa vulgaris</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>Macaroni penguin</t>
+          <t>Lily-of-the-Valley</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Eudyptes chrysolophus</t>
+          <t>Convallaria majalis</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>Magpie</t>
+          <t>Lime</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Pica pica</t>
+          <t>Citrus × aurantiifolia</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
         <is>
-          <t>Maiden Pink</t>
+          <t>Lion</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Dianthus deltoides</t>
+          <t>Panthera leo</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
         <is>
-          <t>Maize</t>
+          <t>Lobelia</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Zea mays</t>
+          <t>Lobelia erinus</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
         <is>
-          <t>Mallard</t>
+          <t>Locust</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Anas platyrhynchos</t>
+          <t>Schistocerca gregaria</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
         <is>
-          <t>Mango</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Mangifera indica</t>
+          <t>tailed tit Aegithalos caudatus</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
         <is>
-          <t>Mangosteen</t>
+          <t>Longan</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Garcinia mangostana</t>
+          <t>Dimocarpus longan</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
         <is>
-          <t>Marigold</t>
+          <t>Lychee</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Tagetes erecta</t>
+          <t>Litchi chinensis</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
         <is>
-          <t>Meadow</t>
+          <t>Macaroni penguin</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>pipit Anthus pratensis</t>
+          <t>Eudyptes chrysolophus</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Magpie</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Cucumis melo</t>
+          <t>Pica pica</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
         <is>
-          <t>Melon Cantaloupe</t>
+          <t>Maiden Pink</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Cucumis melo var. cantalupensis</t>
+          <t>Dianthus deltoides</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
         <is>
-          <t>Million Gold</t>
+          <t>Maize</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Melampodium paludosum</t>
+          <t>Zea mays</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Mallard</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Mentha arvensis</t>
+          <t>Anas platyrhynchos</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
         <is>
-          <t>Mistle</t>
+          <t>Mango</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>thrush Turdus viscivorus</t>
+          <t>Mangifera indica</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>Moorhen</t>
+          <t>Mangosteen</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Gallinula chloropus</t>
+          <t>Garcinia mangostana</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
         <is>
-          <t>Mosquito</t>
+          <t>Marigold</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Culicidae</t>
+          <t>Tagetes erecta</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
         <is>
-          <t>Moss Phlox</t>
+          <t>Meadow</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Phlox subulata</t>
+          <t>pipit Anthus pratensis</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
         <is>
-          <t>Moss Verbena</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Verbena tenuisecta</t>
+          <t>Cucumis melo</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
         <is>
-          <t>Moths</t>
+          <t>Melon Cantaloupe</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Lepidoptera</t>
+          <t>Cucumis melo var. cantalupensis</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
         <is>
-          <t>Mulberry</t>
+          <t>Million Gold</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Morus alba</t>
+          <t>Melampodium paludosum</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
         <is>
-          <t>Mung Bean</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Vigna radiata</t>
+          <t>Mentha arvensis</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
         <is>
-          <t>Mushroom</t>
+          <t>Mistle</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Agaricus bisporus</t>
+          <t>thrush Turdus viscivorus</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
         <is>
-          <t>Napa Cabbage</t>
+          <t>Monkfish</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Brassica rapa subsp. pekinensis</t>
+          <t>Lophius americanus</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
         <is>
-          <t>Narrow-leaved Zinnia</t>
+          <t>Moorhen</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Zinnia angustifolia</t>
+          <t>Gallinula chloropus</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
         <is>
-          <t>Narwal</t>
+          <t>Mosquito</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Monodon monoceros</t>
+          <t>Culicidae</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
         <is>
-          <t>Nasturtium</t>
+          <t>Moss Phlox</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Tropaeolum majus</t>
+          <t>Phlox subulata</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
         <is>
-          <t>Nectarine</t>
+          <t>Moss Verbena</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Prunus persica var. nucipersica</t>
+          <t>Verbena tenuisecta</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
         <is>
-          <t>Neem</t>
+          <t>Moths</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Azadirachta indica</t>
+          <t>Lepidoptera</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
         <is>
-          <t>Nettle</t>
+          <t>Mulberry</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Urtica dioica</t>
+          <t>Morus alba</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
         <is>
-          <t>New England Aster</t>
+          <t>Mung Bean</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Aster novae-angliae</t>
+          <t>Vigna radiata</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
         <is>
-          <t>New Guniea Impatiens</t>
+          <t>Mushroom</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Impatiens hawkeri</t>
+          <t>Agaricus bisporus</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
         <is>
-          <t>Oak Toad</t>
+          <t>Napa Cabbage</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Anaxyrus quercicus</t>
+          <t>Brassica rapa subsp. pekinensis</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
         <is>
-          <t>Ocelot</t>
+          <t>Narrow-leaved Zinnia</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Leopardus pardalis</t>
+          <t>Zinnia angustifolia</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
         <is>
-          <t>Octopus</t>
+          <t>Narwal</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Octopoda</t>
+          <t>Monodon monoceros</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
         <is>
-          <t>Okapi</t>
+          <t>Nasturtium</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Okapia johnstoni</t>
+          <t>Tropaeolum majus</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
         <is>
-          <t>Okra</t>
+          <t>Nectarine</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Abelmoschus esculentus</t>
+          <t>Prunus persica var. nucipersica</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
         <is>
-          <t>Olive Baboon</t>
+          <t>Neem</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Papio anubis</t>
+          <t>Azadirachta indica</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="inlineStr">
         <is>
-          <t>Olm</t>
+          <t>Nettle</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Proteus anguinus</t>
+          <t>Urtica dioica</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
         <is>
-          <t>Onion</t>
+          <t>New England Aster</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Allium cepa</t>
+          <t>Aster novae-angliae</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
         <is>
-          <t>Opossum</t>
+          <t>New Guniea Impatiens</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Didelphidae</t>
+          <t>Impatiens hawkeri</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Oak Toad</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Citrus aurantium</t>
+          <t>Anaxyrus quercicus</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
         <is>
-          <t>Orange-Crowned Warbler</t>
+          <t>Ocelot</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Vermivora celata</t>
+          <t>Leopardus pardalis</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
         <is>
-          <t>Orangutans</t>
+          <t>Octopus</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Pongo</t>
+          <t>Octopoda</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
         <is>
-          <t>Orb Weaver</t>
+          <t>Okapi</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Araneidae</t>
+          <t>Okapia johnstoni</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
         <is>
-          <t>Orca</t>
+          <t>Okra</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Orcinus orca</t>
+          <t>Abelmoschus esculentus</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="inlineStr">
         <is>
-          <t>Ornamental Purslane</t>
+          <t>Olive Baboon</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Portulaca oleracea</t>
+          <t>Papio anubis</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
         <is>
-          <t>Ortolan Bunting</t>
+          <t>Olm</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Emberiza hortulana</t>
+          <t>Proteus anguinus</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
         <is>
-          <t>Oscar Fish</t>
+          <t>Onion</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Astronotus ocellatus</t>
+          <t>Allium cepa</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
         <is>
-          <t>Ostrich</t>
+          <t>Opossum</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Struthio camelus</t>
+          <t>Didelphidae</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
         <is>
-          <t>Otter</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Lutrinae</t>
+          <t>Citrus aurantium</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
         <is>
-          <t>Owl</t>
+          <t>Orange-Crowned Warbler</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Strigiformes</t>
+          <t>Vermivora celata</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="inlineStr">
         <is>
-          <t>Ox</t>
+          <t>Orangutans</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Pongo</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
         <is>
-          <t>Oyster</t>
+          <t>Orb Weaver</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Ostreidae</t>
+          <t>Araneidae</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="inlineStr">
         <is>
-          <t>Oyster Toadfish</t>
+          <t>Orca</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Opsanus tau</t>
+          <t>Orcinus orca</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
         <is>
-          <t>Oystercatcher</t>
+          <t>Oriental cockroach</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Haematopus ostralegus</t>
+          <t>Blatta orientalis</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="inlineStr">
         <is>
-          <t>Panda</t>
+          <t>Ornamental Purslane</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Ailuropoda melanoleuca</t>
+          <t>Portulaca oleracea</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="inlineStr">
         <is>
-          <t>Pangolin</t>
+          <t>Ortolan Bunting</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Pholidota</t>
+          <t>Emberiza hortulana</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="inlineStr">
         <is>
-          <t>Papaya</t>
+          <t>Oscar Fish</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Carica papaya</t>
+          <t>Astronotus ocellatus</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="inlineStr">
         <is>
-          <t>Passionfruit</t>
+          <t>Ostrich</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Passiflora edulis</t>
+          <t>Struthio camelus</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="inlineStr">
         <is>
-          <t>Pea</t>
+          <t>Otter</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Pisum sativum</t>
+          <t>Lutrinae</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
         <is>
-          <t>Peach</t>
+          <t>Owl</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Prunus persica</t>
+          <t>Strigiformes</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="inlineStr">
         <is>
-          <t>Peacock Flower (Gulmohar)</t>
+          <t>Ox</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Delonix regia rafin</t>
+          <t>Bos taurus</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="inlineStr">
         <is>
-          <t>Pear</t>
+          <t>Oyster</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Pyrus</t>
+          <t>Ostreidae</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
         <is>
-          <t>Peepal</t>
+          <t>Oyster Toadfish</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Ficus religiosa Linn.</t>
+          <t>Opsanus tau</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
         <is>
-          <t>Peony</t>
+          <t>Oystercatcher</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Paeonia Iactiflora</t>
+          <t>Haematopus ostralegus</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
         <is>
-          <t>Peregrine</t>
+          <t>Panda</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Falco peregrinus</t>
+          <t>Ailuropoda melanoleuca</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="inlineStr">
         <is>
-          <t>Persimmon</t>
+          <t>Pangolin</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Diospyros kaki</t>
+          <t>Pholidota</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
         <is>
-          <t>Petunia</t>
+          <t>Papaya</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Petunia x hybrida</t>
+          <t>Carica papaya</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="inlineStr">
         <is>
-          <t>Pheasant</t>
+          <t>Passionfruit</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Phasianus colchicus</t>
+          <t>Passiflora edulis</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="inlineStr">
         <is>
-          <t>Pied</t>
+          <t>Pea</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>wagtail Motacilla alba</t>
+          <t>Pisum sativum</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="inlineStr">
         <is>
-          <t>Pig</t>
+          <t>Peach</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Sus scrofa domesticus</t>
+          <t>Prunus persica</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="inlineStr">
         <is>
-          <t>Pineapple</t>
+          <t>Peacock Flower (Gulmohar)</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Ananus sativus</t>
+          <t>Delonix regia rafin</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="inlineStr">
         <is>
-          <t>Pink</t>
+          <t>Pear</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>footed goose Anser brachyrhynchus</t>
+          <t>Pyrus</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
         <is>
-          <t>Pink Cosmos</t>
+          <t>Peepal</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Cosmos bipinnatus</t>
+          <t>Ficus religiosa Linn.</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="inlineStr">
         <is>
-          <t>Pinwheel Zinnia</t>
+          <t>Peony</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Zinnia marylandica</t>
+          <t>Paeonia Iactiflora</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="inlineStr">
         <is>
-          <t>Plum</t>
+          <t>Peregrine</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Prunus domestica</t>
+          <t>Falco peregrinus</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="inlineStr">
         <is>
-          <t>Plumed Cockscomb</t>
+          <t>Persimmon</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Celosia agentea var. plumosa</t>
+          <t>Diospyros kaki</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="inlineStr">
         <is>
-          <t>Pomegranate</t>
+          <t>Petunia</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Punica granatum</t>
+          <t>Petunia x hybrida</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="inlineStr">
         <is>
-          <t>Pomelo</t>
+          <t>Pheasant</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Citrus maxima</t>
+          <t>Phasianus colchicus</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
         <is>
-          <t>Potato</t>
+          <t>Pied</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Solanum tuberosum</t>
+          <t>wagtail Motacilla alba</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="inlineStr">
         <is>
-          <t>Prairie Gayfeather</t>
+          <t>Pig</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Liatris spicata</t>
+          <t>Sus scrofa domesticus</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="inlineStr">
         <is>
-          <t>Praying Mantids</t>
+          <t>Pineapple</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Mantodea</t>
+          <t>Ananus sativus</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="inlineStr">
         <is>
-          <t>Pumpkin</t>
+          <t>Pink</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Cucurbita</t>
+          <t>footed goose Anser brachyrhynchus</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="inlineStr">
         <is>
-          <t>Purple Coneflower</t>
+          <t>Pink Cosmos</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Echinacea purpurea</t>
+          <t>Cosmos bipinnatus</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="inlineStr">
         <is>
-          <t>Purple Millet</t>
+          <t>Pinwheel Zinnia</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Pennisetum glaucum</t>
+          <t>Zinnia marylandica</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="inlineStr">
         <is>
-          <t>Purple orchid tree (Kachnar)</t>
+          <t>Plum</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Bauhinia purpurea</t>
+          <t>Prunus domestica</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="inlineStr">
         <is>
-          <t>Quagga</t>
+          <t>Plumed Cockscomb</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Equus quagga quagga</t>
+          <t>Celosia agentea var. plumosa</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="inlineStr">
         <is>
-          <t>Quail</t>
+          <t>Pomegranate</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Coturnix coturnix</t>
+          <t>Punica granatum</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="inlineStr">
         <is>
-          <t>Queen snake</t>
+          <t>Pomelo</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Regina septemvittata</t>
+          <t>Citrus maxima</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="inlineStr">
         <is>
-          <t>Quince</t>
+          <t>Potato</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Cydonia oblonga</t>
+          <t>Solanum tuberosum</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
         <is>
-          <t>Quokka</t>
+          <t>Prairie Gayfeather</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Setonix brachyurus</t>
+          <t>Liatris spicata</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="inlineStr">
         <is>
-          <t>Quoll</t>
+          <t>Praying Mantids</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Dasyurus</t>
+          <t>Mantodea</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
         <is>
-          <t>Radish</t>
+          <t>Pumpkin</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Raphanus sativus</t>
+          <t>Cucurbita</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="inlineStr">
         <is>
-          <t>Rambutan</t>
+          <t>Purple Coneflower</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Nephelium lappaceum</t>
+          <t>Echinacea purpurea</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="inlineStr">
         <is>
-          <t>Raspberry</t>
+          <t>Purple Millet</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Rubus idaeus</t>
+          <t>Pennisetum glaucum</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="inlineStr">
         <is>
-          <t>Rat snake</t>
+          <t>Purple orchid tree (Kachnar)</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Ptyas mucosa</t>
+          <t>Bauhinia purpurea</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
         <is>
-          <t>Raven</t>
+          <t>Quagga</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Corvus corax</t>
+          <t>Equus quagga quagga</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Quail</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>kite Milvus milvus</t>
+          <t>Coturnix coturnix</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
         <is>
-          <t>Red Cabbage</t>
+          <t>Queen snake</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Brassica oleracea var. capitata f. rubra</t>
+          <t>Regina septemvittata</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
         <is>
-          <t>Red Chili</t>
+          <t>Quince</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Capsicum annuum</t>
+          <t>Cydonia oblonga</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
         <is>
-          <t>Red fox</t>
+          <t>Quokka</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Vulpes Vulpes</t>
+          <t>Setonix brachyurus</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
         <is>
-          <t>Red maple</t>
+          <t>Quoll</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Acer rubrum</t>
+          <t>Dasyurus</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
         <is>
-          <t>Red-hot Poker</t>
+          <t>Radish</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Kniphofia uvaria</t>
+          <t>Raphanus sativus</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
         <is>
-          <t>Redstart</t>
+          <t>Rambutan</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Phoenicurus phoenicurus</t>
+          <t>Nephelium lappaceum</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
         <is>
-          <t>Redwing</t>
+          <t>Raspberry</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Turdus iliacus</t>
+          <t>Rubus idaeus</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
         <is>
-          <t>Reed</t>
+          <t>Rat snake</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>bunting Emberiza schoeniclus</t>
+          <t>Ptyas mucosa</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Raven</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Oryza sativa</t>
+          <t>Corvus corax</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
         <is>
-          <t>River Birch</t>
+          <t>Red Cabbage</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Betula nigra</t>
+          <t>Brassica oleracea var. capitata f. rubra</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
         <is>
-          <t>Robin</t>
+          <t>Red Chili</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Erithacus rubecula</t>
+          <t>Capsicum annuum</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
         <is>
-          <t>Rook</t>
+          <t>Red Kite</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Corvus frugilegus</t>
+          <t>kite Milvus milvus</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
         <is>
-          <t>Rose</t>
+          <t>Red fox</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Vulpes Vulpes</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
         <is>
-          <t>Rose Apple</t>
+          <t>Red maple</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Syzygium jambos</t>
+          <t>Acer rubrum</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
         <is>
-          <t>Rose Campion</t>
+          <t>Red-hot Poker</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Lychnis coronaria</t>
+          <t>Kniphofia uvaria</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
         <is>
-          <t>Rose Moss</t>
+          <t>Redstart</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Portulaca grandiflora</t>
+          <t>Phoenicurus phoenicurus</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
         <is>
-          <t>Russian Sage</t>
+          <t>Redwing</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Perovskia atriplicifolia</t>
+          <t>Turdus iliacus</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
         <is>
-          <t>Salvia May Night</t>
+          <t>Reed</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Salvia nemerosa</t>
+          <t>bunting Emberiza schoeniclus</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
         <is>
-          <t>Sandalwood</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Santalum album</t>
+          <t>Oryza sativa</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="inlineStr">
         <is>
-          <t>Saola</t>
+          <t>River Birch</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Pseudoryx nghetinhensis</t>
+          <t>Betula nigra</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="inlineStr">
         <is>
-          <t>Saucer Magnolia</t>
+          <t>Robin</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Magnolia x soulangiana</t>
+          <t>Erithacus rubecula</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="inlineStr">
         <is>
-          <t>Sea Holly</t>
+          <t>Rook</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Eryngium amethystinum</t>
+          <t>Corvus frugilegus</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="inlineStr">
         <is>
-          <t>Sea Lions</t>
+          <t>Rose</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Hydrurga leptonyx</t>
+          <t>Rosa</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="inlineStr">
         <is>
-          <t>Shasta Daisy</t>
+          <t>Rose Apple</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Leucanthemum x superbum</t>
+          <t>Syzygium jambos</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="inlineStr">
         <is>
-          <t>Sheep</t>
+          <t>Rose Campion</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Ovis aries</t>
+          <t>Lychnis coronaria</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="inlineStr">
         <is>
-          <t>Showy Stonecrop</t>
+          <t>Rose Moss</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Sedum spectabile</t>
+          <t>Portulaca grandiflora</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="inlineStr">
         <is>
-          <t>Siberian Iris</t>
+          <t>Russian Sage</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Iris sibirica</t>
+          <t>Perovskia atriplicifolia</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="inlineStr">
         <is>
-          <t>Siebold Hosta</t>
+          <t>Sailfish</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Hosta sieboldiana</t>
+          <t>Istiophorus platypterus</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="inlineStr">
         <is>
-          <t>Siebold viburnum</t>
+          <t>Salvia May Night</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Viburnum sieboldii</t>
+          <t>Salvia nemerosa</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="inlineStr">
         <is>
-          <t>Silkworms</t>
+          <t>Sandalwood</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Bombyx mori</t>
+          <t>Santalum album</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="inlineStr">
         <is>
-          <t>Silver Oak</t>
+          <t>Saola</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Grevillea robusta</t>
+          <t>Pseudoryx nghetinhensis</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="inlineStr">
         <is>
-          <t>Silverfish</t>
+          <t>Saucer Magnolia</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Lepisma saccharina</t>
+          <t>Magnolia x soulangiana</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="inlineStr">
         <is>
-          <t>Siskin</t>
+          <t>Sea Holly</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Carduelis spinus</t>
+          <t>Eryngium amethystinum</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="inlineStr">
         <is>
-          <t>Skylark</t>
+          <t>Sea Lions</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Alauda arvensis</t>
+          <t>Hydrurga leptonyx</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="inlineStr">
         <is>
-          <t>Snail</t>
+          <t>Sea Strawberry</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Gastropoda</t>
+          <t>Aplidium elegans</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="inlineStr">
         <is>
-          <t>Snakefly</t>
+          <t>Shasta Daisy</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Raphidioptera</t>
+          <t>Leucanthemum x superbum</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="inlineStr">
         <is>
-          <t>Snapdragon</t>
+          <t>Sheep</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Antirrhinum majus</t>
+          <t>Ovis aries</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="inlineStr">
         <is>
-          <t>Snipe</t>
+          <t>Showy Stonecrop</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Gallinago gallinago</t>
+          <t>Sedum spectabile</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="inlineStr">
         <is>
-          <t>Snow-in-Summer</t>
+          <t>Siberian Iris</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Cerastium tomentosum</t>
+          <t>Iris sibirica</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="inlineStr">
         <is>
-          <t>Solcito Zinnia</t>
+          <t>Siebold Hosta</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Zinnia maritima 'Solcito'</t>
+          <t>Hosta sieboldiana</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>Siebold viburnum</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>thrush Turdus philomelos</t>
+          <t>Viburnum sieboldii</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="inlineStr">
         <is>
-          <t>Soursop</t>
+          <t>Silkworms</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Annona muricata</t>
+          <t>Bombyx mori</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="inlineStr">
         <is>
-          <t>Southern rockhopper penguin</t>
+          <t>Silver Oak</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Eudyptes chrysocome</t>
+          <t>Grevillea robusta</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="inlineStr">
         <is>
-          <t>Soya bean</t>
+          <t>Silverfish</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Glycine max</t>
+          <t>Lepisma saccharina</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="inlineStr">
         <is>
-          <t>Sparrowhawk</t>
+          <t>Singapore Cockroach</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Accipiter nisus</t>
+          <t>Nocticola pheromosa</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="inlineStr">
         <is>
-          <t>Sperm Whale</t>
+          <t>Siskin</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Physeter macrocephalus</t>
+          <t>Carduelis spinus</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="inlineStr">
         <is>
-          <t>Spice bush</t>
+          <t>Skylark</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Lindera benzoin</t>
+          <t>Alauda arvensis</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="inlineStr">
         <is>
-          <t>Spider Flower</t>
+          <t>Snail</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Cleome hassleriana</t>
+          <t>Gastropoda</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="inlineStr">
         <is>
-          <t>Spinach</t>
+          <t>Snakefly</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Lactuca sativa</t>
+          <t>Raphidioptera</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="inlineStr">
         <is>
-          <t>Spotted</t>
+          <t>Snapdragon</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>flycatcher Muscicapa striata</t>
+          <t>Antirrhinum majus</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="inlineStr">
         <is>
-          <t>Spring Onion</t>
+          <t>Snipe</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Allium fistulosum</t>
+          <t>Gallinago gallinago</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="inlineStr">
         <is>
-          <t>Squash</t>
+          <t>Snow-in-Summer</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Cucurbita</t>
+          <t>Cerastium tomentosum</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="inlineStr">
         <is>
-          <t>Squid</t>
+          <t>Solcito Zinnia</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Decapodiformes</t>
+          <t>Zinnia maritima 'Solcito'</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="inlineStr">
         <is>
-          <t>Squirrel</t>
+          <t>Song</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Sciuridae</t>
+          <t>thrush Turdus philomelos</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="inlineStr">
         <is>
-          <t>Star Apple</t>
+          <t>Soursop</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Chrysophyllum cainito</t>
+          <t>Annona muricata</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="inlineStr">
         <is>
-          <t>Starfish</t>
+          <t>Southern rockhopper penguin</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Asteroidea</t>
+          <t>Eudyptes chrysocome</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="inlineStr">
         <is>
-          <t>Starling</t>
+          <t>Soya bean</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Sturnus vulgaris</t>
+          <t>Glycine max</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="inlineStr">
         <is>
-          <t>Stiletto Hybrid Hosta</t>
+          <t>Sparrowhawk</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Hosta 'Stiletto'</t>
+          <t>Accipiter nisus</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="inlineStr">
         <is>
-          <t>Stink Bugs</t>
+          <t>Sperm Whale</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Halyomorpha halys</t>
+          <t>Physeter macrocephalus</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="inlineStr">
         <is>
-          <t>Stock</t>
+          <t>Spice bush</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>dove Columba oenas</t>
+          <t>Lindera benzoin</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="inlineStr">
         <is>
-          <t>Stonechat</t>
+          <t>Spider Flower</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Saxicola torquata</t>
+          <t>Cleome hassleriana</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="inlineStr">
         <is>
-          <t>Strawberry</t>
+          <t>Spinach</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Fragaria × ananassa</t>
+          <t>Lactuca sativa</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="inlineStr">
         <is>
-          <t>Striped Hynea</t>
+          <t>Spotted</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Hyaena hyaena</t>
+          <t>flycatcher Muscicapa striata</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="inlineStr">
         <is>
-          <t>Sturgeon</t>
+          <t>Spring Onion</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Acipenseridae</t>
+          <t>Allium fistulosum</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="inlineStr">
         <is>
-          <t>Sugar Maple</t>
+          <t>Squash</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Acer saccharum</t>
+          <t>Cucurbita</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="inlineStr">
         <is>
-          <t>Summer Snapdragon</t>
+          <t>Squid</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Angelonia angustifolia</t>
+          <t>Decapodiformes</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="inlineStr">
         <is>
-          <t>Sun and Substance Hybrid Hosta</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Hosta 'Sun and Substance'</t>
+          <t>Sciuridae</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="inlineStr">
         <is>
-          <t>Sunfish</t>
+          <t>Star Apple</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Mola mola</t>
+          <t>Chrysophyllum cainito</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="inlineStr">
         <is>
-          <t>Sunflower</t>
+          <t>Starfish</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Helianthus annuus</t>
+          <t>Asteroidea</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="inlineStr">
         <is>
-          <t>Swallow</t>
+          <t>Starling</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Hirundo rustica</t>
+          <t>Sturnus vulgaris</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="inlineStr">
         <is>
-          <t>Swede/ Rutabaga</t>
+          <t>Starry Pufferfish</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Brassica napus Napobrassica Group</t>
+          <t>Arothron stellatus</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="inlineStr">
         <is>
-          <t>Sweet Alyssum</t>
+          <t>Stiletto Hybrid Hosta</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Lobularia maritima</t>
+          <t>Hosta 'Stiletto'</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="inlineStr">
         <is>
-          <t>Sweet Potato</t>
+          <t>Stink Bugs</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Ipomoea batatas</t>
+          <t>Halyomorpha halys</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="inlineStr">
         <is>
-          <t>Swordfish</t>
+          <t>Stock</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Xiphias gladius</t>
+          <t>dove Columba oenas</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="inlineStr">
         <is>
-          <t>Tall Verbena</t>
+          <t>Stonechat</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Verbena bonariensis</t>
+          <t>Saxicola torquata</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="inlineStr">
         <is>
-          <t>Tamarillo</t>
+          <t>Strawberry</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Solanum betaceum</t>
+          <t>Fragaria × ananassa</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="inlineStr">
         <is>
-          <t>Tamarind tree</t>
+          <t>Striped Hynea</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Tamarindus indica</t>
+          <t>Hyaena hyaena</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="inlineStr">
         <is>
-          <t>Tangerine</t>
+          <t>Sturgeon</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Citrus reticulata</t>
+          <t>Acipenseridae</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="inlineStr">
         <is>
-          <t>Taro</t>
+          <t>Sugar Maple</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Colocasia esculenta</t>
+          <t>Acer saccharum</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="inlineStr">
         <is>
-          <t>Teak</t>
+          <t>Summer Snapdragon</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Tectona grandis Linn.</t>
+          <t>Angelonia angustifolia</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="inlineStr">
         <is>
-          <t>Termites</t>
+          <t>Sun and Substance Hybrid Hosta</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Isoptera</t>
+          <t>Hosta 'Sun and Substance'</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="inlineStr">
         <is>
-          <t>Texas Sage</t>
+          <t>Sunfish</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Salvia coccinea</t>
+          <t>Mola mola</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="inlineStr">
         <is>
-          <t>Thread-leaf Tickseed</t>
+          <t>Sunflower</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Coreopsis verticillata</t>
+          <t>Helianthus annuus</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="inlineStr">
         <is>
-          <t>Tick</t>
+          <t>Swallow</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Ixodida</t>
+          <t>Hirundo rustica</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="inlineStr">
         <is>
-          <t>Tiger</t>
+          <t>Swede/ Rutabaga</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Panthera tigris</t>
+          <t>Brassica napus Napobrassica Group</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="inlineStr">
         <is>
-          <t>Tiger Shark</t>
+          <t>Sweet Alyssum</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Galeocerdo cuvier</t>
+          <t>Lobularia maritima</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="inlineStr">
         <is>
-          <t>Tobacco</t>
+          <t>Sweet Potato</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Nicotina tobaccum</t>
+          <t>Ipomoea batatas</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="inlineStr">
         <is>
-          <t>Tomato</t>
+          <t>Swordfish</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Lycopersicon esculentum</t>
+          <t>Xiphias gladius</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="inlineStr">
         <is>
-          <t>Tree</t>
+          <t>Tall Verbena</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>pipit Anthus trivialis</t>
+          <t>Verbena bonariensis</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="inlineStr">
         <is>
-          <t>Treecreeper</t>
+          <t>Tamarillo</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Certhia familiaris</t>
+          <t>Solanum betaceum</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="inlineStr">
         <is>
-          <t>Tuberous-rooted Begonia</t>
+          <t>Tamarind tree</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Begonia x tuberhybrida</t>
+          <t>Tamarindus indica</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="inlineStr">
         <is>
-          <t>Tufted</t>
+          <t>Tangerine</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>duck Aythya fuligula</t>
+          <t>Citrus reticulata</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="inlineStr">
         <is>
-          <t>Tulsi</t>
+          <t>Taro</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Ocimum sanctum</t>
+          <t>Colocasia esculenta</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="inlineStr">
         <is>
-          <t>Tuna</t>
+          <t>Teak</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Thunnini</t>
+          <t>Tectona grandis Linn.</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="inlineStr">
         <is>
-          <t>Turmeric</t>
+          <t>Termites</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Curcuma longa</t>
+          <t>Isoptera</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="inlineStr">
         <is>
-          <t>Turnip</t>
+          <t>Texas Sage</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Brassica rapa subsp. rapa</t>
+          <t>Salvia coccinea</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="inlineStr">
         <is>
-          <t>Uakari</t>
+          <t>Thread-leaf Tickseed</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Cacajao</t>
+          <t>Coreopsis verticillata</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="inlineStr">
         <is>
-          <t>Uchuva</t>
+          <t>Tick</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Physalis peruviana</t>
+          <t>Ixodida</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="inlineStr">
         <is>
-          <t>Uguisu</t>
+          <t>Tiger</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Horornis diphone</t>
+          <t>Panthera tigris</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="inlineStr">
         <is>
-          <t>Uinta Ground Squirrel</t>
+          <t>Tiger Shark</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Urocitellus armatus</t>
+          <t>Galeocerdo cuvier</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="inlineStr">
         <is>
-          <t>Umbrellabird</t>
+          <t>Tobacco</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Cephalopterus</t>
+          <t>Nicotina tobaccum</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="inlineStr">
         <is>
-          <t>Unau</t>
+          <t>Tomato</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Choloepus didactylus</t>
+          <t>Lycopersicon esculentum</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="inlineStr">
         <is>
-          <t>Ural owl</t>
+          <t>Tree</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Strix uralensis</t>
+          <t>pipit Anthus trivialis</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="inlineStr">
         <is>
-          <t>Vampire Bat</t>
+          <t>Treecreeper</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Desmodontinae</t>
+          <t>Certhia familiaris</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="inlineStr">
         <is>
-          <t>Vampire Squid</t>
+          <t>Tuberous-rooted Begonia</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Vampyroteuthis infernalis</t>
+          <t>Begonia x tuberhybrida</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="inlineStr">
         <is>
-          <t>Vaquita</t>
+          <t>Tufted</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Phocoena sinus</t>
+          <t>duck Aythya fuligula</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="inlineStr">
         <is>
-          <t>Variegated Solomon's Seal</t>
+          <t>Tulsi</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Polygonatum odoratum</t>
+          <t>Ocimum sanctum</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="inlineStr">
         <is>
-          <t>Venus Flytrap</t>
+          <t>Tuna</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Dionaea muscipula</t>
+          <t>Thunnini</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="inlineStr">
         <is>
-          <t>Vervet Monkey</t>
+          <t>Turmeric</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Chlorocebus pygerythrus</t>
+          <t>Curcuma longa</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="inlineStr">
         <is>
-          <t>VicuÃ±a</t>
+          <t>Turnip</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Vicugna vicugna</t>
+          <t>Brassica rapa subsp. rapa</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="inlineStr">
         <is>
-          <t>Vinegaroon</t>
+          <t>Uakari</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Uropygi</t>
+          <t>Cacajao</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="inlineStr">
         <is>
-          <t>Viper shark (dogfish)</t>
+          <t>Uchuva</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Trigonognathus kabeyai</t>
+          <t>Physalis peruviana</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="inlineStr">
         <is>
-          <t>Virgin Islands Dwarf Gecko</t>
+          <t>Uguisu</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Sphaerodactylus parthenopion</t>
+          <t>Horornis diphone</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="inlineStr">
         <is>
-          <t>Walrus</t>
+          <t>Uinta Ground Squirrel</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Odobenus rosmarus</t>
+          <t>Urocitellus armatus</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="inlineStr">
         <is>
-          <t>Wasp</t>
+          <t>Umbrellabird</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Vespa</t>
+          <t>Cephalopterus</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="inlineStr">
         <is>
-          <t>Wasps</t>
+          <t>Unau</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Vespidae</t>
+          <t>Choloepus didactylus</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="inlineStr">
         <is>
-          <t>Water Buffalo</t>
+          <t>Upside Down Jellyfish</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Bubalus bubalis</t>
+          <t>Cassiopeia andromeda</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="inlineStr">
         <is>
-          <t>Watermelon</t>
+          <t>Ural owl</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Citrullus vulgaris</t>
+          <t>Strix uralensis</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="inlineStr">
         <is>
-          <t>Wavy-leaved Hosta</t>
+          <t>Vampire Bat</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Hosta undulata</t>
+          <t>Desmodontinae</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="inlineStr">
         <is>
-          <t>Wax Begonia</t>
+          <t>Vampire Squid</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Begonia x semperflorens-cultorum</t>
+          <t>Vampyroteuthis infernalis</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="inlineStr">
         <is>
-          <t>Whale Shark</t>
+          <t>Vaquita</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Rhincodon typus</t>
+          <t>Phocoena sinus</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="inlineStr">
         <is>
-          <t>Wheat Cockscomb</t>
+          <t>Variegated Solomon's Seal</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Celosia agentea var. spicata</t>
+          <t>Polygonatum odoratum</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="inlineStr">
         <is>
-          <t>Wheatear</t>
+          <t>Venus Flytrap</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Oenanthe oenanthe</t>
+          <t>Dionaea muscipula</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="inlineStr">
         <is>
-          <t>Whinchat</t>
+          <t>Vervet Monkey</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Saxicola rubetra</t>
+          <t>Chlorocebus pygerythrus</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="inlineStr">
         <is>
-          <t>White Cabbage</t>
+          <t>VicuÃ±a</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Brassica oleracea var. capitata</t>
+          <t>Vicugna vicugna</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="inlineStr">
         <is>
-          <t>Whitethroat</t>
+          <t>Vinegaroon</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Sylvia communis</t>
+          <t>Uropygi</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wild Turkey </t>
+          <t>Viper shark (dogfish)</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Meleagris gallopavo</t>
+          <t>Trigonognathus kabeyai</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="inlineStr">
         <is>
-          <t>Willow</t>
+          <t>Virgin Islands Dwarf Gecko</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>warbler Phylloscopus trochilus</t>
+          <t>Sphaerodactylus parthenopion</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="inlineStr">
         <is>
-          <t>Wolf</t>
+          <t>Walrus</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Canis lupus</t>
+          <t>Odobenus rosmarus</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="inlineStr">
         <is>
-          <t>Wombat</t>
+          <t>Wasp</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Vombatus ursinus</t>
+          <t>Vespa</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="inlineStr">
         <is>
-          <t>Wood</t>
+          <t>Wasps</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>warbler Phylloscopus sibilatrix</t>
+          <t>Vespidae</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="inlineStr">
         <is>
-          <t>Woodpigeon</t>
+          <t>Water Buffalo</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Columba palumbus</t>
+          <t>Bubalus bubalis</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="inlineStr">
         <is>
-          <t>Wren</t>
+          <t>Watermelon</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Troglodytes troglodytes</t>
+          <t>Citrullus vulgaris</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="inlineStr">
         <is>
-          <t>X-Ray Tetra</t>
+          <t>Wavy-leaved Hosta</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Pristella maxillaris</t>
+          <t>Hosta undulata</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="inlineStr">
         <is>
-          <t>Yak</t>
+          <t>Wax Begonia</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Bos grunniens</t>
+          <t>Begonia x semperflorens-cultorum</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="inlineStr">
         <is>
-          <t>Yam</t>
+          <t>Whale Shark</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Dioscorea</t>
+          <t>Rhincodon typus</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="inlineStr">
         <is>
-          <t>Yarrow</t>
+          <t>Wheat Cockscomb</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Achillea millefolium</t>
+          <t>Celosia agentea var. spicata</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="inlineStr">
         <is>
-          <t>Yellow Cosmos</t>
+          <t>Wheatear</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Cosmos sulphureus</t>
+          <t>Oenanthe oenanthe</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="inlineStr">
         <is>
-          <t>Yellow Sac Spider</t>
+          <t>Whinchat</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Cheiracanthium inclusum</t>
+          <t>Saxicola rubetra</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="inlineStr">
         <is>
-          <t>Yellow Spotted Lizard</t>
+          <t>White Cabbage</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Lepidophyma flavimaculatum</t>
+          <t>Brassica oleracea var. capitata</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="inlineStr">
         <is>
-          <t>Yellow-Eyed Penguin</t>
+          <t>White marlin</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Megadyptes antipodes</t>
+          <t>Kajikia albida</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="inlineStr">
         <is>
-          <t>Yellowfin Tuna</t>
+          <t>Whitethroat</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Thunnus albacares</t>
+          <t>Sylvia communis</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="inlineStr">
         <is>
-          <t>Yellowhammer</t>
+          <t xml:space="preserve">Wild Turkey </t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Emberiza citrinella</t>
+          <t>Meleagris gallopavo</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="inlineStr">
         <is>
-          <t>Yeti Crab</t>
+          <t>Willow</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Kiwa hirsuta</t>
+          <t>warbler Phylloscopus trochilus</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="inlineStr">
         <is>
-          <t>Zebra</t>
+          <t>Wolf</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Equus quagga</t>
+          <t>Canis lupus</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="inlineStr">
         <is>
-          <t>Zebra Finch</t>
+          <t>Wombat</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Taeniopygia guttata castanotis</t>
+          <t>Vombatus ursinus</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="inlineStr">
         <is>
-          <t>Zebra Mussels</t>
+          <t>Wood</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Dreissena polymorpha</t>
+          <t>warbler Phylloscopus sibilatrix</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="inlineStr">
         <is>
-          <t>Zebra Pleco</t>
+          <t>Woodpigeon</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Hypancistrus zebra</t>
+          <t>Columba palumbus</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="inlineStr">
         <is>
-          <t>Zebra Shark</t>
+          <t>Wren</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Stegostoma fasciatum</t>
+          <t>Troglodytes troglodytes</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="inlineStr">
         <is>
-          <t>Zebu</t>
+          <t>X-Ray Tetra</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Bos taurus indicus</t>
+          <t>Pristella maxillaris</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="inlineStr">
         <is>
-          <t>Zonal Geranium</t>
+          <t>Yak</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Pelargonium x hortorum</t>
+          <t>Bos grunniens</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="inlineStr">
         <is>
-          <t>Zonkey</t>
+          <t>Yam</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Equus zebra x Equus asinus</t>
+          <t>Dioscorea</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="inlineStr">
         <is>
-          <t>Zorse</t>
+          <t>Yarrow</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Equus zebra x Equus caballus</t>
+          <t>Achillea millefolium</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="inlineStr">
         <is>
-          <t>chokeberry</t>
+          <t>Yellow Cosmos</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Aronia arbutifolia</t>
+          <t>Cosmos sulphureus</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="inlineStr">
         <is>
-          <t>oakleaf hydrangea</t>
+          <t>Yellow Sac Spider</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Hydrangea quercifolia</t>
+          <t>Cheiracanthium inclusum</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="inlineStr">
         <is>
-          <t>smoketree</t>
+          <t>Yellow Spotted Lizard</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Cotinus coggygria</t>
+          <t>Lepidophyma flavimaculatum</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="inlineStr">
         <is>
+          <t>Yellow-Eyed Penguin</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Megadyptes antipodes</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>Yellowfin Tuna</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Thunnus albacares</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>Yellowhammer</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Emberiza citrinella</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>Yeti Crab</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Kiwa hirsuta</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>Zebra</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Equus quagga</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Finch</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Taeniopygia guttata castanotis</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Mussels</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Dreissena polymorpha</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Pleco</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Hypancistrus zebra</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="inlineStr">
+        <is>
+          <t>Zebra Shark</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Stegostoma fasciatum</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="inlineStr">
+        <is>
+          <t>Zebu</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Bos taurus indicus</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="inlineStr">
+        <is>
+          <t>Zonal Geranium</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Pelargonium x hortorum</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="inlineStr">
+        <is>
+          <t>Zonkey</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Equus zebra x Equus asinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="inlineStr">
+        <is>
+          <t>Zorse</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Equus zebra x Equus caballus</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="inlineStr">
+        <is>
+          <t>chokeberry</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Aronia arbutifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="inlineStr">
+        <is>
+          <t>oakleaf hydrangea</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Hydrangea quercifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="inlineStr">
+        <is>
+          <t>smoketree</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Cotinus coggygria</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="inlineStr">
+        <is>
           <t>thornless honeylocust</t>
         </is>
       </c>
-      <c r="B652" t="inlineStr">
+      <c r="B668" t="inlineStr">
         <is>
           <t>Gleditsia tricanthos f. inermis</t>
         </is>
